--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="314">
   <si>
     <t>Doi</t>
   </si>
@@ -1245,6 +1245,12 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,       Jiu-ling%Tuo%NULL%1,       Xu-bin%Huang%NULL%1,       Xun%Zhu%NULL%1,       Ding-mei%Zhang%NULL%1,       Kai%Zhou%NULL%1,       Lei%Yuan%NULL%1,       Hong-jiao%Luo%NULL%1,       Bo-jian%Zheng%NULL%1,       Kwok-yung%Yuen%NULL%1,       Meng-feng%Li%NULL%1,       Kai-yuan%Cao%NULL%1,       Lin%Xu%NULL%1,       Stefan%Pöhlmann%NULL%1,      Su-fen%Zhang%NULL%1,      Jiu-ling%Tuo%NULL%1,      Xu-bin%Huang%NULL%1,      Xun%Zhu%NULL%1,      Ding-mei%Zhang%NULL%1,      Kai%Zhou%NULL%1,      Lei%Yuan%NULL%1,      Hong-jiao%Luo%NULL%1,      Bo-jian%Zheng%NULL%1,      Kwok-yung%Yuen%NULL%1,      Meng-feng%Li%NULL%1,      Kai-yuan%Cao%NULL%1,      Lin%Xu%NULL%1,      Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,      Rachel M%Reeves%null%1,      Xin%Wang%null%1,      Quique%Bassat%null%1,      W Abdullah%Brooks%null%1,      Cheryl%Cohen%null%1,      David P%Moore%null%1,      Marta%Nunes%null%1,      Barbara%Rath%null%1,      Harry%Campbell%null%1,      Harish%Nair%null%1,      Sozinho%Acacio%null%1,      Wladimir J%Alonso%null%1,      Martin%Antonio%null%1,      Guadalupe%Ayora Talavera%null%1,      Darmaa%Badarch%null%1,      Vicky L%Baillie%null%1,      Gisela%Barrera-Badillo%null%1,      Godfrey%Bigogo%null%1,      Shobha%Broor%null%1,      Dana%Bruden%null%1,      Philippe%Buchy%null%1,      Peter%Byass%null%1,      James%Chipeta%null%1,      Wilfrido%Clara%null%1,      Duc-Anh%Dang%null%1,      Carla Cecília%de Freitas Lázaro Emediato%null%1,      Menno%de Jong%null%1,      José Alberto%Díaz-Quiñonez%null%1,      Lien Anh Ha%Do%null%1,      Rodrigo A%Fasce%null%1,      Luzhao%Feng%null%1,      Mark J%Ferson%null%1,      Angela%Gentile%null%1,      Bradford D%Gessner%null%1,      Doli%Goswami%null%1,      Sophie%Goyet%null%1,      Carlos G%Grijalva%null%1,      Natasha%Halasa%null%1,      Orienka%Hellferscee%null%1,      Danielle%Hessong%null%1,      Nusrat%Homaira%null%1,      Jorge%Jara%null%1,      Kathleen%Kahn%null%1,      Najwa%Khuri-Bulos%null%1,      Karen L%Kotloff%null%1,      Claudio F%Lanata%null%1,      Olga%Lopez%null%1,      Maria Renee%Lopez Bolaños%null%1,      Marilla G%Lucero%null%1,      Florencia%Lucion%null%1,      Socorro P%Lupisan%null%1,      Shabir A%Madhi%null%1,      Omphile%Mekgoe%null%1,      Cinta%Moraleda%null%1,      Jocelyn%Moyes%null%1,      Kim%Mulholland%null%1,      Patrick K%Munywoki%null%1,      Fathima%Naby%null%1,      Thanh Hung%Nguyen%null%1,      Mark P%Nicol%null%1,      D James%Nokes%null%1,      Daniel E%Noyola%null%1,      Daisuke%Onozuka%null%1,      Nandhini%Palani%null%1,      Yong%Poovorawan%null%1,      Mustafizur%Rahman%null%1,      Kaat%Ramaekers%null%1,      Candice%Romero%null%1,      Elizabeth P%Schlaudecker%null%1,      Brunhilde%Schweiger%null%1,      Phil%Seidenberg%null%1,      Eric A F%Simoes%null%1,      Rosalyn%Singleton%null%1,      Sujatha%Sistla%null%1,      Katharine%Sturm-Ramirez%null%1,      Nungruthai%Suntronwong%null%1,      Agustinus%Sutanto%null%1,      Milagritos D%Tapia%null%1,      Somsak%Thamthitiwat%null%1,      Ilada%Thongpan%null%1,      Gayani%Tillekeratne%null%1,      Yeny O%Tinoco%null%1,      Florette K%Treurnicht%null%1,      Claudia%Turner%null%1,      Paul%Turner%null%1,      Rogier%van Doorn%null%1,      Marc%Van Ranst%null%2,      Benoit%Visseaux%null%1,      Sunthareeya%Waicharoen%null%1,      Jianwei%Wang%null%1,      Lay-Myint%Yoshida%null%1,      Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1572,13 +1578,13 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="H2" t="s">
         <v>198</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="312">
   <si>
     <t>Doi</t>
   </si>
@@ -1245,12 +1245,6 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,       Jiu-ling%Tuo%NULL%1,       Xu-bin%Huang%NULL%1,       Xun%Zhu%NULL%1,       Ding-mei%Zhang%NULL%1,       Kai%Zhou%NULL%1,       Lei%Yuan%NULL%1,       Hong-jiao%Luo%NULL%1,       Bo-jian%Zheng%NULL%1,       Kwok-yung%Yuen%NULL%1,       Meng-feng%Li%NULL%1,       Kai-yuan%Cao%NULL%1,       Lin%Xu%NULL%1,       Stefan%Pöhlmann%NULL%1,      Su-fen%Zhang%NULL%1,      Jiu-ling%Tuo%NULL%1,      Xu-bin%Huang%NULL%1,      Xun%Zhu%NULL%1,      Ding-mei%Zhang%NULL%1,      Kai%Zhou%NULL%1,      Lei%Yuan%NULL%1,      Hong-jiao%Luo%NULL%1,      Bo-jian%Zheng%NULL%1,      Kwok-yung%Yuen%NULL%1,      Meng-feng%Li%NULL%1,      Kai-yuan%Cao%NULL%1,      Lin%Xu%NULL%1,      Stefan%Pöhlmann%NULL%1]</t>
-  </si>
-  <si>
-    <t>[ You%Li%null%1,      Rachel M%Reeves%null%1,      Xin%Wang%null%1,      Quique%Bassat%null%1,      W Abdullah%Brooks%null%1,      Cheryl%Cohen%null%1,      David P%Moore%null%1,      Marta%Nunes%null%1,      Barbara%Rath%null%1,      Harry%Campbell%null%1,      Harish%Nair%null%1,      Sozinho%Acacio%null%1,      Wladimir J%Alonso%null%1,      Martin%Antonio%null%1,      Guadalupe%Ayora Talavera%null%1,      Darmaa%Badarch%null%1,      Vicky L%Baillie%null%1,      Gisela%Barrera-Badillo%null%1,      Godfrey%Bigogo%null%1,      Shobha%Broor%null%1,      Dana%Bruden%null%1,      Philippe%Buchy%null%1,      Peter%Byass%null%1,      James%Chipeta%null%1,      Wilfrido%Clara%null%1,      Duc-Anh%Dang%null%1,      Carla Cecília%de Freitas Lázaro Emediato%null%1,      Menno%de Jong%null%1,      José Alberto%Díaz-Quiñonez%null%1,      Lien Anh Ha%Do%null%1,      Rodrigo A%Fasce%null%1,      Luzhao%Feng%null%1,      Mark J%Ferson%null%1,      Angela%Gentile%null%1,      Bradford D%Gessner%null%1,      Doli%Goswami%null%1,      Sophie%Goyet%null%1,      Carlos G%Grijalva%null%1,      Natasha%Halasa%null%1,      Orienka%Hellferscee%null%1,      Danielle%Hessong%null%1,      Nusrat%Homaira%null%1,      Jorge%Jara%null%1,      Kathleen%Kahn%null%1,      Najwa%Khuri-Bulos%null%1,      Karen L%Kotloff%null%1,      Claudio F%Lanata%null%1,      Olga%Lopez%null%1,      Maria Renee%Lopez Bolaños%null%1,      Marilla G%Lucero%null%1,      Florencia%Lucion%null%1,      Socorro P%Lupisan%null%1,      Shabir A%Madhi%null%1,      Omphile%Mekgoe%null%1,      Cinta%Moraleda%null%1,      Jocelyn%Moyes%null%1,      Kim%Mulholland%null%1,      Patrick K%Munywoki%null%1,      Fathima%Naby%null%1,      Thanh Hung%Nguyen%null%1,      Mark P%Nicol%null%1,      D James%Nokes%null%1,      Daniel E%Noyola%null%1,      Daisuke%Onozuka%null%1,      Nandhini%Palani%null%1,      Yong%Poovorawan%null%1,      Mustafizur%Rahman%null%1,      Kaat%Ramaekers%null%1,      Candice%Romero%null%1,      Elizabeth P%Schlaudecker%null%1,      Brunhilde%Schweiger%null%1,      Phil%Seidenberg%null%1,      Eric A F%Simoes%null%1,      Rosalyn%Singleton%null%1,      Sujatha%Sistla%null%1,      Katharine%Sturm-Ramirez%null%1,      Nungruthai%Suntronwong%null%1,      Agustinus%Sutanto%null%1,      Milagritos D%Tapia%null%1,      Somsak%Thamthitiwat%null%1,      Ilada%Thongpan%null%1,      Gayani%Tillekeratne%null%1,      Yeny O%Tinoco%null%1,      Florette K%Treurnicht%null%1,      Claudia%Turner%null%1,      Paul%Turner%null%1,      Rogier%van Doorn%null%1,      Marc%Van Ranst%null%2,      Benoit%Visseaux%null%1,      Sunthareeya%Waicharoen%null%1,      Jianwei%Wang%null%1,      Lay-Myint%Yoshida%null%1,      Heather J%Zar%null%1]</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1578,13 +1572,13 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
         <v>198</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="345">
   <si>
     <t>Doi</t>
   </si>
@@ -1245,6 +1245,105 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,       Jiu-ling%Tuo%NULL%1,       Xu-bin%Huang%NULL%1,       Xun%Zhu%NULL%1,       Ding-mei%Zhang%NULL%1,       Kai%Zhou%NULL%1,       Lei%Yuan%NULL%1,       Hong-jiao%Luo%NULL%1,       Bo-jian%Zheng%NULL%1,       Kwok-yung%Yuen%NULL%1,       Meng-feng%Li%NULL%1,       Kai-yuan%Cao%NULL%1,       Lin%Xu%NULL%1,       Stefan%Pöhlmann%NULL%1,      Su-fen%Zhang%NULL%1,      Jiu-ling%Tuo%NULL%1,      Xu-bin%Huang%NULL%1,      Xun%Zhu%NULL%1,      Ding-mei%Zhang%NULL%1,      Kai%Zhou%NULL%1,      Lei%Yuan%NULL%1,      Hong-jiao%Luo%NULL%1,      Bo-jian%Zheng%NULL%1,      Kwok-yung%Yuen%NULL%1,      Meng-feng%Li%NULL%1,      Kai-yuan%Cao%NULL%1,      Lin%Xu%NULL%1,      Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%2,      Rachel M%Reeves%null%1,      Xin%Wang%null%1,      Quique%Bassat%null%1,      W Abdullah%Brooks%null%1,      Cheryl%Cohen%null%1,      David P%Moore%null%1,      Marta%Nunes%null%1,      Barbara%Rath%null%1,      Harry%Campbell%null%1,      Harish%Nair%null%1,      Sozinho%Acacio%null%1,      Wladimir J%Alonso%null%1,      Martin%Antonio%null%1,      Guadalupe%Ayora Talavera%null%1,      Darmaa%Badarch%null%1,      Vicky L%Baillie%null%1,      Gisela%Barrera-Badillo%null%1,      Godfrey%Bigogo%null%1,      Shobha%Broor%null%1,      Dana%Bruden%null%1,      Philippe%Buchy%null%1,      Peter%Byass%null%1,      James%Chipeta%null%1,      Wilfrido%Clara%null%1,      Duc-Anh%Dang%null%1,      Carla Cecília%de Freitas Lázaro Emediato%null%1,      Menno%de Jong%null%1,      José Alberto%Díaz-Quiñonez%null%1,      Lien Anh Ha%Do%null%1,      Rodrigo A%Fasce%null%1,      Luzhao%Feng%null%1,      Mark J%Ferson%null%1,      Angela%Gentile%null%1,      Bradford D%Gessner%null%1,      Doli%Goswami%null%1,      Sophie%Goyet%null%1,      Carlos G%Grijalva%null%1,      Natasha%Halasa%null%1,      Orienka%Hellferscee%null%1,      Danielle%Hessong%null%1,      Nusrat%Homaira%null%1,      Jorge%Jara%null%1,      Kathleen%Kahn%null%1,      Najwa%Khuri-Bulos%null%1,      Karen L%Kotloff%null%1,      Claudio F%Lanata%null%1,      Olga%Lopez%null%1,      Maria Renee%Lopez Bolaños%null%1,      Marilla G%Lucero%null%1,      Florencia%Lucion%null%1,      Socorro P%Lupisan%null%1,      Shabir A%Madhi%null%1,      Omphile%Mekgoe%null%1,      Cinta%Moraleda%null%1,      Jocelyn%Moyes%null%1,      Kim%Mulholland%null%1,      Patrick K%Munywoki%null%1,      Fathima%Naby%null%1,      Thanh Hung%Nguyen%null%1,      Mark P%Nicol%null%1,      D James%Nokes%null%1,      Daniel E%Noyola%null%1,      Daisuke%Onozuka%null%1,      Nandhini%Palani%null%1,      Yong%Poovorawan%null%1,      Mustafizur%Rahman%null%1,      Kaat%Ramaekers%null%1,      Candice%Romero%null%1,      Elizabeth P%Schlaudecker%null%1,      Brunhilde%Schweiger%null%1,      Phil%Seidenberg%null%1,      Eric A F%Simoes%null%1,      Rosalyn%Singleton%null%1,      Sujatha%Sistla%null%1,      Katharine%Sturm-Ramirez%null%1,      Nungruthai%Suntronwong%null%1,      Agustinus%Sutanto%null%1,      Milagritos D%Tapia%null%1,      Somsak%Thamthitiwat%null%1,      Ilada%Thongpan%null%1,      Gayani%Tillekeratne%null%1,      Yeny O%Tinoco%null%1,      Florette K%Treurnicht%null%1,      Claudia%Turner%null%1,      Paul%Turner%null%1,      Rogier%van Doorn%null%1,      Marc%Van Ranst%null%2,      Benoit%Visseaux%null%1,      Sunthareeya%Waicharoen%null%1,      Jianwei%Wang%null%1,      Lay-Myint%Yoshida%null%1,      Heather J%Zar%null%1,  You%Li%null%0,  Rachel M%Reeves%null%1,  Xin%Wang%null%1,  Quique%Bassat%null%0,  W Abdullah%Brooks%null%1,  Cheryl%Cohen%null%1,  David P%Moore%null%1,  Marta%Nunes%null%1,  Barbara%Rath%null%1,  Harry%Campbell%null%1,  Harish%Nair%null%1,  Sozinho%Acacio%null%1,  Wladimir J%Alonso%null%1,  Martin%Antonio%null%1,  Guadalupe%Ayora Talavera%null%1,  Darmaa%Badarch%null%1,  Vicky L%Baillie%null%1,  Gisela%Barrera-Badillo%null%1,  Godfrey%Bigogo%null%1,  Shobha%Broor%null%1,  Dana%Bruden%null%1,  Philippe%Buchy%null%1,  Peter%Byass%null%1,  James%Chipeta%null%1,  Wilfrido%Clara%null%1,  Duc-Anh%Dang%null%1,  Carla Cecília%de Freitas Lázaro Emediato%null%1,  Menno%de Jong%null%1,  José Alberto%Díaz-Quiñonez%null%1,  Lien Anh Ha%Do%null%1,  Rodrigo A%Fasce%null%1,  Luzhao%Feng%null%0,  Mark J%Ferson%null%1,  Angela%Gentile%null%1,  Bradford D%Gessner%null%1,  Doli%Goswami%null%1,  Sophie%Goyet%null%1,  Carlos G%Grijalva%null%1,  Natasha%Halasa%null%1,  Orienka%Hellferscee%null%1,  Danielle%Hessong%null%1,  Nusrat%Homaira%null%1,  Jorge%Jara%null%1,  Kathleen%Kahn%null%1,  Najwa%Khuri-Bulos%null%1,  Karen L%Kotloff%null%1,  Claudio F%Lanata%null%1,  Olga%Lopez%null%1,  Maria Renee%Lopez Bolaños%null%1,  Marilla G%Lucero%null%1,  Florencia%Lucion%null%1,  Socorro P%Lupisan%null%1,  Shabir A%Madhi%null%1,  Omphile%Mekgoe%null%1,  Cinta%Moraleda%null%1,  Jocelyn%Moyes%null%1,  Kim%Mulholland%null%1,  Patrick K%Munywoki%null%1,  Fathima%Naby%null%1,  Thanh Hung%Nguyen%null%1,  Mark P%Nicol%null%1,  D James%Nokes%null%1,  Daniel E%Noyola%null%1,  Daisuke%Onozuka%null%1,  Nandhini%Palani%null%1,  Yong%Poovorawan%null%1,  Mustafizur%Rahman%null%1,  Kaat%Ramaekers%null%1,  Candice%Romero%null%1,  Elizabeth P%Schlaudecker%null%1,  Brunhilde%Schweiger%null%1,  Phil%Seidenberg%null%1,  Eric A F%Simoes%null%1,  Rosalyn%Singleton%null%1,  Sujatha%Sistla%null%1,  Katharine%Sturm-Ramirez%null%1,  Nungruthai%Suntronwong%null%1,  Agustinus%Sutanto%null%1,  Milagritos D%Tapia%null%1,  Somsak%Thamthitiwat%null%1,  Ilada%Thongpan%null%1,  Gayani%Tillekeratne%null%1,  Yeny O%Tinoco%null%1,  Florette K%Treurnicht%null%1,  Claudia%Turner%null%1,  Paul%Turner%null%1,  Rogier%van Doorn%null%1,  Marc%Van Ranst%null%0,  Benoit%Visseaux%null%1,  Sunthareeya%Waicharoen%null%1,  Jianwei%Wang%null%0,  Lay-Myint%Yoshida%null%1,  Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,    Jack%Bee Chook%coreGivesNoEmail%1,    Kim%Tien Ng%coreGivesNoEmail%1,    Kok%Keng Tee%coreGivesNoEmail%1,    Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,    Nik%Sherina Hanafi%coreGivesNoEmail%1,    van%der Hoek%coreGivesNoEmail%2,    van%der Hoek%coreGivesNoEmail%0,    van%Elden%coreGivesNoEmail%1,    Xiang%Yong Oong%coreGivesNoEmail%1,    Yong%Kek Pang%coreGivesNoEmail%1,    Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,        Dangui%Zhang%danguizhang@stu.edu.cn%1,        Hui%Pan%michaelpan@stu.edu.cn%1,        Fan%Zhang%lemon_fan@163.com%1,        Jeremy%Farrar%jeremyjfarrar@gmail.com%1,        Frieda%Law%lawf@stu.edu.cn%1,        H Rogier%van Doorn%hrogier@gmail.com%1,        Beiyan%Wu%1261305798@qq.com%1,        William%Ba-Thein%wbathein@stu.edu.cn%1,       Binglin%Cui%binglincui@stu.edu.cn%1,       Dangui%Zhang%danguizhang@stu.edu.cn%1,       Hui%Pan%michaelpan@stu.edu.cn%1,       Fan%Zhang%lemon_fan@163.com%1,       Jeremy%Farrar%jeremyjfarrar@gmail.com%1,       Frieda%Law%lawf@stu.edu.cn%1,       H Rogier%van Doorn%hrogier@gmail.com%1,       Beiyan%Wu%1261305798@qq.com%1,       William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,    Andrew%Berglund%coreGivesNoEmail%1,    Christine%C. Robinson%coreGivesNoEmail%1,    Christopher%D. Town%coreGivesNoEmail%1,    Edison%Luiz Durigon%coreGivesNoEmail%1,    Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,    Kathryn%V. Holmes%coreGivesNoEmail%1,    Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,    Nadia%Fedorova%coreGivesNoEmail%1,    Philip%A. Weston%coreGivesNoEmail%1,    Rebecca%A. Halpin%coreGivesNoEmail%1,    Samuel%R. Dominguez%coreGivesNoEmail%1,    Susmita%Shrivastava%coreGivesNoEmail%1,    Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,        Lifeng%Pan%NULL%1,        Qiao%Sun%NULL%1,        Weiping%Zhu%NULL%1,        Linying%Zhu%NULL%1,        Chuchu%Ye%NULL%1,        Caoyi%Xue%NULL%1,        Yuanping%Wang%NULL%1,        Qing%Liu%NULL%1,        Ping%Ma%NULL%1,        Huifang%Qiu%NULL%1,        Srinand%Sreevatsan%NULL%1,       Yifei%Fu%NULL%1,       Lifeng%Pan%NULL%1,       Qiao%Sun%NULL%1,       Weiping%Zhu%NULL%1,       Linying%Zhu%NULL%1,       Chuchu%Ye%NULL%1,       Caoyi%Xue%NULL%1,       Yuanping%Wang%NULL%1,       Qing%Liu%NULL%1,       Ping%Ma%NULL%1,       Huifang%Qiu%NULL%1,       Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,        Mumtaz Cem%Sirin%NULL%1,       Safak%Goktas%NULL%1,       Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,        Nina%Moe%NULL%1,        Sidsel%Krokstad%NULL%2,        Andreas%Christensen%NULL%2,        Lars Høsøien%Skanke%NULL%2,        Svein Arne%Nordbø%NULL%2,        Henrik%Døllner%henrik.dollner@ntnu.no%2,       Inger%Heimdal%NULL%1,       Nina%Moe%NULL%2,       Sidsel%Krokstad%NULL%2,       Andreas%Christensen%NULL%2,       Lars Høsøien%Skanke%NULL%2,       Svein Arne%Nordbø%NULL%2,       Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,        Inger Heimdal%Stenseng%NULL%1,        Sidsel%Krokstad%NULL%0,        Andreas%Christensen%NULL%0,        Lars Høsøien%Skanke%NULL%0,        Kari Ravndal%Risnes%NULL%1,        Svein Arne%Nordbø%NULL%0,        Henrik%Døllner%henrik.dollner@ntnu.no%0,       Nina%Moe%NULL%0,       Inger Heimdal%Stenseng%NULL%1,       Sidsel%Krokstad%NULL%0,       Andreas%Christensen%NULL%0,       Lars Høsøien%Skanke%NULL%0,       Kari Ravndal%Risnes%NULL%1,       Svein Arne%Nordbø%NULL%0,       Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,        Andrej%Steyer%NULL%1,        Marko%Pokorn%NULL%1,        Tatjana%Mrvič%NULL%1,        Štefan%Grosek%NULL%1,        Franc%Strle%NULL%1,        Lara%Lusa%NULL%1,        Miroslav%Petrovec%NULL%1,        Oliver%Schildgen%NULL%1,       Monika%Jevšnik%NULL%1,       Andrej%Steyer%NULL%1,       Marko%Pokorn%NULL%1,       Tatjana%Mrvič%NULL%1,       Štefan%Grosek%NULL%1,       Franc%Strle%NULL%1,       Lara%Lusa%NULL%1,       Miroslav%Petrovec%NULL%1,       Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,        Matti%Waris%NULL%1,        Kari%Johansen%NULL%1,        René%Snacken%NULL%1,        Pasi%Penttinen%NULL%1,        NULL%NULL%NULL%3,       Eeva K%Broberg%NULL%1,       Matti%Waris%NULL%1,       Kari%Johansen%NULL%1,       René%Snacken%NULL%1,       Pasi%Penttinen%NULL%1,       NULL%NULL%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,        Qiaoyun%Fang%NULL%1,        Jian%Zhang%NULL%1,        Angao%Xu%NULL%1,        Lihuan%Liang%NULL%1,        Changwen%Ke%hzmedicine@163.com%1,       Xiongfei%Ju%NULL%1,       Qiaoyun%Fang%NULL%1,       Jian%Zhang%NULL%1,       Angao%Xu%NULL%1,       Lihuan%Liang%NULL%1,       Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,        Holly M.%Biggs%NULL%1,        Amber%Haynes%NULL%1,        Rebecca M.%Dahl%NULL%1,        Desiree%Mustaquim%NULL%1,        Susan I.%Gerber%NULL%1,        John T.%Watson%NULL%1,       Marie E.%Killerby%lxo9@cdc.gov%1,       Holly M.%Biggs%NULL%1,       Amber%Haynes%NULL%1,       Rebecca M.%Dahl%NULL%1,       Desiree%Mustaquim%NULL%1,       Susan I.%Gerber%NULL%1,       John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,        Hee‐Dong%Jung%NULL%1,        Hyang‐Min%Cheong%NULL%1,        Anna%Lee%NULL%1,        Nam‐Joo%Lee%NULL%1,        Hyuk%Chu%NULL%1,        Joo‐Yeon%Lee%NULL%1,        Sung Soon%Kim%NULL%1,        Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,       Jeong‐Min%Kim%NULL%1,       Hee‐Dong%Jung%NULL%1,       Hyang‐Min%Cheong%NULL%1,       Anna%Lee%NULL%1,       Nam‐Joo%Lee%NULL%1,       Hyuk%Chu%NULL%1,       Joo‐Yeon%Lee%NULL%1,       Sung Soon%Kim%NULL%1,       Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,        Juansheng%Li%lijsh16@163.com%1,        Lei%Meng%mleicdc@163.com%1,        Wanqi%Zhu%NULL%1,        Xinfeng%Liu%NULL%1,        Mei%Yang%NULL%1,        Deshan%Yu%NULL%2,        Lixia%Niu%NULL%1,        Xiping%Shen%NULL%1,       Xuechao%Li%NULL%1,       Juansheng%Li%lijsh16@163.com%1,       Lei%Meng%mleicdc@163.com%1,       Wanqi%Zhu%NULL%1,       Xinfeng%Liu%NULL%1,       Mei%Yang%NULL%1,       Deshan%Yu%NULL%2,       Lixia%Niu%NULL%1,       Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,        James G.%Bosley%NULL%1,       Christine M.%Litwin%clitwin@gru.edu%1,       James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,        Elsie Laban%Yekwa%NULL%1,        Pierre%Cappy%NULL%1,        Astrid%Vabret%NULL%2,        Pascal%Boisier%NULL%1,        Dominique%Rousset%NULL%1,       Richard%Njouom%NULL%1,       Elsie Laban%Yekwa%NULL%1,       Pierre%Cappy%NULL%1,       Astrid%Vabret%NULL%2,       Pascal%Boisier%NULL%1,       Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,        Suvi%Lappalainen%NULL%1,        Timo%Vesikari%NULL%1,       Minna%Paloniemi%NULL%1,       Suvi%Lappalainen%NULL%1,       Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,        Richard%Gonzalez%NULL%1,        Jin%Xu%NULL%1,        Yan%Xiao%NULL%1,        Yongjun%Li%NULL%1,        Hongli%Zhou%NULL%1,        Jianguo%Li%NULL%1,        Qingqing%Yang%NULL%1,        Jing%Zhang%NULL%1,        Lan%Chen%NULL%1,        Wei%Wang%NULL%1,        Guy%Vernet%NULL%1,        Gláucia%Paranhos‐Baccalà%NULL%1,        Zhong%Wang%wangzhong523@vip.163.com%1,        Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,       Lili%Ren%NULL%1,       Richard%Gonzalez%NULL%1,       Jin%Xu%NULL%1,       Yan%Xiao%NULL%1,       Yongjun%Li%NULL%1,       Hongli%Zhou%NULL%1,       Jianguo%Li%NULL%1,       Qingqing%Yang%NULL%1,       Jing%Zhang%NULL%1,       Lan%Chen%NULL%1,       Wei%Wang%NULL%1,       Guy%Vernet%NULL%1,       Gláucia%Paranhos‐Baccalà%NULL%1,       Zhong%Wang%wangzhong523@vip.163.com%1,       Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,    Druelle%Valentin%coreGivesNoEmail%1,    Dyrdak%Robert%coreGivesNoEmail%1,    Hodcroft%Emma B.%coreGivesNoEmail%1,    Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,        Ilada%Thongpan%ilada.cu09@gmail.com%1,        Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,        Chanpim%Vuthitanachot%viboovut@hotmail.com%1,        Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,        Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,        Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,        Yong%Poovorawan%yong.p@chula.ac.th%1,       Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,       Ilada%Thongpan%ilada.cu09@gmail.com%1,       Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,       Chanpim%Vuthitanachot%viboovut@hotmail.com%1,       Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,       Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,       Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,       Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,        Janet A%Englund%NULL%1,        Jane Y%Kuypers%NULL%1,        Helen Y%Chu%NULL%1,        Mark C%Steinhoff%NULL%1,        Subarna K%Khatry%NULL%1,        Steve C%LeClerq%NULL%1,        James M%Tielsch%NULL%1,        Luke C%Mullany%NULL%1,        Laxman%Shrestha%NULL%2,        Joanne%Katz%jkatz1@jhu.edu%2,       S M Iftekhar%Uddin%NULL%1,       Janet A%Englund%NULL%1,       Jane Y%Kuypers%NULL%1,       Helen Y%Chu%NULL%1,       Mark C%Steinhoff%NULL%1,       Subarna K%Khatry%NULL%1,       Steve C%LeClerq%NULL%1,       James M%Tielsch%NULL%1,       Luke C%Mullany%NULL%1,       Laxman%Shrestha%NULL%2,       Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,        Joanne%Katz%NULL%0,        James%Tielsch%NULL%1,        Subarna K.%Khatry%NULL%1,        Laxman%Shrestha%NULL%0,        Steven C.%LeClerq%NULL%1,        Amalia%Magaret%NULL%1,        Jane%Kuypers%NULL%1,        Mark%Steinhoff%NULL%1,        Janet A.%Englund%NULL%1,       Helen Y.%Chu%helenchu@uw.edu%1,       Joanne%Katz%NULL%0,       James%Tielsch%NULL%1,       Subarna K.%Khatry%NULL%1,       Laxman%Shrestha%NULL%0,       Steven C.%LeClerq%NULL%1,       Amalia%Magaret%NULL%1,       Jane%Kuypers%NULL%1,       Mark%Steinhoff%NULL%1,       Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,        Gabriele%Ihorst%NULL%1,        Klaus%Sure%NULL%1,        Astrid%Vabret%NULL%0,        Ronald%Dijkman%NULL%1,        Michel%de Vries%NULL%1,        Johannes%Forster%NULL%1,        Ben%Berkhout%NULL%1,        Klaus%Uberla%NULL%1,       Lia%van der Hoek%NULL%1,       Gabriele%Ihorst%NULL%1,       Klaus%Sure%NULL%1,       Astrid%Vabret%NULL%0,       Ronald%Dijkman%NULL%1,       Michel%de Vries%NULL%1,       Johannes%Forster%NULL%1,       Ben%Berkhout%NULL%1,       Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,        Philip%Zachariah%pz2177@cumc.columbia.edu%1,        Celibell%Vargas%NULL%1,        Philip%LaRussa%NULL%1,        Ryan T%Demmer%NULL%1,        Yoko E%Furuya%NULL%1,        Susan%Whittier%NULL%1,        Carrie%Reed%NULL%1,        Melissa S%Stockwell%NULL%1,        Lisa%Saiman%NULL%1,       Litty%Varghese%NULL%1,       Philip%Zachariah%pz2177@cumc.columbia.edu%1,       Celibell%Vargas%NULL%1,       Philip%LaRussa%NULL%1,       Ryan T%Demmer%NULL%1,       Yoko E%Furuya%NULL%1,       Susan%Whittier%NULL%1,       Carrie%Reed%NULL%1,       Melissa S%Stockwell%NULL%1,       Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,        Ria%Lassaunière%NULL%1,        Tina Louise%Kresfelder%NULL%1,        Yvette%Westerberg%NULL%1,        Adele%Visser%NULL%1,       Marietjie%Venter%marietjiev@nicd.ac.za%1,       Ria%Lassaunière%NULL%1,       Tina Louise%Kresfelder%NULL%1,       Yvette%Westerberg%NULL%1,       Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,        Charles%Burdet%NULL%1,        Guillaume%Voiriot%NULL%1,        François-Xavier%Lescure%NULL%1,        Taous%Chougar%NULL%1,        Olivier%Brugière%NULL%1,        Bruno%Crestani%NULL%1,        Enrique%Casalino%NULL%1,        Charlotte%Charpentier%NULL%1,        Diane%Descamps%NULL%1,        Jean-François%Timsit%NULL%1,        Yazdan%Yazdanpanah%NULL%1,        Nadhira%Houhou-Fidouh%NULL%1,        Dena L.%Schanzer%NULL%1,       Benoit%Visseaux%NULL%1,       Charles%Burdet%NULL%1,       Guillaume%Voiriot%NULL%1,       François-Xavier%Lescure%NULL%1,       Taous%Chougar%NULL%1,       Olivier%Brugière%NULL%1,       Bruno%Crestani%NULL%1,       Enrique%Casalino%NULL%1,       Charlotte%Charpentier%NULL%1,       Diane%Descamps%NULL%1,       Jean-François%Timsit%NULL%1,       Yazdan%Yazdanpanah%NULL%1,       Nadhira%Houhou-Fidouh%NULL%1,       Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,        Deshan%Yu%NULL%0,        Naiying%Mao%NULL%1,        Zhen%Zhu%NULL%1,        Hui%Zhang%NULL%1,        Zhongyi%Jiang%NULL%1,        Hongyu%Li%NULL%1,        Yan%Zhang%NULL%1,        Jing%Shi%NULL%1,        Shuang%Zhang%NULL%1,        Xinhua%Wang%NULL%1,        Wenbo%Xu%NULL%1,        Dong-Yan%Jin%NULL%1,       Guohong%Huang%NULL%1,       Deshan%Yu%NULL%0,       Naiying%Mao%NULL%1,       Zhen%Zhu%NULL%1,       Hui%Zhang%NULL%1,       Zhongyi%Jiang%NULL%1,       Hongyu%Li%NULL%1,       Yan%Zhang%NULL%1,       Jing%Shi%NULL%1,       Shuang%Zhang%NULL%1,       Xinhua%Wang%NULL%1,       Wenbo%Xu%NULL%1,       Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,        Jiu-ling%Tuo%NULL%1,        Xu-bin%Huang%NULL%1,        Xun%Zhu%NULL%1,        Ding-mei%Zhang%NULL%1,        Kai%Zhou%NULL%1,        Lei%Yuan%NULL%1,        Hong-jiao%Luo%NULL%1,        Bo-jian%Zheng%NULL%1,        Kwok-yung%Yuen%NULL%1,        Meng-feng%Li%NULL%1,        Kai-yuan%Cao%NULL%1,        Lin%Xu%NULL%1,        Stefan%Pöhlmann%NULL%1,       Su-fen%Zhang%NULL%1,       Jiu-ling%Tuo%NULL%1,       Xu-bin%Huang%NULL%1,       Xun%Zhu%NULL%1,       Ding-mei%Zhang%NULL%1,       Kai%Zhou%NULL%1,       Lei%Yuan%NULL%1,       Hong-jiao%Luo%NULL%1,       Bo-jian%Zheng%NULL%1,       Kwok-yung%Yuen%NULL%1,       Meng-feng%Li%NULL%1,       Kai-yuan%Cao%NULL%1,       Lin%Xu%NULL%1,       Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1557,6 +1656,9 @@
       <c r="H1" t="s">
         <v>96</v>
       </c>
+      <c r="I1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1572,7 +1674,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -1582,6 +1684,9 @@
       </c>
       <c r="H2" t="s">
         <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1598,16 +1703,19 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1635,6 +1743,9 @@
       <c r="H4" t="s">
         <v>97</v>
       </c>
+      <c r="I4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1650,7 +1761,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -1660,6 +1771,9 @@
       </c>
       <c r="H5" t="s">
         <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1676,16 +1790,19 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1702,7 +1819,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -1712,6 +1829,9 @@
       </c>
       <c r="H7" t="s">
         <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1728,7 +1848,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -1738,6 +1858,9 @@
       </c>
       <c r="H8" t="s">
         <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1754,7 +1877,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -1764,6 +1887,9 @@
       </c>
       <c r="H9" t="s">
         <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1780,7 +1906,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1790,6 +1916,9 @@
       </c>
       <c r="H10" t="s">
         <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1817,6 +1946,9 @@
       <c r="H11" t="s">
         <v>97</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1832,7 +1964,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1842,6 +1974,9 @@
       </c>
       <c r="H12" t="s">
         <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1858,7 +1993,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -1868,6 +2003,9 @@
       </c>
       <c r="H13" t="s">
         <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1884,7 +2022,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -1894,6 +2032,9 @@
       </c>
       <c r="H14" t="s">
         <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1910,7 +2051,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -1920,6 +2061,9 @@
       </c>
       <c r="H15" t="s">
         <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1936,7 +2080,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -1946,6 +2090,9 @@
       </c>
       <c r="H16" t="s">
         <v>107</v>
+      </c>
+      <c r="I16" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1973,6 +2120,9 @@
       <c r="H17" t="s">
         <v>97</v>
       </c>
+      <c r="I17" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1999,6 +2149,9 @@
       <c r="H18" t="s">
         <v>97</v>
       </c>
+      <c r="I18" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -2025,6 +2178,9 @@
       <c r="H19" t="s">
         <v>97</v>
       </c>
+      <c r="I19" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -2040,7 +2196,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2050,6 +2206,9 @@
       </c>
       <c r="H20" t="s">
         <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2066,7 +2225,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2076,6 +2235,9 @@
       </c>
       <c r="H21" t="s">
         <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2103,6 +2265,9 @@
       <c r="H22" t="s">
         <v>97</v>
       </c>
+      <c r="I22" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -2118,7 +2283,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -2128,6 +2293,9 @@
       </c>
       <c r="H23" t="s">
         <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2144,7 +2312,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -2154,6 +2322,9 @@
       </c>
       <c r="H24" t="s">
         <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2170,7 +2341,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -2180,6 +2351,9 @@
       </c>
       <c r="H25" t="s">
         <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2196,16 +2370,19 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2222,7 +2399,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -2232,6 +2409,9 @@
       </c>
       <c r="H27" t="s">
         <v>112</v>
+      </c>
+      <c r="I27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2259,6 +2439,9 @@
       <c r="H28" t="s">
         <v>97</v>
       </c>
+      <c r="I28" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -2274,7 +2457,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -2284,6 +2467,9 @@
       </c>
       <c r="H29" t="s">
         <v>113</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2300,7 +2486,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -2310,6 +2496,9 @@
       </c>
       <c r="H30" t="s">
         <v>114</v>
+      </c>
+      <c r="I30" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2326,7 +2515,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -2336,6 +2525,9 @@
       </c>
       <c r="H31" t="s">
         <v>115</v>
+      </c>
+      <c r="I31" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2352,7 +2544,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -2362,6 +2554,9 @@
       </c>
       <c r="H32" t="s">
         <v>116</v>
+      </c>
+      <c r="I32" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2378,7 +2573,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -2388,6 +2583,9 @@
       </c>
       <c r="H33" t="s">
         <v>117</v>
+      </c>
+      <c r="I33" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2404,7 +2602,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -2414,6 +2612,9 @@
       </c>
       <c r="H34" t="s">
         <v>118</v>
+      </c>
+      <c r="I34" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2430,7 +2631,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -2440,6 +2641,9 @@
       </c>
       <c r="H35" t="s">
         <v>119</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2456,7 +2660,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -2466,6 +2670,9 @@
       </c>
       <c r="H36" t="s">
         <v>120</v>
+      </c>
+      <c r="I36" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="457">
   <si>
     <t>Doi</t>
   </si>
@@ -1344,6 +1344,342 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,        Jiu-ling%Tuo%NULL%1,        Xu-bin%Huang%NULL%1,        Xun%Zhu%NULL%1,        Ding-mei%Zhang%NULL%1,        Kai%Zhou%NULL%1,        Lei%Yuan%NULL%1,        Hong-jiao%Luo%NULL%1,        Bo-jian%Zheng%NULL%1,        Kwok-yung%Yuen%NULL%1,        Meng-feng%Li%NULL%1,        Kai-yuan%Cao%NULL%1,        Lin%Xu%NULL%1,        Stefan%Pöhlmann%NULL%1,       Su-fen%Zhang%NULL%1,       Jiu-ling%Tuo%NULL%1,       Xu-bin%Huang%NULL%1,       Xun%Zhu%NULL%1,       Ding-mei%Zhang%NULL%1,       Kai%Zhou%NULL%1,       Lei%Yuan%NULL%1,       Hong-jiao%Luo%NULL%1,       Bo-jian%Zheng%NULL%1,       Kwok-yung%Yuen%NULL%1,       Meng-feng%Li%NULL%1,       Kai-yuan%Cao%NULL%1,       Lin%Xu%NULL%1,       Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,       Rachel M%Reeves%null%1,       Xin%Wang%null%1,       Quique%Bassat%null%1,       W Abdullah%Brooks%null%1,       Cheryl%Cohen%null%1,       David P%Moore%null%1,       Marta%Nunes%null%1,       Barbara%Rath%null%1,       Harry%Campbell%null%1,       Harish%Nair%null%1,       Sozinho%Acacio%null%1,       Wladimir J%Alonso%null%1,       Martin%Antonio%null%1,       Guadalupe%Ayora Talavera%null%1,       Darmaa%Badarch%null%1,       Vicky L%Baillie%null%1,       Gisela%Barrera-Badillo%null%1,       Godfrey%Bigogo%null%1,       Shobha%Broor%null%1,       Dana%Bruden%null%1,       Philippe%Buchy%null%1,       Peter%Byass%null%1,       James%Chipeta%null%1,       Wilfrido%Clara%null%1,       Duc-Anh%Dang%null%1,       Carla Cecília%de Freitas Lázaro Emediato%null%1,       Menno%de Jong%null%1,       José Alberto%Díaz-Quiñonez%null%1,       Lien Anh Ha%Do%null%1,       Rodrigo A%Fasce%null%1,       Luzhao%Feng%null%1,       Mark J%Ferson%null%1,       Angela%Gentile%null%1,       Bradford D%Gessner%null%1,       Doli%Goswami%null%1,       Sophie%Goyet%null%1,       Carlos G%Grijalva%null%1,       Natasha%Halasa%null%1,       Orienka%Hellferscee%null%1,       Danielle%Hessong%null%1,       Nusrat%Homaira%null%1,       Jorge%Jara%null%1,       Kathleen%Kahn%null%1,       Najwa%Khuri-Bulos%null%1,       Karen L%Kotloff%null%1,       Claudio F%Lanata%null%1,       Olga%Lopez%null%1,       Maria Renee%Lopez Bolaños%null%1,       Marilla G%Lucero%null%1,       Florencia%Lucion%null%1,       Socorro P%Lupisan%null%1,       Shabir A%Madhi%null%1,       Omphile%Mekgoe%null%1,       Cinta%Moraleda%null%1,       Jocelyn%Moyes%null%1,       Kim%Mulholland%null%1,       Patrick K%Munywoki%null%1,       Fathima%Naby%null%1,       Thanh Hung%Nguyen%null%1,       Mark P%Nicol%null%1,       D James%Nokes%null%1,       Daniel E%Noyola%null%1,       Daisuke%Onozuka%null%1,       Nandhini%Palani%null%1,       Yong%Poovorawan%null%1,       Mustafizur%Rahman%null%1,       Kaat%Ramaekers%null%1,       Candice%Romero%null%1,       Elizabeth P%Schlaudecker%null%1,       Brunhilde%Schweiger%null%1,       Phil%Seidenberg%null%1,       Eric A F%Simoes%null%1,       Rosalyn%Singleton%null%1,       Sujatha%Sistla%null%1,       Katharine%Sturm-Ramirez%null%1,       Nungruthai%Suntronwong%null%1,       Agustinus%Sutanto%null%1,       Milagritos D%Tapia%null%1,       Somsak%Thamthitiwat%null%1,       Ilada%Thongpan%null%1,       Gayani%Tillekeratne%null%1,       Yeny O%Tinoco%null%1,       Florette K%Treurnicht%null%1,       Claudia%Turner%null%1,       Paul%Turner%null%1,       Rogier%van Doorn%null%1,       Marc%Van Ranst%null%2,       Benoit%Visseaux%null%1,       Sunthareeya%Waicharoen%null%1,       Jianwei%Wang%null%1,       Lay-Myint%Yoshida%null%1,       Heather J%Zar%null%1,   You%Li%null%1,   Rachel M%Reeves%null%1,   Xin%Wang%null%1,   Quique%Bassat%null%3,   W Abdullah%Brooks%null%1,   Cheryl%Cohen%null%1,   David P%Moore%null%1,   Marta%Nunes%null%1,   Barbara%Rath%null%1,   Harry%Campbell%null%1,   Harish%Nair%null%1,   Sozinho%Acacio%null%1,   Wladimir J%Alonso%null%1,   Martin%Antonio%null%1,   Guadalupe%Ayora Talavera%null%1,   Darmaa%Badarch%null%1,   Vicky L%Baillie%null%1,   Gisela%Barrera-Badillo%null%1,   Godfrey%Bigogo%null%1,   Shobha%Broor%null%1,   Dana%Bruden%null%1,   Philippe%Buchy%null%1,   Peter%Byass%null%1,   James%Chipeta%null%1,   Wilfrido%Clara%null%1,   Duc-Anh%Dang%null%1,   Carla Cecília%de Freitas Lázaro Emediato%null%1,   Menno%de Jong%null%1,   José Alberto%Díaz-Quiñonez%null%1,   Lien Anh Ha%Do%null%1,   Rodrigo A%Fasce%null%1,   Luzhao%Feng%null%2,   Mark J%Ferson%null%1,   Angela%Gentile%null%1,   Bradford D%Gessner%null%1,   Doli%Goswami%null%1,   Sophie%Goyet%null%1,   Carlos G%Grijalva%null%1,   Natasha%Halasa%null%1,   Orienka%Hellferscee%null%1,   Danielle%Hessong%null%1,   Nusrat%Homaira%null%1,   Jorge%Jara%null%1,   Kathleen%Kahn%null%1,   Najwa%Khuri-Bulos%null%1,   Karen L%Kotloff%null%1,   Claudio F%Lanata%null%1,   Olga%Lopez%null%1,   Maria Renee%Lopez Bolaños%null%1,   Marilla G%Lucero%null%1,   Florencia%Lucion%null%1,   Socorro P%Lupisan%null%1,   Shabir A%Madhi%null%1,   Omphile%Mekgoe%null%1,   Cinta%Moraleda%null%1,   Jocelyn%Moyes%null%1,   Kim%Mulholland%null%1,   Patrick K%Munywoki%null%1,   Fathima%Naby%null%1,   Thanh Hung%Nguyen%null%1,   Mark P%Nicol%null%1,   D James%Nokes%null%1,   Daniel E%Noyola%null%1,   Daisuke%Onozuka%null%1,   Nandhini%Palani%null%1,   Yong%Poovorawan%null%1,   Mustafizur%Rahman%null%1,   Kaat%Ramaekers%null%1,   Candice%Romero%null%1,   Elizabeth P%Schlaudecker%null%1,   Brunhilde%Schweiger%null%1,   Phil%Seidenberg%null%1,   Eric A F%Simoes%null%1,   Rosalyn%Singleton%null%1,   Sujatha%Sistla%null%1,   Katharine%Sturm-Ramirez%null%1,   Nungruthai%Suntronwong%null%1,   Agustinus%Sutanto%null%1,   Milagritos D%Tapia%null%1,   Somsak%Thamthitiwat%null%1,   Ilada%Thongpan%null%1,   Gayani%Tillekeratne%null%1,   Yeny O%Tinoco%null%1,   Florette K%Treurnicht%null%1,   Claudia%Turner%null%1,   Paul%Turner%null%1,   Rogier%van Doorn%null%1,   Marc%Van Ranst%null%3,   Benoit%Visseaux%null%1,   Sunthareeya%Waicharoen%null%1,   Jianwei%Wang%null%5,   Lay-Myint%Yoshida%null%1,   Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,     Jack%Bee Chook%coreGivesNoEmail%1,     Kim%Tien Ng%coreGivesNoEmail%1,     Kok%Keng Tee%coreGivesNoEmail%1,     Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,     Nik%Sherina Hanafi%coreGivesNoEmail%1,     van%der Hoek%coreGivesNoEmail%2,     van%der Hoek%coreGivesNoEmail%0,     van%Elden%coreGivesNoEmail%1,     Xiang%Yong Oong%coreGivesNoEmail%1,     Yong%Kek Pang%coreGivesNoEmail%1,     Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,         Dangui%Zhang%danguizhang@stu.edu.cn%1,         Hui%Pan%michaelpan@stu.edu.cn%1,         Fan%Zhang%lemon_fan@163.com%1,         Jeremy%Farrar%jeremyjfarrar@gmail.com%1,         Frieda%Law%lawf@stu.edu.cn%1,         H Rogier%van Doorn%hrogier@gmail.com%1,         Beiyan%Wu%1261305798@qq.com%1,         William%Ba-Thein%wbathein@stu.edu.cn%1,        Binglin%Cui%binglincui@stu.edu.cn%1,        Dangui%Zhang%danguizhang@stu.edu.cn%1,        Hui%Pan%michaelpan@stu.edu.cn%1,        Fan%Zhang%lemon_fan@163.com%1,        Jeremy%Farrar%jeremyjfarrar@gmail.com%1,        Frieda%Law%lawf@stu.edu.cn%1,        H Rogier%van Doorn%hrogier@gmail.com%1,        Beiyan%Wu%1261305798@qq.com%1,        William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,     Andrew%Berglund%coreGivesNoEmail%1,     Christine%C. Robinson%coreGivesNoEmail%1,     Christopher%D. Town%coreGivesNoEmail%1,     Edison%Luiz Durigon%coreGivesNoEmail%1,     Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,     Kathryn%V. Holmes%coreGivesNoEmail%1,     Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,     Nadia%Fedorova%coreGivesNoEmail%1,     Philip%A. Weston%coreGivesNoEmail%1,     Rebecca%A. Halpin%coreGivesNoEmail%1,     Samuel%R. Dominguez%coreGivesNoEmail%1,     Susmita%Shrivastava%coreGivesNoEmail%1,     Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,         Lifeng%Pan%NULL%1,         Qiao%Sun%NULL%1,         Weiping%Zhu%NULL%1,         Linying%Zhu%NULL%1,         Chuchu%Ye%NULL%1,         Caoyi%Xue%NULL%1,         Yuanping%Wang%NULL%1,         Qing%Liu%NULL%1,         Ping%Ma%NULL%1,         Huifang%Qiu%NULL%1,         Srinand%Sreevatsan%NULL%1,        Yifei%Fu%NULL%1,        Lifeng%Pan%NULL%1,        Qiao%Sun%NULL%1,        Weiping%Zhu%NULL%1,        Linying%Zhu%NULL%1,        Chuchu%Ye%NULL%1,        Caoyi%Xue%NULL%1,        Yuanping%Wang%NULL%1,        Qing%Liu%NULL%1,        Ping%Ma%NULL%1,        Huifang%Qiu%NULL%1,        Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,         Mumtaz Cem%Sirin%NULL%1,        Safak%Goktas%NULL%1,        Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,         Nina%Moe%NULL%1,         Sidsel%Krokstad%NULL%2,         Andreas%Christensen%NULL%2,         Lars Høsøien%Skanke%NULL%2,         Svein Arne%Nordbø%NULL%2,         Henrik%Døllner%henrik.dollner@ntnu.no%2,        Inger%Heimdal%NULL%1,        Nina%Moe%NULL%2,        Sidsel%Krokstad%NULL%2,        Andreas%Christensen%NULL%2,        Lars Høsøien%Skanke%NULL%2,        Svein Arne%Nordbø%NULL%2,        Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,         Inger Heimdal%Stenseng%NULL%1,         Sidsel%Krokstad%NULL%0,         Andreas%Christensen%NULL%0,         Lars Høsøien%Skanke%NULL%0,         Kari Ravndal%Risnes%NULL%1,         Svein Arne%Nordbø%NULL%0,         Henrik%Døllner%henrik.dollner@ntnu.no%0,        Nina%Moe%NULL%0,        Inger Heimdal%Stenseng%NULL%1,        Sidsel%Krokstad%NULL%0,        Andreas%Christensen%NULL%0,        Lars Høsøien%Skanke%NULL%0,        Kari Ravndal%Risnes%NULL%1,        Svein Arne%Nordbø%NULL%0,        Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,         Andrej%Steyer%NULL%1,         Marko%Pokorn%NULL%1,         Tatjana%Mrvič%NULL%1,         Štefan%Grosek%NULL%1,         Franc%Strle%NULL%1,         Lara%Lusa%NULL%1,         Miroslav%Petrovec%NULL%1,         Oliver%Schildgen%NULL%1,        Monika%Jevšnik%NULL%1,        Andrej%Steyer%NULL%1,        Marko%Pokorn%NULL%1,        Tatjana%Mrvič%NULL%1,        Štefan%Grosek%NULL%1,        Franc%Strle%NULL%1,        Lara%Lusa%NULL%1,        Miroslav%Petrovec%NULL%1,        Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,         Matti%Waris%NULL%1,         Kari%Johansen%NULL%1,         René%Snacken%NULL%1,         Pasi%Penttinen%NULL%1,         NULL%NULL%NULL%3,        Eeva K%Broberg%NULL%1,        Matti%Waris%NULL%1,        Kari%Johansen%NULL%1,        René%Snacken%NULL%1,        Pasi%Penttinen%NULL%1,        NULL%NULL%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,         Qiaoyun%Fang%NULL%1,         Jian%Zhang%NULL%1,         Angao%Xu%NULL%1,         Lihuan%Liang%NULL%1,         Changwen%Ke%hzmedicine@163.com%1,        Xiongfei%Ju%NULL%1,        Qiaoyun%Fang%NULL%1,        Jian%Zhang%NULL%1,        Angao%Xu%NULL%1,        Lihuan%Liang%NULL%1,        Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,         Holly M.%Biggs%NULL%1,         Amber%Haynes%NULL%1,         Rebecca M.%Dahl%NULL%1,         Desiree%Mustaquim%NULL%1,         Susan I.%Gerber%NULL%1,         John T.%Watson%NULL%1,        Marie E.%Killerby%lxo9@cdc.gov%1,        Holly M.%Biggs%NULL%1,        Amber%Haynes%NULL%1,        Rebecca M.%Dahl%NULL%1,        Desiree%Mustaquim%NULL%1,        Susan I.%Gerber%NULL%1,        John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,         Hee‐Dong%Jung%NULL%1,         Hyang‐Min%Cheong%NULL%1,         Anna%Lee%NULL%1,         Nam‐Joo%Lee%NULL%1,         Hyuk%Chu%NULL%1,         Joo‐Yeon%Lee%NULL%1,         Sung Soon%Kim%NULL%1,         Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,        Jeong‐Min%Kim%NULL%1,        Hee‐Dong%Jung%NULL%1,        Hyang‐Min%Cheong%NULL%1,        Anna%Lee%NULL%1,        Nam‐Joo%Lee%NULL%1,        Hyuk%Chu%NULL%1,        Joo‐Yeon%Lee%NULL%1,        Sung Soon%Kim%NULL%1,        Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,         Juansheng%Li%lijsh16@163.com%1,         Lei%Meng%mleicdc@163.com%1,         Wanqi%Zhu%NULL%1,         Xinfeng%Liu%NULL%1,         Mei%Yang%NULL%1,         Deshan%Yu%NULL%2,         Lixia%Niu%NULL%1,         Xiping%Shen%NULL%1,        Xuechao%Li%NULL%1,        Juansheng%Li%lijsh16@163.com%1,        Lei%Meng%mleicdc@163.com%1,        Wanqi%Zhu%NULL%1,        Xinfeng%Liu%NULL%1,        Mei%Yang%NULL%1,        Deshan%Yu%NULL%2,        Lixia%Niu%NULL%1,        Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,         James G.%Bosley%NULL%1,        Christine M.%Litwin%clitwin@gru.edu%1,        James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,         Elsie Laban%Yekwa%NULL%1,         Pierre%Cappy%NULL%1,         Astrid%Vabret%NULL%2,         Pascal%Boisier%NULL%1,         Dominique%Rousset%NULL%1,        Richard%Njouom%NULL%1,        Elsie Laban%Yekwa%NULL%1,        Pierre%Cappy%NULL%1,        Astrid%Vabret%NULL%2,        Pascal%Boisier%NULL%1,        Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,         Suvi%Lappalainen%NULL%1,         Timo%Vesikari%NULL%1,        Minna%Paloniemi%NULL%1,        Suvi%Lappalainen%NULL%1,        Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%2,         Richard%Gonzalez%NULL%1,         Jin%Xu%NULL%1,         Yan%Xiao%NULL%1,         Yongjun%Li%NULL%1,         Hongli%Zhou%NULL%1,         Jianguo%Li%NULL%1,         Qingqing%Yang%NULL%1,         Jing%Zhang%NULL%1,         Lan%Chen%NULL%1,         Wei%Wang%NULL%1,         Guy%Vernet%NULL%1,         Gláucia%Paranhos‐Baccalà%NULL%1,         Zhong%Wang%wangzhong523@vip.163.com%1,         Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,        Lili%Ren%NULL%1,        Richard%Gonzalez%NULL%1,        Jin%Xu%NULL%1,        Yan%Xiao%NULL%1,        Yongjun%Li%NULL%1,        Hongli%Zhou%NULL%1,        Jianguo%Li%NULL%1,        Qingqing%Yang%NULL%1,        Jing%Zhang%NULL%1,        Lan%Chen%NULL%1,        Wei%Wang%NULL%1,        Guy%Vernet%NULL%1,        Gláucia%Paranhos‐Baccalà%NULL%1,        Zhong%Wang%wangzhong523@vip.163.com%1,        Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,     Druelle%Valentin%coreGivesNoEmail%1,     Dyrdak%Robert%coreGivesNoEmail%1,     Hodcroft%Emma B.%coreGivesNoEmail%1,     Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,         Ilada%Thongpan%ilada.cu09@gmail.com%1,         Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,         Chanpim%Vuthitanachot%viboovut@hotmail.com%1,         Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,         Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,         Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,         Yong%Poovorawan%yong.p@chula.ac.th%1,        Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,        Ilada%Thongpan%ilada.cu09@gmail.com%1,        Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,        Chanpim%Vuthitanachot%viboovut@hotmail.com%1,        Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,        Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,        Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,        Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,         Janet A%Englund%NULL%1,         Jane Y%Kuypers%NULL%1,         Helen Y%Chu%NULL%1,         Mark C%Steinhoff%NULL%1,         Subarna K%Khatry%NULL%1,         Steve C%LeClerq%NULL%1,         James M%Tielsch%NULL%1,         Luke C%Mullany%NULL%1,         Laxman%Shrestha%NULL%2,         Joanne%Katz%jkatz1@jhu.edu%2,        S M Iftekhar%Uddin%NULL%1,        Janet A%Englund%NULL%1,        Jane Y%Kuypers%NULL%1,        Helen Y%Chu%NULL%1,        Mark C%Steinhoff%NULL%1,        Subarna K%Khatry%NULL%1,        Steve C%LeClerq%NULL%1,        James M%Tielsch%NULL%1,        Luke C%Mullany%NULL%1,        Laxman%Shrestha%NULL%2,        Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,         Joanne%Katz%NULL%0,         James%Tielsch%NULL%1,         Subarna K.%Khatry%NULL%1,         Laxman%Shrestha%NULL%0,         Steven C.%LeClerq%NULL%1,         Amalia%Magaret%NULL%1,         Jane%Kuypers%NULL%1,         Mark%Steinhoff%NULL%1,         Janet A.%Englund%NULL%1,        Helen Y.%Chu%helenchu@uw.edu%1,        Joanne%Katz%NULL%0,        James%Tielsch%NULL%1,        Subarna K.%Khatry%NULL%1,        Laxman%Shrestha%NULL%0,        Steven C.%LeClerq%NULL%1,        Amalia%Magaret%NULL%1,        Jane%Kuypers%NULL%1,        Mark%Steinhoff%NULL%1,        Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,         Gabriele%Ihorst%NULL%1,         Klaus%Sure%NULL%1,         Astrid%Vabret%NULL%0,         Ronald%Dijkman%NULL%1,         Michel%de Vries%NULL%1,         Johannes%Forster%NULL%1,         Ben%Berkhout%NULL%1,         Klaus%Uberla%NULL%1,        Lia%van der Hoek%NULL%1,        Gabriele%Ihorst%NULL%1,        Klaus%Sure%NULL%1,        Astrid%Vabret%NULL%0,        Ronald%Dijkman%NULL%1,        Michel%de Vries%NULL%1,        Johannes%Forster%NULL%1,        Ben%Berkhout%NULL%1,        Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,         Philip%Zachariah%pz2177@cumc.columbia.edu%1,         Celibell%Vargas%NULL%1,         Philip%LaRussa%NULL%1,         Ryan T%Demmer%NULL%1,         Yoko E%Furuya%NULL%1,         Susan%Whittier%NULL%1,         Carrie%Reed%NULL%1,         Melissa S%Stockwell%NULL%1,         Lisa%Saiman%NULL%1,        Litty%Varghese%NULL%1,        Philip%Zachariah%pz2177@cumc.columbia.edu%1,        Celibell%Vargas%NULL%1,        Philip%LaRussa%NULL%1,        Ryan T%Demmer%NULL%1,        Yoko E%Furuya%NULL%1,        Susan%Whittier%NULL%1,        Carrie%Reed%NULL%1,        Melissa S%Stockwell%NULL%1,        Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,         Ria%Lassaunière%NULL%1,         Tina Louise%Kresfelder%NULL%1,         Yvette%Westerberg%NULL%1,         Adele%Visser%NULL%1,        Marietjie%Venter%marietjiev@nicd.ac.za%1,        Ria%Lassaunière%NULL%1,        Tina Louise%Kresfelder%NULL%1,        Yvette%Westerberg%NULL%1,        Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,         Charles%Burdet%NULL%1,         Guillaume%Voiriot%NULL%1,         François-Xavier%Lescure%NULL%1,         Taous%Chougar%NULL%1,         Olivier%Brugière%NULL%1,         Bruno%Crestani%NULL%1,         Enrique%Casalino%NULL%1,         Charlotte%Charpentier%NULL%1,         Diane%Descamps%NULL%1,         Jean-François%Timsit%NULL%1,         Yazdan%Yazdanpanah%NULL%1,         Nadhira%Houhou-Fidouh%NULL%1,         Dena L.%Schanzer%NULL%1,        Benoit%Visseaux%NULL%1,        Charles%Burdet%NULL%1,        Guillaume%Voiriot%NULL%1,        François-Xavier%Lescure%NULL%1,        Taous%Chougar%NULL%1,        Olivier%Brugière%NULL%1,        Bruno%Crestani%NULL%1,        Enrique%Casalino%NULL%1,        Charlotte%Charpentier%NULL%1,        Diane%Descamps%NULL%1,        Jean-François%Timsit%NULL%1,        Yazdan%Yazdanpanah%NULL%1,        Nadhira%Houhou-Fidouh%NULL%1,        Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,         Deshan%Yu%NULL%0,         Naiying%Mao%NULL%1,         Zhen%Zhu%NULL%1,         Hui%Zhang%NULL%1,         Zhongyi%Jiang%NULL%1,         Hongyu%Li%NULL%1,         Yan%Zhang%NULL%1,         Jing%Shi%NULL%1,         Shuang%Zhang%NULL%1,         Xinhua%Wang%NULL%1,         Wenbo%Xu%NULL%1,         Dong-Yan%Jin%NULL%1,        Guohong%Huang%NULL%1,        Deshan%Yu%NULL%0,        Naiying%Mao%NULL%1,        Zhen%Zhu%NULL%1,        Hui%Zhang%NULL%1,        Zhongyi%Jiang%NULL%1,        Hongyu%Li%NULL%1,        Yan%Zhang%NULL%1,        Jing%Shi%NULL%1,        Shuang%Zhang%NULL%1,        Xinhua%Wang%NULL%1,        Wenbo%Xu%NULL%1,        Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,         Jiu-ling%Tuo%NULL%1,         Xu-bin%Huang%NULL%1,         Xun%Zhu%NULL%1,         Ding-mei%Zhang%NULL%1,         Kai%Zhou%NULL%1,         Lei%Yuan%NULL%1,         Hong-jiao%Luo%NULL%1,         Bo-jian%Zheng%NULL%1,         Kwok-yung%Yuen%NULL%1,         Meng-feng%Li%NULL%1,         Kai-yuan%Cao%NULL%1,         Lin%Xu%NULL%1,         Stefan%Pöhlmann%NULL%1,        Su-fen%Zhang%NULL%1,        Jiu-ling%Tuo%NULL%1,        Xu-bin%Huang%NULL%1,        Xun%Zhu%NULL%1,        Ding-mei%Zhang%NULL%1,        Kai%Zhou%NULL%1,        Lei%Yuan%NULL%1,        Hong-jiao%Luo%NULL%1,        Bo-jian%Zheng%NULL%1,        Kwok-yung%Yuen%NULL%1,        Meng-feng%Li%NULL%1,        Kai-yuan%Cao%NULL%1,        Lin%Xu%NULL%1,        Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,        Rachel M%Reeves%null%1,        Xin%Wang%null%1,        Quique%Bassat%null%1,        W Abdullah%Brooks%null%1,        Cheryl%Cohen%null%1,        David P%Moore%null%1,        Marta%Nunes%null%1,        Barbara%Rath%null%1,        Harry%Campbell%null%1,        Harish%Nair%null%1,        Sozinho%Acacio%null%1,        Wladimir J%Alonso%null%1,        Martin%Antonio%null%1,        Guadalupe%Ayora Talavera%null%1,        Darmaa%Badarch%null%1,        Vicky L%Baillie%null%1,        Gisela%Barrera-Badillo%null%1,        Godfrey%Bigogo%null%1,        Shobha%Broor%null%1,        Dana%Bruden%null%1,        Philippe%Buchy%null%1,        Peter%Byass%null%1,        James%Chipeta%null%1,        Wilfrido%Clara%null%1,        Duc-Anh%Dang%null%1,        Carla Cecília%de Freitas Lázaro Emediato%null%1,        Menno%de Jong%null%1,        José Alberto%Díaz-Quiñonez%null%1,        Lien Anh Ha%Do%null%1,        Rodrigo A%Fasce%null%1,        Luzhao%Feng%null%1,        Mark J%Ferson%null%1,        Angela%Gentile%null%1,        Bradford D%Gessner%null%1,        Doli%Goswami%null%1,        Sophie%Goyet%null%1,        Carlos G%Grijalva%null%1,        Natasha%Halasa%null%1,        Orienka%Hellferscee%null%1,        Danielle%Hessong%null%1,        Nusrat%Homaira%null%1,        Jorge%Jara%null%1,        Kathleen%Kahn%null%1,        Najwa%Khuri-Bulos%null%1,        Karen L%Kotloff%null%1,        Claudio F%Lanata%null%1,        Olga%Lopez%null%1,        Maria Renee%Lopez Bolaños%null%1,        Marilla G%Lucero%null%1,        Florencia%Lucion%null%1,        Socorro P%Lupisan%null%1,        Shabir A%Madhi%null%1,        Omphile%Mekgoe%null%1,        Cinta%Moraleda%null%1,        Jocelyn%Moyes%null%1,        Kim%Mulholland%null%1,        Patrick K%Munywoki%null%1,        Fathima%Naby%null%1,        Thanh Hung%Nguyen%null%1,        Mark P%Nicol%null%1,        D James%Nokes%null%1,        Daniel E%Noyola%null%1,        Daisuke%Onozuka%null%1,        Nandhini%Palani%null%1,        Yong%Poovorawan%null%1,        Mustafizur%Rahman%null%1,        Kaat%Ramaekers%null%1,        Candice%Romero%null%1,        Elizabeth P%Schlaudecker%null%1,        Brunhilde%Schweiger%null%1,        Phil%Seidenberg%null%1,        Eric A F%Simoes%null%1,        Rosalyn%Singleton%null%1,        Sujatha%Sistla%null%1,        Katharine%Sturm-Ramirez%null%1,        Nungruthai%Suntronwong%null%1,        Agustinus%Sutanto%null%1,        Milagritos D%Tapia%null%1,        Somsak%Thamthitiwat%null%1,        Ilada%Thongpan%null%1,        Gayani%Tillekeratne%null%1,        Yeny O%Tinoco%null%1,        Florette K%Treurnicht%null%1,        Claudia%Turner%null%1,        Paul%Turner%null%1,        Rogier%van Doorn%null%1,        Marc%Van Ranst%null%2,        Benoit%Visseaux%null%1,        Sunthareeya%Waicharoen%null%1,        Jianwei%Wang%null%1,        Lay-Myint%Yoshida%null%1,        Heather J%Zar%null%1,    You%Li%null%1,    Rachel M%Reeves%null%1,    Xin%Wang%null%1,    Quique%Bassat%null%2,    W Abdullah%Brooks%null%1,    Cheryl%Cohen%null%1,    David P%Moore%null%1,    Marta%Nunes%null%1,    Barbara%Rath%null%1,    Harry%Campbell%null%1,    Harish%Nair%null%1,    Sozinho%Acacio%null%1,    Wladimir J%Alonso%null%1,    Martin%Antonio%null%1,    Guadalupe%Ayora Talavera%null%1,    Darmaa%Badarch%null%1,    Vicky L%Baillie%null%1,    Gisela%Barrera-Badillo%null%1,    Godfrey%Bigogo%null%1,    Shobha%Broor%null%1,    Dana%Bruden%null%1,    Philippe%Buchy%null%1,    Peter%Byass%null%1,    James%Chipeta%null%1,    Wilfrido%Clara%null%1,    Duc-Anh%Dang%null%1,    Carla Cecília%de Freitas Lázaro Emediato%null%1,    Menno%de Jong%null%1,    José Alberto%Díaz-Quiñonez%null%1,    Lien Anh Ha%Do%null%1,    Rodrigo A%Fasce%null%1,    Luzhao%Feng%null%2,    Mark J%Ferson%null%1,    Angela%Gentile%null%1,    Bradford D%Gessner%null%1,    Doli%Goswami%null%1,    Sophie%Goyet%null%1,    Carlos G%Grijalva%null%1,    Natasha%Halasa%null%1,    Orienka%Hellferscee%null%1,    Danielle%Hessong%null%1,    Nusrat%Homaira%null%1,    Jorge%Jara%null%1,    Kathleen%Kahn%null%1,    Najwa%Khuri-Bulos%null%1,    Karen L%Kotloff%null%1,    Claudio F%Lanata%null%1,    Olga%Lopez%null%1,    Maria Renee%Lopez Bolaños%null%1,    Marilla G%Lucero%null%1,    Florencia%Lucion%null%1,    Socorro P%Lupisan%null%1,    Shabir A%Madhi%null%1,    Omphile%Mekgoe%null%1,    Cinta%Moraleda%null%1,    Jocelyn%Moyes%null%1,    Kim%Mulholland%null%1,    Patrick K%Munywoki%null%1,    Fathima%Naby%null%1,    Thanh Hung%Nguyen%null%1,    Mark P%Nicol%null%1,    D James%Nokes%null%1,    Daniel E%Noyola%null%1,    Daisuke%Onozuka%null%1,    Nandhini%Palani%null%1,    Yong%Poovorawan%null%1,    Mustafizur%Rahman%null%1,    Kaat%Ramaekers%null%1,    Candice%Romero%null%1,    Elizabeth P%Schlaudecker%null%1,    Brunhilde%Schweiger%null%1,    Phil%Seidenberg%null%1,    Eric A F%Simoes%null%1,    Rosalyn%Singleton%null%1,    Sujatha%Sistla%null%1,    Katharine%Sturm-Ramirez%null%1,    Nungruthai%Suntronwong%null%1,    Agustinus%Sutanto%null%1,    Milagritos D%Tapia%null%1,    Somsak%Thamthitiwat%null%1,    Ilada%Thongpan%null%1,    Gayani%Tillekeratne%null%1,    Yeny O%Tinoco%null%1,    Florette K%Treurnicht%null%1,    Claudia%Turner%null%1,    Paul%Turner%null%1,    Rogier%van Doorn%null%1,    Marc%Van Ranst%null%3,    Benoit%Visseaux%null%1,    Sunthareeya%Waicharoen%null%1,    Jianwei%Wang%null%6,    Lay-Myint%Yoshida%null%1,    Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,      Jack%Bee Chook%coreGivesNoEmail%1,      Kim%Tien Ng%coreGivesNoEmail%1,      Kok%Keng Tee%coreGivesNoEmail%1,      Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,      Nik%Sherina Hanafi%coreGivesNoEmail%1,      van%der Hoek%coreGivesNoEmail%2,      van%der Hoek%coreGivesNoEmail%0,      van%Elden%coreGivesNoEmail%1,      Xiang%Yong Oong%coreGivesNoEmail%1,      Yong%Kek Pang%coreGivesNoEmail%1,      Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,          Dangui%Zhang%danguizhang@stu.edu.cn%1,          Hui%Pan%michaelpan@stu.edu.cn%1,          Fan%Zhang%lemon_fan@163.com%1,          Jeremy%Farrar%jeremyjfarrar@gmail.com%1,          Frieda%Law%lawf@stu.edu.cn%1,          H Rogier%van Doorn%hrogier@gmail.com%1,          Beiyan%Wu%1261305798@qq.com%1,          William%Ba-Thein%wbathein@stu.edu.cn%1,         Binglin%Cui%binglincui@stu.edu.cn%1,         Dangui%Zhang%danguizhang@stu.edu.cn%1,         Hui%Pan%michaelpan@stu.edu.cn%1,         Fan%Zhang%lemon_fan@163.com%1,         Jeremy%Farrar%jeremyjfarrar@gmail.com%1,         Frieda%Law%lawf@stu.edu.cn%1,         H Rogier%van Doorn%hrogier@gmail.com%1,         Beiyan%Wu%1261305798@qq.com%1,         William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,      Andrew%Berglund%coreGivesNoEmail%1,      Christine%C. Robinson%coreGivesNoEmail%1,      Christopher%D. Town%coreGivesNoEmail%1,      Edison%Luiz Durigon%coreGivesNoEmail%1,      Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,      Kathryn%V. Holmes%coreGivesNoEmail%1,      Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,      Nadia%Fedorova%coreGivesNoEmail%1,      Philip%A. Weston%coreGivesNoEmail%1,      Rebecca%A. Halpin%coreGivesNoEmail%1,      Samuel%R. Dominguez%coreGivesNoEmail%1,      Susmita%Shrivastava%coreGivesNoEmail%1,      Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,          Lifeng%Pan%NULL%1,          Qiao%Sun%NULL%1,          Weiping%Zhu%NULL%1,          Linying%Zhu%NULL%1,          Chuchu%Ye%NULL%1,          Caoyi%Xue%NULL%1,          Yuanping%Wang%NULL%1,          Qing%Liu%NULL%1,          Ping%Ma%NULL%1,          Huifang%Qiu%NULL%1,          Srinand%Sreevatsan%NULL%1,         Yifei%Fu%NULL%1,         Lifeng%Pan%NULL%1,         Qiao%Sun%NULL%1,         Weiping%Zhu%NULL%1,         Linying%Zhu%NULL%1,         Chuchu%Ye%NULL%1,         Caoyi%Xue%NULL%1,         Yuanping%Wang%NULL%1,         Qing%Liu%NULL%1,         Ping%Ma%NULL%1,         Huifang%Qiu%NULL%1,         Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,          Mumtaz Cem%Sirin%NULL%1,         Safak%Goktas%NULL%1,         Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,          Nina%Moe%NULL%1,          Sidsel%Krokstad%NULL%2,          Andreas%Christensen%NULL%2,          Lars Høsøien%Skanke%NULL%2,          Svein Arne%Nordbø%NULL%2,          Henrik%Døllner%henrik.dollner@ntnu.no%2,         Inger%Heimdal%NULL%1,         Nina%Moe%NULL%2,         Sidsel%Krokstad%NULL%2,         Andreas%Christensen%NULL%2,         Lars Høsøien%Skanke%NULL%2,         Svein Arne%Nordbø%NULL%2,         Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,          Inger Heimdal%Stenseng%NULL%1,          Sidsel%Krokstad%NULL%0,          Andreas%Christensen%NULL%0,          Lars Høsøien%Skanke%NULL%0,          Kari Ravndal%Risnes%NULL%1,          Svein Arne%Nordbø%NULL%0,          Henrik%Døllner%henrik.dollner@ntnu.no%0,         Nina%Moe%NULL%0,         Inger Heimdal%Stenseng%NULL%1,         Sidsel%Krokstad%NULL%0,         Andreas%Christensen%NULL%0,         Lars Høsøien%Skanke%NULL%0,         Kari Ravndal%Risnes%NULL%1,         Svein Arne%Nordbø%NULL%0,         Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,          Andrej%Steyer%NULL%1,          Marko%Pokorn%NULL%1,          Tatjana%Mrvič%NULL%1,          Štefan%Grosek%NULL%1,          Franc%Strle%NULL%1,          Lara%Lusa%NULL%1,          Miroslav%Petrovec%NULL%1,          Oliver%Schildgen%NULL%1,         Monika%Jevšnik%NULL%1,         Andrej%Steyer%NULL%1,         Marko%Pokorn%NULL%1,         Tatjana%Mrvič%NULL%1,         Štefan%Grosek%NULL%1,         Franc%Strle%NULL%1,         Lara%Lusa%NULL%1,         Miroslav%Petrovec%NULL%1,         Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,          Matti%Waris%NULL%1,          Kari%Johansen%NULL%1,          René%Snacken%NULL%1,          Pasi%Penttinen%NULL%1,          NULL%NULL%NULL%3,         Eeva K%Broberg%NULL%1,         Matti%Waris%NULL%1,         Kari%Johansen%NULL%1,         René%Snacken%NULL%1,         Pasi%Penttinen%NULL%1,         NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,          Qiaoyun%Fang%NULL%1,          Jian%Zhang%NULL%1,          Angao%Xu%NULL%1,          Lihuan%Liang%NULL%1,          Changwen%Ke%hzmedicine@163.com%1,         Xiongfei%Ju%NULL%1,         Qiaoyun%Fang%NULL%1,         Jian%Zhang%NULL%1,         Angao%Xu%NULL%1,         Lihuan%Liang%NULL%1,         Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,          Holly M.%Biggs%NULL%1,          Amber%Haynes%NULL%1,          Rebecca M.%Dahl%NULL%1,          Desiree%Mustaquim%NULL%1,          Susan I.%Gerber%NULL%1,          John T.%Watson%NULL%1,         Marie E.%Killerby%lxo9@cdc.gov%1,         Holly M.%Biggs%NULL%1,         Amber%Haynes%NULL%1,         Rebecca M.%Dahl%NULL%1,         Desiree%Mustaquim%NULL%1,         Susan I.%Gerber%NULL%1,         John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,          Hee‐Dong%Jung%NULL%1,          Hyang‐Min%Cheong%NULL%1,          Anna%Lee%NULL%1,          Nam‐Joo%Lee%NULL%1,          Hyuk%Chu%NULL%1,          Joo‐Yeon%Lee%NULL%1,          Sung Soon%Kim%NULL%1,          Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,         Jeong‐Min%Kim%NULL%1,         Hee‐Dong%Jung%NULL%1,         Hyang‐Min%Cheong%NULL%1,         Anna%Lee%NULL%1,         Nam‐Joo%Lee%NULL%1,         Hyuk%Chu%NULL%1,         Joo‐Yeon%Lee%NULL%1,         Sung Soon%Kim%NULL%1,         Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,          Juansheng%Li%lijsh16@163.com%1,          Lei%Meng%mleicdc@163.com%1,          Wanqi%Zhu%NULL%1,          Xinfeng%Liu%NULL%1,          Mei%Yang%NULL%1,          Deshan%Yu%NULL%2,          Lixia%Niu%NULL%1,          Xiping%Shen%NULL%1,         Xuechao%Li%NULL%1,         Juansheng%Li%lijsh16@163.com%1,         Lei%Meng%mleicdc@163.com%1,         Wanqi%Zhu%NULL%1,         Xinfeng%Liu%NULL%1,         Mei%Yang%NULL%1,         Deshan%Yu%NULL%2,         Lixia%Niu%NULL%1,         Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,          James G.%Bosley%NULL%1,         Christine M.%Litwin%clitwin@gru.edu%1,         James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,          Elsie Laban%Yekwa%NULL%1,          Pierre%Cappy%NULL%1,          Astrid%Vabret%NULL%2,          Pascal%Boisier%NULL%1,          Dominique%Rousset%NULL%1,         Richard%Njouom%NULL%1,         Elsie Laban%Yekwa%NULL%1,         Pierre%Cappy%NULL%1,         Astrid%Vabret%NULL%2,         Pascal%Boisier%NULL%1,         Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,          Suvi%Lappalainen%NULL%1,          Timo%Vesikari%NULL%1,         Minna%Paloniemi%NULL%1,         Suvi%Lappalainen%NULL%1,         Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,          Richard%Gonzalez%NULL%1,          Jin%Xu%NULL%1,          Yan%Xiao%NULL%1,          Yongjun%Li%NULL%1,          Hongli%Zhou%NULL%1,          Jianguo%Li%NULL%1,          Qingqing%Yang%NULL%1,          Jing%Zhang%NULL%1,          Lan%Chen%NULL%1,          Wei%Wang%NULL%1,          Guy%Vernet%NULL%1,          Gláucia%Paranhos‐Baccalà%NULL%1,          Zhong%Wang%wangzhong523@vip.163.com%1,          Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,         Lili%Ren%NULL%1,         Richard%Gonzalez%NULL%1,         Jin%Xu%NULL%1,         Yan%Xiao%NULL%1,         Yongjun%Li%NULL%1,         Hongli%Zhou%NULL%1,         Jianguo%Li%NULL%1,         Qingqing%Yang%NULL%1,         Jing%Zhang%NULL%1,         Lan%Chen%NULL%1,         Wei%Wang%NULL%1,         Guy%Vernet%NULL%1,         Gláucia%Paranhos‐Baccalà%NULL%1,         Zhong%Wang%wangzhong523@vip.163.com%1,         Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,      Druelle%Valentin%coreGivesNoEmail%1,      Dyrdak%Robert%coreGivesNoEmail%1,      Hodcroft%Emma B.%coreGivesNoEmail%1,      Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,          Ilada%Thongpan%ilada.cu09@gmail.com%1,          Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,          Chanpim%Vuthitanachot%viboovut@hotmail.com%1,          Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,          Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,          Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,          Yong%Poovorawan%yong.p@chula.ac.th%1,         Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,         Ilada%Thongpan%ilada.cu09@gmail.com%1,         Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,         Chanpim%Vuthitanachot%viboovut@hotmail.com%1,         Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,         Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,         Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,         Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,          Janet A%Englund%NULL%1,          Jane Y%Kuypers%NULL%1,          Helen Y%Chu%NULL%1,          Mark C%Steinhoff%NULL%1,          Subarna K%Khatry%NULL%1,          Steve C%LeClerq%NULL%1,          James M%Tielsch%NULL%1,          Luke C%Mullany%NULL%1,          Laxman%Shrestha%NULL%2,          Joanne%Katz%jkatz1@jhu.edu%2,         S M Iftekhar%Uddin%NULL%1,         Janet A%Englund%NULL%1,         Jane Y%Kuypers%NULL%1,         Helen Y%Chu%NULL%1,         Mark C%Steinhoff%NULL%1,         Subarna K%Khatry%NULL%1,         Steve C%LeClerq%NULL%1,         James M%Tielsch%NULL%1,         Luke C%Mullany%NULL%1,         Laxman%Shrestha%NULL%2,         Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,          Joanne%Katz%NULL%0,          James%Tielsch%NULL%1,          Subarna K.%Khatry%NULL%1,          Laxman%Shrestha%NULL%0,          Steven C.%LeClerq%NULL%1,          Amalia%Magaret%NULL%1,          Jane%Kuypers%NULL%1,          Mark%Steinhoff%NULL%1,          Janet A.%Englund%NULL%1,         Helen Y.%Chu%helenchu@uw.edu%1,         Joanne%Katz%NULL%0,         James%Tielsch%NULL%1,         Subarna K.%Khatry%NULL%1,         Laxman%Shrestha%NULL%0,         Steven C.%LeClerq%NULL%1,         Amalia%Magaret%NULL%1,         Jane%Kuypers%NULL%1,         Mark%Steinhoff%NULL%1,         Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,          Gabriele%Ihorst%NULL%1,          Klaus%Sure%NULL%1,          Astrid%Vabret%NULL%0,          Ronald%Dijkman%NULL%1,          Michel%de Vries%NULL%1,          Johannes%Forster%NULL%1,          Ben%Berkhout%NULL%1,          Klaus%Uberla%NULL%1,         Lia%van der Hoek%NULL%1,         Gabriele%Ihorst%NULL%1,         Klaus%Sure%NULL%1,         Astrid%Vabret%NULL%0,         Ronald%Dijkman%NULL%1,         Michel%de Vries%NULL%1,         Johannes%Forster%NULL%1,         Ben%Berkhout%NULL%1,         Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,          Philip%Zachariah%pz2177@cumc.columbia.edu%1,          Celibell%Vargas%NULL%1,          Philip%LaRussa%NULL%1,          Ryan T%Demmer%NULL%1,          Yoko E%Furuya%NULL%1,          Susan%Whittier%NULL%1,          Carrie%Reed%NULL%1,          Melissa S%Stockwell%NULL%1,          Lisa%Saiman%NULL%1,         Litty%Varghese%NULL%1,         Philip%Zachariah%pz2177@cumc.columbia.edu%1,         Celibell%Vargas%NULL%1,         Philip%LaRussa%NULL%1,         Ryan T%Demmer%NULL%1,         Yoko E%Furuya%NULL%1,         Susan%Whittier%NULL%1,         Carrie%Reed%NULL%1,         Melissa S%Stockwell%NULL%1,         Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,          Ria%Lassaunière%NULL%1,          Tina Louise%Kresfelder%NULL%1,          Yvette%Westerberg%NULL%1,          Adele%Visser%NULL%1,         Marietjie%Venter%marietjiev@nicd.ac.za%1,         Ria%Lassaunière%NULL%1,         Tina Louise%Kresfelder%NULL%1,         Yvette%Westerberg%NULL%1,         Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,          Charles%Burdet%NULL%1,          Guillaume%Voiriot%NULL%1,          François-Xavier%Lescure%NULL%1,          Taous%Chougar%NULL%1,          Olivier%Brugière%NULL%1,          Bruno%Crestani%NULL%1,          Enrique%Casalino%NULL%1,          Charlotte%Charpentier%NULL%1,          Diane%Descamps%NULL%1,          Jean-François%Timsit%NULL%1,          Yazdan%Yazdanpanah%NULL%1,          Nadhira%Houhou-Fidouh%NULL%1,          Dena L.%Schanzer%NULL%1,         Benoit%Visseaux%NULL%1,         Charles%Burdet%NULL%1,         Guillaume%Voiriot%NULL%1,         François-Xavier%Lescure%NULL%1,         Taous%Chougar%NULL%1,         Olivier%Brugière%NULL%1,         Bruno%Crestani%NULL%1,         Enrique%Casalino%NULL%1,         Charlotte%Charpentier%NULL%1,         Diane%Descamps%NULL%1,         Jean-François%Timsit%NULL%1,         Yazdan%Yazdanpanah%NULL%1,         Nadhira%Houhou-Fidouh%NULL%1,         Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,          Deshan%Yu%NULL%0,          Naiying%Mao%NULL%1,          Zhen%Zhu%NULL%1,          Hui%Zhang%NULL%1,          Zhongyi%Jiang%NULL%1,          Hongyu%Li%NULL%1,          Yan%Zhang%NULL%1,          Jing%Shi%NULL%1,          Shuang%Zhang%NULL%1,          Xinhua%Wang%NULL%1,          Wenbo%Xu%NULL%1,          Dong-Yan%Jin%NULL%1,         Guohong%Huang%NULL%1,         Deshan%Yu%NULL%0,         Naiying%Mao%NULL%1,         Zhen%Zhu%NULL%1,         Hui%Zhang%NULL%1,         Zhongyi%Jiang%NULL%1,         Hongyu%Li%NULL%1,         Yan%Zhang%NULL%1,         Jing%Shi%NULL%1,         Shuang%Zhang%NULL%1,         Xinhua%Wang%NULL%1,         Wenbo%Xu%NULL%1,         Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,          Jiu-ling%Tuo%NULL%1,          Xu-bin%Huang%NULL%1,          Xun%Zhu%NULL%1,          Ding-mei%Zhang%NULL%1,          Kai%Zhou%NULL%1,          Lei%Yuan%NULL%1,          Hong-jiao%Luo%NULL%1,          Bo-jian%Zheng%NULL%1,          Kwok-yung%Yuen%NULL%1,          Meng-feng%Li%NULL%1,          Kai-yuan%Cao%NULL%1,          Lin%Xu%NULL%1,          Stefan%Pöhlmann%NULL%1,         Su-fen%Zhang%NULL%1,         Jiu-ling%Tuo%NULL%1,         Xu-bin%Huang%NULL%1,         Xun%Zhu%NULL%1,         Ding-mei%Zhang%NULL%1,         Kai%Zhou%NULL%1,         Lei%Yuan%NULL%1,         Hong-jiao%Luo%NULL%1,         Bo-jian%Zheng%NULL%1,         Kwok-yung%Yuen%NULL%1,         Meng-feng%Li%NULL%1,         Kai-yuan%Cao%NULL%1,         Lin%Xu%NULL%1,         Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,         Rachel M%Reeves%null%1,         Xin%Wang%null%1,         Quique%Bassat%null%1,         W Abdullah%Brooks%null%1,         Cheryl%Cohen%null%1,         David P%Moore%null%1,         Marta%Nunes%null%1,         Barbara%Rath%null%1,         Harry%Campbell%null%1,         Harish%Nair%null%1,         Sozinho%Acacio%null%1,         Wladimir J%Alonso%null%1,         Martin%Antonio%null%1,         Guadalupe%Ayora Talavera%null%1,         Darmaa%Badarch%null%1,         Vicky L%Baillie%null%1,         Gisela%Barrera-Badillo%null%1,         Godfrey%Bigogo%null%1,         Shobha%Broor%null%1,         Dana%Bruden%null%1,         Philippe%Buchy%null%1,         Peter%Byass%null%1,         James%Chipeta%null%1,         Wilfrido%Clara%null%1,         Duc-Anh%Dang%null%1,         Carla Cecília%de Freitas Lázaro Emediato%null%1,         Menno%de Jong%null%1,         José Alberto%Díaz-Quiñonez%null%1,         Lien Anh Ha%Do%null%1,         Rodrigo A%Fasce%null%1,         Luzhao%Feng%null%1,         Mark J%Ferson%null%1,         Angela%Gentile%null%1,         Bradford D%Gessner%null%1,         Doli%Goswami%null%1,         Sophie%Goyet%null%1,         Carlos G%Grijalva%null%1,         Natasha%Halasa%null%1,         Orienka%Hellferscee%null%1,         Danielle%Hessong%null%1,         Nusrat%Homaira%null%1,         Jorge%Jara%null%1,         Kathleen%Kahn%null%1,         Najwa%Khuri-Bulos%null%1,         Karen L%Kotloff%null%1,         Claudio F%Lanata%null%1,         Olga%Lopez%null%1,         Maria Renee%Lopez Bolaños%null%1,         Marilla G%Lucero%null%1,         Florencia%Lucion%null%1,         Socorro P%Lupisan%null%1,         Shabir A%Madhi%null%1,         Omphile%Mekgoe%null%1,         Cinta%Moraleda%null%1,         Jocelyn%Moyes%null%1,         Kim%Mulholland%null%1,         Patrick K%Munywoki%null%1,         Fathima%Naby%null%1,         Thanh Hung%Nguyen%null%1,         Mark P%Nicol%null%1,         D James%Nokes%null%1,         Daniel E%Noyola%null%1,         Daisuke%Onozuka%null%1,         Nandhini%Palani%null%1,         Yong%Poovorawan%null%1,         Mustafizur%Rahman%null%1,         Kaat%Ramaekers%null%1,         Candice%Romero%null%1,         Elizabeth P%Schlaudecker%null%1,         Brunhilde%Schweiger%null%1,         Phil%Seidenberg%null%1,         Eric A F%Simoes%null%1,         Rosalyn%Singleton%null%1,         Sujatha%Sistla%null%1,         Katharine%Sturm-Ramirez%null%1,         Nungruthai%Suntronwong%null%1,         Agustinus%Sutanto%null%1,         Milagritos D%Tapia%null%1,         Somsak%Thamthitiwat%null%1,         Ilada%Thongpan%null%1,         Gayani%Tillekeratne%null%1,         Yeny O%Tinoco%null%1,         Florette K%Treurnicht%null%1,         Claudia%Turner%null%1,         Paul%Turner%null%1,         Rogier%van Doorn%null%1,         Marc%Van Ranst%null%2,         Benoit%Visseaux%null%1,         Sunthareeya%Waicharoen%null%1,         Jianwei%Wang%null%1,         Lay-Myint%Yoshida%null%1,         Heather J%Zar%null%1,     You%Li%null%1,     Rachel M%Reeves%null%1,     Xin%Wang%null%1,     Quique%Bassat%null%1,     W Abdullah%Brooks%null%1,     Cheryl%Cohen%null%1,     David P%Moore%null%1,     Marta%Nunes%null%1,     Barbara%Rath%null%1,     Harry%Campbell%null%1,     Harish%Nair%null%1,     Sozinho%Acacio%null%1,     Wladimir J%Alonso%null%1,     Martin%Antonio%null%1,     Guadalupe%Ayora Talavera%null%1,     Darmaa%Badarch%null%1,     Vicky L%Baillie%null%1,     Gisela%Barrera-Badillo%null%1,     Godfrey%Bigogo%null%1,     Shobha%Broor%null%1,     Dana%Bruden%null%1,     Philippe%Buchy%null%1,     Peter%Byass%null%1,     James%Chipeta%null%1,     Wilfrido%Clara%null%1,     Duc-Anh%Dang%null%1,     Carla Cecília%de Freitas Lázaro Emediato%null%1,     Menno%de Jong%null%1,     José Alberto%Díaz-Quiñonez%null%1,     Lien Anh Ha%Do%null%1,     Rodrigo A%Fasce%null%1,     Luzhao%Feng%null%2,     Mark J%Ferson%null%1,     Angela%Gentile%null%1,     Bradford D%Gessner%null%1,     Doli%Goswami%null%1,     Sophie%Goyet%null%1,     Carlos G%Grijalva%null%1,     Natasha%Halasa%null%1,     Orienka%Hellferscee%null%1,     Danielle%Hessong%null%1,     Nusrat%Homaira%null%1,     Jorge%Jara%null%1,     Kathleen%Kahn%null%1,     Najwa%Khuri-Bulos%null%1,     Karen L%Kotloff%null%1,     Claudio F%Lanata%null%1,     Olga%Lopez%null%1,     Maria Renee%Lopez Bolaños%null%1,     Marilla G%Lucero%null%1,     Florencia%Lucion%null%1,     Socorro P%Lupisan%null%1,     Shabir A%Madhi%null%1,     Omphile%Mekgoe%null%1,     Cinta%Moraleda%null%1,     Jocelyn%Moyes%null%1,     Kim%Mulholland%null%1,     Patrick K%Munywoki%null%1,     Fathima%Naby%null%1,     Thanh Hung%Nguyen%null%1,     Mark P%Nicol%null%1,     D James%Nokes%null%1,     Daniel E%Noyola%null%1,     Daisuke%Onozuka%null%1,     Nandhini%Palani%null%1,     Yong%Poovorawan%null%1,     Mustafizur%Rahman%null%1,     Kaat%Ramaekers%null%1,     Candice%Romero%null%1,     Elizabeth P%Schlaudecker%null%1,     Brunhilde%Schweiger%null%1,     Phil%Seidenberg%null%1,     Eric A F%Simoes%null%1,     Rosalyn%Singleton%null%1,     Sujatha%Sistla%null%1,     Katharine%Sturm-Ramirez%null%1,     Nungruthai%Suntronwong%null%1,     Agustinus%Sutanto%null%1,     Milagritos D%Tapia%null%1,     Somsak%Thamthitiwat%null%1,     Ilada%Thongpan%null%1,     Gayani%Tillekeratne%null%1,     Yeny O%Tinoco%null%1,     Florette K%Treurnicht%null%1,     Claudia%Turner%null%1,     Paul%Turner%null%1,     Rogier%van Doorn%null%1,     Marc%Van Ranst%null%3,     Benoit%Visseaux%null%1,     Sunthareeya%Waicharoen%null%1,     Jianwei%Wang%null%6,     Lay-Myint%Yoshida%null%1,     Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,       Jack%Bee Chook%coreGivesNoEmail%1,       Kim%Tien Ng%coreGivesNoEmail%1,       Kok%Keng Tee%coreGivesNoEmail%1,       Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,       Nik%Sherina Hanafi%coreGivesNoEmail%1,       van%der Hoek%coreGivesNoEmail%2,       van%der Hoek%coreGivesNoEmail%0,       van%Elden%coreGivesNoEmail%1,       Xiang%Yong Oong%coreGivesNoEmail%1,       Yong%Kek Pang%coreGivesNoEmail%1,       Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,           Dangui%Zhang%danguizhang@stu.edu.cn%1,           Hui%Pan%michaelpan@stu.edu.cn%1,           Fan%Zhang%lemon_fan@163.com%1,           Jeremy%Farrar%jeremyjfarrar@gmail.com%1,           Frieda%Law%lawf@stu.edu.cn%1,           H Rogier%van Doorn%hrogier@gmail.com%1,           Beiyan%Wu%1261305798@qq.com%1,           William%Ba-Thein%wbathein@stu.edu.cn%1,          Binglin%Cui%binglincui@stu.edu.cn%1,          Dangui%Zhang%danguizhang@stu.edu.cn%1,          Hui%Pan%michaelpan@stu.edu.cn%1,          Fan%Zhang%lemon_fan@163.com%1,          Jeremy%Farrar%jeremyjfarrar@gmail.com%1,          Frieda%Law%lawf@stu.edu.cn%1,          H Rogier%van Doorn%hrogier@gmail.com%1,          Beiyan%Wu%1261305798@qq.com%1,          William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,       Andrew%Berglund%coreGivesNoEmail%1,       Christine%C. Robinson%coreGivesNoEmail%1,       Christopher%D. Town%coreGivesNoEmail%1,       Edison%Luiz Durigon%coreGivesNoEmail%1,       Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,       Kathryn%V. Holmes%coreGivesNoEmail%1,       Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,       Nadia%Fedorova%coreGivesNoEmail%1,       Philip%A. Weston%coreGivesNoEmail%1,       Rebecca%A. Halpin%coreGivesNoEmail%1,       Samuel%R. Dominguez%coreGivesNoEmail%1,       Susmita%Shrivastava%coreGivesNoEmail%1,       Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,           Lifeng%Pan%NULL%1,           Qiao%Sun%NULL%1,           Weiping%Zhu%NULL%1,           Linying%Zhu%NULL%1,           Chuchu%Ye%NULL%1,           Caoyi%Xue%NULL%1,           Yuanping%Wang%NULL%1,           Qing%Liu%NULL%1,           Ping%Ma%NULL%1,           Huifang%Qiu%NULL%1,           Srinand%Sreevatsan%NULL%1,          Yifei%Fu%NULL%1,          Lifeng%Pan%NULL%1,          Qiao%Sun%NULL%1,          Weiping%Zhu%NULL%1,          Linying%Zhu%NULL%1,          Chuchu%Ye%NULL%1,          Caoyi%Xue%NULL%1,          Yuanping%Wang%NULL%1,          Qing%Liu%NULL%1,          Ping%Ma%NULL%1,          Huifang%Qiu%NULL%1,          Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,           Mumtaz Cem%Sirin%NULL%1,          Safak%Goktas%NULL%1,          Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,           Nina%Moe%NULL%1,           Sidsel%Krokstad%NULL%2,           Andreas%Christensen%NULL%2,           Lars Høsøien%Skanke%NULL%2,           Svein Arne%Nordbø%NULL%2,           Henrik%Døllner%henrik.dollner@ntnu.no%2,          Inger%Heimdal%NULL%1,          Nina%Moe%NULL%2,          Sidsel%Krokstad%NULL%2,          Andreas%Christensen%NULL%2,          Lars Høsøien%Skanke%NULL%2,          Svein Arne%Nordbø%NULL%2,          Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,           Inger Heimdal%Stenseng%NULL%1,           Sidsel%Krokstad%NULL%0,           Andreas%Christensen%NULL%0,           Lars Høsøien%Skanke%NULL%0,           Kari Ravndal%Risnes%NULL%1,           Svein Arne%Nordbø%NULL%0,           Henrik%Døllner%henrik.dollner@ntnu.no%0,          Nina%Moe%NULL%0,          Inger Heimdal%Stenseng%NULL%1,          Sidsel%Krokstad%NULL%0,          Andreas%Christensen%NULL%0,          Lars Høsøien%Skanke%NULL%0,          Kari Ravndal%Risnes%NULL%1,          Svein Arne%Nordbø%NULL%0,          Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,           Andrej%Steyer%NULL%1,           Marko%Pokorn%NULL%1,           Tatjana%Mrvič%NULL%1,           Štefan%Grosek%NULL%1,           Franc%Strle%NULL%1,           Lara%Lusa%NULL%1,           Miroslav%Petrovec%NULL%1,           Oliver%Schildgen%NULL%1,          Monika%Jevšnik%NULL%1,          Andrej%Steyer%NULL%1,          Marko%Pokorn%NULL%1,          Tatjana%Mrvič%NULL%1,          Štefan%Grosek%NULL%1,          Franc%Strle%NULL%1,          Lara%Lusa%NULL%1,          Miroslav%Petrovec%NULL%1,          Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,           Matti%Waris%NULL%1,           Kari%Johansen%NULL%1,           René%Snacken%NULL%1,           Pasi%Penttinen%NULL%1,           NULL%NULL%NULL%3,          Eeva K%Broberg%NULL%1,          Matti%Waris%NULL%1,          Kari%Johansen%NULL%1,          René%Snacken%NULL%1,          Pasi%Penttinen%NULL%1,          NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,           Qiaoyun%Fang%NULL%1,           Jian%Zhang%NULL%1,           Angao%Xu%NULL%1,           Lihuan%Liang%NULL%1,           Changwen%Ke%hzmedicine@163.com%1,          Xiongfei%Ju%NULL%1,          Qiaoyun%Fang%NULL%1,          Jian%Zhang%NULL%1,          Angao%Xu%NULL%1,          Lihuan%Liang%NULL%1,          Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,           Holly M.%Biggs%NULL%1,           Amber%Haynes%NULL%1,           Rebecca M.%Dahl%NULL%1,           Desiree%Mustaquim%NULL%1,           Susan I.%Gerber%NULL%1,           John T.%Watson%NULL%1,          Marie E.%Killerby%lxo9@cdc.gov%1,          Holly M.%Biggs%NULL%1,          Amber%Haynes%NULL%1,          Rebecca M.%Dahl%NULL%1,          Desiree%Mustaquim%NULL%1,          Susan I.%Gerber%NULL%1,          John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,           Hee‐Dong%Jung%NULL%1,           Hyang‐Min%Cheong%NULL%1,           Anna%Lee%NULL%1,           Nam‐Joo%Lee%NULL%1,           Hyuk%Chu%NULL%1,           Joo‐Yeon%Lee%NULL%1,           Sung Soon%Kim%NULL%1,           Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,          Jeong‐Min%Kim%NULL%1,          Hee‐Dong%Jung%NULL%1,          Hyang‐Min%Cheong%NULL%1,          Anna%Lee%NULL%1,          Nam‐Joo%Lee%NULL%1,          Hyuk%Chu%NULL%1,          Joo‐Yeon%Lee%NULL%1,          Sung Soon%Kim%NULL%1,          Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,           Juansheng%Li%lijsh16@163.com%1,           Lei%Meng%mleicdc@163.com%1,           Wanqi%Zhu%NULL%1,           Xinfeng%Liu%NULL%1,           Mei%Yang%NULL%1,           Deshan%Yu%NULL%2,           Lixia%Niu%NULL%1,           Xiping%Shen%NULL%1,          Xuechao%Li%NULL%1,          Juansheng%Li%lijsh16@163.com%1,          Lei%Meng%mleicdc@163.com%1,          Wanqi%Zhu%NULL%1,          Xinfeng%Liu%NULL%1,          Mei%Yang%NULL%1,          Deshan%Yu%NULL%2,          Lixia%Niu%NULL%1,          Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,           James G.%Bosley%NULL%1,          Christine M.%Litwin%clitwin@gru.edu%1,          James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,           Elsie Laban%Yekwa%NULL%1,           Pierre%Cappy%NULL%1,           Astrid%Vabret%NULL%2,           Pascal%Boisier%NULL%1,           Dominique%Rousset%NULL%1,          Richard%Njouom%NULL%1,          Elsie Laban%Yekwa%NULL%1,          Pierre%Cappy%NULL%1,          Astrid%Vabret%NULL%2,          Pascal%Boisier%NULL%1,          Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,           Suvi%Lappalainen%NULL%1,           Timo%Vesikari%NULL%1,          Minna%Paloniemi%NULL%1,          Suvi%Lappalainen%NULL%1,          Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,           Richard%Gonzalez%NULL%1,           Jin%Xu%NULL%1,           Yan%Xiao%NULL%1,           Yongjun%Li%NULL%1,           Hongli%Zhou%NULL%1,           Jianguo%Li%NULL%1,           Qingqing%Yang%NULL%1,           Jing%Zhang%NULL%1,           Lan%Chen%NULL%1,           Wei%Wang%NULL%1,           Guy%Vernet%NULL%1,           Gláucia%Paranhos‐Baccalà%NULL%1,           Zhong%Wang%wangzhong523@vip.163.com%1,           Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,          Lili%Ren%NULL%1,          Richard%Gonzalez%NULL%1,          Jin%Xu%NULL%1,          Yan%Xiao%NULL%1,          Yongjun%Li%NULL%1,          Hongli%Zhou%NULL%1,          Jianguo%Li%NULL%1,          Qingqing%Yang%NULL%1,          Jing%Zhang%NULL%1,          Lan%Chen%NULL%1,          Wei%Wang%NULL%1,          Guy%Vernet%NULL%1,          Gláucia%Paranhos‐Baccalà%NULL%1,          Zhong%Wang%wangzhong523@vip.163.com%1,          Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,       Druelle%Valentin%coreGivesNoEmail%1,       Dyrdak%Robert%coreGivesNoEmail%1,       Hodcroft%Emma B.%coreGivesNoEmail%1,       Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,           Ilada%Thongpan%ilada.cu09@gmail.com%1,           Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,           Chanpim%Vuthitanachot%viboovut@hotmail.com%1,           Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,           Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,           Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,           Yong%Poovorawan%yong.p@chula.ac.th%1,          Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,          Ilada%Thongpan%ilada.cu09@gmail.com%1,          Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,          Chanpim%Vuthitanachot%viboovut@hotmail.com%1,          Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,          Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,          Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,          Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,           Janet A%Englund%NULL%1,           Jane Y%Kuypers%NULL%1,           Helen Y%Chu%NULL%1,           Mark C%Steinhoff%NULL%1,           Subarna K%Khatry%NULL%1,           Steve C%LeClerq%NULL%1,           James M%Tielsch%NULL%1,           Luke C%Mullany%NULL%1,           Laxman%Shrestha%NULL%2,           Joanne%Katz%jkatz1@jhu.edu%2,          S M Iftekhar%Uddin%NULL%1,          Janet A%Englund%NULL%1,          Jane Y%Kuypers%NULL%1,          Helen Y%Chu%NULL%1,          Mark C%Steinhoff%NULL%1,          Subarna K%Khatry%NULL%1,          Steve C%LeClerq%NULL%1,          James M%Tielsch%NULL%1,          Luke C%Mullany%NULL%1,          Laxman%Shrestha%NULL%2,          Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,           Joanne%Katz%NULL%0,           James%Tielsch%NULL%1,           Subarna K.%Khatry%NULL%1,           Laxman%Shrestha%NULL%0,           Steven C.%LeClerq%NULL%1,           Amalia%Magaret%NULL%1,           Jane%Kuypers%NULL%1,           Mark%Steinhoff%NULL%1,           Janet A.%Englund%NULL%1,          Helen Y.%Chu%helenchu@uw.edu%1,          Joanne%Katz%NULL%0,          James%Tielsch%NULL%1,          Subarna K.%Khatry%NULL%1,          Laxman%Shrestha%NULL%0,          Steven C.%LeClerq%NULL%1,          Amalia%Magaret%NULL%1,          Jane%Kuypers%NULL%1,          Mark%Steinhoff%NULL%1,          Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,           Gabriele%Ihorst%NULL%1,           Klaus%Sure%NULL%1,           Astrid%Vabret%NULL%0,           Ronald%Dijkman%NULL%1,           Michel%de Vries%NULL%1,           Johannes%Forster%NULL%1,           Ben%Berkhout%NULL%1,           Klaus%Uberla%NULL%1,          Lia%van der Hoek%NULL%1,          Gabriele%Ihorst%NULL%1,          Klaus%Sure%NULL%1,          Astrid%Vabret%NULL%0,          Ronald%Dijkman%NULL%1,          Michel%de Vries%NULL%1,          Johannes%Forster%NULL%1,          Ben%Berkhout%NULL%1,          Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,           Philip%Zachariah%pz2177@cumc.columbia.edu%1,           Celibell%Vargas%NULL%1,           Philip%LaRussa%NULL%1,           Ryan T%Demmer%NULL%1,           Yoko E%Furuya%NULL%1,           Susan%Whittier%NULL%1,           Carrie%Reed%NULL%1,           Melissa S%Stockwell%NULL%1,           Lisa%Saiman%NULL%1,          Litty%Varghese%NULL%1,          Philip%Zachariah%pz2177@cumc.columbia.edu%1,          Celibell%Vargas%NULL%1,          Philip%LaRussa%NULL%1,          Ryan T%Demmer%NULL%1,          Yoko E%Furuya%NULL%1,          Susan%Whittier%NULL%1,          Carrie%Reed%NULL%1,          Melissa S%Stockwell%NULL%1,          Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,           Ria%Lassaunière%NULL%1,           Tina Louise%Kresfelder%NULL%1,           Yvette%Westerberg%NULL%1,           Adele%Visser%NULL%1,          Marietjie%Venter%marietjiev@nicd.ac.za%1,          Ria%Lassaunière%NULL%1,          Tina Louise%Kresfelder%NULL%1,          Yvette%Westerberg%NULL%1,          Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,           Charles%Burdet%NULL%1,           Guillaume%Voiriot%NULL%1,           François-Xavier%Lescure%NULL%1,           Taous%Chougar%NULL%1,           Olivier%Brugière%NULL%1,           Bruno%Crestani%NULL%1,           Enrique%Casalino%NULL%1,           Charlotte%Charpentier%NULL%1,           Diane%Descamps%NULL%1,           Jean-François%Timsit%NULL%1,           Yazdan%Yazdanpanah%NULL%1,           Nadhira%Houhou-Fidouh%NULL%1,           Dena L.%Schanzer%NULL%1,          Benoit%Visseaux%NULL%1,          Charles%Burdet%NULL%1,          Guillaume%Voiriot%NULL%1,          François-Xavier%Lescure%NULL%1,          Taous%Chougar%NULL%1,          Olivier%Brugière%NULL%1,          Bruno%Crestani%NULL%1,          Enrique%Casalino%NULL%1,          Charlotte%Charpentier%NULL%1,          Diane%Descamps%NULL%1,          Jean-François%Timsit%NULL%1,          Yazdan%Yazdanpanah%NULL%1,          Nadhira%Houhou-Fidouh%NULL%1,          Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,           Deshan%Yu%NULL%0,           Naiying%Mao%NULL%1,           Zhen%Zhu%NULL%1,           Hui%Zhang%NULL%1,           Zhongyi%Jiang%NULL%1,           Hongyu%Li%NULL%1,           Yan%Zhang%NULL%1,           Jing%Shi%NULL%1,           Shuang%Zhang%NULL%1,           Xinhua%Wang%NULL%1,           Wenbo%Xu%NULL%1,           Dong-Yan%Jin%NULL%1,          Guohong%Huang%NULL%1,          Deshan%Yu%NULL%0,          Naiying%Mao%NULL%1,          Zhen%Zhu%NULL%1,          Hui%Zhang%NULL%1,          Zhongyi%Jiang%NULL%1,          Hongyu%Li%NULL%1,          Yan%Zhang%NULL%1,          Jing%Shi%NULL%1,          Shuang%Zhang%NULL%1,          Xinhua%Wang%NULL%1,          Wenbo%Xu%NULL%1,          Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,           Jiu-ling%Tuo%NULL%1,           Xu-bin%Huang%NULL%1,           Xun%Zhu%NULL%1,           Ding-mei%Zhang%NULL%1,           Kai%Zhou%NULL%1,           Lei%Yuan%NULL%1,           Hong-jiao%Luo%NULL%1,           Bo-jian%Zheng%NULL%1,           Kwok-yung%Yuen%NULL%1,           Meng-feng%Li%NULL%1,           Kai-yuan%Cao%NULL%1,           Lin%Xu%NULL%1,           Stefan%Pöhlmann%NULL%1,          Su-fen%Zhang%NULL%1,          Jiu-ling%Tuo%NULL%1,          Xu-bin%Huang%NULL%1,          Xun%Zhu%NULL%1,          Ding-mei%Zhang%NULL%1,          Kai%Zhou%NULL%1,          Lei%Yuan%NULL%1,          Hong-jiao%Luo%NULL%1,          Bo-jian%Zheng%NULL%1,          Kwok-yung%Yuen%NULL%1,          Meng-feng%Li%NULL%1,          Kai-yuan%Cao%NULL%1,          Lin%Xu%NULL%1,          Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,          Rachel M%Reeves%null%1,          Xin%Wang%null%1,          Quique%Bassat%null%1,          W Abdullah%Brooks%null%1,          Cheryl%Cohen%null%1,          David P%Moore%null%1,          Marta%Nunes%null%1,          Barbara%Rath%null%1,          Harry%Campbell%null%1,          Harish%Nair%null%1,          Sozinho%Acacio%null%1,          Wladimir J%Alonso%null%1,          Martin%Antonio%null%1,          Guadalupe%Ayora Talavera%null%1,          Darmaa%Badarch%null%1,          Vicky L%Baillie%null%1,          Gisela%Barrera-Badillo%null%1,          Godfrey%Bigogo%null%1,          Shobha%Broor%null%1,          Dana%Bruden%null%1,          Philippe%Buchy%null%1,          Peter%Byass%null%1,          James%Chipeta%null%1,          Wilfrido%Clara%null%1,          Duc-Anh%Dang%null%1,          Carla Cecília%de Freitas Lázaro Emediato%null%1,          Menno%de Jong%null%1,          José Alberto%Díaz-Quiñonez%null%1,          Lien Anh Ha%Do%null%1,          Rodrigo A%Fasce%null%1,          Luzhao%Feng%null%1,          Mark J%Ferson%null%1,          Angela%Gentile%null%1,          Bradford D%Gessner%null%1,          Doli%Goswami%null%1,          Sophie%Goyet%null%1,          Carlos G%Grijalva%null%1,          Natasha%Halasa%null%1,          Orienka%Hellferscee%null%1,          Danielle%Hessong%null%1,          Nusrat%Homaira%null%1,          Jorge%Jara%null%1,          Kathleen%Kahn%null%1,          Najwa%Khuri-Bulos%null%1,          Karen L%Kotloff%null%1,          Claudio F%Lanata%null%1,          Olga%Lopez%null%1,          Maria Renee%Lopez Bolaños%null%1,          Marilla G%Lucero%null%1,          Florencia%Lucion%null%1,          Socorro P%Lupisan%null%1,          Shabir A%Madhi%null%1,          Omphile%Mekgoe%null%1,          Cinta%Moraleda%null%1,          Jocelyn%Moyes%null%1,          Kim%Mulholland%null%1,          Patrick K%Munywoki%null%1,          Fathima%Naby%null%1,          Thanh Hung%Nguyen%null%1,          Mark P%Nicol%null%1,          D James%Nokes%null%1,          Daniel E%Noyola%null%1,          Daisuke%Onozuka%null%1,          Nandhini%Palani%null%1,          Yong%Poovorawan%null%1,          Mustafizur%Rahman%null%1,          Kaat%Ramaekers%null%1,          Candice%Romero%null%1,          Elizabeth P%Schlaudecker%null%1,          Brunhilde%Schweiger%null%1,          Phil%Seidenberg%null%1,          Eric A F%Simoes%null%1,          Rosalyn%Singleton%null%1,          Sujatha%Sistla%null%1,          Katharine%Sturm-Ramirez%null%1,          Nungruthai%Suntronwong%null%1,          Agustinus%Sutanto%null%1,          Milagritos D%Tapia%null%1,          Somsak%Thamthitiwat%null%1,          Ilada%Thongpan%null%1,          Gayani%Tillekeratne%null%1,          Yeny O%Tinoco%null%1,          Florette K%Treurnicht%null%1,          Claudia%Turner%null%1,          Paul%Turner%null%1,          Rogier%van Doorn%null%1,          Marc%Van Ranst%null%2,          Benoit%Visseaux%null%1,          Sunthareeya%Waicharoen%null%1,          Jianwei%Wang%null%1,          Lay-Myint%Yoshida%null%1,          Heather J%Zar%null%1,      You%Li%null%1,      Rachel M%Reeves%null%1,      Xin%Wang%null%1,      Quique%Bassat%null%1,      W Abdullah%Brooks%null%1,      Cheryl%Cohen%null%1,      David P%Moore%null%1,      Marta%Nunes%null%1,      Barbara%Rath%null%1,      Harry%Campbell%null%1,      Harish%Nair%null%1,      Sozinho%Acacio%null%1,      Wladimir J%Alonso%null%1,      Martin%Antonio%null%1,      Guadalupe%Ayora Talavera%null%1,      Darmaa%Badarch%null%1,      Vicky L%Baillie%null%1,      Gisela%Barrera-Badillo%null%1,      Godfrey%Bigogo%null%1,      Shobha%Broor%null%1,      Dana%Bruden%null%1,      Philippe%Buchy%null%1,      Peter%Byass%null%1,      James%Chipeta%null%1,      Wilfrido%Clara%null%1,      Duc-Anh%Dang%null%1,      Carla Cecília%de Freitas Lázaro Emediato%null%1,      Menno%de Jong%null%1,      José Alberto%Díaz-Quiñonez%null%1,      Lien Anh Ha%Do%null%1,      Rodrigo A%Fasce%null%1,      Luzhao%Feng%null%2,      Mark J%Ferson%null%1,      Angela%Gentile%null%1,      Bradford D%Gessner%null%1,      Doli%Goswami%null%1,      Sophie%Goyet%null%1,      Carlos G%Grijalva%null%1,      Natasha%Halasa%null%1,      Orienka%Hellferscee%null%1,      Danielle%Hessong%null%1,      Nusrat%Homaira%null%1,      Jorge%Jara%null%1,      Kathleen%Kahn%null%1,      Najwa%Khuri-Bulos%null%1,      Karen L%Kotloff%null%1,      Claudio F%Lanata%null%1,      Olga%Lopez%null%1,      Maria Renee%Lopez Bolaños%null%1,      Marilla G%Lucero%null%1,      Florencia%Lucion%null%1,      Socorro P%Lupisan%null%1,      Shabir A%Madhi%null%1,      Omphile%Mekgoe%null%1,      Cinta%Moraleda%null%1,      Jocelyn%Moyes%null%1,      Kim%Mulholland%null%1,      Patrick K%Munywoki%null%1,      Fathima%Naby%null%1,      Thanh Hung%Nguyen%null%1,      Mark P%Nicol%null%1,      D James%Nokes%null%1,      Daniel E%Noyola%null%1,      Daisuke%Onozuka%null%1,      Nandhini%Palani%null%1,      Yong%Poovorawan%null%1,      Mustafizur%Rahman%null%1,      Kaat%Ramaekers%null%1,      Candice%Romero%null%1,      Elizabeth P%Schlaudecker%null%1,      Brunhilde%Schweiger%null%1,      Phil%Seidenberg%null%1,      Eric A F%Simoes%null%1,      Rosalyn%Singleton%null%1,      Sujatha%Sistla%null%1,      Katharine%Sturm-Ramirez%null%1,      Nungruthai%Suntronwong%null%1,      Agustinus%Sutanto%null%1,      Milagritos D%Tapia%null%1,      Somsak%Thamthitiwat%null%1,      Ilada%Thongpan%null%1,      Gayani%Tillekeratne%null%1,      Yeny O%Tinoco%null%1,      Florette K%Treurnicht%null%1,      Claudia%Turner%null%1,      Paul%Turner%null%1,      Rogier%van Doorn%null%1,      Marc%Van Ranst%null%3,      Benoit%Visseaux%null%1,      Sunthareeya%Waicharoen%null%1,      Jianwei%Wang%null%6,      Lay-Myint%Yoshida%null%1,      Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,        Jack%Bee Chook%coreGivesNoEmail%1,        Kim%Tien Ng%coreGivesNoEmail%1,        Kok%Keng Tee%coreGivesNoEmail%1,        Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,        Nik%Sherina Hanafi%coreGivesNoEmail%1,        van%der Hoek%coreGivesNoEmail%2,        van%der Hoek%coreGivesNoEmail%0,        van%Elden%coreGivesNoEmail%1,        Xiang%Yong Oong%coreGivesNoEmail%1,        Yong%Kek Pang%coreGivesNoEmail%1,        Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,            Dangui%Zhang%danguizhang@stu.edu.cn%1,            Hui%Pan%michaelpan@stu.edu.cn%1,            Fan%Zhang%lemon_fan@163.com%1,            Jeremy%Farrar%jeremyjfarrar@gmail.com%1,            Frieda%Law%lawf@stu.edu.cn%1,            H Rogier%van Doorn%hrogier@gmail.com%1,            Beiyan%Wu%1261305798@qq.com%1,            William%Ba-Thein%wbathein@stu.edu.cn%1,           Binglin%Cui%binglincui@stu.edu.cn%1,           Dangui%Zhang%danguizhang@stu.edu.cn%1,           Hui%Pan%michaelpan@stu.edu.cn%1,           Fan%Zhang%lemon_fan@163.com%1,           Jeremy%Farrar%jeremyjfarrar@gmail.com%1,           Frieda%Law%lawf@stu.edu.cn%1,           H Rogier%van Doorn%hrogier@gmail.com%1,           Beiyan%Wu%1261305798@qq.com%1,           William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,        Andrew%Berglund%coreGivesNoEmail%1,        Christine%C. Robinson%coreGivesNoEmail%1,        Christopher%D. Town%coreGivesNoEmail%1,        Edison%Luiz Durigon%coreGivesNoEmail%1,        Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,        Kathryn%V. Holmes%coreGivesNoEmail%1,        Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,        Nadia%Fedorova%coreGivesNoEmail%1,        Philip%A. Weston%coreGivesNoEmail%1,        Rebecca%A. Halpin%coreGivesNoEmail%1,        Samuel%R. Dominguez%coreGivesNoEmail%1,        Susmita%Shrivastava%coreGivesNoEmail%1,        Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,            Lifeng%Pan%NULL%1,            Qiao%Sun%NULL%1,            Weiping%Zhu%NULL%1,            Linying%Zhu%NULL%1,            Chuchu%Ye%NULL%1,            Caoyi%Xue%NULL%1,            Yuanping%Wang%NULL%1,            Qing%Liu%NULL%1,            Ping%Ma%NULL%1,            Huifang%Qiu%NULL%1,            Srinand%Sreevatsan%NULL%1,           Yifei%Fu%NULL%1,           Lifeng%Pan%NULL%1,           Qiao%Sun%NULL%1,           Weiping%Zhu%NULL%1,           Linying%Zhu%NULL%1,           Chuchu%Ye%NULL%1,           Caoyi%Xue%NULL%1,           Yuanping%Wang%NULL%1,           Qing%Liu%NULL%1,           Ping%Ma%NULL%1,           Huifang%Qiu%NULL%1,           Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,            Mumtaz Cem%Sirin%NULL%1,           Safak%Goktas%NULL%1,           Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,            Nina%Moe%NULL%1,            Sidsel%Krokstad%NULL%2,            Andreas%Christensen%NULL%2,            Lars Høsøien%Skanke%NULL%2,            Svein Arne%Nordbø%NULL%2,            Henrik%Døllner%henrik.dollner@ntnu.no%2,           Inger%Heimdal%NULL%1,           Nina%Moe%NULL%2,           Sidsel%Krokstad%NULL%2,           Andreas%Christensen%NULL%2,           Lars Høsøien%Skanke%NULL%2,           Svein Arne%Nordbø%NULL%2,           Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,            Inger Heimdal%Stenseng%NULL%1,            Sidsel%Krokstad%NULL%0,            Andreas%Christensen%NULL%0,            Lars Høsøien%Skanke%NULL%0,            Kari Ravndal%Risnes%NULL%1,            Svein Arne%Nordbø%NULL%0,            Henrik%Døllner%henrik.dollner@ntnu.no%0,           Nina%Moe%NULL%0,           Inger Heimdal%Stenseng%NULL%1,           Sidsel%Krokstad%NULL%0,           Andreas%Christensen%NULL%0,           Lars Høsøien%Skanke%NULL%0,           Kari Ravndal%Risnes%NULL%1,           Svein Arne%Nordbø%NULL%0,           Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,            Andrej%Steyer%NULL%1,            Marko%Pokorn%NULL%1,            Tatjana%Mrvič%NULL%1,            Štefan%Grosek%NULL%1,            Franc%Strle%NULL%1,            Lara%Lusa%NULL%1,            Miroslav%Petrovec%NULL%1,            Oliver%Schildgen%NULL%1,           Monika%Jevšnik%NULL%1,           Andrej%Steyer%NULL%1,           Marko%Pokorn%NULL%1,           Tatjana%Mrvič%NULL%1,           Štefan%Grosek%NULL%1,           Franc%Strle%NULL%1,           Lara%Lusa%NULL%1,           Miroslav%Petrovec%NULL%1,           Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,            Matti%Waris%NULL%1,            Kari%Johansen%NULL%1,            René%Snacken%NULL%1,            Pasi%Penttinen%NULL%1,            NULL%NULL%NULL%3,           Eeva K%Broberg%NULL%1,           Matti%Waris%NULL%1,           Kari%Johansen%NULL%1,           René%Snacken%NULL%1,           Pasi%Penttinen%NULL%1,           NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,            Qiaoyun%Fang%NULL%1,            Jian%Zhang%NULL%1,            Angao%Xu%NULL%1,            Lihuan%Liang%NULL%1,            Changwen%Ke%hzmedicine@163.com%1,           Xiongfei%Ju%NULL%1,           Qiaoyun%Fang%NULL%1,           Jian%Zhang%NULL%1,           Angao%Xu%NULL%1,           Lihuan%Liang%NULL%1,           Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,            Holly M.%Biggs%NULL%1,            Amber%Haynes%NULL%1,            Rebecca M.%Dahl%NULL%1,            Desiree%Mustaquim%NULL%1,            Susan I.%Gerber%NULL%1,            John T.%Watson%NULL%1,           Marie E.%Killerby%lxo9@cdc.gov%1,           Holly M.%Biggs%NULL%1,           Amber%Haynes%NULL%1,           Rebecca M.%Dahl%NULL%1,           Desiree%Mustaquim%NULL%1,           Susan I.%Gerber%NULL%1,           John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,            Hee‐Dong%Jung%NULL%1,            Hyang‐Min%Cheong%NULL%1,            Anna%Lee%NULL%1,            Nam‐Joo%Lee%NULL%1,            Hyuk%Chu%NULL%1,            Joo‐Yeon%Lee%NULL%1,            Sung Soon%Kim%NULL%1,            Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,           Jeong‐Min%Kim%NULL%1,           Hee‐Dong%Jung%NULL%1,           Hyang‐Min%Cheong%NULL%1,           Anna%Lee%NULL%1,           Nam‐Joo%Lee%NULL%1,           Hyuk%Chu%NULL%1,           Joo‐Yeon%Lee%NULL%1,           Sung Soon%Kim%NULL%1,           Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,            Juansheng%Li%lijsh16@163.com%1,            Lei%Meng%mleicdc@163.com%1,            Wanqi%Zhu%NULL%1,            Xinfeng%Liu%NULL%1,            Mei%Yang%NULL%1,            Deshan%Yu%NULL%2,            Lixia%Niu%NULL%1,            Xiping%Shen%NULL%1,           Xuechao%Li%NULL%1,           Juansheng%Li%lijsh16@163.com%1,           Lei%Meng%mleicdc@163.com%1,           Wanqi%Zhu%NULL%1,           Xinfeng%Liu%NULL%1,           Mei%Yang%NULL%1,           Deshan%Yu%NULL%2,           Lixia%Niu%NULL%1,           Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,            James G.%Bosley%NULL%1,           Christine M.%Litwin%clitwin@gru.edu%1,           James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,            Elsie Laban%Yekwa%NULL%1,            Pierre%Cappy%NULL%1,            Astrid%Vabret%NULL%2,            Pascal%Boisier%NULL%1,            Dominique%Rousset%NULL%1,           Richard%Njouom%NULL%1,           Elsie Laban%Yekwa%NULL%1,           Pierre%Cappy%NULL%1,           Astrid%Vabret%NULL%2,           Pascal%Boisier%NULL%1,           Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,            Suvi%Lappalainen%NULL%1,            Timo%Vesikari%NULL%1,           Minna%Paloniemi%NULL%1,           Suvi%Lappalainen%NULL%1,           Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,            Richard%Gonzalez%NULL%1,            Jin%Xu%NULL%1,            Yan%Xiao%NULL%1,            Yongjun%Li%NULL%1,            Hongli%Zhou%NULL%1,            Jianguo%Li%NULL%1,            Qingqing%Yang%NULL%1,            Jing%Zhang%NULL%1,            Lan%Chen%NULL%1,            Wei%Wang%NULL%1,            Guy%Vernet%NULL%1,            Gláucia%Paranhos‐Baccalà%NULL%1,            Zhong%Wang%wangzhong523@vip.163.com%1,            Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,           Lili%Ren%NULL%1,           Richard%Gonzalez%NULL%1,           Jin%Xu%NULL%1,           Yan%Xiao%NULL%1,           Yongjun%Li%NULL%1,           Hongli%Zhou%NULL%1,           Jianguo%Li%NULL%1,           Qingqing%Yang%NULL%1,           Jing%Zhang%NULL%1,           Lan%Chen%NULL%1,           Wei%Wang%NULL%1,           Guy%Vernet%NULL%1,           Gláucia%Paranhos‐Baccalà%NULL%1,           Zhong%Wang%wangzhong523@vip.163.com%1,           Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,        Druelle%Valentin%coreGivesNoEmail%1,        Dyrdak%Robert%coreGivesNoEmail%1,        Hodcroft%Emma B.%coreGivesNoEmail%1,        Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,            Ilada%Thongpan%ilada.cu09@gmail.com%1,            Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,            Chanpim%Vuthitanachot%viboovut@hotmail.com%1,            Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,            Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,            Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,            Yong%Poovorawan%yong.p@chula.ac.th%1,           Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,           Ilada%Thongpan%ilada.cu09@gmail.com%1,           Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,           Chanpim%Vuthitanachot%viboovut@hotmail.com%1,           Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,           Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,           Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,           Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,            Janet A%Englund%NULL%1,            Jane Y%Kuypers%NULL%1,            Helen Y%Chu%NULL%1,            Mark C%Steinhoff%NULL%1,            Subarna K%Khatry%NULL%1,            Steve C%LeClerq%NULL%1,            James M%Tielsch%NULL%1,            Luke C%Mullany%NULL%1,            Laxman%Shrestha%NULL%2,            Joanne%Katz%jkatz1@jhu.edu%2,           S M Iftekhar%Uddin%NULL%1,           Janet A%Englund%NULL%1,           Jane Y%Kuypers%NULL%1,           Helen Y%Chu%NULL%1,           Mark C%Steinhoff%NULL%1,           Subarna K%Khatry%NULL%1,           Steve C%LeClerq%NULL%1,           James M%Tielsch%NULL%1,           Luke C%Mullany%NULL%1,           Laxman%Shrestha%NULL%2,           Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,            Joanne%Katz%NULL%0,            James%Tielsch%NULL%1,            Subarna K.%Khatry%NULL%1,            Laxman%Shrestha%NULL%0,            Steven C.%LeClerq%NULL%1,            Amalia%Magaret%NULL%1,            Jane%Kuypers%NULL%1,            Mark%Steinhoff%NULL%1,            Janet A.%Englund%NULL%1,           Helen Y.%Chu%helenchu@uw.edu%1,           Joanne%Katz%NULL%0,           James%Tielsch%NULL%1,           Subarna K.%Khatry%NULL%1,           Laxman%Shrestha%NULL%0,           Steven C.%LeClerq%NULL%1,           Amalia%Magaret%NULL%1,           Jane%Kuypers%NULL%1,           Mark%Steinhoff%NULL%1,           Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,            Gabriele%Ihorst%NULL%1,            Klaus%Sure%NULL%1,            Astrid%Vabret%NULL%0,            Ronald%Dijkman%NULL%1,            Michel%de Vries%NULL%1,            Johannes%Forster%NULL%1,            Ben%Berkhout%NULL%1,            Klaus%Uberla%NULL%1,           Lia%van der Hoek%NULL%1,           Gabriele%Ihorst%NULL%1,           Klaus%Sure%NULL%1,           Astrid%Vabret%NULL%0,           Ronald%Dijkman%NULL%1,           Michel%de Vries%NULL%1,           Johannes%Forster%NULL%1,           Ben%Berkhout%NULL%1,           Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,            Philip%Zachariah%pz2177@cumc.columbia.edu%1,            Celibell%Vargas%NULL%1,            Philip%LaRussa%NULL%1,            Ryan T%Demmer%NULL%1,            Yoko E%Furuya%NULL%1,            Susan%Whittier%NULL%1,            Carrie%Reed%NULL%1,            Melissa S%Stockwell%NULL%1,            Lisa%Saiman%NULL%1,           Litty%Varghese%NULL%1,           Philip%Zachariah%pz2177@cumc.columbia.edu%1,           Celibell%Vargas%NULL%1,           Philip%LaRussa%NULL%1,           Ryan T%Demmer%NULL%1,           Yoko E%Furuya%NULL%1,           Susan%Whittier%NULL%1,           Carrie%Reed%NULL%1,           Melissa S%Stockwell%NULL%1,           Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,            Ria%Lassaunière%NULL%1,            Tina Louise%Kresfelder%NULL%1,            Yvette%Westerberg%NULL%1,            Adele%Visser%NULL%1,           Marietjie%Venter%marietjiev@nicd.ac.za%1,           Ria%Lassaunière%NULL%1,           Tina Louise%Kresfelder%NULL%1,           Yvette%Westerberg%NULL%1,           Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,            Charles%Burdet%NULL%1,            Guillaume%Voiriot%NULL%1,            François-Xavier%Lescure%NULL%1,            Taous%Chougar%NULL%1,            Olivier%Brugière%NULL%1,            Bruno%Crestani%NULL%1,            Enrique%Casalino%NULL%1,            Charlotte%Charpentier%NULL%1,            Diane%Descamps%NULL%1,            Jean-François%Timsit%NULL%1,            Yazdan%Yazdanpanah%NULL%1,            Nadhira%Houhou-Fidouh%NULL%1,            Dena L.%Schanzer%NULL%1,           Benoit%Visseaux%NULL%1,           Charles%Burdet%NULL%1,           Guillaume%Voiriot%NULL%1,           François-Xavier%Lescure%NULL%1,           Taous%Chougar%NULL%1,           Olivier%Brugière%NULL%1,           Bruno%Crestani%NULL%1,           Enrique%Casalino%NULL%1,           Charlotte%Charpentier%NULL%1,           Diane%Descamps%NULL%1,           Jean-François%Timsit%NULL%1,           Yazdan%Yazdanpanah%NULL%1,           Nadhira%Houhou-Fidouh%NULL%1,           Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,            Deshan%Yu%NULL%0,            Naiying%Mao%NULL%1,            Zhen%Zhu%NULL%1,            Hui%Zhang%NULL%1,            Zhongyi%Jiang%NULL%1,            Hongyu%Li%NULL%1,            Yan%Zhang%NULL%1,            Jing%Shi%NULL%1,            Shuang%Zhang%NULL%1,            Xinhua%Wang%NULL%1,            Wenbo%Xu%NULL%1,            Dong-Yan%Jin%NULL%1,           Guohong%Huang%NULL%1,           Deshan%Yu%NULL%0,           Naiying%Mao%NULL%1,           Zhen%Zhu%NULL%1,           Hui%Zhang%NULL%1,           Zhongyi%Jiang%NULL%1,           Hongyu%Li%NULL%1,           Yan%Zhang%NULL%1,           Jing%Shi%NULL%1,           Shuang%Zhang%NULL%1,           Xinhua%Wang%NULL%1,           Wenbo%Xu%NULL%1,           Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,            Jiu-ling%Tuo%NULL%1,            Xu-bin%Huang%NULL%1,            Xun%Zhu%NULL%1,            Ding-mei%Zhang%NULL%1,            Kai%Zhou%NULL%1,            Lei%Yuan%NULL%1,            Hong-jiao%Luo%NULL%1,            Bo-jian%Zheng%NULL%1,            Kwok-yung%Yuen%NULL%1,            Meng-feng%Li%NULL%1,            Kai-yuan%Cao%NULL%1,            Lin%Xu%NULL%1,            Stefan%Pöhlmann%NULL%1,           Su-fen%Zhang%NULL%1,           Jiu-ling%Tuo%NULL%1,           Xu-bin%Huang%NULL%1,           Xun%Zhu%NULL%1,           Ding-mei%Zhang%NULL%1,           Kai%Zhou%NULL%1,           Lei%Yuan%NULL%1,           Hong-jiao%Luo%NULL%1,           Bo-jian%Zheng%NULL%1,           Kwok-yung%Yuen%NULL%1,           Meng-feng%Li%NULL%1,           Kai-yuan%Cao%NULL%1,           Lin%Xu%NULL%1,           Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +2010,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -1703,13 +2039,13 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="H3" t="s">
         <v>97</v>
@@ -1761,7 +2097,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -1790,13 +2126,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>432</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -1819,7 +2155,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -1848,7 +2184,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -1877,7 +2213,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -1906,7 +2242,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1964,7 +2300,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1993,7 +2329,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -2022,7 +2358,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2051,7 +2387,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -2080,7 +2416,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>441</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -2196,7 +2532,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2225,7 +2561,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>443</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2283,7 +2619,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -2312,7 +2648,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>333</v>
+        <v>445</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -2341,7 +2677,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>334</v>
+        <v>446</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -2370,13 +2706,13 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
@@ -2399,7 +2735,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -2457,7 +2793,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -2486,7 +2822,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -2515,7 +2851,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -2544,7 +2880,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>452</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -2573,7 +2909,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -2602,7 +2938,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>342</v>
+        <v>454</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -2631,7 +2967,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
+        <v>455</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -2660,7 +2996,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="541">
   <si>
     <t>Doi</t>
   </si>
@@ -1680,6 +1680,269 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,            Jiu-ling%Tuo%NULL%1,            Xu-bin%Huang%NULL%1,            Xun%Zhu%NULL%1,            Ding-mei%Zhang%NULL%1,            Kai%Zhou%NULL%1,            Lei%Yuan%NULL%1,            Hong-jiao%Luo%NULL%1,            Bo-jian%Zheng%NULL%1,            Kwok-yung%Yuen%NULL%1,            Meng-feng%Li%NULL%1,            Kai-yuan%Cao%NULL%1,            Lin%Xu%NULL%1,            Stefan%Pöhlmann%NULL%1,           Su-fen%Zhang%NULL%1,           Jiu-ling%Tuo%NULL%1,           Xu-bin%Huang%NULL%1,           Xun%Zhu%NULL%1,           Ding-mei%Zhang%NULL%1,           Kai%Zhou%NULL%1,           Lei%Yuan%NULL%1,           Hong-jiao%Luo%NULL%1,           Bo-jian%Zheng%NULL%1,           Kwok-yung%Yuen%NULL%1,           Meng-feng%Li%NULL%1,           Kai-yuan%Cao%NULL%1,           Lin%Xu%NULL%1,           Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,           Rachel M%Reeves%null%1,           Xin%Wang%null%1,           Quique%Bassat%null%1,           W Abdullah%Brooks%null%1,           Cheryl%Cohen%null%1,           David P%Moore%null%1,           Marta%Nunes%null%1,           Barbara%Rath%null%1,           Harry%Campbell%null%1,           Harish%Nair%null%1,           Sozinho%Acacio%null%1,           Wladimir J%Alonso%null%1,           Martin%Antonio%null%1,           Guadalupe%Ayora Talavera%null%1,           Darmaa%Badarch%null%1,           Vicky L%Baillie%null%1,           Gisela%Barrera-Badillo%null%1,           Godfrey%Bigogo%null%1,           Shobha%Broor%null%1,           Dana%Bruden%null%1,           Philippe%Buchy%null%1,           Peter%Byass%null%1,           James%Chipeta%null%1,           Wilfrido%Clara%null%1,           Duc-Anh%Dang%null%1,           Carla Cecília%de Freitas Lázaro Emediato%null%1,           Menno%de Jong%null%1,           José Alberto%Díaz-Quiñonez%null%1,           Lien Anh Ha%Do%null%1,           Rodrigo A%Fasce%null%1,           Luzhao%Feng%null%1,           Mark J%Ferson%null%1,           Angela%Gentile%null%1,           Bradford D%Gessner%null%1,           Doli%Goswami%null%1,           Sophie%Goyet%null%1,           Carlos G%Grijalva%null%1,           Natasha%Halasa%null%1,           Orienka%Hellferscee%null%1,           Danielle%Hessong%null%1,           Nusrat%Homaira%null%1,           Jorge%Jara%null%1,           Kathleen%Kahn%null%1,           Najwa%Khuri-Bulos%null%1,           Karen L%Kotloff%null%1,           Claudio F%Lanata%null%1,           Olga%Lopez%null%1,           Maria Renee%Lopez Bolaños%null%1,           Marilla G%Lucero%null%1,           Florencia%Lucion%null%1,           Socorro P%Lupisan%null%1,           Shabir A%Madhi%null%1,           Omphile%Mekgoe%null%1,           Cinta%Moraleda%null%1,           Jocelyn%Moyes%null%1,           Kim%Mulholland%null%1,           Patrick K%Munywoki%null%1,           Fathima%Naby%null%1,           Thanh Hung%Nguyen%null%1,           Mark P%Nicol%null%1,           D James%Nokes%null%1,           Daniel E%Noyola%null%1,           Daisuke%Onozuka%null%1,           Nandhini%Palani%null%1,           Yong%Poovorawan%null%1,           Mustafizur%Rahman%null%1,           Kaat%Ramaekers%null%1,           Candice%Romero%null%1,           Elizabeth P%Schlaudecker%null%1,           Brunhilde%Schweiger%null%1,           Phil%Seidenberg%null%1,           Eric A F%Simoes%null%1,           Rosalyn%Singleton%null%1,           Sujatha%Sistla%null%1,           Katharine%Sturm-Ramirez%null%1,           Nungruthai%Suntronwong%null%1,           Agustinus%Sutanto%null%1,           Milagritos D%Tapia%null%1,           Somsak%Thamthitiwat%null%1,           Ilada%Thongpan%null%1,           Gayani%Tillekeratne%null%1,           Yeny O%Tinoco%null%1,           Florette K%Treurnicht%null%1,           Claudia%Turner%null%1,           Paul%Turner%null%1,           Rogier%van Doorn%null%1,           Marc%Van Ranst%null%2,           Benoit%Visseaux%null%1,           Sunthareeya%Waicharoen%null%1,           Jianwei%Wang%null%1,           Lay-Myint%Yoshida%null%1,           Heather J%Zar%null%1,       You%Li%null%1,       Rachel M%Reeves%null%1,       Xin%Wang%null%1,       Quique%Bassat%null%1,       W Abdullah%Brooks%null%1,       Cheryl%Cohen%null%1,       David P%Moore%null%1,       Marta%Nunes%null%1,       Barbara%Rath%null%1,       Harry%Campbell%null%1,       Harish%Nair%null%1,       Sozinho%Acacio%null%1,       Wladimir J%Alonso%null%1,       Martin%Antonio%null%1,       Guadalupe%Ayora Talavera%null%1,       Darmaa%Badarch%null%1,       Vicky L%Baillie%null%1,       Gisela%Barrera-Badillo%null%1,       Godfrey%Bigogo%null%1,       Shobha%Broor%null%1,       Dana%Bruden%null%1,       Philippe%Buchy%null%1,       Peter%Byass%null%1,       James%Chipeta%null%1,       Wilfrido%Clara%null%1,       Duc-Anh%Dang%null%1,       Carla Cecília%de Freitas Lázaro Emediato%null%1,       Menno%de Jong%null%1,       José Alberto%Díaz-Quiñonez%null%1,       Lien Anh Ha%Do%null%1,       Rodrigo A%Fasce%null%1,       Luzhao%Feng%null%2,       Mark J%Ferson%null%1,       Angela%Gentile%null%1,       Bradford D%Gessner%null%1,       Doli%Goswami%null%1,       Sophie%Goyet%null%1,       Carlos G%Grijalva%null%1,       Natasha%Halasa%null%1,       Orienka%Hellferscee%null%1,       Danielle%Hessong%null%1,       Nusrat%Homaira%null%1,       Jorge%Jara%null%1,       Kathleen%Kahn%null%1,       Najwa%Khuri-Bulos%null%1,       Karen L%Kotloff%null%1,       Claudio F%Lanata%null%1,       Olga%Lopez%null%1,       Maria Renee%Lopez Bolaños%null%1,       Marilla G%Lucero%null%1,       Florencia%Lucion%null%1,       Socorro P%Lupisan%null%1,       Shabir A%Madhi%null%1,       Omphile%Mekgoe%null%1,       Cinta%Moraleda%null%1,       Jocelyn%Moyes%null%1,       Kim%Mulholland%null%1,       Patrick K%Munywoki%null%1,       Fathima%Naby%null%1,       Thanh Hung%Nguyen%null%1,       Mark P%Nicol%null%1,       D James%Nokes%null%1,       Daniel E%Noyola%null%1,       Daisuke%Onozuka%null%1,       Nandhini%Palani%null%1,       Yong%Poovorawan%null%1,       Mustafizur%Rahman%null%1,       Kaat%Ramaekers%null%1,       Candice%Romero%null%1,       Elizabeth P%Schlaudecker%null%1,       Brunhilde%Schweiger%null%1,       Phil%Seidenberg%null%1,       Eric A F%Simoes%null%1,       Rosalyn%Singleton%null%1,       Sujatha%Sistla%null%1,       Katharine%Sturm-Ramirez%null%1,       Nungruthai%Suntronwong%null%1,       Agustinus%Sutanto%null%1,       Milagritos D%Tapia%null%1,       Somsak%Thamthitiwat%null%1,       Ilada%Thongpan%null%1,       Gayani%Tillekeratne%null%1,       Yeny O%Tinoco%null%1,       Florette K%Treurnicht%null%1,       Claudia%Turner%null%1,       Paul%Turner%null%1,       Rogier%van Doorn%null%1,       Marc%Van Ranst%null%3,       Benoit%Visseaux%null%1,       Sunthareeya%Waicharoen%null%1,       Jianwei%Wang%null%5,       Lay-Myint%Yoshida%null%1,       Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,         Jack%Bee Chook%coreGivesNoEmail%1,         Kim%Tien Ng%coreGivesNoEmail%1,         Kok%Keng Tee%coreGivesNoEmail%1,         Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,         Nik%Sherina Hanafi%coreGivesNoEmail%1,         van%der Hoek%coreGivesNoEmail%2,         van%der Hoek%coreGivesNoEmail%0,         van%Elden%coreGivesNoEmail%1,         Xiang%Yong Oong%coreGivesNoEmail%1,         Yong%Kek Pang%coreGivesNoEmail%1,         Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>"Seasonal variations of 15 respiratory agents illustrated by the application of a multiplex polymerase chain reaction assay"</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1, Lars-Magnus%Andersson%xref no email%1, Sigvard%Olofsson%xref no email%1, Magnus%Lindh%xref no email%1, Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,             Dangui%Zhang%danguizhang@stu.edu.cn%1,             Hui%Pan%michaelpan@stu.edu.cn%1,             Fan%Zhang%lemon_fan@163.com%1,             Jeremy%Farrar%jeremyjfarrar@gmail.com%1,             Frieda%Law%lawf@stu.edu.cn%1,             H Rogier%van Doorn%hrogier@gmail.com%1,             Beiyan%Wu%1261305798@qq.com%1,             William%Ba-Thein%wbathein@stu.edu.cn%1,            Binglin%Cui%binglincui@stu.edu.cn%1,            Dangui%Zhang%danguizhang@stu.edu.cn%1,            Hui%Pan%michaelpan@stu.edu.cn%1,            Fan%Zhang%lemon_fan@163.com%1,            Jeremy%Farrar%jeremyjfarrar@gmail.com%1,            Frieda%Law%lawf@stu.edu.cn%1,            H Rogier%van Doorn%hrogier@gmail.com%1,            Beiyan%Wu%1261305798@qq.com%1,            William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,         Andrew%Berglund%coreGivesNoEmail%1,         Christine%C. Robinson%coreGivesNoEmail%1,         Christopher%D. Town%coreGivesNoEmail%1,         Edison%Luiz Durigon%coreGivesNoEmail%1,         Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,         Kathryn%V. Holmes%coreGivesNoEmail%1,         Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,         Nadia%Fedorova%coreGivesNoEmail%1,         Philip%A. Weston%coreGivesNoEmail%1,         Rebecca%A. Halpin%coreGivesNoEmail%1,         Samuel%R. Dominguez%coreGivesNoEmail%1,         Susmita%Shrivastava%coreGivesNoEmail%1,         Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,             Lifeng%Pan%NULL%1,             Qiao%Sun%NULL%1,             Weiping%Zhu%NULL%1,             Linying%Zhu%NULL%1,             Chuchu%Ye%NULL%1,             Caoyi%Xue%NULL%1,             Yuanping%Wang%NULL%1,             Qing%Liu%NULL%1,             Ping%Ma%NULL%1,             Huifang%Qiu%NULL%1,             Srinand%Sreevatsan%NULL%1,            Yifei%Fu%NULL%1,            Lifeng%Pan%NULL%1,            Qiao%Sun%NULL%1,            Weiping%Zhu%NULL%1,            Linying%Zhu%NULL%1,            Chuchu%Ye%NULL%1,            Caoyi%Xue%NULL%1,            Yuanping%Wang%NULL%1,            Qing%Liu%NULL%1,            Ping%Ma%NULL%1,            Huifang%Qiu%NULL%1,            Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,             Mumtaz Cem%Sirin%NULL%1,            Safak%Goktas%NULL%1,            Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,             Nina%Moe%NULL%1,             Sidsel%Krokstad%NULL%2,             Andreas%Christensen%NULL%2,             Lars Høsøien%Skanke%NULL%2,             Svein Arne%Nordbø%NULL%2,             Henrik%Døllner%henrik.dollner@ntnu.no%2,            Inger%Heimdal%NULL%1,            Nina%Moe%NULL%2,            Sidsel%Krokstad%NULL%2,            Andreas%Christensen%NULL%2,            Lars Høsøien%Skanke%NULL%2,            Svein Arne%Nordbø%NULL%2,            Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,             Inger Heimdal%Stenseng%NULL%1,             Sidsel%Krokstad%NULL%0,             Andreas%Christensen%NULL%0,             Lars Høsøien%Skanke%NULL%0,             Kari Ravndal%Risnes%NULL%1,             Svein Arne%Nordbø%NULL%0,             Henrik%Døllner%henrik.dollner@ntnu.no%0,            Nina%Moe%NULL%0,            Inger Heimdal%Stenseng%NULL%1,            Sidsel%Krokstad%NULL%0,            Andreas%Christensen%NULL%0,            Lars Høsøien%Skanke%NULL%0,            Kari Ravndal%Risnes%NULL%1,            Svein Arne%Nordbø%NULL%0,            Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>"Community-Acquired Pneumonia Requiring Hospitalization among U.S. Children"</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1, Derek J.%Williams%xref no email%1, Sandra R.%Arnold%xref no email%1, Krow%Ampofo%xref no email%1, Anna M.%Bramley%xref no email%1, Carrie%Reed%xref no email%1, Chris%Stockmann%xref no email%1, Evan J.%Anderson%xref no email%1, Carlos G.%Grijalva%xref no email%1, Wesley H.%Self%xref no email%1, Yuwei%Zhu%xref no email%1, Anami%Patel%xref no email%1, Weston%Hymas%xref no email%1, James D.%Chappell%xref no email%1, Robert A.%Kaufman%xref no email%1, J. Herman%Kan%xref no email%1, David%Dansie%xref no email%1, Noel%Lenny%xref no email%1, David R.%Hillyard%xref no email%1, Lia M.%Haynes%xref no email%1, Min%Levine%xref no email%1, Stephen%Lindstrom%xref no email%1, Jonas M.%Winchell%xref no email%1, Jacqueline M.%Katz%xref no email%1, Dean%Erdman%xref no email%1, Eileen%Schneider%xref no email%1, Lauri A.%Hicks%xref no email%1, Richard G.%Wunderink%xref no email%1, Kathryn M.%Edwards%xref no email%1, Andrew T.%Pavia%xref no email%1, Jonathan A.%McCullers%xref no email%1, Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,             Andrej%Steyer%NULL%1,             Marko%Pokorn%NULL%1,             Tatjana%Mrvič%NULL%1,             Štefan%Grosek%NULL%1,             Franc%Strle%NULL%1,             Lara%Lusa%NULL%1,             Miroslav%Petrovec%NULL%1,             Oliver%Schildgen%NULL%1,            Monika%Jevšnik%NULL%1,            Andrej%Steyer%NULL%1,            Marko%Pokorn%NULL%1,            Tatjana%Mrvič%NULL%1,            Štefan%Grosek%NULL%1,            Franc%Strle%NULL%1,            Lara%Lusa%NULL%1,            Miroslav%Petrovec%NULL%1,            Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,             Matti%Waris%NULL%1,             Kari%Johansen%NULL%1,             René%Snacken%NULL%1,             Pasi%Penttinen%NULL%1,             NULL%NULL%NULL%3,            Eeva K%Broberg%NULL%1,            Matti%Waris%NULL%1,            Kari%Johansen%NULL%1,            René%Snacken%NULL%1,            Pasi%Penttinen%NULL%1,            NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,             Qiaoyun%Fang%NULL%1,             Jian%Zhang%NULL%1,             Angao%Xu%NULL%1,             Lihuan%Liang%NULL%1,             Changwen%Ke%hzmedicine@163.com%1,            Xiongfei%Ju%NULL%1,            Qiaoyun%Fang%NULL%1,            Jian%Zhang%NULL%1,            Angao%Xu%NULL%1,            Lihuan%Liang%NULL%1,            Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,             Holly M.%Biggs%NULL%1,             Amber%Haynes%NULL%1,             Rebecca M.%Dahl%NULL%1,             Desiree%Mustaquim%NULL%1,             Susan I.%Gerber%NULL%1,             John T.%Watson%NULL%1,            Marie E.%Killerby%lxo9@cdc.gov%1,            Holly M.%Biggs%NULL%1,            Amber%Haynes%NULL%1,            Rebecca M.%Dahl%NULL%1,            Desiree%Mustaquim%NULL%1,            Susan I.%Gerber%NULL%1,            John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,             Hee‐Dong%Jung%NULL%1,             Hyang‐Min%Cheong%NULL%1,             Anna%Lee%NULL%1,             Nam‐Joo%Lee%NULL%1,             Hyuk%Chu%NULL%1,             Joo‐Yeon%Lee%NULL%1,             Sung Soon%Kim%NULL%1,             Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,            Jeong‐Min%Kim%NULL%1,            Hee‐Dong%Jung%NULL%1,            Hyang‐Min%Cheong%NULL%1,            Anna%Lee%NULL%1,            Nam‐Joo%Lee%NULL%1,            Hyuk%Chu%NULL%1,            Joo‐Yeon%Lee%NULL%1,            Sung Soon%Kim%NULL%1,            Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>"Coronavirus HKU1 and Other Coronavirus Infections in Hong Kong"</t>
+  </si>
+  <si>
+    <t>"ABSTRACT\n          We have recently described the discovery of a novel coronavirus, coronavirus HKU1 (CoV-HKU1), associated with community-acquired pneumonia.
+ However, the clinical spectrum of disease and the epidemiology of CoV-HKU1 infections in relation to infections with other respiratory viruses are unknown.
+ In this 12-month prospective study, 4,181 nasopharyngeal aspirates from patients with acute respiratory tract infections were subjected to reverse transcription-PCRs specific for CoV-HKU1 and human coronaviruses NL63 (HCoV-NL63), OC43 (HCoV-OC43), and 229E (HCoV-229E).
+ Coronaviruses were detected in 87 (2.1%) patients, with 13 (0.3%) positive for CoV-HKU1, 17 (0.4%) positive for HCoV-NL63, 53 (1.3%) positive for HCoV-OC43, and 4 (0.1%) positive for HCoV-229E.
+ Of the 13 patients with CoV-HKU1 infections, 11 were children and 8 had underlying diseases.
+ Similar to the case for other coronaviruses, upper respiratory infection was the most common presentation of CoV-HKU1 infections, although pneumonia, acute bronchiolitis, and asthmatic exacerbation also occurred.
+ Despite a shorter duration of fever (mean, 1.7 days) and no difference in maximum temperature in children with CoV-HKU1 infections compared to patients with most other respiratory virus infections, a high incidence of febrile seizures (50%) was noted, which was significantly higher than those for HCoV-OC43 (14%), adenovirus (9%), human parainfluenza virus 1 (0%), and respiratory syncytial virus (8%) infections.
+ CoV-HKU1 and HCoV-OC43 infections peaked in winter, although cases of the former also occurred in spring to early summer.
+ This is in contrast to HCoV-NL63 infections, which mainly occurred in early summer and autumn but were absent in winter.
+ Two genotypes of CoV-HKU1 cocirculated during the study period.
+ Continuous studies over a longer period are warranted to ascertain the seasonal variation and relative importance of the different coronaviruses.
+ Similar studies in other countries are required to better determine the epidemiology and genetic diversity of CoV-HKU1.</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1, Patrick C. Y.%Woo%xref no email%1, Cyril C. Y.%Yip%xref no email%1, Herman%Tse%xref no email%1, Hoi-wah%Tsoi%xref no email%1, Vincent C. C.%Cheng%xref no email%0, Paul%Lee%xref no email%1, Bone S. F.%Tang%xref no email%1, Chris H. Y.%Cheung%xref no email%1, Rodney A.%Lee%xref no email%1, Lok-yee%So%xref no email%1, Yu-lung%Lau%xref no email%1, Kwok-hung%Chan%xref no email%1, Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>"Etiology of Acute Respiratory Infections in Infants"</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1, Guruprasad R.%Medigeshi%xref no email%1, Vishnu S.%Mishra%xref no email%1, Mojahidul%Islam%xref no email%1, Shivani%Randev%xref no email%1, Aparna%Mukherjee%xref no email%1, Rama%Chaudhry%xref no email%1, Arti%Kapil%xref no email%1, Kana%Ram Jat%xref no email%1, Rakesh%Lodha%xref no email%1, Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>"Prevalence of respiratory virus infection with regard to age, sex, and seasonality factors: A single center experience against children hospitalized during the 10 years"</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1, Shin Hae%Lee%xref no email%1, Eun Kyo%Ha%xref no email%1, Youn Ho%Sheen%xref no email%1, Myong Soon%Sung%xref no email%1, Young-Ho%Jung%xref no email%1, Kyung Suk%Lee%xref no email%1, Hye Mi%Jee%xref no email%1, Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,             Juansheng%Li%lijsh16@163.com%1,             Lei%Meng%mleicdc@163.com%1,             Wanqi%Zhu%NULL%1,             Xinfeng%Liu%NULL%1,             Mei%Yang%NULL%1,             Deshan%Yu%NULL%2,             Lixia%Niu%NULL%1,             Xiping%Shen%NULL%1,            Xuechao%Li%NULL%1,            Juansheng%Li%lijsh16@163.com%1,            Lei%Meng%mleicdc@163.com%1,            Wanqi%Zhu%NULL%1,            Xinfeng%Liu%NULL%1,            Mei%Yang%NULL%1,            Deshan%Yu%NULL%2,            Lixia%Niu%NULL%1,            Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,             James G.%Bosley%NULL%1,            Christine M.%Litwin%clitwin@gru.edu%1,            James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Detection of the Human Coronavirus 229E, HKU1, NL63, and OC43 between 2010 and 2013 in Yamagata, Japan"</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1, Chieko%Abiko%xref no email%1, Tatsuya%Ikeda%xref no email%1, Yoko%Aoki%xref no email%1, Yu%Suzuki%xref no email%1, Kazue%Yahagi%xref no email%1, Yoko%Matsuzaki%xref no email%1, Tsutomu%Itagaki%xref no email%1, Fumio%Katsushima%xref no email%1, Yuriko%Katsushima%xref no email%1, Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,             Elsie Laban%Yekwa%NULL%1,             Pierre%Cappy%NULL%1,             Astrid%Vabret%NULL%2,             Pascal%Boisier%NULL%1,             Dominique%Rousset%NULL%1,            Richard%Njouom%NULL%1,            Elsie Laban%Yekwa%NULL%1,            Pierre%Cappy%NULL%1,            Astrid%Vabret%NULL%2,            Pascal%Boisier%NULL%1,            Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,             Suvi%Lappalainen%NULL%1,             Timo%Vesikari%NULL%1,            Minna%Paloniemi%NULL%1,            Suvi%Lappalainen%NULL%1,            Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,             Richard%Gonzalez%NULL%1,             Jin%Xu%NULL%1,             Yan%Xiao%NULL%1,             Yongjun%Li%NULL%1,             Hongli%Zhou%NULL%1,             Jianguo%Li%NULL%1,             Qingqing%Yang%NULL%1,             Jing%Zhang%NULL%1,             Lan%Chen%NULL%1,             Wei%Wang%NULL%1,             Guy%Vernet%NULL%1,             Gláucia%Paranhos‐Baccalà%NULL%1,             Zhong%Wang%wangzhong523@vip.163.com%1,             Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,            Lili%Ren%NULL%1,            Richard%Gonzalez%NULL%1,            Jin%Xu%NULL%1,            Yan%Xiao%NULL%1,            Yongjun%Li%NULL%1,            Hongli%Zhou%NULL%1,            Jianguo%Li%NULL%1,            Qingqing%Yang%NULL%1,            Jing%Zhang%NULL%1,            Lan%Chen%NULL%1,            Wei%Wang%NULL%1,            Guy%Vernet%NULL%1,            Gláucia%Paranhos‐Baccalà%NULL%1,            Zhong%Wang%wangzhong523@vip.163.com%1,            Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,         Druelle%Valentin%coreGivesNoEmail%1,         Dyrdak%Robert%coreGivesNoEmail%1,         Hodcroft%Emma B.%coreGivesNoEmail%1,         Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,             Ilada%Thongpan%ilada.cu09@gmail.com%1,             Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,             Chanpim%Vuthitanachot%viboovut@hotmail.com%1,             Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,             Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,             Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,             Yong%Poovorawan%yong.p@chula.ac.th%1,            Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,            Ilada%Thongpan%ilada.cu09@gmail.com%1,            Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,            Chanpim%Vuthitanachot%viboovut@hotmail.com%1,            Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,            Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,            Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,            Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>"The Pediatric Infectious Diseases Society Annual Awards, 2010"</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,             Janet A%Englund%NULL%1,             Jane Y%Kuypers%NULL%1,             Helen Y%Chu%NULL%1,             Mark C%Steinhoff%NULL%1,             Subarna K%Khatry%NULL%1,             Steve C%LeClerq%NULL%1,             James M%Tielsch%NULL%1,             Luke C%Mullany%NULL%1,             Laxman%Shrestha%NULL%2,             Joanne%Katz%jkatz1@jhu.edu%2,            S M Iftekhar%Uddin%NULL%1,            Janet A%Englund%NULL%1,            Jane Y%Kuypers%NULL%1,            Helen Y%Chu%NULL%1,            Mark C%Steinhoff%NULL%1,            Subarna K%Khatry%NULL%1,            Steve C%LeClerq%NULL%1,            James M%Tielsch%NULL%1,            Luke C%Mullany%NULL%1,            Laxman%Shrestha%NULL%2,            Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,             Joanne%Katz%NULL%0,             James%Tielsch%NULL%1,             Subarna K.%Khatry%NULL%1,             Laxman%Shrestha%NULL%0,             Steven C.%LeClerq%NULL%1,             Amalia%Magaret%NULL%1,             Jane%Kuypers%NULL%1,             Mark%Steinhoff%NULL%1,             Janet A.%Englund%NULL%1,            Helen Y.%Chu%helenchu@uw.edu%1,            Joanne%Katz%NULL%0,            James%Tielsch%NULL%1,            Subarna K.%Khatry%NULL%1,            Laxman%Shrestha%NULL%0,            Steven C.%LeClerq%NULL%1,            Amalia%Magaret%NULL%1,            Jane%Kuypers%NULL%1,            Mark%Steinhoff%NULL%1,            Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,             Gabriele%Ihorst%NULL%1,             Klaus%Sure%NULL%1,             Astrid%Vabret%NULL%0,             Ronald%Dijkman%NULL%1,             Michel%de Vries%NULL%1,             Johannes%Forster%NULL%1,             Ben%Berkhout%NULL%1,             Klaus%Uberla%NULL%1,            Lia%van der Hoek%NULL%1,            Gabriele%Ihorst%NULL%1,            Klaus%Sure%NULL%1,            Astrid%Vabret%NULL%0,            Ronald%Dijkman%NULL%1,            Michel%de Vries%NULL%1,            Johannes%Forster%NULL%1,            Ben%Berkhout%NULL%1,            Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,             Philip%Zachariah%pz2177@cumc.columbia.edu%1,             Celibell%Vargas%NULL%1,             Philip%LaRussa%NULL%1,             Ryan T%Demmer%NULL%1,             Yoko E%Furuya%NULL%1,             Susan%Whittier%NULL%1,             Carrie%Reed%NULL%1,             Melissa S%Stockwell%NULL%1,             Lisa%Saiman%NULL%1,            Litty%Varghese%NULL%1,            Philip%Zachariah%pz2177@cumc.columbia.edu%1,            Celibell%Vargas%NULL%1,            Philip%LaRussa%NULL%1,            Ryan T%Demmer%NULL%1,            Yoko E%Furuya%NULL%1,            Susan%Whittier%NULL%1,            Carrie%Reed%NULL%1,            Melissa S%Stockwell%NULL%1,            Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,             Ria%Lassaunière%NULL%1,             Tina Louise%Kresfelder%NULL%1,             Yvette%Westerberg%NULL%1,             Adele%Visser%NULL%1,            Marietjie%Venter%marietjiev@nicd.ac.za%1,            Ria%Lassaunière%NULL%1,            Tina Louise%Kresfelder%NULL%1,            Yvette%Westerberg%NULL%1,            Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,             Charles%Burdet%NULL%1,             Guillaume%Voiriot%NULL%1,             François-Xavier%Lescure%NULL%1,             Taous%Chougar%NULL%1,             Olivier%Brugière%NULL%1,             Bruno%Crestani%NULL%1,             Enrique%Casalino%NULL%1,             Charlotte%Charpentier%NULL%1,             Diane%Descamps%NULL%1,             Jean-François%Timsit%NULL%1,             Yazdan%Yazdanpanah%NULL%1,             Nadhira%Houhou-Fidouh%NULL%1,             Dena L.%Schanzer%NULL%1,            Benoit%Visseaux%NULL%1,            Charles%Burdet%NULL%1,            Guillaume%Voiriot%NULL%1,            François-Xavier%Lescure%NULL%1,            Taous%Chougar%NULL%1,            Olivier%Brugière%NULL%1,            Bruno%Crestani%NULL%1,            Enrique%Casalino%NULL%1,            Charlotte%Charpentier%NULL%1,            Diane%Descamps%NULL%1,            Jean-François%Timsit%NULL%1,            Yazdan%Yazdanpanah%NULL%1,            Nadhira%Houhou-Fidouh%NULL%1,            Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,             Deshan%Yu%NULL%0,             Naiying%Mao%NULL%1,             Zhen%Zhu%NULL%1,             Hui%Zhang%NULL%1,             Zhongyi%Jiang%NULL%1,             Hongyu%Li%NULL%1,             Yan%Zhang%NULL%1,             Jing%Shi%NULL%1,             Shuang%Zhang%NULL%1,             Xinhua%Wang%NULL%1,             Wenbo%Xu%NULL%1,             Dong-Yan%Jin%NULL%1,            Guohong%Huang%NULL%1,            Deshan%Yu%NULL%0,            Naiying%Mao%NULL%1,            Zhen%Zhu%NULL%1,            Hui%Zhang%NULL%1,            Zhongyi%Jiang%NULL%1,            Hongyu%Li%NULL%1,            Yan%Zhang%NULL%1,            Jing%Shi%NULL%1,            Shuang%Zhang%NULL%1,            Xinhua%Wang%NULL%1,            Wenbo%Xu%NULL%1,            Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,             Jiu-ling%Tuo%NULL%1,             Xu-bin%Huang%NULL%1,             Xun%Zhu%NULL%1,             Ding-mei%Zhang%NULL%1,             Kai%Zhou%NULL%1,             Lei%Yuan%NULL%1,             Hong-jiao%Luo%NULL%1,             Bo-jian%Zheng%NULL%1,             Kwok-yung%Yuen%NULL%1,             Meng-feng%Li%NULL%1,             Kai-yuan%Cao%NULL%1,             Lin%Xu%NULL%1,             Stefan%Pöhlmann%NULL%1,            Su-fen%Zhang%NULL%1,            Jiu-ling%Tuo%NULL%1,            Xu-bin%Huang%NULL%1,            Xun%Zhu%NULL%1,            Ding-mei%Zhang%NULL%1,            Kai%Zhou%NULL%1,            Lei%Yuan%NULL%1,            Hong-jiao%Luo%NULL%1,            Bo-jian%Zheng%NULL%1,            Kwok-yung%Yuen%NULL%1,            Meng-feng%Li%NULL%1,            Kai-yuan%Cao%NULL%1,            Lin%Xu%NULL%1,            Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,            Rachel M%Reeves%null%1,            Xin%Wang%null%1,            Quique%Bassat%null%1,            W Abdullah%Brooks%null%1,            Cheryl%Cohen%null%1,            David P%Moore%null%1,            Marta%Nunes%null%1,            Barbara%Rath%null%1,            Harry%Campbell%null%1,            Harish%Nair%null%1,            Sozinho%Acacio%null%1,            Wladimir J%Alonso%null%1,            Martin%Antonio%null%1,            Guadalupe%Ayora Talavera%null%1,            Darmaa%Badarch%null%1,            Vicky L%Baillie%null%1,            Gisela%Barrera-Badillo%null%1,            Godfrey%Bigogo%null%1,            Shobha%Broor%null%1,            Dana%Bruden%null%1,            Philippe%Buchy%null%1,            Peter%Byass%null%1,            James%Chipeta%null%1,            Wilfrido%Clara%null%1,            Duc-Anh%Dang%null%1,            Carla Cecília%de Freitas Lázaro Emediato%null%1,            Menno%de Jong%null%1,            José Alberto%Díaz-Quiñonez%null%1,            Lien Anh Ha%Do%null%1,            Rodrigo A%Fasce%null%1,            Luzhao%Feng%null%1,            Mark J%Ferson%null%1,            Angela%Gentile%null%1,            Bradford D%Gessner%null%1,            Doli%Goswami%null%1,            Sophie%Goyet%null%1,            Carlos G%Grijalva%null%1,            Natasha%Halasa%null%1,            Orienka%Hellferscee%null%1,            Danielle%Hessong%null%1,            Nusrat%Homaira%null%1,            Jorge%Jara%null%1,            Kathleen%Kahn%null%1,            Najwa%Khuri-Bulos%null%1,            Karen L%Kotloff%null%1,            Claudio F%Lanata%null%1,            Olga%Lopez%null%1,            Maria Renee%Lopez Bolaños%null%1,            Marilla G%Lucero%null%1,            Florencia%Lucion%null%1,            Socorro P%Lupisan%null%1,            Shabir A%Madhi%null%1,            Omphile%Mekgoe%null%1,            Cinta%Moraleda%null%1,            Jocelyn%Moyes%null%1,            Kim%Mulholland%null%1,            Patrick K%Munywoki%null%1,            Fathima%Naby%null%1,            Thanh Hung%Nguyen%null%1,            Mark P%Nicol%null%1,            D James%Nokes%null%1,            Daniel E%Noyola%null%1,            Daisuke%Onozuka%null%1,            Nandhini%Palani%null%1,            Yong%Poovorawan%null%1,            Mustafizur%Rahman%null%1,            Kaat%Ramaekers%null%1,            Candice%Romero%null%1,            Elizabeth P%Schlaudecker%null%1,            Brunhilde%Schweiger%null%1,            Phil%Seidenberg%null%1,            Eric A F%Simoes%null%1,            Rosalyn%Singleton%null%1,            Sujatha%Sistla%null%1,            Katharine%Sturm-Ramirez%null%1,            Nungruthai%Suntronwong%null%1,            Agustinus%Sutanto%null%1,            Milagritos D%Tapia%null%1,            Somsak%Thamthitiwat%null%1,            Ilada%Thongpan%null%1,            Gayani%Tillekeratne%null%1,            Yeny O%Tinoco%null%1,            Florette K%Treurnicht%null%1,            Claudia%Turner%null%1,            Paul%Turner%null%1,            Rogier%van Doorn%null%1,            Marc%Van Ranst%null%2,            Benoit%Visseaux%null%1,            Sunthareeya%Waicharoen%null%1,            Jianwei%Wang%null%1,            Lay-Myint%Yoshida%null%1,            Heather J%Zar%null%1,        You%Li%null%1,        Rachel M%Reeves%null%1,        Xin%Wang%null%1,        Quique%Bassat%null%1,        W Abdullah%Brooks%null%1,        Cheryl%Cohen%null%1,        David P%Moore%null%1,        Marta%Nunes%null%1,        Barbara%Rath%null%1,        Harry%Campbell%null%1,        Harish%Nair%null%1,        Sozinho%Acacio%null%1,        Wladimir J%Alonso%null%1,        Martin%Antonio%null%1,        Guadalupe%Ayora Talavera%null%1,        Darmaa%Badarch%null%1,        Vicky L%Baillie%null%1,        Gisela%Barrera-Badillo%null%1,        Godfrey%Bigogo%null%1,        Shobha%Broor%null%1,        Dana%Bruden%null%1,        Philippe%Buchy%null%1,        Peter%Byass%null%1,        James%Chipeta%null%1,        Wilfrido%Clara%null%1,        Duc-Anh%Dang%null%1,        Carla Cecília%de Freitas Lázaro Emediato%null%1,        Menno%de Jong%null%1,        José Alberto%Díaz-Quiñonez%null%1,        Lien Anh Ha%Do%null%1,        Rodrigo A%Fasce%null%1,        Luzhao%Feng%null%2,        Mark J%Ferson%null%1,        Angela%Gentile%null%1,        Bradford D%Gessner%null%1,        Doli%Goswami%null%1,        Sophie%Goyet%null%1,        Carlos G%Grijalva%null%1,        Natasha%Halasa%null%1,        Orienka%Hellferscee%null%1,        Danielle%Hessong%null%1,        Nusrat%Homaira%null%1,        Jorge%Jara%null%1,        Kathleen%Kahn%null%1,        Najwa%Khuri-Bulos%null%1,        Karen L%Kotloff%null%1,        Claudio F%Lanata%null%1,        Olga%Lopez%null%1,        Maria Renee%Lopez Bolaños%null%1,        Marilla G%Lucero%null%1,        Florencia%Lucion%null%1,        Socorro P%Lupisan%null%1,        Shabir A%Madhi%null%1,        Omphile%Mekgoe%null%1,        Cinta%Moraleda%null%1,        Jocelyn%Moyes%null%1,        Kim%Mulholland%null%1,        Patrick K%Munywoki%null%1,        Fathima%Naby%null%1,        Thanh Hung%Nguyen%null%1,        Mark P%Nicol%null%1,        D James%Nokes%null%1,        Daniel E%Noyola%null%1,        Daisuke%Onozuka%null%1,        Nandhini%Palani%null%1,        Yong%Poovorawan%null%1,        Mustafizur%Rahman%null%1,        Kaat%Ramaekers%null%1,        Candice%Romero%null%1,        Elizabeth P%Schlaudecker%null%1,        Brunhilde%Schweiger%null%1,        Phil%Seidenberg%null%1,        Eric A F%Simoes%null%1,        Rosalyn%Singleton%null%1,        Sujatha%Sistla%null%1,        Katharine%Sturm-Ramirez%null%1,        Nungruthai%Suntronwong%null%1,        Agustinus%Sutanto%null%1,        Milagritos D%Tapia%null%1,        Somsak%Thamthitiwat%null%1,        Ilada%Thongpan%null%1,        Gayani%Tillekeratne%null%1,        Yeny O%Tinoco%null%1,        Florette K%Treurnicht%null%1,        Claudia%Turner%null%1,        Paul%Turner%null%1,        Rogier%van Doorn%null%1,        Marc%Van Ranst%null%3,        Benoit%Visseaux%null%1,        Sunthareeya%Waicharoen%null%1,        Jianwei%Wang%null%5,        Lay-Myint%Yoshida%null%1,        Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,          Jack%Bee Chook%coreGivesNoEmail%1,          Kim%Tien Ng%coreGivesNoEmail%1,          Kok%Keng Tee%coreGivesNoEmail%1,          Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,          Nik%Sherina Hanafi%coreGivesNoEmail%1,          van%der Hoek%coreGivesNoEmail%2,          van%der Hoek%coreGivesNoEmail%0,          van%Elden%coreGivesNoEmail%1,          Xiang%Yong Oong%coreGivesNoEmail%1,          Yong%Kek Pang%coreGivesNoEmail%1,          Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,  Lars-Magnus%Andersson%xref no email%1,  Sigvard%Olofsson%xref no email%1,  Magnus%Lindh%xref no email%1,  Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,              Dangui%Zhang%danguizhang@stu.edu.cn%1,              Hui%Pan%michaelpan@stu.edu.cn%1,              Fan%Zhang%lemon_fan@163.com%1,              Jeremy%Farrar%jeremyjfarrar@gmail.com%1,              Frieda%Law%lawf@stu.edu.cn%1,              H Rogier%van Doorn%hrogier@gmail.com%1,              Beiyan%Wu%1261305798@qq.com%1,              William%Ba-Thein%wbathein@stu.edu.cn%1,             Binglin%Cui%binglincui@stu.edu.cn%1,             Dangui%Zhang%danguizhang@stu.edu.cn%1,             Hui%Pan%michaelpan@stu.edu.cn%1,             Fan%Zhang%lemon_fan@163.com%1,             Jeremy%Farrar%jeremyjfarrar@gmail.com%1,             Frieda%Law%lawf@stu.edu.cn%1,             H Rogier%van Doorn%hrogier@gmail.com%1,             Beiyan%Wu%1261305798@qq.com%1,             William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,          Andrew%Berglund%coreGivesNoEmail%1,          Christine%C. Robinson%coreGivesNoEmail%1,          Christopher%D. Town%coreGivesNoEmail%1,          Edison%Luiz Durigon%coreGivesNoEmail%1,          Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,          Kathryn%V. Holmes%coreGivesNoEmail%1,          Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,          Nadia%Fedorova%coreGivesNoEmail%1,          Philip%A. Weston%coreGivesNoEmail%1,          Rebecca%A. Halpin%coreGivesNoEmail%1,          Samuel%R. Dominguez%coreGivesNoEmail%1,          Susmita%Shrivastava%coreGivesNoEmail%1,          Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,              Lifeng%Pan%NULL%1,              Qiao%Sun%NULL%1,              Weiping%Zhu%NULL%1,              Linying%Zhu%NULL%1,              Chuchu%Ye%NULL%1,              Caoyi%Xue%NULL%1,              Yuanping%Wang%NULL%1,              Qing%Liu%NULL%1,              Ping%Ma%NULL%1,              Huifang%Qiu%NULL%1,              Srinand%Sreevatsan%NULL%1,             Yifei%Fu%NULL%1,             Lifeng%Pan%NULL%1,             Qiao%Sun%NULL%1,             Weiping%Zhu%NULL%1,             Linying%Zhu%NULL%1,             Chuchu%Ye%NULL%1,             Caoyi%Xue%NULL%1,             Yuanping%Wang%NULL%1,             Qing%Liu%NULL%1,             Ping%Ma%NULL%1,             Huifang%Qiu%NULL%1,             Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,              Mumtaz Cem%Sirin%NULL%1,             Safak%Goktas%NULL%1,             Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,              Nina%Moe%NULL%1,              Sidsel%Krokstad%NULL%2,              Andreas%Christensen%NULL%2,              Lars Høsøien%Skanke%NULL%2,              Svein Arne%Nordbø%NULL%2,              Henrik%Døllner%henrik.dollner@ntnu.no%2,             Inger%Heimdal%NULL%1,             Nina%Moe%NULL%2,             Sidsel%Krokstad%NULL%2,             Andreas%Christensen%NULL%2,             Lars Høsøien%Skanke%NULL%2,             Svein Arne%Nordbø%NULL%2,             Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,              Inger Heimdal%Stenseng%NULL%1,              Sidsel%Krokstad%NULL%0,              Andreas%Christensen%NULL%0,              Lars Høsøien%Skanke%NULL%0,              Kari Ravndal%Risnes%NULL%1,              Svein Arne%Nordbø%NULL%0,              Henrik%Døllner%henrik.dollner@ntnu.no%0,             Nina%Moe%NULL%0,             Inger Heimdal%Stenseng%NULL%1,             Sidsel%Krokstad%NULL%0,             Andreas%Christensen%NULL%0,             Lars Høsøien%Skanke%NULL%0,             Kari Ravndal%Risnes%NULL%1,             Svein Arne%Nordbø%NULL%0,             Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,  Derek J.%Williams%xref no email%1,  Sandra R.%Arnold%xref no email%1,  Krow%Ampofo%xref no email%1,  Anna M.%Bramley%xref no email%1,  Carrie%Reed%xref no email%1,  Chris%Stockmann%xref no email%1,  Evan J.%Anderson%xref no email%1,  Carlos G.%Grijalva%xref no email%1,  Wesley H.%Self%xref no email%1,  Yuwei%Zhu%xref no email%1,  Anami%Patel%xref no email%1,  Weston%Hymas%xref no email%1,  James D.%Chappell%xref no email%1,  Robert A.%Kaufman%xref no email%1,  J. Herman%Kan%xref no email%1,  David%Dansie%xref no email%1,  Noel%Lenny%xref no email%1,  David R.%Hillyard%xref no email%1,  Lia M.%Haynes%xref no email%1,  Min%Levine%xref no email%1,  Stephen%Lindstrom%xref no email%1,  Jonas M.%Winchell%xref no email%1,  Jacqueline M.%Katz%xref no email%1,  Dean%Erdman%xref no email%1,  Eileen%Schneider%xref no email%1,  Lauri A.%Hicks%xref no email%1,  Richard G.%Wunderink%xref no email%1,  Kathryn M.%Edwards%xref no email%1,  Andrew T.%Pavia%xref no email%1,  Jonathan A.%McCullers%xref no email%1,  Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,              Andrej%Steyer%NULL%1,              Marko%Pokorn%NULL%1,              Tatjana%Mrvič%NULL%1,              Štefan%Grosek%NULL%1,              Franc%Strle%NULL%1,              Lara%Lusa%NULL%1,              Miroslav%Petrovec%NULL%1,              Oliver%Schildgen%NULL%1,             Monika%Jevšnik%NULL%1,             Andrej%Steyer%NULL%1,             Marko%Pokorn%NULL%1,             Tatjana%Mrvič%NULL%1,             Štefan%Grosek%NULL%1,             Franc%Strle%NULL%1,             Lara%Lusa%NULL%1,             Miroslav%Petrovec%NULL%1,             Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,              Matti%Waris%NULL%1,              Kari%Johansen%NULL%1,              René%Snacken%NULL%1,              Pasi%Penttinen%NULL%1,              NULL%NULL%NULL%3,             Eeva K%Broberg%NULL%1,             Matti%Waris%NULL%1,             Kari%Johansen%NULL%1,             René%Snacken%NULL%1,             Pasi%Penttinen%NULL%1,             NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,              Qiaoyun%Fang%NULL%1,              Jian%Zhang%NULL%1,              Angao%Xu%NULL%1,              Lihuan%Liang%NULL%1,              Changwen%Ke%hzmedicine@163.com%1,             Xiongfei%Ju%NULL%1,             Qiaoyun%Fang%NULL%1,             Jian%Zhang%NULL%1,             Angao%Xu%NULL%1,             Lihuan%Liang%NULL%1,             Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,              Holly M.%Biggs%NULL%1,              Amber%Haynes%NULL%1,              Rebecca M.%Dahl%NULL%1,              Desiree%Mustaquim%NULL%1,              Susan I.%Gerber%NULL%1,              John T.%Watson%NULL%1,             Marie E.%Killerby%lxo9@cdc.gov%1,             Holly M.%Biggs%NULL%1,             Amber%Haynes%NULL%1,             Rebecca M.%Dahl%NULL%1,             Desiree%Mustaquim%NULL%1,             Susan I.%Gerber%NULL%1,             John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,              Hee‐Dong%Jung%NULL%1,              Hyang‐Min%Cheong%NULL%1,              Anna%Lee%NULL%1,              Nam‐Joo%Lee%NULL%1,              Hyuk%Chu%NULL%1,              Joo‐Yeon%Lee%NULL%1,              Sung Soon%Kim%NULL%1,              Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,             Jeong‐Min%Kim%NULL%1,             Hee‐Dong%Jung%NULL%1,             Hyang‐Min%Cheong%NULL%1,             Anna%Lee%NULL%1,             Nam‐Joo%Lee%NULL%1,             Hyuk%Chu%NULL%1,             Joo‐Yeon%Lee%NULL%1,             Sung Soon%Kim%NULL%1,             Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,  Patrick C. Y.%Woo%xref no email%1,  Cyril C. Y.%Yip%xref no email%1,  Herman%Tse%xref no email%1,  Hoi-wah%Tsoi%xref no email%1,  Vincent C. C.%Cheng%xref no email%1,  Paul%Lee%xref no email%1,  Bone S. F.%Tang%xref no email%1,  Chris H. Y.%Cheung%xref no email%1,  Rodney A.%Lee%xref no email%1,  Lok-yee%So%xref no email%1,  Yu-lung%Lau%xref no email%1,  Kwok-hung%Chan%xref no email%1,  Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,  Guruprasad R.%Medigeshi%xref no email%1,  Vishnu S.%Mishra%xref no email%1,  Mojahidul%Islam%xref no email%1,  Shivani%Randev%xref no email%1,  Aparna%Mukherjee%xref no email%1,  Rama%Chaudhry%xref no email%1,  Arti%Kapil%xref no email%1,  Kana%Ram Jat%xref no email%1,  Rakesh%Lodha%xref no email%1,  Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,  Shin Hae%Lee%xref no email%1,  Eun Kyo%Ha%xref no email%1,  Youn Ho%Sheen%xref no email%1,  Myong Soon%Sung%xref no email%1,  Young-Ho%Jung%xref no email%1,  Kyung Suk%Lee%xref no email%1,  Hye Mi%Jee%xref no email%1,  Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,              Juansheng%Li%lijsh16@163.com%1,              Lei%Meng%mleicdc@163.com%1,              Wanqi%Zhu%NULL%1,              Xinfeng%Liu%NULL%1,              Mei%Yang%NULL%1,              Deshan%Yu%NULL%2,              Lixia%Niu%NULL%1,              Xiping%Shen%NULL%1,             Xuechao%Li%NULL%1,             Juansheng%Li%lijsh16@163.com%1,             Lei%Meng%mleicdc@163.com%1,             Wanqi%Zhu%NULL%1,             Xinfeng%Liu%NULL%1,             Mei%Yang%NULL%1,             Deshan%Yu%NULL%2,             Lixia%Niu%NULL%1,             Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,              James G.%Bosley%NULL%1,             Christine M.%Litwin%clitwin@gru.edu%1,             James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,  Chieko%Abiko%xref no email%1,  Tatsuya%Ikeda%xref no email%1,  Yoko%Aoki%xref no email%1,  Yu%Suzuki%xref no email%1,  Kazue%Yahagi%xref no email%1,  Yoko%Matsuzaki%xref no email%1,  Tsutomu%Itagaki%xref no email%1,  Fumio%Katsushima%xref no email%1,  Yuriko%Katsushima%xref no email%1,  Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,              Elsie Laban%Yekwa%NULL%1,              Pierre%Cappy%NULL%1,              Astrid%Vabret%NULL%2,              Pascal%Boisier%NULL%1,              Dominique%Rousset%NULL%1,             Richard%Njouom%NULL%1,             Elsie Laban%Yekwa%NULL%1,             Pierre%Cappy%NULL%1,             Astrid%Vabret%NULL%2,             Pascal%Boisier%NULL%1,             Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,              Suvi%Lappalainen%NULL%1,              Timo%Vesikari%NULL%1,             Minna%Paloniemi%NULL%1,             Suvi%Lappalainen%NULL%1,             Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,              Richard%Gonzalez%NULL%1,              Jin%Xu%NULL%1,              Yan%Xiao%NULL%1,              Yongjun%Li%NULL%1,              Hongli%Zhou%NULL%1,              Jianguo%Li%NULL%1,              Qingqing%Yang%NULL%1,              Jing%Zhang%NULL%1,              Lan%Chen%NULL%1,              Wei%Wang%NULL%1,              Guy%Vernet%NULL%1,              Gláucia%Paranhos‐Baccalà%NULL%1,              Zhong%Wang%wangzhong523@vip.163.com%1,              Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,             Lili%Ren%NULL%1,             Richard%Gonzalez%NULL%1,             Jin%Xu%NULL%1,             Yan%Xiao%NULL%1,             Yongjun%Li%NULL%1,             Hongli%Zhou%NULL%1,             Jianguo%Li%NULL%1,             Qingqing%Yang%NULL%1,             Jing%Zhang%NULL%1,             Lan%Chen%NULL%1,             Wei%Wang%NULL%1,             Guy%Vernet%NULL%1,             Gláucia%Paranhos‐Baccalà%NULL%1,             Zhong%Wang%wangzhong523@vip.163.com%1,             Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,          Druelle%Valentin%coreGivesNoEmail%1,          Dyrdak%Robert%coreGivesNoEmail%1,          Hodcroft%Emma B.%coreGivesNoEmail%1,          Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,              Ilada%Thongpan%ilada.cu09@gmail.com%1,              Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,              Chanpim%Vuthitanachot%viboovut@hotmail.com%1,              Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,              Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,              Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,              Yong%Poovorawan%yong.p@chula.ac.th%1,             Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,             Ilada%Thongpan%ilada.cu09@gmail.com%1,             Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,             Chanpim%Vuthitanachot%viboovut@hotmail.com%1,             Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,             Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,             Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,             Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,              Janet A%Englund%NULL%1,              Jane Y%Kuypers%NULL%1,              Helen Y%Chu%NULL%1,              Mark C%Steinhoff%NULL%1,              Subarna K%Khatry%NULL%1,              Steve C%LeClerq%NULL%1,              James M%Tielsch%NULL%1,              Luke C%Mullany%NULL%1,              Laxman%Shrestha%NULL%2,              Joanne%Katz%jkatz1@jhu.edu%2,             S M Iftekhar%Uddin%NULL%1,             Janet A%Englund%NULL%1,             Jane Y%Kuypers%NULL%1,             Helen Y%Chu%NULL%1,             Mark C%Steinhoff%NULL%1,             Subarna K%Khatry%NULL%1,             Steve C%LeClerq%NULL%1,             James M%Tielsch%NULL%1,             Luke C%Mullany%NULL%1,             Laxman%Shrestha%NULL%2,             Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,              Joanne%Katz%NULL%0,              James%Tielsch%NULL%1,              Subarna K.%Khatry%NULL%1,              Laxman%Shrestha%NULL%0,              Steven C.%LeClerq%NULL%1,              Amalia%Magaret%NULL%1,              Jane%Kuypers%NULL%1,              Mark%Steinhoff%NULL%1,              Janet A.%Englund%NULL%1,             Helen Y.%Chu%helenchu@uw.edu%1,             Joanne%Katz%NULL%0,             James%Tielsch%NULL%1,             Subarna K.%Khatry%NULL%1,             Laxman%Shrestha%NULL%0,             Steven C.%LeClerq%NULL%1,             Amalia%Magaret%NULL%1,             Jane%Kuypers%NULL%1,             Mark%Steinhoff%NULL%1,             Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,              Gabriele%Ihorst%NULL%1,              Klaus%Sure%NULL%1,              Astrid%Vabret%NULL%0,              Ronald%Dijkman%NULL%1,              Michel%de Vries%NULL%1,              Johannes%Forster%NULL%1,              Ben%Berkhout%NULL%1,              Klaus%Uberla%NULL%1,             Lia%van der Hoek%NULL%1,             Gabriele%Ihorst%NULL%1,             Klaus%Sure%NULL%1,             Astrid%Vabret%NULL%0,             Ronald%Dijkman%NULL%1,             Michel%de Vries%NULL%1,             Johannes%Forster%NULL%1,             Ben%Berkhout%NULL%1,             Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,              Philip%Zachariah%pz2177@cumc.columbia.edu%1,              Celibell%Vargas%NULL%1,              Philip%LaRussa%NULL%1,              Ryan T%Demmer%NULL%1,              Yoko E%Furuya%NULL%1,              Susan%Whittier%NULL%1,              Carrie%Reed%NULL%1,              Melissa S%Stockwell%NULL%1,              Lisa%Saiman%NULL%1,             Litty%Varghese%NULL%1,             Philip%Zachariah%pz2177@cumc.columbia.edu%1,             Celibell%Vargas%NULL%1,             Philip%LaRussa%NULL%1,             Ryan T%Demmer%NULL%1,             Yoko E%Furuya%NULL%1,             Susan%Whittier%NULL%1,             Carrie%Reed%NULL%1,             Melissa S%Stockwell%NULL%1,             Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,              Ria%Lassaunière%NULL%1,              Tina Louise%Kresfelder%NULL%1,              Yvette%Westerberg%NULL%1,              Adele%Visser%NULL%1,             Marietjie%Venter%marietjiev@nicd.ac.za%1,             Ria%Lassaunière%NULL%1,             Tina Louise%Kresfelder%NULL%1,             Yvette%Westerberg%NULL%1,             Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,              Charles%Burdet%NULL%1,              Guillaume%Voiriot%NULL%1,              François-Xavier%Lescure%NULL%1,              Taous%Chougar%NULL%1,              Olivier%Brugière%NULL%1,              Bruno%Crestani%NULL%1,              Enrique%Casalino%NULL%1,              Charlotte%Charpentier%NULL%1,              Diane%Descamps%NULL%1,              Jean-François%Timsit%NULL%1,              Yazdan%Yazdanpanah%NULL%1,              Nadhira%Houhou-Fidouh%NULL%1,              Dena L.%Schanzer%NULL%1,             Benoit%Visseaux%NULL%1,             Charles%Burdet%NULL%1,             Guillaume%Voiriot%NULL%1,             François-Xavier%Lescure%NULL%1,             Taous%Chougar%NULL%1,             Olivier%Brugière%NULL%1,             Bruno%Crestani%NULL%1,             Enrique%Casalino%NULL%1,             Charlotte%Charpentier%NULL%1,             Diane%Descamps%NULL%1,             Jean-François%Timsit%NULL%1,             Yazdan%Yazdanpanah%NULL%1,             Nadhira%Houhou-Fidouh%NULL%1,             Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,              Deshan%Yu%NULL%0,              Naiying%Mao%NULL%1,              Zhen%Zhu%NULL%1,              Hui%Zhang%NULL%1,              Zhongyi%Jiang%NULL%1,              Hongyu%Li%NULL%1,              Yan%Zhang%NULL%1,              Jing%Shi%NULL%1,              Shuang%Zhang%NULL%1,              Xinhua%Wang%NULL%1,              Wenbo%Xu%NULL%1,              Dong-Yan%Jin%NULL%1,             Guohong%Huang%NULL%1,             Deshan%Yu%NULL%0,             Naiying%Mao%NULL%1,             Zhen%Zhu%NULL%1,             Hui%Zhang%NULL%1,             Zhongyi%Jiang%NULL%1,             Hongyu%Li%NULL%1,             Yan%Zhang%NULL%1,             Jing%Shi%NULL%1,             Shuang%Zhang%NULL%1,             Xinhua%Wang%NULL%1,             Wenbo%Xu%NULL%1,             Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,              Jiu-ling%Tuo%NULL%1,              Xu-bin%Huang%NULL%1,              Xun%Zhu%NULL%1,              Ding-mei%Zhang%NULL%1,              Kai%Zhou%NULL%1,              Lei%Yuan%NULL%1,              Hong-jiao%Luo%NULL%1,              Bo-jian%Zheng%NULL%1,              Kwok-yung%Yuen%NULL%1,              Meng-feng%Li%NULL%1,              Kai-yuan%Cao%NULL%1,              Lin%Xu%NULL%1,              Stefan%Pöhlmann%NULL%1,             Su-fen%Zhang%NULL%1,             Jiu-ling%Tuo%NULL%1,             Xu-bin%Huang%NULL%1,             Xun%Zhu%NULL%1,             Ding-mei%Zhang%NULL%1,             Kai%Zhou%NULL%1,             Lei%Yuan%NULL%1,             Hong-jiao%Luo%NULL%1,             Bo-jian%Zheng%NULL%1,             Kwok-yung%Yuen%NULL%1,             Meng-feng%Li%NULL%1,             Kai-yuan%Cao%NULL%1,             Lin%Xu%NULL%1,             Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2273,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -2039,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2062,22 +2325,22 @@
         <v>40909</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>462</v>
       </c>
       <c r="I4" t="s">
         <v>314</v>
@@ -2097,7 +2360,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2126,7 +2389,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2155,7 +2418,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -2184,7 +2447,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -2213,7 +2476,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -2242,7 +2505,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2265,22 +2528,22 @@
         <v>42061</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>469</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>471</v>
       </c>
       <c r="I11" t="s">
         <v>314</v>
@@ -2300,7 +2563,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2329,7 +2592,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -2358,7 +2621,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2387,7 +2650,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -2416,7 +2679,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -2439,22 +2702,22 @@
         <v>38869</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>477</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="I17" t="s">
         <v>314</v>
@@ -2468,22 +2731,22 @@
         <v>42736</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>523</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>483</v>
       </c>
       <c r="I18" t="s">
         <v>314</v>
@@ -2497,22 +2760,22 @@
         <v>42736</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>524</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="I19" t="s">
         <v>314</v>
@@ -2532,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2561,7 +2824,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2584,22 +2847,22 @@
         <v>2015</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>489</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>527</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>491</v>
       </c>
       <c r="I22" t="s">
         <v>314</v>
@@ -2619,7 +2882,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -2648,7 +2911,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -2677,7 +2940,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -2706,7 +2969,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -2735,7 +2998,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -2758,7 +3021,7 @@
         <v>40422</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -2767,13 +3030,13 @@
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>461</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>498</v>
       </c>
       <c r="I28" t="s">
         <v>314</v>
@@ -2793,7 +3056,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -2822,7 +3085,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -2851,7 +3114,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -2880,7 +3143,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -2909,7 +3172,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -2938,7 +3201,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>454</v>
+        <v>538</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -2967,7 +3230,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>455</v>
+        <v>539</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -2996,7 +3259,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>456</v>
+        <v>540</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="609">
   <si>
     <t>Doi</t>
   </si>
@@ -1943,6 +1943,210 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,              Jiu-ling%Tuo%NULL%1,              Xu-bin%Huang%NULL%1,              Xun%Zhu%NULL%1,              Ding-mei%Zhang%NULL%1,              Kai%Zhou%NULL%1,              Lei%Yuan%NULL%1,              Hong-jiao%Luo%NULL%1,              Bo-jian%Zheng%NULL%1,              Kwok-yung%Yuen%NULL%1,              Meng-feng%Li%NULL%1,              Kai-yuan%Cao%NULL%1,              Lin%Xu%NULL%1,              Stefan%Pöhlmann%NULL%1,             Su-fen%Zhang%NULL%1,             Jiu-ling%Tuo%NULL%1,             Xu-bin%Huang%NULL%1,             Xun%Zhu%NULL%1,             Ding-mei%Zhang%NULL%1,             Kai%Zhou%NULL%1,             Lei%Yuan%NULL%1,             Hong-jiao%Luo%NULL%1,             Bo-jian%Zheng%NULL%1,             Kwok-yung%Yuen%NULL%1,             Meng-feng%Li%NULL%1,             Kai-yuan%Cao%NULL%1,             Lin%Xu%NULL%1,             Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,             Rachel M%Reeves%null%1,             Xin%Wang%null%1,             Quique%Bassat%null%1,             W Abdullah%Brooks%null%1,             Cheryl%Cohen%null%1,             David P%Moore%null%1,             Marta%Nunes%null%1,             Barbara%Rath%null%1,             Harry%Campbell%null%1,             Harish%Nair%null%1,             Sozinho%Acacio%null%1,             Wladimir J%Alonso%null%1,             Martin%Antonio%null%1,             Guadalupe%Ayora Talavera%null%1,             Darmaa%Badarch%null%1,             Vicky L%Baillie%null%1,             Gisela%Barrera-Badillo%null%1,             Godfrey%Bigogo%null%1,             Shobha%Broor%null%1,             Dana%Bruden%null%1,             Philippe%Buchy%null%1,             Peter%Byass%null%1,             James%Chipeta%null%1,             Wilfrido%Clara%null%1,             Duc-Anh%Dang%null%1,             Carla Cecília%de Freitas Lázaro Emediato%null%1,             Menno%de Jong%null%1,             José Alberto%Díaz-Quiñonez%null%1,             Lien Anh Ha%Do%null%1,             Rodrigo A%Fasce%null%1,             Luzhao%Feng%null%1,             Mark J%Ferson%null%1,             Angela%Gentile%null%1,             Bradford D%Gessner%null%1,             Doli%Goswami%null%1,             Sophie%Goyet%null%1,             Carlos G%Grijalva%null%1,             Natasha%Halasa%null%1,             Orienka%Hellferscee%null%1,             Danielle%Hessong%null%1,             Nusrat%Homaira%null%1,             Jorge%Jara%null%1,             Kathleen%Kahn%null%1,             Najwa%Khuri-Bulos%null%1,             Karen L%Kotloff%null%1,             Claudio F%Lanata%null%1,             Olga%Lopez%null%1,             Maria Renee%Lopez Bolaños%null%1,             Marilla G%Lucero%null%1,             Florencia%Lucion%null%1,             Socorro P%Lupisan%null%1,             Shabir A%Madhi%null%1,             Omphile%Mekgoe%null%1,             Cinta%Moraleda%null%1,             Jocelyn%Moyes%null%1,             Kim%Mulholland%null%1,             Patrick K%Munywoki%null%1,             Fathima%Naby%null%1,             Thanh Hung%Nguyen%null%1,             Mark P%Nicol%null%1,             D James%Nokes%null%1,             Daniel E%Noyola%null%1,             Daisuke%Onozuka%null%1,             Nandhini%Palani%null%1,             Yong%Poovorawan%null%1,             Mustafizur%Rahman%null%1,             Kaat%Ramaekers%null%1,             Candice%Romero%null%1,             Elizabeth P%Schlaudecker%null%1,             Brunhilde%Schweiger%null%1,             Phil%Seidenberg%null%1,             Eric A F%Simoes%null%1,             Rosalyn%Singleton%null%1,             Sujatha%Sistla%null%1,             Katharine%Sturm-Ramirez%null%1,             Nungruthai%Suntronwong%null%1,             Agustinus%Sutanto%null%1,             Milagritos D%Tapia%null%1,             Somsak%Thamthitiwat%null%1,             Ilada%Thongpan%null%1,             Gayani%Tillekeratne%null%1,             Yeny O%Tinoco%null%1,             Florette K%Treurnicht%null%1,             Claudia%Turner%null%1,             Paul%Turner%null%1,             Rogier%van Doorn%null%1,             Marc%Van Ranst%null%2,             Benoit%Visseaux%null%1,             Sunthareeya%Waicharoen%null%1,             Jianwei%Wang%null%1,             Lay-Myint%Yoshida%null%1,             Heather J%Zar%null%1,         You%Li%null%1,         Rachel M%Reeves%null%1,         Xin%Wang%null%1,         Quique%Bassat%null%1,         W Abdullah%Brooks%null%1,         Cheryl%Cohen%null%1,         David P%Moore%null%1,         Marta%Nunes%null%1,         Barbara%Rath%null%1,         Harry%Campbell%null%1,         Harish%Nair%null%1,         Sozinho%Acacio%null%1,         Wladimir J%Alonso%null%1,         Martin%Antonio%null%1,         Guadalupe%Ayora Talavera%null%1,         Darmaa%Badarch%null%1,         Vicky L%Baillie%null%1,         Gisela%Barrera-Badillo%null%1,         Godfrey%Bigogo%null%1,         Shobha%Broor%null%1,         Dana%Bruden%null%1,         Philippe%Buchy%null%1,         Peter%Byass%null%1,         James%Chipeta%null%1,         Wilfrido%Clara%null%1,         Duc-Anh%Dang%null%1,         Carla Cecília%de Freitas Lázaro Emediato%null%1,         Menno%de Jong%null%1,         José Alberto%Díaz-Quiñonez%null%1,         Lien Anh Ha%Do%null%1,         Rodrigo A%Fasce%null%1,         Luzhao%Feng%null%2,         Mark J%Ferson%null%1,         Angela%Gentile%null%1,         Bradford D%Gessner%null%1,         Doli%Goswami%null%1,         Sophie%Goyet%null%1,         Carlos G%Grijalva%null%1,         Natasha%Halasa%null%1,         Orienka%Hellferscee%null%1,         Danielle%Hessong%null%1,         Nusrat%Homaira%null%1,         Jorge%Jara%null%1,         Kathleen%Kahn%null%1,         Najwa%Khuri-Bulos%null%1,         Karen L%Kotloff%null%1,         Claudio F%Lanata%null%1,         Olga%Lopez%null%1,         Maria Renee%Lopez Bolaños%null%1,         Marilla G%Lucero%null%1,         Florencia%Lucion%null%1,         Socorro P%Lupisan%null%1,         Shabir A%Madhi%null%1,         Omphile%Mekgoe%null%1,         Cinta%Moraleda%null%1,         Jocelyn%Moyes%null%1,         Kim%Mulholland%null%1,         Patrick K%Munywoki%null%1,         Fathima%Naby%null%1,         Thanh Hung%Nguyen%null%1,         Mark P%Nicol%null%1,         D James%Nokes%null%1,         Daniel E%Noyola%null%1,         Daisuke%Onozuka%null%1,         Nandhini%Palani%null%1,         Yong%Poovorawan%null%1,         Mustafizur%Rahman%null%1,         Kaat%Ramaekers%null%1,         Candice%Romero%null%1,         Elizabeth P%Schlaudecker%null%1,         Brunhilde%Schweiger%null%1,         Phil%Seidenberg%null%1,         Eric A F%Simoes%null%1,         Rosalyn%Singleton%null%1,         Sujatha%Sistla%null%1,         Katharine%Sturm-Ramirez%null%1,         Nungruthai%Suntronwong%null%1,         Agustinus%Sutanto%null%1,         Milagritos D%Tapia%null%1,         Somsak%Thamthitiwat%null%1,         Ilada%Thongpan%null%1,         Gayani%Tillekeratne%null%1,         Yeny O%Tinoco%null%1,         Florette K%Treurnicht%null%1,         Claudia%Turner%null%1,         Paul%Turner%null%1,         Rogier%van Doorn%null%1,         Marc%Van Ranst%null%3,         Benoit%Visseaux%null%1,         Sunthareeya%Waicharoen%null%1,         Jianwei%Wang%null%5,         Lay-Myint%Yoshida%null%1,         Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,           Jack%Bee Chook%coreGivesNoEmail%1,           Kim%Tien Ng%coreGivesNoEmail%1,           Kok%Keng Tee%coreGivesNoEmail%1,           Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,           Nik%Sherina Hanafi%coreGivesNoEmail%1,           van%der Hoek%coreGivesNoEmail%2,           van%der Hoek%coreGivesNoEmail%0,           van%Elden%coreGivesNoEmail%1,           Xiang%Yong Oong%coreGivesNoEmail%1,           Yong%Kek Pang%coreGivesNoEmail%1,           Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,   Lars-Magnus%Andersson%xref no email%1,   Sigvard%Olofsson%xref no email%1,   Magnus%Lindh%xref no email%1,   Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,               Dangui%Zhang%danguizhang@stu.edu.cn%1,               Hui%Pan%michaelpan@stu.edu.cn%1,               Fan%Zhang%lemon_fan@163.com%1,               Jeremy%Farrar%jeremyjfarrar@gmail.com%1,               Frieda%Law%lawf@stu.edu.cn%1,               H Rogier%van Doorn%hrogier@gmail.com%1,               Beiyan%Wu%1261305798@qq.com%1,               William%Ba-Thein%wbathein@stu.edu.cn%1,              Binglin%Cui%binglincui@stu.edu.cn%1,              Dangui%Zhang%danguizhang@stu.edu.cn%1,              Hui%Pan%michaelpan@stu.edu.cn%1,              Fan%Zhang%lemon_fan@163.com%1,              Jeremy%Farrar%jeremyjfarrar@gmail.com%1,              Frieda%Law%lawf@stu.edu.cn%1,              H Rogier%van Doorn%hrogier@gmail.com%1,              Beiyan%Wu%1261305798@qq.com%1,              William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,           Andrew%Berglund%coreGivesNoEmail%1,           Christine%C. Robinson%coreGivesNoEmail%1,           Christopher%D. Town%coreGivesNoEmail%1,           Edison%Luiz Durigon%coreGivesNoEmail%1,           Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,           Kathryn%V. Holmes%coreGivesNoEmail%1,           Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,           Nadia%Fedorova%coreGivesNoEmail%1,           Philip%A. Weston%coreGivesNoEmail%1,           Rebecca%A. Halpin%coreGivesNoEmail%1,           Samuel%R. Dominguez%coreGivesNoEmail%1,           Susmita%Shrivastava%coreGivesNoEmail%1,           Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,               Lifeng%Pan%NULL%1,               Qiao%Sun%NULL%1,               Weiping%Zhu%NULL%1,               Linying%Zhu%NULL%1,               Chuchu%Ye%NULL%1,               Caoyi%Xue%NULL%1,               Yuanping%Wang%NULL%1,               Qing%Liu%NULL%1,               Ping%Ma%NULL%1,               Huifang%Qiu%NULL%1,               Srinand%Sreevatsan%NULL%1,              Yifei%Fu%NULL%1,              Lifeng%Pan%NULL%1,              Qiao%Sun%NULL%1,              Weiping%Zhu%NULL%1,              Linying%Zhu%NULL%1,              Chuchu%Ye%NULL%1,              Caoyi%Xue%NULL%1,              Yuanping%Wang%NULL%1,              Qing%Liu%NULL%1,              Ping%Ma%NULL%1,              Huifang%Qiu%NULL%1,              Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,               Mumtaz Cem%Sirin%NULL%1,              Safak%Goktas%NULL%1,              Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,               Nina%Moe%NULL%1,               Sidsel%Krokstad%NULL%2,               Andreas%Christensen%NULL%2,               Lars Høsøien%Skanke%NULL%2,               Svein Arne%Nordbø%NULL%2,               Henrik%Døllner%henrik.dollner@ntnu.no%2,              Inger%Heimdal%NULL%1,              Nina%Moe%NULL%2,              Sidsel%Krokstad%NULL%2,              Andreas%Christensen%NULL%2,              Lars Høsøien%Skanke%NULL%2,              Svein Arne%Nordbø%NULL%2,              Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,               Inger Heimdal%Stenseng%NULL%1,               Sidsel%Krokstad%NULL%0,               Andreas%Christensen%NULL%0,               Lars Høsøien%Skanke%NULL%0,               Kari Ravndal%Risnes%NULL%1,               Svein Arne%Nordbø%NULL%0,               Henrik%Døllner%henrik.dollner@ntnu.no%0,              Nina%Moe%NULL%0,              Inger Heimdal%Stenseng%NULL%1,              Sidsel%Krokstad%NULL%0,              Andreas%Christensen%NULL%0,              Lars Høsøien%Skanke%NULL%0,              Kari Ravndal%Risnes%NULL%1,              Svein Arne%Nordbø%NULL%0,              Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,   Derek J.%Williams%xref no email%1,   Sandra R.%Arnold%xref no email%1,   Krow%Ampofo%xref no email%1,   Anna M.%Bramley%xref no email%1,   Carrie%Reed%xref no email%1,   Chris%Stockmann%xref no email%1,   Evan J.%Anderson%xref no email%1,   Carlos G.%Grijalva%xref no email%1,   Wesley H.%Self%xref no email%1,   Yuwei%Zhu%xref no email%1,   Anami%Patel%xref no email%1,   Weston%Hymas%xref no email%1,   James D.%Chappell%xref no email%1,   Robert A.%Kaufman%xref no email%1,   J. Herman%Kan%xref no email%1,   David%Dansie%xref no email%1,   Noel%Lenny%xref no email%1,   David R.%Hillyard%xref no email%1,   Lia M.%Haynes%xref no email%1,   Min%Levine%xref no email%1,   Stephen%Lindstrom%xref no email%1,   Jonas M.%Winchell%xref no email%1,   Jacqueline M.%Katz%xref no email%1,   Dean%Erdman%xref no email%1,   Eileen%Schneider%xref no email%1,   Lauri A.%Hicks%xref no email%1,   Richard G.%Wunderink%xref no email%1,   Kathryn M.%Edwards%xref no email%1,   Andrew T.%Pavia%xref no email%1,   Jonathan A.%McCullers%xref no email%1,   Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,               Andrej%Steyer%NULL%1,               Marko%Pokorn%NULL%1,               Tatjana%Mrvič%NULL%1,               Štefan%Grosek%NULL%1,               Franc%Strle%NULL%1,               Lara%Lusa%NULL%1,               Miroslav%Petrovec%NULL%1,               Oliver%Schildgen%NULL%1,              Monika%Jevšnik%NULL%1,              Andrej%Steyer%NULL%1,              Marko%Pokorn%NULL%1,              Tatjana%Mrvič%NULL%1,              Štefan%Grosek%NULL%1,              Franc%Strle%NULL%1,              Lara%Lusa%NULL%1,              Miroslav%Petrovec%NULL%1,              Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,               Matti%Waris%NULL%1,               Kari%Johansen%NULL%1,               René%Snacken%NULL%1,               Pasi%Penttinen%NULL%1,               NULL%NULL%NULL%3,              Eeva K%Broberg%NULL%1,              Matti%Waris%NULL%1,              Kari%Johansen%NULL%1,              René%Snacken%NULL%1,              Pasi%Penttinen%NULL%1,              NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,               Qiaoyun%Fang%NULL%1,               Jian%Zhang%NULL%1,               Angao%Xu%NULL%1,               Lihuan%Liang%NULL%1,               Changwen%Ke%hzmedicine@163.com%1,              Xiongfei%Ju%NULL%1,              Qiaoyun%Fang%NULL%1,              Jian%Zhang%NULL%1,              Angao%Xu%NULL%1,              Lihuan%Liang%NULL%1,              Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,               Holly M.%Biggs%NULL%1,               Amber%Haynes%NULL%1,               Rebecca M.%Dahl%NULL%1,               Desiree%Mustaquim%NULL%1,               Susan I.%Gerber%NULL%1,               John T.%Watson%NULL%1,              Marie E.%Killerby%lxo9@cdc.gov%1,              Holly M.%Biggs%NULL%1,              Amber%Haynes%NULL%1,              Rebecca M.%Dahl%NULL%1,              Desiree%Mustaquim%NULL%1,              Susan I.%Gerber%NULL%1,              John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,               Hee‐Dong%Jung%NULL%1,               Hyang‐Min%Cheong%NULL%1,               Anna%Lee%NULL%1,               Nam‐Joo%Lee%NULL%1,               Hyuk%Chu%NULL%1,               Joo‐Yeon%Lee%NULL%1,               Sung Soon%Kim%NULL%1,               Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,              Jeong‐Min%Kim%NULL%1,              Hee‐Dong%Jung%NULL%1,              Hyang‐Min%Cheong%NULL%1,              Anna%Lee%NULL%1,              Nam‐Joo%Lee%NULL%1,              Hyuk%Chu%NULL%1,              Joo‐Yeon%Lee%NULL%1,              Sung Soon%Kim%NULL%1,              Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,   Patrick C. Y.%Woo%xref no email%1,   Cyril C. Y.%Yip%xref no email%1,   Herman%Tse%xref no email%1,   Hoi-wah%Tsoi%xref no email%1,   Vincent C. C.%Cheng%xref no email%1,   Paul%Lee%xref no email%1,   Bone S. F.%Tang%xref no email%1,   Chris H. Y.%Cheung%xref no email%1,   Rodney A.%Lee%xref no email%1,   Lok-yee%So%xref no email%1,   Yu-lung%Lau%xref no email%1,   Kwok-hung%Chan%xref no email%1,   Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,   Guruprasad R.%Medigeshi%xref no email%1,   Vishnu S.%Mishra%xref no email%1,   Mojahidul%Islam%xref no email%1,   Shivani%Randev%xref no email%1,   Aparna%Mukherjee%xref no email%1,   Rama%Chaudhry%xref no email%1,   Arti%Kapil%xref no email%1,   Kana%Ram Jat%xref no email%1,   Rakesh%Lodha%xref no email%1,   Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,   Shin Hae%Lee%xref no email%1,   Eun Kyo%Ha%xref no email%1,   Youn Ho%Sheen%xref no email%1,   Myong Soon%Sung%xref no email%1,   Young-Ho%Jung%xref no email%1,   Kyung Suk%Lee%xref no email%1,   Hye Mi%Jee%xref no email%1,   Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,               Juansheng%Li%lijsh16@163.com%1,               Lei%Meng%mleicdc@163.com%1,               Wanqi%Zhu%NULL%1,               Xinfeng%Liu%NULL%1,               Mei%Yang%NULL%1,               Deshan%Yu%NULL%2,               Lixia%Niu%NULL%1,               Xiping%Shen%NULL%1,              Xuechao%Li%NULL%1,              Juansheng%Li%lijsh16@163.com%1,              Lei%Meng%mleicdc@163.com%1,              Wanqi%Zhu%NULL%1,              Xinfeng%Liu%NULL%1,              Mei%Yang%NULL%1,              Deshan%Yu%NULL%2,              Lixia%Niu%NULL%1,              Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,               James G.%Bosley%NULL%1,              Christine M.%Litwin%clitwin@gru.edu%1,              James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,   Chieko%Abiko%xref no email%1,   Tatsuya%Ikeda%xref no email%1,   Yoko%Aoki%xref no email%1,   Yu%Suzuki%xref no email%1,   Kazue%Yahagi%xref no email%1,   Yoko%Matsuzaki%xref no email%1,   Tsutomu%Itagaki%xref no email%1,   Fumio%Katsushima%xref no email%1,   Yuriko%Katsushima%xref no email%1,   Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,               Elsie Laban%Yekwa%NULL%1,               Pierre%Cappy%NULL%1,               Astrid%Vabret%NULL%2,               Pascal%Boisier%NULL%1,               Dominique%Rousset%NULL%1,              Richard%Njouom%NULL%1,              Elsie Laban%Yekwa%NULL%1,              Pierre%Cappy%NULL%1,              Astrid%Vabret%NULL%2,              Pascal%Boisier%NULL%1,              Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,               Suvi%Lappalainen%NULL%1,               Timo%Vesikari%NULL%1,              Minna%Paloniemi%NULL%1,              Suvi%Lappalainen%NULL%1,              Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,               Richard%Gonzalez%NULL%1,               Jin%Xu%NULL%1,               Yan%Xiao%NULL%1,               Yongjun%Li%NULL%1,               Hongli%Zhou%NULL%1,               Jianguo%Li%NULL%1,               Qingqing%Yang%NULL%1,               Jing%Zhang%NULL%1,               Lan%Chen%NULL%1,               Wei%Wang%NULL%1,               Guy%Vernet%NULL%1,               Gláucia%Paranhos‐Baccalà%NULL%1,               Zhong%Wang%wangzhong523@vip.163.com%1,               Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,              Lili%Ren%NULL%1,              Richard%Gonzalez%NULL%1,              Jin%Xu%NULL%1,              Yan%Xiao%NULL%1,              Yongjun%Li%NULL%1,              Hongli%Zhou%NULL%1,              Jianguo%Li%NULL%1,              Qingqing%Yang%NULL%1,              Jing%Zhang%NULL%1,              Lan%Chen%NULL%1,              Wei%Wang%NULL%1,              Guy%Vernet%NULL%1,              Gláucia%Paranhos‐Baccalà%NULL%1,              Zhong%Wang%wangzhong523@vip.163.com%1,              Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,           Druelle%Valentin%coreGivesNoEmail%1,           Dyrdak%Robert%coreGivesNoEmail%1,           Hodcroft%Emma B.%coreGivesNoEmail%1,           Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,               Ilada%Thongpan%ilada.cu09@gmail.com%1,               Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,               Chanpim%Vuthitanachot%viboovut@hotmail.com%1,               Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,               Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,               Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,               Yong%Poovorawan%yong.p@chula.ac.th%1,              Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,              Ilada%Thongpan%ilada.cu09@gmail.com%1,              Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,              Chanpim%Vuthitanachot%viboovut@hotmail.com%1,              Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,              Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,              Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,              Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,               Janet A%Englund%NULL%1,               Jane Y%Kuypers%NULL%1,               Helen Y%Chu%NULL%1,               Mark C%Steinhoff%NULL%1,               Subarna K%Khatry%NULL%1,               Steve C%LeClerq%NULL%1,               James M%Tielsch%NULL%1,               Luke C%Mullany%NULL%1,               Laxman%Shrestha%NULL%2,               Joanne%Katz%jkatz1@jhu.edu%2,              S M Iftekhar%Uddin%NULL%1,              Janet A%Englund%NULL%1,              Jane Y%Kuypers%NULL%1,              Helen Y%Chu%NULL%1,              Mark C%Steinhoff%NULL%1,              Subarna K%Khatry%NULL%1,              Steve C%LeClerq%NULL%1,              James M%Tielsch%NULL%1,              Luke C%Mullany%NULL%1,              Laxman%Shrestha%NULL%2,              Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,               Joanne%Katz%NULL%0,               James%Tielsch%NULL%1,               Subarna K.%Khatry%NULL%1,               Laxman%Shrestha%NULL%0,               Steven C.%LeClerq%NULL%1,               Amalia%Magaret%NULL%1,               Jane%Kuypers%NULL%1,               Mark%Steinhoff%NULL%1,               Janet A.%Englund%NULL%1,              Helen Y.%Chu%helenchu@uw.edu%1,              Joanne%Katz%NULL%0,              James%Tielsch%NULL%1,              Subarna K.%Khatry%NULL%1,              Laxman%Shrestha%NULL%0,              Steven C.%LeClerq%NULL%1,              Amalia%Magaret%NULL%1,              Jane%Kuypers%NULL%1,              Mark%Steinhoff%NULL%1,              Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,               Gabriele%Ihorst%NULL%1,               Klaus%Sure%NULL%1,               Astrid%Vabret%NULL%0,               Ronald%Dijkman%NULL%1,               Michel%de Vries%NULL%1,               Johannes%Forster%NULL%1,               Ben%Berkhout%NULL%1,               Klaus%Uberla%NULL%1,              Lia%van der Hoek%NULL%1,              Gabriele%Ihorst%NULL%1,              Klaus%Sure%NULL%1,              Astrid%Vabret%NULL%0,              Ronald%Dijkman%NULL%1,              Michel%de Vries%NULL%1,              Johannes%Forster%NULL%1,              Ben%Berkhout%NULL%1,              Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,               Philip%Zachariah%pz2177@cumc.columbia.edu%1,               Celibell%Vargas%NULL%1,               Philip%LaRussa%NULL%1,               Ryan T%Demmer%NULL%1,               Yoko E%Furuya%NULL%1,               Susan%Whittier%NULL%1,               Carrie%Reed%NULL%1,               Melissa S%Stockwell%NULL%1,               Lisa%Saiman%NULL%1,              Litty%Varghese%NULL%1,              Philip%Zachariah%pz2177@cumc.columbia.edu%1,              Celibell%Vargas%NULL%1,              Philip%LaRussa%NULL%1,              Ryan T%Demmer%NULL%1,              Yoko E%Furuya%NULL%1,              Susan%Whittier%NULL%1,              Carrie%Reed%NULL%1,              Melissa S%Stockwell%NULL%1,              Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,               Ria%Lassaunière%NULL%1,               Tina Louise%Kresfelder%NULL%1,               Yvette%Westerberg%NULL%1,               Adele%Visser%NULL%1,              Marietjie%Venter%marietjiev@nicd.ac.za%1,              Ria%Lassaunière%NULL%1,              Tina Louise%Kresfelder%NULL%1,              Yvette%Westerberg%NULL%1,              Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,               Charles%Burdet%NULL%1,               Guillaume%Voiriot%NULL%1,               François-Xavier%Lescure%NULL%1,               Taous%Chougar%NULL%1,               Olivier%Brugière%NULL%1,               Bruno%Crestani%NULL%1,               Enrique%Casalino%NULL%1,               Charlotte%Charpentier%NULL%1,               Diane%Descamps%NULL%1,               Jean-François%Timsit%NULL%1,               Yazdan%Yazdanpanah%NULL%1,               Nadhira%Houhou-Fidouh%NULL%1,               Dena L.%Schanzer%NULL%1,              Benoit%Visseaux%NULL%1,              Charles%Burdet%NULL%1,              Guillaume%Voiriot%NULL%1,              François-Xavier%Lescure%NULL%1,              Taous%Chougar%NULL%1,              Olivier%Brugière%NULL%1,              Bruno%Crestani%NULL%1,              Enrique%Casalino%NULL%1,              Charlotte%Charpentier%NULL%1,              Diane%Descamps%NULL%1,              Jean-François%Timsit%NULL%1,              Yazdan%Yazdanpanah%NULL%1,              Nadhira%Houhou-Fidouh%NULL%1,              Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,               Deshan%Yu%NULL%0,               Naiying%Mao%NULL%1,               Zhen%Zhu%NULL%1,               Hui%Zhang%NULL%1,               Zhongyi%Jiang%NULL%1,               Hongyu%Li%NULL%1,               Yan%Zhang%NULL%1,               Jing%Shi%NULL%1,               Shuang%Zhang%NULL%1,               Xinhua%Wang%NULL%1,               Wenbo%Xu%NULL%1,               Dong-Yan%Jin%NULL%1,              Guohong%Huang%NULL%1,              Deshan%Yu%NULL%0,              Naiying%Mao%NULL%1,              Zhen%Zhu%NULL%1,              Hui%Zhang%NULL%1,              Zhongyi%Jiang%NULL%1,              Hongyu%Li%NULL%1,              Yan%Zhang%NULL%1,              Jing%Shi%NULL%1,              Shuang%Zhang%NULL%1,              Xinhua%Wang%NULL%1,              Wenbo%Xu%NULL%1,              Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,               Jiu-ling%Tuo%NULL%1,               Xu-bin%Huang%NULL%1,               Xun%Zhu%NULL%1,               Ding-mei%Zhang%NULL%1,               Kai%Zhou%NULL%1,               Lei%Yuan%NULL%1,               Hong-jiao%Luo%NULL%1,               Bo-jian%Zheng%NULL%1,               Kwok-yung%Yuen%NULL%1,               Meng-feng%Li%NULL%1,               Kai-yuan%Cao%NULL%1,               Lin%Xu%NULL%1,               Stefan%Pöhlmann%NULL%1,              Su-fen%Zhang%NULL%1,              Jiu-ling%Tuo%NULL%1,              Xu-bin%Huang%NULL%1,              Xun%Zhu%NULL%1,              Ding-mei%Zhang%NULL%1,              Kai%Zhou%NULL%1,              Lei%Yuan%NULL%1,              Hong-jiao%Luo%NULL%1,              Bo-jian%Zheng%NULL%1,              Kwok-yung%Yuen%NULL%1,              Meng-feng%Li%NULL%1,              Kai-yuan%Cao%NULL%1,              Lin%Xu%NULL%1,              Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,              Rachel M%Reeves%null%1,              Xin%Wang%null%1,              Quique%Bassat%null%1,              W Abdullah%Brooks%null%1,              Cheryl%Cohen%null%1,              David P%Moore%null%1,              Marta%Nunes%null%1,              Barbara%Rath%null%1,              Harry%Campbell%null%1,              Harish%Nair%null%1,              Sozinho%Acacio%null%1,              Wladimir J%Alonso%null%1,              Martin%Antonio%null%1,              Guadalupe%Ayora Talavera%null%1,              Darmaa%Badarch%null%1,              Vicky L%Baillie%null%1,              Gisela%Barrera-Badillo%null%1,              Godfrey%Bigogo%null%1,              Shobha%Broor%null%1,              Dana%Bruden%null%1,              Philippe%Buchy%null%1,              Peter%Byass%null%1,              James%Chipeta%null%1,              Wilfrido%Clara%null%1,              Duc-Anh%Dang%null%1,              Carla Cecília%de Freitas Lázaro Emediato%null%1,              Menno%de Jong%null%1,              José Alberto%Díaz-Quiñonez%null%1,              Lien Anh Ha%Do%null%1,              Rodrigo A%Fasce%null%1,              Luzhao%Feng%null%1,              Mark J%Ferson%null%1,              Angela%Gentile%null%1,              Bradford D%Gessner%null%1,              Doli%Goswami%null%1,              Sophie%Goyet%null%1,              Carlos G%Grijalva%null%1,              Natasha%Halasa%null%1,              Orienka%Hellferscee%null%1,              Danielle%Hessong%null%1,              Nusrat%Homaira%null%1,              Jorge%Jara%null%1,              Kathleen%Kahn%null%1,              Najwa%Khuri-Bulos%null%1,              Karen L%Kotloff%null%1,              Claudio F%Lanata%null%1,              Olga%Lopez%null%1,              Maria Renee%Lopez Bolaños%null%1,              Marilla G%Lucero%null%1,              Florencia%Lucion%null%1,              Socorro P%Lupisan%null%1,              Shabir A%Madhi%null%1,              Omphile%Mekgoe%null%1,              Cinta%Moraleda%null%1,              Jocelyn%Moyes%null%1,              Kim%Mulholland%null%1,              Patrick K%Munywoki%null%1,              Fathima%Naby%null%1,              Thanh Hung%Nguyen%null%1,              Mark P%Nicol%null%1,              D James%Nokes%null%1,              Daniel E%Noyola%null%1,              Daisuke%Onozuka%null%1,              Nandhini%Palani%null%1,              Yong%Poovorawan%null%1,              Mustafizur%Rahman%null%1,              Kaat%Ramaekers%null%1,              Candice%Romero%null%1,              Elizabeth P%Schlaudecker%null%1,              Brunhilde%Schweiger%null%1,              Phil%Seidenberg%null%1,              Eric A F%Simoes%null%1,              Rosalyn%Singleton%null%1,              Sujatha%Sistla%null%1,              Katharine%Sturm-Ramirez%null%1,              Nungruthai%Suntronwong%null%1,              Agustinus%Sutanto%null%1,              Milagritos D%Tapia%null%1,              Somsak%Thamthitiwat%null%1,              Ilada%Thongpan%null%1,              Gayani%Tillekeratne%null%1,              Yeny O%Tinoco%null%1,              Florette K%Treurnicht%null%1,              Claudia%Turner%null%1,              Paul%Turner%null%1,              Rogier%van Doorn%null%1,              Marc%Van Ranst%null%2,              Benoit%Visseaux%null%1,              Sunthareeya%Waicharoen%null%1,              Jianwei%Wang%null%1,              Lay-Myint%Yoshida%null%1,              Heather J%Zar%null%1,          You%Li%null%1,          Rachel M%Reeves%null%1,          Xin%Wang%null%1,          Quique%Bassat%null%1,          W Abdullah%Brooks%null%1,          Cheryl%Cohen%null%1,          David P%Moore%null%1,          Marta%Nunes%null%1,          Barbara%Rath%null%1,          Harry%Campbell%null%1,          Harish%Nair%null%1,          Sozinho%Acacio%null%1,          Wladimir J%Alonso%null%1,          Martin%Antonio%null%1,          Guadalupe%Ayora Talavera%null%1,          Darmaa%Badarch%null%1,          Vicky L%Baillie%null%1,          Gisela%Barrera-Badillo%null%1,          Godfrey%Bigogo%null%1,          Shobha%Broor%null%1,          Dana%Bruden%null%1,          Philippe%Buchy%null%1,          Peter%Byass%null%1,          James%Chipeta%null%1,          Wilfrido%Clara%null%1,          Duc-Anh%Dang%null%1,          Carla Cecília%de Freitas Lázaro Emediato%null%1,          Menno%de Jong%null%1,          José Alberto%Díaz-Quiñonez%null%1,          Lien Anh Ha%Do%null%1,          Rodrigo A%Fasce%null%1,          Luzhao%Feng%null%2,          Mark J%Ferson%null%1,          Angela%Gentile%null%1,          Bradford D%Gessner%null%1,          Doli%Goswami%null%1,          Sophie%Goyet%null%1,          Carlos G%Grijalva%null%1,          Natasha%Halasa%null%1,          Orienka%Hellferscee%null%1,          Danielle%Hessong%null%1,          Nusrat%Homaira%null%1,          Jorge%Jara%null%1,          Kathleen%Kahn%null%1,          Najwa%Khuri-Bulos%null%1,          Karen L%Kotloff%null%1,          Claudio F%Lanata%null%1,          Olga%Lopez%null%1,          Maria Renee%Lopez Bolaños%null%1,          Marilla G%Lucero%null%1,          Florencia%Lucion%null%1,          Socorro P%Lupisan%null%1,          Shabir A%Madhi%null%1,          Omphile%Mekgoe%null%1,          Cinta%Moraleda%null%1,          Jocelyn%Moyes%null%1,          Kim%Mulholland%null%1,          Patrick K%Munywoki%null%1,          Fathima%Naby%null%1,          Thanh Hung%Nguyen%null%1,          Mark P%Nicol%null%1,          D James%Nokes%null%1,          Daniel E%Noyola%null%1,          Daisuke%Onozuka%null%1,          Nandhini%Palani%null%1,          Yong%Poovorawan%null%1,          Mustafizur%Rahman%null%1,          Kaat%Ramaekers%null%1,          Candice%Romero%null%1,          Elizabeth P%Schlaudecker%null%1,          Brunhilde%Schweiger%null%1,          Phil%Seidenberg%null%1,          Eric A F%Simoes%null%1,          Rosalyn%Singleton%null%1,          Sujatha%Sistla%null%1,          Katharine%Sturm-Ramirez%null%1,          Nungruthai%Suntronwong%null%1,          Agustinus%Sutanto%null%1,          Milagritos D%Tapia%null%1,          Somsak%Thamthitiwat%null%1,          Ilada%Thongpan%null%1,          Gayani%Tillekeratne%null%1,          Yeny O%Tinoco%null%1,          Florette K%Treurnicht%null%1,          Claudia%Turner%null%1,          Paul%Turner%null%1,          Rogier%van Doorn%null%1,          Marc%Van Ranst%null%3,          Benoit%Visseaux%null%1,          Sunthareeya%Waicharoen%null%1,          Jianwei%Wang%null%5,          Lay-Myint%Yoshida%null%1,          Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,            Jack%Bee Chook%coreGivesNoEmail%1,            Kim%Tien Ng%coreGivesNoEmail%1,            Kok%Keng Tee%coreGivesNoEmail%1,            Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,            Nik%Sherina Hanafi%coreGivesNoEmail%1,            van%der Hoek%coreGivesNoEmail%2,            van%der Hoek%coreGivesNoEmail%0,            van%Elden%coreGivesNoEmail%1,            Xiang%Yong Oong%coreGivesNoEmail%1,            Yong%Kek Pang%coreGivesNoEmail%1,            Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,    Lars-Magnus%Andersson%xref no email%1,    Sigvard%Olofsson%xref no email%1,    Magnus%Lindh%xref no email%1,    Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                Dangui%Zhang%danguizhang@stu.edu.cn%1,                Hui%Pan%michaelpan@stu.edu.cn%1,                Fan%Zhang%lemon_fan@163.com%1,                Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                Frieda%Law%lawf@stu.edu.cn%1,                H Rogier%van Doorn%hrogier@gmail.com%1,                Beiyan%Wu%1261305798@qq.com%1,                William%Ba-Thein%wbathein@stu.edu.cn%1,               Binglin%Cui%binglincui@stu.edu.cn%1,               Dangui%Zhang%danguizhang@stu.edu.cn%1,               Hui%Pan%michaelpan@stu.edu.cn%1,               Fan%Zhang%lemon_fan@163.com%1,               Jeremy%Farrar%jeremyjfarrar@gmail.com%1,               Frieda%Law%lawf@stu.edu.cn%1,               H Rogier%van Doorn%hrogier@gmail.com%1,               Beiyan%Wu%1261305798@qq.com%1,               William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,            Andrew%Berglund%coreGivesNoEmail%1,            Christine%C. Robinson%coreGivesNoEmail%1,            Christopher%D. Town%coreGivesNoEmail%1,            Edison%Luiz Durigon%coreGivesNoEmail%1,            Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,            Kathryn%V. Holmes%coreGivesNoEmail%1,            Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,            Nadia%Fedorova%coreGivesNoEmail%1,            Philip%A. Weston%coreGivesNoEmail%1,            Rebecca%A. Halpin%coreGivesNoEmail%1,            Samuel%R. Dominguez%coreGivesNoEmail%1,            Susmita%Shrivastava%coreGivesNoEmail%1,            Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                Lifeng%Pan%NULL%1,                Qiao%Sun%NULL%1,                Weiping%Zhu%NULL%1,                Linying%Zhu%NULL%1,                Chuchu%Ye%NULL%1,                Caoyi%Xue%NULL%1,                Yuanping%Wang%NULL%1,                Qing%Liu%NULL%1,                Ping%Ma%NULL%1,                Huifang%Qiu%NULL%1,                Srinand%Sreevatsan%NULL%1,               Yifei%Fu%NULL%1,               Lifeng%Pan%NULL%1,               Qiao%Sun%NULL%1,               Weiping%Zhu%NULL%1,               Linying%Zhu%NULL%1,               Chuchu%Ye%NULL%1,               Caoyi%Xue%NULL%1,               Yuanping%Wang%NULL%1,               Qing%Liu%NULL%1,               Ping%Ma%NULL%1,               Huifang%Qiu%NULL%1,               Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                Mumtaz Cem%Sirin%NULL%1,               Safak%Goktas%NULL%1,               Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                Nina%Moe%NULL%1,                Sidsel%Krokstad%NULL%2,                Andreas%Christensen%NULL%2,                Lars Høsøien%Skanke%NULL%2,                Svein Arne%Nordbø%NULL%2,                Henrik%Døllner%henrik.dollner@ntnu.no%2,               Inger%Heimdal%NULL%1,               Nina%Moe%NULL%2,               Sidsel%Krokstad%NULL%2,               Andreas%Christensen%NULL%2,               Lars Høsøien%Skanke%NULL%2,               Svein Arne%Nordbø%NULL%2,               Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                Inger Heimdal%Stenseng%NULL%1,                Sidsel%Krokstad%NULL%0,                Andreas%Christensen%NULL%0,                Lars Høsøien%Skanke%NULL%0,                Kari Ravndal%Risnes%NULL%1,                Svein Arne%Nordbø%NULL%0,                Henrik%Døllner%henrik.dollner@ntnu.no%0,               Nina%Moe%NULL%0,               Inger Heimdal%Stenseng%NULL%1,               Sidsel%Krokstad%NULL%0,               Andreas%Christensen%NULL%0,               Lars Høsøien%Skanke%NULL%0,               Kari Ravndal%Risnes%NULL%1,               Svein Arne%Nordbø%NULL%0,               Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,    Derek J.%Williams%xref no email%1,    Sandra R.%Arnold%xref no email%1,    Krow%Ampofo%xref no email%1,    Anna M.%Bramley%xref no email%1,    Carrie%Reed%xref no email%1,    Chris%Stockmann%xref no email%1,    Evan J.%Anderson%xref no email%1,    Carlos G.%Grijalva%xref no email%1,    Wesley H.%Self%xref no email%1,    Yuwei%Zhu%xref no email%1,    Anami%Patel%xref no email%1,    Weston%Hymas%xref no email%1,    James D.%Chappell%xref no email%1,    Robert A.%Kaufman%xref no email%1,    J. Herman%Kan%xref no email%1,    David%Dansie%xref no email%1,    Noel%Lenny%xref no email%1,    David R.%Hillyard%xref no email%1,    Lia M.%Haynes%xref no email%1,    Min%Levine%xref no email%1,    Stephen%Lindstrom%xref no email%1,    Jonas M.%Winchell%xref no email%1,    Jacqueline M.%Katz%xref no email%1,    Dean%Erdman%xref no email%1,    Eileen%Schneider%xref no email%1,    Lauri A.%Hicks%xref no email%1,    Richard G.%Wunderink%xref no email%1,    Kathryn M.%Edwards%xref no email%1,    Andrew T.%Pavia%xref no email%1,    Jonathan A.%McCullers%xref no email%1,    Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                Andrej%Steyer%NULL%1,                Marko%Pokorn%NULL%1,                Tatjana%Mrvič%NULL%1,                Štefan%Grosek%NULL%1,                Franc%Strle%NULL%1,                Lara%Lusa%NULL%1,                Miroslav%Petrovec%NULL%1,                Oliver%Schildgen%NULL%1,               Monika%Jevšnik%NULL%1,               Andrej%Steyer%NULL%1,               Marko%Pokorn%NULL%1,               Tatjana%Mrvič%NULL%1,               Štefan%Grosek%NULL%1,               Franc%Strle%NULL%1,               Lara%Lusa%NULL%1,               Miroslav%Petrovec%NULL%1,               Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                Matti%Waris%NULL%1,                Kari%Johansen%NULL%1,                René%Snacken%NULL%1,                Pasi%Penttinen%NULL%1,                NULL%NULL%NULL%3,               Eeva K%Broberg%NULL%1,               Matti%Waris%NULL%1,               Kari%Johansen%NULL%1,               René%Snacken%NULL%1,               Pasi%Penttinen%NULL%1,               NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                Qiaoyun%Fang%NULL%1,                Jian%Zhang%NULL%1,                Angao%Xu%NULL%1,                Lihuan%Liang%NULL%1,                Changwen%Ke%hzmedicine@163.com%1,               Xiongfei%Ju%NULL%1,               Qiaoyun%Fang%NULL%1,               Jian%Zhang%NULL%1,               Angao%Xu%NULL%1,               Lihuan%Liang%NULL%1,               Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                Holly M.%Biggs%NULL%1,                Amber%Haynes%NULL%1,                Rebecca M.%Dahl%NULL%1,                Desiree%Mustaquim%NULL%1,                Susan I.%Gerber%NULL%1,                John T.%Watson%NULL%1,               Marie E.%Killerby%lxo9@cdc.gov%1,               Holly M.%Biggs%NULL%1,               Amber%Haynes%NULL%1,               Rebecca M.%Dahl%NULL%1,               Desiree%Mustaquim%NULL%1,               Susan I.%Gerber%NULL%1,               John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                Hee‐Dong%Jung%NULL%1,                Hyang‐Min%Cheong%NULL%1,                Anna%Lee%NULL%1,                Nam‐Joo%Lee%NULL%1,                Hyuk%Chu%NULL%1,                Joo‐Yeon%Lee%NULL%1,                Sung Soon%Kim%NULL%1,                Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,               Jeong‐Min%Kim%NULL%1,               Hee‐Dong%Jung%NULL%1,               Hyang‐Min%Cheong%NULL%1,               Anna%Lee%NULL%1,               Nam‐Joo%Lee%NULL%1,               Hyuk%Chu%NULL%1,               Joo‐Yeon%Lee%NULL%1,               Sung Soon%Kim%NULL%1,               Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,    Patrick C. Y.%Woo%xref no email%1,    Cyril C. Y.%Yip%xref no email%1,    Herman%Tse%xref no email%1,    Hoi-wah%Tsoi%xref no email%1,    Vincent C. C.%Cheng%xref no email%1,    Paul%Lee%xref no email%1,    Bone S. F.%Tang%xref no email%1,    Chris H. Y.%Cheung%xref no email%1,    Rodney A.%Lee%xref no email%1,    Lok-yee%So%xref no email%1,    Yu-lung%Lau%xref no email%1,    Kwok-hung%Chan%xref no email%1,    Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,    Guruprasad R.%Medigeshi%xref no email%1,    Vishnu S.%Mishra%xref no email%1,    Mojahidul%Islam%xref no email%1,    Shivani%Randev%xref no email%1,    Aparna%Mukherjee%xref no email%1,    Rama%Chaudhry%xref no email%1,    Arti%Kapil%xref no email%1,    Kana%Ram Jat%xref no email%1,    Rakesh%Lodha%xref no email%1,    Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,    Shin Hae%Lee%xref no email%1,    Eun Kyo%Ha%xref no email%1,    Youn Ho%Sheen%xref no email%1,    Myong Soon%Sung%xref no email%1,    Young-Ho%Jung%xref no email%1,    Kyung Suk%Lee%xref no email%1,    Hye Mi%Jee%xref no email%1,    Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                Juansheng%Li%lijsh16@163.com%1,                Lei%Meng%mleicdc@163.com%1,                Wanqi%Zhu%NULL%1,                Xinfeng%Liu%NULL%1,                Mei%Yang%NULL%1,                Deshan%Yu%NULL%2,                Lixia%Niu%NULL%1,                Xiping%Shen%NULL%1,               Xuechao%Li%NULL%1,               Juansheng%Li%lijsh16@163.com%1,               Lei%Meng%mleicdc@163.com%1,               Wanqi%Zhu%NULL%1,               Xinfeng%Liu%NULL%1,               Mei%Yang%NULL%1,               Deshan%Yu%NULL%2,               Lixia%Niu%NULL%1,               Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                James G.%Bosley%NULL%1,               Christine M.%Litwin%clitwin@gru.edu%1,               James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,    Chieko%Abiko%xref no email%1,    Tatsuya%Ikeda%xref no email%1,    Yoko%Aoki%xref no email%1,    Yu%Suzuki%xref no email%1,    Kazue%Yahagi%xref no email%1,    Yoko%Matsuzaki%xref no email%1,    Tsutomu%Itagaki%xref no email%1,    Fumio%Katsushima%xref no email%1,    Yuriko%Katsushima%xref no email%1,    Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                Elsie Laban%Yekwa%NULL%1,                Pierre%Cappy%NULL%1,                Astrid%Vabret%NULL%2,                Pascal%Boisier%NULL%1,                Dominique%Rousset%NULL%1,               Richard%Njouom%NULL%1,               Elsie Laban%Yekwa%NULL%1,               Pierre%Cappy%NULL%1,               Astrid%Vabret%NULL%2,               Pascal%Boisier%NULL%1,               Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                Suvi%Lappalainen%NULL%1,                Timo%Vesikari%NULL%1,               Minna%Paloniemi%NULL%1,               Suvi%Lappalainen%NULL%1,               Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                Richard%Gonzalez%NULL%1,                Jin%Xu%NULL%1,                Yan%Xiao%NULL%1,                Yongjun%Li%NULL%1,                Hongli%Zhou%NULL%1,                Jianguo%Li%NULL%1,                Qingqing%Yang%NULL%1,                Jing%Zhang%NULL%1,                Lan%Chen%NULL%1,                Wei%Wang%NULL%1,                Guy%Vernet%NULL%1,                Gláucia%Paranhos‐Baccalà%NULL%1,                Zhong%Wang%wangzhong523@vip.163.com%1,                Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,               Lili%Ren%NULL%1,               Richard%Gonzalez%NULL%1,               Jin%Xu%NULL%1,               Yan%Xiao%NULL%1,               Yongjun%Li%NULL%1,               Hongli%Zhou%NULL%1,               Jianguo%Li%NULL%1,               Qingqing%Yang%NULL%1,               Jing%Zhang%NULL%1,               Lan%Chen%NULL%1,               Wei%Wang%NULL%1,               Guy%Vernet%NULL%1,               Gláucia%Paranhos‐Baccalà%NULL%1,               Zhong%Wang%wangzhong523@vip.163.com%1,               Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,            Druelle%Valentin%coreGivesNoEmail%1,            Dyrdak%Robert%coreGivesNoEmail%1,            Hodcroft%Emma B.%coreGivesNoEmail%1,            Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                Ilada%Thongpan%ilada.cu09@gmail.com%1,                Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                Yong%Poovorawan%yong.p@chula.ac.th%1,               Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,               Ilada%Thongpan%ilada.cu09@gmail.com%1,               Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,               Chanpim%Vuthitanachot%viboovut@hotmail.com%1,               Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,               Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,               Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,               Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                Janet A%Englund%NULL%1,                Jane Y%Kuypers%NULL%1,                Helen Y%Chu%NULL%1,                Mark C%Steinhoff%NULL%1,                Subarna K%Khatry%NULL%1,                Steve C%LeClerq%NULL%1,                James M%Tielsch%NULL%1,                Luke C%Mullany%NULL%1,                Laxman%Shrestha%NULL%2,                Joanne%Katz%jkatz1@jhu.edu%2,               S M Iftekhar%Uddin%NULL%1,               Janet A%Englund%NULL%1,               Jane Y%Kuypers%NULL%1,               Helen Y%Chu%NULL%1,               Mark C%Steinhoff%NULL%1,               Subarna K%Khatry%NULL%1,               Steve C%LeClerq%NULL%1,               James M%Tielsch%NULL%1,               Luke C%Mullany%NULL%1,               Laxman%Shrestha%NULL%2,               Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                Joanne%Katz%NULL%0,                James%Tielsch%NULL%1,                Subarna K.%Khatry%NULL%1,                Laxman%Shrestha%NULL%0,                Steven C.%LeClerq%NULL%1,                Amalia%Magaret%NULL%1,                Jane%Kuypers%NULL%1,                Mark%Steinhoff%NULL%1,                Janet A.%Englund%NULL%1,               Helen Y.%Chu%helenchu@uw.edu%1,               Joanne%Katz%NULL%0,               James%Tielsch%NULL%1,               Subarna K.%Khatry%NULL%1,               Laxman%Shrestha%NULL%0,               Steven C.%LeClerq%NULL%1,               Amalia%Magaret%NULL%1,               Jane%Kuypers%NULL%1,               Mark%Steinhoff%NULL%1,               Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                Gabriele%Ihorst%NULL%1,                Klaus%Sure%NULL%1,                Astrid%Vabret%NULL%0,                Ronald%Dijkman%NULL%1,                Michel%de Vries%NULL%1,                Johannes%Forster%NULL%1,                Ben%Berkhout%NULL%1,                Klaus%Uberla%NULL%1,               Lia%van der Hoek%NULL%1,               Gabriele%Ihorst%NULL%1,               Klaus%Sure%NULL%1,               Astrid%Vabret%NULL%0,               Ronald%Dijkman%NULL%1,               Michel%de Vries%NULL%1,               Johannes%Forster%NULL%1,               Ben%Berkhout%NULL%1,               Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                Philip%Zachariah%pz2177@cumc.columbia.edu%1,                Celibell%Vargas%NULL%1,                Philip%LaRussa%NULL%1,                Ryan T%Demmer%NULL%1,                Yoko E%Furuya%NULL%1,                Susan%Whittier%NULL%1,                Carrie%Reed%NULL%1,                Melissa S%Stockwell%NULL%1,                Lisa%Saiman%NULL%1,               Litty%Varghese%NULL%1,               Philip%Zachariah%pz2177@cumc.columbia.edu%1,               Celibell%Vargas%NULL%1,               Philip%LaRussa%NULL%1,               Ryan T%Demmer%NULL%1,               Yoko E%Furuya%NULL%1,               Susan%Whittier%NULL%1,               Carrie%Reed%NULL%1,               Melissa S%Stockwell%NULL%1,               Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                Ria%Lassaunière%NULL%1,                Tina Louise%Kresfelder%NULL%1,                Yvette%Westerberg%NULL%1,                Adele%Visser%NULL%1,               Marietjie%Venter%marietjiev@nicd.ac.za%1,               Ria%Lassaunière%NULL%1,               Tina Louise%Kresfelder%NULL%1,               Yvette%Westerberg%NULL%1,               Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                Charles%Burdet%NULL%1,                Guillaume%Voiriot%NULL%1,                François-Xavier%Lescure%NULL%1,                Taous%Chougar%NULL%1,                Olivier%Brugière%NULL%1,                Bruno%Crestani%NULL%1,                Enrique%Casalino%NULL%1,                Charlotte%Charpentier%NULL%1,                Diane%Descamps%NULL%1,                Jean-François%Timsit%NULL%1,                Yazdan%Yazdanpanah%NULL%1,                Nadhira%Houhou-Fidouh%NULL%1,                Dena L.%Schanzer%NULL%1,               Benoit%Visseaux%NULL%1,               Charles%Burdet%NULL%1,               Guillaume%Voiriot%NULL%1,               François-Xavier%Lescure%NULL%1,               Taous%Chougar%NULL%1,               Olivier%Brugière%NULL%1,               Bruno%Crestani%NULL%1,               Enrique%Casalino%NULL%1,               Charlotte%Charpentier%NULL%1,               Diane%Descamps%NULL%1,               Jean-François%Timsit%NULL%1,               Yazdan%Yazdanpanah%NULL%1,               Nadhira%Houhou-Fidouh%NULL%1,               Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                Deshan%Yu%NULL%0,                Naiying%Mao%NULL%1,                Zhen%Zhu%NULL%1,                Hui%Zhang%NULL%1,                Zhongyi%Jiang%NULL%1,                Hongyu%Li%NULL%1,                Yan%Zhang%NULL%1,                Jing%Shi%NULL%1,                Shuang%Zhang%NULL%1,                Xinhua%Wang%NULL%1,                Wenbo%Xu%NULL%1,                Dong-Yan%Jin%NULL%1,               Guohong%Huang%NULL%1,               Deshan%Yu%NULL%0,               Naiying%Mao%NULL%1,               Zhen%Zhu%NULL%1,               Hui%Zhang%NULL%1,               Zhongyi%Jiang%NULL%1,               Hongyu%Li%NULL%1,               Yan%Zhang%NULL%1,               Jing%Shi%NULL%1,               Shuang%Zhang%NULL%1,               Xinhua%Wang%NULL%1,               Wenbo%Xu%NULL%1,               Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                Jiu-ling%Tuo%NULL%1,                Xu-bin%Huang%NULL%1,                Xun%Zhu%NULL%1,                Ding-mei%Zhang%NULL%1,                Kai%Zhou%NULL%1,                Lei%Yuan%NULL%1,                Hong-jiao%Luo%NULL%1,                Bo-jian%Zheng%NULL%1,                Kwok-yung%Yuen%NULL%1,                Meng-feng%Li%NULL%1,                Kai-yuan%Cao%NULL%1,                Lin%Xu%NULL%1,                Stefan%Pöhlmann%NULL%1,               Su-fen%Zhang%NULL%1,               Jiu-ling%Tuo%NULL%1,               Xu-bin%Huang%NULL%1,               Xun%Zhu%NULL%1,               Ding-mei%Zhang%NULL%1,               Kai%Zhou%NULL%1,               Lei%Yuan%NULL%1,               Hong-jiao%Luo%NULL%1,               Bo-jian%Zheng%NULL%1,               Kwok-yung%Yuen%NULL%1,               Meng-feng%Li%NULL%1,               Kai-yuan%Cao%NULL%1,               Lin%Xu%NULL%1,               Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2477,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -2302,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2331,7 +2535,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2360,7 +2564,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2389,7 +2593,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2418,7 +2622,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -2447,7 +2651,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -2476,7 +2680,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -2505,7 +2709,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2534,7 +2738,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2563,7 +2767,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2592,7 +2796,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -2621,7 +2825,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2650,7 +2854,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -2679,7 +2883,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -2708,7 +2912,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -2737,7 +2941,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -2766,7 +2970,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -2795,7 +2999,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -2824,7 +3028,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2853,7 +3057,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -2882,7 +3086,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -2911,7 +3115,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -2940,7 +3144,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -2969,7 +3173,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -2998,7 +3202,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3056,7 +3260,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3085,7 +3289,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -3114,7 +3318,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -3143,7 +3347,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -3172,7 +3376,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -3201,7 +3405,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -3230,7 +3434,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -3259,7 +3463,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="677">
   <si>
     <t>Doi</t>
   </si>
@@ -2147,6 +2147,210 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                Jiu-ling%Tuo%NULL%1,                Xu-bin%Huang%NULL%1,                Xun%Zhu%NULL%1,                Ding-mei%Zhang%NULL%1,                Kai%Zhou%NULL%1,                Lei%Yuan%NULL%1,                Hong-jiao%Luo%NULL%1,                Bo-jian%Zheng%NULL%1,                Kwok-yung%Yuen%NULL%1,                Meng-feng%Li%NULL%1,                Kai-yuan%Cao%NULL%1,                Lin%Xu%NULL%1,                Stefan%Pöhlmann%NULL%1,               Su-fen%Zhang%NULL%1,               Jiu-ling%Tuo%NULL%1,               Xu-bin%Huang%NULL%1,               Xun%Zhu%NULL%1,               Ding-mei%Zhang%NULL%1,               Kai%Zhou%NULL%1,               Lei%Yuan%NULL%1,               Hong-jiao%Luo%NULL%1,               Bo-jian%Zheng%NULL%1,               Kwok-yung%Yuen%NULL%1,               Meng-feng%Li%NULL%1,               Kai-yuan%Cao%NULL%1,               Lin%Xu%NULL%1,               Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,               Rachel M%Reeves%null%1,               Xin%Wang%null%1,               Quique%Bassat%null%1,               W Abdullah%Brooks%null%1,               Cheryl%Cohen%null%1,               David P%Moore%null%1,               Marta%Nunes%null%1,               Barbara%Rath%null%1,               Harry%Campbell%null%1,               Harish%Nair%null%1,               Sozinho%Acacio%null%1,               Wladimir J%Alonso%null%1,               Martin%Antonio%null%1,               Guadalupe%Ayora Talavera%null%1,               Darmaa%Badarch%null%1,               Vicky L%Baillie%null%1,               Gisela%Barrera-Badillo%null%1,               Godfrey%Bigogo%null%1,               Shobha%Broor%null%1,               Dana%Bruden%null%1,               Philippe%Buchy%null%1,               Peter%Byass%null%1,               James%Chipeta%null%1,               Wilfrido%Clara%null%1,               Duc-Anh%Dang%null%1,               Carla Cecília%de Freitas Lázaro Emediato%null%1,               Menno%de Jong%null%1,               José Alberto%Díaz-Quiñonez%null%1,               Lien Anh Ha%Do%null%1,               Rodrigo A%Fasce%null%1,               Luzhao%Feng%null%1,               Mark J%Ferson%null%1,               Angela%Gentile%null%1,               Bradford D%Gessner%null%1,               Doli%Goswami%null%1,               Sophie%Goyet%null%1,               Carlos G%Grijalva%null%1,               Natasha%Halasa%null%1,               Orienka%Hellferscee%null%1,               Danielle%Hessong%null%1,               Nusrat%Homaira%null%1,               Jorge%Jara%null%1,               Kathleen%Kahn%null%1,               Najwa%Khuri-Bulos%null%1,               Karen L%Kotloff%null%1,               Claudio F%Lanata%null%1,               Olga%Lopez%null%1,               Maria Renee%Lopez Bolaños%null%1,               Marilla G%Lucero%null%1,               Florencia%Lucion%null%1,               Socorro P%Lupisan%null%1,               Shabir A%Madhi%null%1,               Omphile%Mekgoe%null%1,               Cinta%Moraleda%null%1,               Jocelyn%Moyes%null%1,               Kim%Mulholland%null%1,               Patrick K%Munywoki%null%1,               Fathima%Naby%null%1,               Thanh Hung%Nguyen%null%1,               Mark P%Nicol%null%1,               D James%Nokes%null%1,               Daniel E%Noyola%null%1,               Daisuke%Onozuka%null%1,               Nandhini%Palani%null%1,               Yong%Poovorawan%null%1,               Mustafizur%Rahman%null%1,               Kaat%Ramaekers%null%1,               Candice%Romero%null%1,               Elizabeth P%Schlaudecker%null%1,               Brunhilde%Schweiger%null%1,               Phil%Seidenberg%null%1,               Eric A F%Simoes%null%1,               Rosalyn%Singleton%null%1,               Sujatha%Sistla%null%1,               Katharine%Sturm-Ramirez%null%1,               Nungruthai%Suntronwong%null%1,               Agustinus%Sutanto%null%1,               Milagritos D%Tapia%null%1,               Somsak%Thamthitiwat%null%1,               Ilada%Thongpan%null%1,               Gayani%Tillekeratne%null%1,               Yeny O%Tinoco%null%1,               Florette K%Treurnicht%null%1,               Claudia%Turner%null%1,               Paul%Turner%null%1,               Rogier%van Doorn%null%1,               Marc%Van Ranst%null%2,               Benoit%Visseaux%null%1,               Sunthareeya%Waicharoen%null%1,               Jianwei%Wang%null%1,               Lay-Myint%Yoshida%null%1,               Heather J%Zar%null%1,           You%Li%null%1,           Rachel M%Reeves%null%1,           Xin%Wang%null%1,           Quique%Bassat%null%1,           W Abdullah%Brooks%null%1,           Cheryl%Cohen%null%1,           David P%Moore%null%1,           Marta%Nunes%null%1,           Barbara%Rath%null%1,           Harry%Campbell%null%1,           Harish%Nair%null%1,           Sozinho%Acacio%null%1,           Wladimir J%Alonso%null%1,           Martin%Antonio%null%1,           Guadalupe%Ayora Talavera%null%1,           Darmaa%Badarch%null%1,           Vicky L%Baillie%null%1,           Gisela%Barrera-Badillo%null%1,           Godfrey%Bigogo%null%1,           Shobha%Broor%null%1,           Dana%Bruden%null%1,           Philippe%Buchy%null%1,           Peter%Byass%null%1,           James%Chipeta%null%1,           Wilfrido%Clara%null%1,           Duc-Anh%Dang%null%1,           Carla Cecília%de Freitas Lázaro Emediato%null%1,           Menno%de Jong%null%1,           José Alberto%Díaz-Quiñonez%null%1,           Lien Anh Ha%Do%null%1,           Rodrigo A%Fasce%null%1,           Luzhao%Feng%null%2,           Mark J%Ferson%null%1,           Angela%Gentile%null%1,           Bradford D%Gessner%null%1,           Doli%Goswami%null%1,           Sophie%Goyet%null%1,           Carlos G%Grijalva%null%1,           Natasha%Halasa%null%1,           Orienka%Hellferscee%null%1,           Danielle%Hessong%null%1,           Nusrat%Homaira%null%1,           Jorge%Jara%null%1,           Kathleen%Kahn%null%1,           Najwa%Khuri-Bulos%null%1,           Karen L%Kotloff%null%1,           Claudio F%Lanata%null%1,           Olga%Lopez%null%1,           Maria Renee%Lopez Bolaños%null%1,           Marilla G%Lucero%null%1,           Florencia%Lucion%null%1,           Socorro P%Lupisan%null%1,           Shabir A%Madhi%null%1,           Omphile%Mekgoe%null%1,           Cinta%Moraleda%null%1,           Jocelyn%Moyes%null%1,           Kim%Mulholland%null%1,           Patrick K%Munywoki%null%1,           Fathima%Naby%null%1,           Thanh Hung%Nguyen%null%1,           Mark P%Nicol%null%1,           D James%Nokes%null%1,           Daniel E%Noyola%null%1,           Daisuke%Onozuka%null%1,           Nandhini%Palani%null%1,           Yong%Poovorawan%null%1,           Mustafizur%Rahman%null%1,           Kaat%Ramaekers%null%1,           Candice%Romero%null%1,           Elizabeth P%Schlaudecker%null%1,           Brunhilde%Schweiger%null%1,           Phil%Seidenberg%null%1,           Eric A F%Simoes%null%1,           Rosalyn%Singleton%null%1,           Sujatha%Sistla%null%1,           Katharine%Sturm-Ramirez%null%1,           Nungruthai%Suntronwong%null%1,           Agustinus%Sutanto%null%1,           Milagritos D%Tapia%null%1,           Somsak%Thamthitiwat%null%1,           Ilada%Thongpan%null%1,           Gayani%Tillekeratne%null%1,           Yeny O%Tinoco%null%1,           Florette K%Treurnicht%null%1,           Claudia%Turner%null%1,           Paul%Turner%null%1,           Rogier%van Doorn%null%1,           Marc%Van Ranst%null%3,           Benoit%Visseaux%null%1,           Sunthareeya%Waicharoen%null%1,           Jianwei%Wang%null%6,           Lay-Myint%Yoshida%null%1,           Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,             Jack%Bee Chook%coreGivesNoEmail%1,             Kim%Tien Ng%coreGivesNoEmail%1,             Kok%Keng Tee%coreGivesNoEmail%1,             Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,             Nik%Sherina Hanafi%coreGivesNoEmail%1,             van%der Hoek%coreGivesNoEmail%2,             van%der Hoek%coreGivesNoEmail%0,             van%Elden%coreGivesNoEmail%1,             Xiang%Yong Oong%coreGivesNoEmail%1,             Yong%Kek Pang%coreGivesNoEmail%1,             Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,     Lars-Magnus%Andersson%xref no email%1,     Sigvard%Olofsson%xref no email%1,     Magnus%Lindh%xref no email%1,     Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                 Dangui%Zhang%danguizhang@stu.edu.cn%1,                 Hui%Pan%michaelpan@stu.edu.cn%1,                 Fan%Zhang%lemon_fan@163.com%1,                 Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                 Frieda%Law%lawf@stu.edu.cn%1,                 H Rogier%van Doorn%hrogier@gmail.com%1,                 Beiyan%Wu%1261305798@qq.com%1,                 William%Ba-Thein%wbathein@stu.edu.cn%1,                Binglin%Cui%binglincui@stu.edu.cn%1,                Dangui%Zhang%danguizhang@stu.edu.cn%1,                Hui%Pan%michaelpan@stu.edu.cn%1,                Fan%Zhang%lemon_fan@163.com%1,                Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                Frieda%Law%lawf@stu.edu.cn%1,                H Rogier%van Doorn%hrogier@gmail.com%1,                Beiyan%Wu%1261305798@qq.com%1,                William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,             Andrew%Berglund%coreGivesNoEmail%1,             Christine%C. Robinson%coreGivesNoEmail%1,             Christopher%D. Town%coreGivesNoEmail%1,             Edison%Luiz Durigon%coreGivesNoEmail%1,             Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,             Kathryn%V. Holmes%coreGivesNoEmail%1,             Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,             Nadia%Fedorova%coreGivesNoEmail%1,             Philip%A. Weston%coreGivesNoEmail%1,             Rebecca%A. Halpin%coreGivesNoEmail%1,             Samuel%R. Dominguez%coreGivesNoEmail%1,             Susmita%Shrivastava%coreGivesNoEmail%1,             Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                 Lifeng%Pan%NULL%1,                 Qiao%Sun%NULL%1,                 Weiping%Zhu%NULL%1,                 Linying%Zhu%NULL%1,                 Chuchu%Ye%NULL%1,                 Caoyi%Xue%NULL%1,                 Yuanping%Wang%NULL%1,                 Qing%Liu%NULL%1,                 Ping%Ma%NULL%1,                 Huifang%Qiu%NULL%1,                 Srinand%Sreevatsan%NULL%1,                Yifei%Fu%NULL%1,                Lifeng%Pan%NULL%1,                Qiao%Sun%NULL%1,                Weiping%Zhu%NULL%1,                Linying%Zhu%NULL%1,                Chuchu%Ye%NULL%1,                Caoyi%Xue%NULL%1,                Yuanping%Wang%NULL%1,                Qing%Liu%NULL%1,                Ping%Ma%NULL%1,                Huifang%Qiu%NULL%1,                Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                 Mumtaz Cem%Sirin%NULL%1,                Safak%Goktas%NULL%1,                Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                 Nina%Moe%NULL%1,                 Sidsel%Krokstad%NULL%2,                 Andreas%Christensen%NULL%2,                 Lars Høsøien%Skanke%NULL%2,                 Svein Arne%Nordbø%NULL%2,                 Henrik%Døllner%henrik.dollner@ntnu.no%2,                Inger%Heimdal%NULL%1,                Nina%Moe%NULL%2,                Sidsel%Krokstad%NULL%2,                Andreas%Christensen%NULL%2,                Lars Høsøien%Skanke%NULL%2,                Svein Arne%Nordbø%NULL%2,                Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                 Inger Heimdal%Stenseng%NULL%1,                 Sidsel%Krokstad%NULL%0,                 Andreas%Christensen%NULL%0,                 Lars Høsøien%Skanke%NULL%0,                 Kari Ravndal%Risnes%NULL%1,                 Svein Arne%Nordbø%NULL%0,                 Henrik%Døllner%henrik.dollner@ntnu.no%0,                Nina%Moe%NULL%0,                Inger Heimdal%Stenseng%NULL%1,                Sidsel%Krokstad%NULL%0,                Andreas%Christensen%NULL%0,                Lars Høsøien%Skanke%NULL%0,                Kari Ravndal%Risnes%NULL%1,                Svein Arne%Nordbø%NULL%0,                Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,     Derek J.%Williams%xref no email%1,     Sandra R.%Arnold%xref no email%1,     Krow%Ampofo%xref no email%1,     Anna M.%Bramley%xref no email%1,     Carrie%Reed%xref no email%1,     Chris%Stockmann%xref no email%1,     Evan J.%Anderson%xref no email%1,     Carlos G.%Grijalva%xref no email%1,     Wesley H.%Self%xref no email%1,     Yuwei%Zhu%xref no email%1,     Anami%Patel%xref no email%1,     Weston%Hymas%xref no email%1,     James D.%Chappell%xref no email%1,     Robert A.%Kaufman%xref no email%1,     J. Herman%Kan%xref no email%1,     David%Dansie%xref no email%1,     Noel%Lenny%xref no email%1,     David R.%Hillyard%xref no email%1,     Lia M.%Haynes%xref no email%1,     Min%Levine%xref no email%1,     Stephen%Lindstrom%xref no email%1,     Jonas M.%Winchell%xref no email%1,     Jacqueline M.%Katz%xref no email%1,     Dean%Erdman%xref no email%1,     Eileen%Schneider%xref no email%1,     Lauri A.%Hicks%xref no email%1,     Richard G.%Wunderink%xref no email%1,     Kathryn M.%Edwards%xref no email%1,     Andrew T.%Pavia%xref no email%1,     Jonathan A.%McCullers%xref no email%1,     Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                 Andrej%Steyer%NULL%1,                 Marko%Pokorn%NULL%1,                 Tatjana%Mrvič%NULL%1,                 Štefan%Grosek%NULL%1,                 Franc%Strle%NULL%1,                 Lara%Lusa%NULL%1,                 Miroslav%Petrovec%NULL%1,                 Oliver%Schildgen%NULL%1,                Monika%Jevšnik%NULL%1,                Andrej%Steyer%NULL%1,                Marko%Pokorn%NULL%1,                Tatjana%Mrvič%NULL%1,                Štefan%Grosek%NULL%1,                Franc%Strle%NULL%1,                Lara%Lusa%NULL%1,                Miroslav%Petrovec%NULL%1,                Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                 Matti%Waris%NULL%1,                 Kari%Johansen%NULL%1,                 René%Snacken%NULL%1,                 Pasi%Penttinen%NULL%1,                 NULL%NULL%NULL%3,                Eeva K%Broberg%NULL%1,                Matti%Waris%NULL%1,                Kari%Johansen%NULL%1,                René%Snacken%NULL%1,                Pasi%Penttinen%NULL%1,                NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                 Qiaoyun%Fang%NULL%1,                 Jian%Zhang%NULL%1,                 Angao%Xu%NULL%1,                 Lihuan%Liang%NULL%1,                 Changwen%Ke%hzmedicine@163.com%1,                Xiongfei%Ju%NULL%1,                Qiaoyun%Fang%NULL%1,                Jian%Zhang%NULL%1,                Angao%Xu%NULL%1,                Lihuan%Liang%NULL%1,                Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                 Holly M.%Biggs%NULL%1,                 Amber%Haynes%NULL%1,                 Rebecca M.%Dahl%NULL%1,                 Desiree%Mustaquim%NULL%1,                 Susan I.%Gerber%NULL%1,                 John T.%Watson%NULL%1,                Marie E.%Killerby%lxo9@cdc.gov%1,                Holly M.%Biggs%NULL%1,                Amber%Haynes%NULL%1,                Rebecca M.%Dahl%NULL%1,                Desiree%Mustaquim%NULL%1,                Susan I.%Gerber%NULL%1,                John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                 Hee‐Dong%Jung%NULL%1,                 Hyang‐Min%Cheong%NULL%1,                 Anna%Lee%NULL%1,                 Nam‐Joo%Lee%NULL%1,                 Hyuk%Chu%NULL%1,                 Joo‐Yeon%Lee%NULL%1,                 Sung Soon%Kim%NULL%1,                 Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                Jeong‐Min%Kim%NULL%1,                Hee‐Dong%Jung%NULL%1,                Hyang‐Min%Cheong%NULL%1,                Anna%Lee%NULL%1,                Nam‐Joo%Lee%NULL%1,                Hyuk%Chu%NULL%1,                Joo‐Yeon%Lee%NULL%1,                Sung Soon%Kim%NULL%1,                Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,     Patrick C. Y.%Woo%xref no email%1,     Cyril C. Y.%Yip%xref no email%1,     Herman%Tse%xref no email%1,     Hoi-wah%Tsoi%xref no email%1,     Vincent C. C.%Cheng%xref no email%1,     Paul%Lee%xref no email%1,     Bone S. F.%Tang%xref no email%1,     Chris H. Y.%Cheung%xref no email%1,     Rodney A.%Lee%xref no email%1,     Lok-yee%So%xref no email%1,     Yu-lung%Lau%xref no email%1,     Kwok-hung%Chan%xref no email%1,     Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,     Guruprasad R.%Medigeshi%xref no email%1,     Vishnu S.%Mishra%xref no email%1,     Mojahidul%Islam%xref no email%1,     Shivani%Randev%xref no email%1,     Aparna%Mukherjee%xref no email%1,     Rama%Chaudhry%xref no email%1,     Arti%Kapil%xref no email%1,     Kana%Ram Jat%xref no email%1,     Rakesh%Lodha%xref no email%1,     Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,     Shin Hae%Lee%xref no email%1,     Eun Kyo%Ha%xref no email%1,     Youn Ho%Sheen%xref no email%1,     Myong Soon%Sung%xref no email%1,     Young-Ho%Jung%xref no email%1,     Kyung Suk%Lee%xref no email%1,     Hye Mi%Jee%xref no email%1,     Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                 Juansheng%Li%lijsh16@163.com%1,                 Lei%Meng%mleicdc@163.com%1,                 Wanqi%Zhu%NULL%1,                 Xinfeng%Liu%NULL%1,                 Mei%Yang%NULL%1,                 Deshan%Yu%NULL%2,                 Lixia%Niu%NULL%1,                 Xiping%Shen%NULL%1,                Xuechao%Li%NULL%1,                Juansheng%Li%lijsh16@163.com%1,                Lei%Meng%mleicdc@163.com%1,                Wanqi%Zhu%NULL%1,                Xinfeng%Liu%NULL%1,                Mei%Yang%NULL%1,                Deshan%Yu%NULL%2,                Lixia%Niu%NULL%1,                Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                 James G.%Bosley%NULL%1,                Christine M.%Litwin%clitwin@gru.edu%1,                James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,     Chieko%Abiko%xref no email%1,     Tatsuya%Ikeda%xref no email%1,     Yoko%Aoki%xref no email%1,     Yu%Suzuki%xref no email%1,     Kazue%Yahagi%xref no email%1,     Yoko%Matsuzaki%xref no email%1,     Tsutomu%Itagaki%xref no email%1,     Fumio%Katsushima%xref no email%1,     Yuriko%Katsushima%xref no email%1,     Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                 Elsie Laban%Yekwa%NULL%1,                 Pierre%Cappy%NULL%1,                 Astrid%Vabret%NULL%2,                 Pascal%Boisier%NULL%1,                 Dominique%Rousset%NULL%1,                Richard%Njouom%NULL%1,                Elsie Laban%Yekwa%NULL%1,                Pierre%Cappy%NULL%1,                Astrid%Vabret%NULL%2,                Pascal%Boisier%NULL%1,                Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                 Suvi%Lappalainen%NULL%1,                 Timo%Vesikari%NULL%1,                Minna%Paloniemi%NULL%1,                Suvi%Lappalainen%NULL%1,                Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                 Richard%Gonzalez%NULL%1,                 Jin%Xu%NULL%1,                 Yan%Xiao%NULL%1,                 Yongjun%Li%NULL%1,                 Hongli%Zhou%NULL%1,                 Jianguo%Li%NULL%1,                 Qingqing%Yang%NULL%1,                 Jing%Zhang%NULL%1,                 Lan%Chen%NULL%1,                 Wei%Wang%NULL%1,                 Guy%Vernet%NULL%1,                 Gláucia%Paranhos‐Baccalà%NULL%1,                 Zhong%Wang%wangzhong523@vip.163.com%1,                 Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                Lili%Ren%NULL%1,                Richard%Gonzalez%NULL%1,                Jin%Xu%NULL%1,                Yan%Xiao%NULL%1,                Yongjun%Li%NULL%1,                Hongli%Zhou%NULL%1,                Jianguo%Li%NULL%1,                Qingqing%Yang%NULL%1,                Jing%Zhang%NULL%1,                Lan%Chen%NULL%1,                Wei%Wang%NULL%1,                Guy%Vernet%NULL%1,                Gláucia%Paranhos‐Baccalà%NULL%1,                Zhong%Wang%wangzhong523@vip.163.com%1,                Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,             Druelle%Valentin%coreGivesNoEmail%1,             Dyrdak%Robert%coreGivesNoEmail%1,             Hodcroft%Emma B.%coreGivesNoEmail%1,             Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                 Ilada%Thongpan%ilada.cu09@gmail.com%1,                 Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                 Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                 Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                 Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                 Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                 Yong%Poovorawan%yong.p@chula.ac.th%1,                Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                Ilada%Thongpan%ilada.cu09@gmail.com%1,                Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                 Janet A%Englund%NULL%1,                 Jane Y%Kuypers%NULL%1,                 Helen Y%Chu%NULL%1,                 Mark C%Steinhoff%NULL%1,                 Subarna K%Khatry%NULL%1,                 Steve C%LeClerq%NULL%1,                 James M%Tielsch%NULL%1,                 Luke C%Mullany%NULL%1,                 Laxman%Shrestha%NULL%2,                 Joanne%Katz%jkatz1@jhu.edu%2,                S M Iftekhar%Uddin%NULL%1,                Janet A%Englund%NULL%1,                Jane Y%Kuypers%NULL%1,                Helen Y%Chu%NULL%1,                Mark C%Steinhoff%NULL%1,                Subarna K%Khatry%NULL%1,                Steve C%LeClerq%NULL%1,                James M%Tielsch%NULL%1,                Luke C%Mullany%NULL%1,                Laxman%Shrestha%NULL%2,                Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                 Joanne%Katz%NULL%0,                 James%Tielsch%NULL%1,                 Subarna K.%Khatry%NULL%1,                 Laxman%Shrestha%NULL%0,                 Steven C.%LeClerq%NULL%1,                 Amalia%Magaret%NULL%1,                 Jane%Kuypers%NULL%1,                 Mark%Steinhoff%NULL%1,                 Janet A.%Englund%NULL%1,                Helen Y.%Chu%helenchu@uw.edu%1,                Joanne%Katz%NULL%0,                James%Tielsch%NULL%1,                Subarna K.%Khatry%NULL%1,                Laxman%Shrestha%NULL%0,                Steven C.%LeClerq%NULL%1,                Amalia%Magaret%NULL%1,                Jane%Kuypers%NULL%1,                Mark%Steinhoff%NULL%1,                Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                 Gabriele%Ihorst%NULL%1,                 Klaus%Sure%NULL%1,                 Astrid%Vabret%NULL%0,                 Ronald%Dijkman%NULL%1,                 Michel%de Vries%NULL%1,                 Johannes%Forster%NULL%1,                 Ben%Berkhout%NULL%1,                 Klaus%Uberla%NULL%1,                Lia%van der Hoek%NULL%1,                Gabriele%Ihorst%NULL%1,                Klaus%Sure%NULL%1,                Astrid%Vabret%NULL%0,                Ronald%Dijkman%NULL%1,                Michel%de Vries%NULL%1,                Johannes%Forster%NULL%1,                Ben%Berkhout%NULL%1,                Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                 Philip%Zachariah%pz2177@cumc.columbia.edu%1,                 Celibell%Vargas%NULL%1,                 Philip%LaRussa%NULL%1,                 Ryan T%Demmer%NULL%1,                 Yoko E%Furuya%NULL%1,                 Susan%Whittier%NULL%1,                 Carrie%Reed%NULL%1,                 Melissa S%Stockwell%NULL%1,                 Lisa%Saiman%NULL%1,                Litty%Varghese%NULL%1,                Philip%Zachariah%pz2177@cumc.columbia.edu%1,                Celibell%Vargas%NULL%1,                Philip%LaRussa%NULL%1,                Ryan T%Demmer%NULL%1,                Yoko E%Furuya%NULL%1,                Susan%Whittier%NULL%1,                Carrie%Reed%NULL%1,                Melissa S%Stockwell%NULL%1,                Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                 Ria%Lassaunière%NULL%1,                 Tina Louise%Kresfelder%NULL%1,                 Yvette%Westerberg%NULL%1,                 Adele%Visser%NULL%1,                Marietjie%Venter%marietjiev@nicd.ac.za%1,                Ria%Lassaunière%NULL%1,                Tina Louise%Kresfelder%NULL%1,                Yvette%Westerberg%NULL%1,                Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                 Charles%Burdet%NULL%1,                 Guillaume%Voiriot%NULL%1,                 François-Xavier%Lescure%NULL%1,                 Taous%Chougar%NULL%1,                 Olivier%Brugière%NULL%1,                 Bruno%Crestani%NULL%1,                 Enrique%Casalino%NULL%1,                 Charlotte%Charpentier%NULL%1,                 Diane%Descamps%NULL%1,                 Jean-François%Timsit%NULL%1,                 Yazdan%Yazdanpanah%NULL%1,                 Nadhira%Houhou-Fidouh%NULL%1,                 Dena L.%Schanzer%NULL%1,                Benoit%Visseaux%NULL%1,                Charles%Burdet%NULL%1,                Guillaume%Voiriot%NULL%1,                François-Xavier%Lescure%NULL%1,                Taous%Chougar%NULL%1,                Olivier%Brugière%NULL%1,                Bruno%Crestani%NULL%1,                Enrique%Casalino%NULL%1,                Charlotte%Charpentier%NULL%1,                Diane%Descamps%NULL%1,                Jean-François%Timsit%NULL%1,                Yazdan%Yazdanpanah%NULL%1,                Nadhira%Houhou-Fidouh%NULL%1,                Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                 Deshan%Yu%NULL%0,                 Naiying%Mao%NULL%1,                 Zhen%Zhu%NULL%1,                 Hui%Zhang%NULL%1,                 Zhongyi%Jiang%NULL%1,                 Hongyu%Li%NULL%1,                 Yan%Zhang%NULL%1,                 Jing%Shi%NULL%1,                 Shuang%Zhang%NULL%1,                 Xinhua%Wang%NULL%1,                 Wenbo%Xu%NULL%1,                 Dong-Yan%Jin%NULL%1,                Guohong%Huang%NULL%1,                Deshan%Yu%NULL%0,                Naiying%Mao%NULL%1,                Zhen%Zhu%NULL%1,                Hui%Zhang%NULL%1,                Zhongyi%Jiang%NULL%1,                Hongyu%Li%NULL%1,                Yan%Zhang%NULL%1,                Jing%Shi%NULL%1,                Shuang%Zhang%NULL%1,                Xinhua%Wang%NULL%1,                Wenbo%Xu%NULL%1,                Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                 Jiu-ling%Tuo%NULL%1,                 Xu-bin%Huang%NULL%1,                 Xun%Zhu%NULL%1,                 Ding-mei%Zhang%NULL%1,                 Kai%Zhou%NULL%1,                 Lei%Yuan%NULL%1,                 Hong-jiao%Luo%NULL%1,                 Bo-jian%Zheng%NULL%1,                 Kwok-yung%Yuen%NULL%1,                 Meng-feng%Li%NULL%1,                 Kai-yuan%Cao%NULL%1,                 Lin%Xu%NULL%1,                 Stefan%Pöhlmann%NULL%1,                Su-fen%Zhang%NULL%1,                Jiu-ling%Tuo%NULL%1,                Xu-bin%Huang%NULL%1,                Xun%Zhu%NULL%1,                Ding-mei%Zhang%NULL%1,                Kai%Zhou%NULL%1,                Lei%Yuan%NULL%1,                Hong-jiao%Luo%NULL%1,                Bo-jian%Zheng%NULL%1,                Kwok-yung%Yuen%NULL%1,                Meng-feng%Li%NULL%1,                Kai-yuan%Cao%NULL%1,                Lin%Xu%NULL%1,                Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                Rachel M%Reeves%null%1,                Xin%Wang%null%1,                Quique%Bassat%null%1,                W Abdullah%Brooks%null%1,                Cheryl%Cohen%null%1,                David P%Moore%null%1,                Marta%Nunes%null%1,                Barbara%Rath%null%1,                Harry%Campbell%null%1,                Harish%Nair%null%1,                Sozinho%Acacio%null%1,                Wladimir J%Alonso%null%1,                Martin%Antonio%null%1,                Guadalupe%Ayora Talavera%null%1,                Darmaa%Badarch%null%1,                Vicky L%Baillie%null%1,                Gisela%Barrera-Badillo%null%1,                Godfrey%Bigogo%null%1,                Shobha%Broor%null%1,                Dana%Bruden%null%1,                Philippe%Buchy%null%1,                Peter%Byass%null%1,                James%Chipeta%null%1,                Wilfrido%Clara%null%1,                Duc-Anh%Dang%null%1,                Carla Cecília%de Freitas Lázaro Emediato%null%1,                Menno%de Jong%null%1,                José Alberto%Díaz-Quiñonez%null%1,                Lien Anh Ha%Do%null%1,                Rodrigo A%Fasce%null%1,                Luzhao%Feng%null%1,                Mark J%Ferson%null%1,                Angela%Gentile%null%1,                Bradford D%Gessner%null%1,                Doli%Goswami%null%1,                Sophie%Goyet%null%1,                Carlos G%Grijalva%null%1,                Natasha%Halasa%null%1,                Orienka%Hellferscee%null%1,                Danielle%Hessong%null%1,                Nusrat%Homaira%null%1,                Jorge%Jara%null%1,                Kathleen%Kahn%null%1,                Najwa%Khuri-Bulos%null%1,                Karen L%Kotloff%null%1,                Claudio F%Lanata%null%1,                Olga%Lopez%null%1,                Maria Renee%Lopez Bolaños%null%1,                Marilla G%Lucero%null%1,                Florencia%Lucion%null%1,                Socorro P%Lupisan%null%1,                Shabir A%Madhi%null%1,                Omphile%Mekgoe%null%1,                Cinta%Moraleda%null%1,                Jocelyn%Moyes%null%1,                Kim%Mulholland%null%1,                Patrick K%Munywoki%null%1,                Fathima%Naby%null%1,                Thanh Hung%Nguyen%null%1,                Mark P%Nicol%null%1,                D James%Nokes%null%1,                Daniel E%Noyola%null%1,                Daisuke%Onozuka%null%1,                Nandhini%Palani%null%1,                Yong%Poovorawan%null%1,                Mustafizur%Rahman%null%1,                Kaat%Ramaekers%null%1,                Candice%Romero%null%1,                Elizabeth P%Schlaudecker%null%1,                Brunhilde%Schweiger%null%1,                Phil%Seidenberg%null%1,                Eric A F%Simoes%null%1,                Rosalyn%Singleton%null%1,                Sujatha%Sistla%null%1,                Katharine%Sturm-Ramirez%null%1,                Nungruthai%Suntronwong%null%1,                Agustinus%Sutanto%null%1,                Milagritos D%Tapia%null%1,                Somsak%Thamthitiwat%null%1,                Ilada%Thongpan%null%1,                Gayani%Tillekeratne%null%1,                Yeny O%Tinoco%null%1,                Florette K%Treurnicht%null%1,                Claudia%Turner%null%1,                Paul%Turner%null%1,                Rogier%van Doorn%null%1,                Marc%Van Ranst%null%2,                Benoit%Visseaux%null%1,                Sunthareeya%Waicharoen%null%1,                Jianwei%Wang%null%1,                Lay-Myint%Yoshida%null%1,                Heather J%Zar%null%1,            You%Li%null%1,            Rachel M%Reeves%null%1,            Xin%Wang%null%1,            Quique%Bassat%null%1,            W Abdullah%Brooks%null%1,            Cheryl%Cohen%null%1,            David P%Moore%null%1,            Marta%Nunes%null%1,            Barbara%Rath%null%1,            Harry%Campbell%null%1,            Harish%Nair%null%1,            Sozinho%Acacio%null%1,            Wladimir J%Alonso%null%1,            Martin%Antonio%null%1,            Guadalupe%Ayora Talavera%null%1,            Darmaa%Badarch%null%1,            Vicky L%Baillie%null%1,            Gisela%Barrera-Badillo%null%1,            Godfrey%Bigogo%null%1,            Shobha%Broor%null%1,            Dana%Bruden%null%1,            Philippe%Buchy%null%1,            Peter%Byass%null%1,            James%Chipeta%null%1,            Wilfrido%Clara%null%1,            Duc-Anh%Dang%null%1,            Carla Cecília%de Freitas Lázaro Emediato%null%1,            Menno%de Jong%null%1,            José Alberto%Díaz-Quiñonez%null%1,            Lien Anh Ha%Do%null%1,            Rodrigo A%Fasce%null%1,            Luzhao%Feng%null%2,            Mark J%Ferson%null%1,            Angela%Gentile%null%1,            Bradford D%Gessner%null%1,            Doli%Goswami%null%1,            Sophie%Goyet%null%1,            Carlos G%Grijalva%null%1,            Natasha%Halasa%null%1,            Orienka%Hellferscee%null%1,            Danielle%Hessong%null%1,            Nusrat%Homaira%null%1,            Jorge%Jara%null%1,            Kathleen%Kahn%null%1,            Najwa%Khuri-Bulos%null%1,            Karen L%Kotloff%null%1,            Claudio F%Lanata%null%1,            Olga%Lopez%null%1,            Maria Renee%Lopez Bolaños%null%1,            Marilla G%Lucero%null%1,            Florencia%Lucion%null%1,            Socorro P%Lupisan%null%1,            Shabir A%Madhi%null%1,            Omphile%Mekgoe%null%1,            Cinta%Moraleda%null%1,            Jocelyn%Moyes%null%1,            Kim%Mulholland%null%1,            Patrick K%Munywoki%null%1,            Fathima%Naby%null%1,            Thanh Hung%Nguyen%null%1,            Mark P%Nicol%null%1,            D James%Nokes%null%1,            Daniel E%Noyola%null%1,            Daisuke%Onozuka%null%1,            Nandhini%Palani%null%1,            Yong%Poovorawan%null%1,            Mustafizur%Rahman%null%1,            Kaat%Ramaekers%null%1,            Candice%Romero%null%1,            Elizabeth P%Schlaudecker%null%1,            Brunhilde%Schweiger%null%1,            Phil%Seidenberg%null%1,            Eric A F%Simoes%null%1,            Rosalyn%Singleton%null%1,            Sujatha%Sistla%null%1,            Katharine%Sturm-Ramirez%null%1,            Nungruthai%Suntronwong%null%1,            Agustinus%Sutanto%null%1,            Milagritos D%Tapia%null%1,            Somsak%Thamthitiwat%null%1,            Ilada%Thongpan%null%1,            Gayani%Tillekeratne%null%1,            Yeny O%Tinoco%null%1,            Florette K%Treurnicht%null%1,            Claudia%Turner%null%1,            Paul%Turner%null%1,            Rogier%van Doorn%null%1,            Marc%Van Ranst%null%3,            Benoit%Visseaux%null%1,            Sunthareeya%Waicharoen%null%1,            Jianwei%Wang%null%5,            Lay-Myint%Yoshida%null%1,            Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,              Jack%Bee Chook%coreGivesNoEmail%1,              Kim%Tien Ng%coreGivesNoEmail%1,              Kok%Keng Tee%coreGivesNoEmail%1,              Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,              Nik%Sherina Hanafi%coreGivesNoEmail%1,              van%der Hoek%coreGivesNoEmail%2,              van%der Hoek%coreGivesNoEmail%0,              van%Elden%coreGivesNoEmail%1,              Xiang%Yong Oong%coreGivesNoEmail%1,              Yong%Kek Pang%coreGivesNoEmail%1,              Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,      Lars-Magnus%Andersson%xref no email%1,      Sigvard%Olofsson%xref no email%1,      Magnus%Lindh%xref no email%1,      Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                  Dangui%Zhang%danguizhang@stu.edu.cn%1,                  Hui%Pan%michaelpan@stu.edu.cn%1,                  Fan%Zhang%lemon_fan@163.com%1,                  Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                  Frieda%Law%lawf@stu.edu.cn%1,                  H Rogier%van Doorn%hrogier@gmail.com%1,                  Beiyan%Wu%1261305798@qq.com%1,                  William%Ba-Thein%wbathein@stu.edu.cn%1,                 Binglin%Cui%binglincui@stu.edu.cn%1,                 Dangui%Zhang%danguizhang@stu.edu.cn%1,                 Hui%Pan%michaelpan@stu.edu.cn%1,                 Fan%Zhang%lemon_fan@163.com%1,                 Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                 Frieda%Law%lawf@stu.edu.cn%1,                 H Rogier%van Doorn%hrogier@gmail.com%1,                 Beiyan%Wu%1261305798@qq.com%1,                 William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,              Andrew%Berglund%coreGivesNoEmail%1,              Christine%C. Robinson%coreGivesNoEmail%1,              Christopher%D. Town%coreGivesNoEmail%1,              Edison%Luiz Durigon%coreGivesNoEmail%1,              Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,              Kathryn%V. Holmes%coreGivesNoEmail%1,              Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,              Nadia%Fedorova%coreGivesNoEmail%1,              Philip%A. Weston%coreGivesNoEmail%1,              Rebecca%A. Halpin%coreGivesNoEmail%1,              Samuel%R. Dominguez%coreGivesNoEmail%1,              Susmita%Shrivastava%coreGivesNoEmail%1,              Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                  Lifeng%Pan%NULL%1,                  Qiao%Sun%NULL%1,                  Weiping%Zhu%NULL%1,                  Linying%Zhu%NULL%1,                  Chuchu%Ye%NULL%1,                  Caoyi%Xue%NULL%1,                  Yuanping%Wang%NULL%1,                  Qing%Liu%NULL%1,                  Ping%Ma%NULL%1,                  Huifang%Qiu%NULL%1,                  Srinand%Sreevatsan%NULL%1,                 Yifei%Fu%NULL%1,                 Lifeng%Pan%NULL%1,                 Qiao%Sun%NULL%1,                 Weiping%Zhu%NULL%1,                 Linying%Zhu%NULL%1,                 Chuchu%Ye%NULL%1,                 Caoyi%Xue%NULL%1,                 Yuanping%Wang%NULL%1,                 Qing%Liu%NULL%1,                 Ping%Ma%NULL%1,                 Huifang%Qiu%NULL%1,                 Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                  Mumtaz Cem%Sirin%NULL%1,                 Safak%Goktas%NULL%1,                 Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                  Nina%Moe%NULL%1,                  Sidsel%Krokstad%NULL%2,                  Andreas%Christensen%NULL%2,                  Lars Høsøien%Skanke%NULL%2,                  Svein Arne%Nordbø%NULL%2,                  Henrik%Døllner%henrik.dollner@ntnu.no%2,                 Inger%Heimdal%NULL%1,                 Nina%Moe%NULL%2,                 Sidsel%Krokstad%NULL%2,                 Andreas%Christensen%NULL%2,                 Lars Høsøien%Skanke%NULL%2,                 Svein Arne%Nordbø%NULL%2,                 Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                  Inger Heimdal%Stenseng%NULL%1,                  Sidsel%Krokstad%NULL%0,                  Andreas%Christensen%NULL%0,                  Lars Høsøien%Skanke%NULL%0,                  Kari Ravndal%Risnes%NULL%1,                  Svein Arne%Nordbø%NULL%0,                  Henrik%Døllner%henrik.dollner@ntnu.no%0,                 Nina%Moe%NULL%0,                 Inger Heimdal%Stenseng%NULL%1,                 Sidsel%Krokstad%NULL%0,                 Andreas%Christensen%NULL%0,                 Lars Høsøien%Skanke%NULL%0,                 Kari Ravndal%Risnes%NULL%1,                 Svein Arne%Nordbø%NULL%0,                 Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,      Derek J.%Williams%xref no email%1,      Sandra R.%Arnold%xref no email%1,      Krow%Ampofo%xref no email%1,      Anna M.%Bramley%xref no email%1,      Carrie%Reed%xref no email%1,      Chris%Stockmann%xref no email%1,      Evan J.%Anderson%xref no email%1,      Carlos G.%Grijalva%xref no email%1,      Wesley H.%Self%xref no email%1,      Yuwei%Zhu%xref no email%1,      Anami%Patel%xref no email%1,      Weston%Hymas%xref no email%1,      James D.%Chappell%xref no email%1,      Robert A.%Kaufman%xref no email%1,      J. Herman%Kan%xref no email%1,      David%Dansie%xref no email%1,      Noel%Lenny%xref no email%1,      David R.%Hillyard%xref no email%1,      Lia M.%Haynes%xref no email%1,      Min%Levine%xref no email%1,      Stephen%Lindstrom%xref no email%1,      Jonas M.%Winchell%xref no email%1,      Jacqueline M.%Katz%xref no email%1,      Dean%Erdman%xref no email%1,      Eileen%Schneider%xref no email%1,      Lauri A.%Hicks%xref no email%1,      Richard G.%Wunderink%xref no email%1,      Kathryn M.%Edwards%xref no email%1,      Andrew T.%Pavia%xref no email%1,      Jonathan A.%McCullers%xref no email%1,      Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                  Andrej%Steyer%NULL%1,                  Marko%Pokorn%NULL%1,                  Tatjana%Mrvič%NULL%1,                  Štefan%Grosek%NULL%1,                  Franc%Strle%NULL%1,                  Lara%Lusa%NULL%1,                  Miroslav%Petrovec%NULL%1,                  Oliver%Schildgen%NULL%1,                 Monika%Jevšnik%NULL%1,                 Andrej%Steyer%NULL%1,                 Marko%Pokorn%NULL%1,                 Tatjana%Mrvič%NULL%1,                 Štefan%Grosek%NULL%1,                 Franc%Strle%NULL%1,                 Lara%Lusa%NULL%1,                 Miroslav%Petrovec%NULL%1,                 Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                  Matti%Waris%NULL%1,                  Kari%Johansen%NULL%1,                  René%Snacken%NULL%1,                  Pasi%Penttinen%NULL%1,                  NULL%NULL%NULL%3,                 Eeva K%Broberg%NULL%1,                 Matti%Waris%NULL%1,                 Kari%Johansen%NULL%1,                 René%Snacken%NULL%1,                 Pasi%Penttinen%NULL%1,                 NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                  Qiaoyun%Fang%NULL%1,                  Jian%Zhang%NULL%1,                  Angao%Xu%NULL%1,                  Lihuan%Liang%NULL%1,                  Changwen%Ke%hzmedicine@163.com%1,                 Xiongfei%Ju%NULL%1,                 Qiaoyun%Fang%NULL%1,                 Jian%Zhang%NULL%1,                 Angao%Xu%NULL%1,                 Lihuan%Liang%NULL%1,                 Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                  Holly M.%Biggs%NULL%1,                  Amber%Haynes%NULL%1,                  Rebecca M.%Dahl%NULL%1,                  Desiree%Mustaquim%NULL%1,                  Susan I.%Gerber%NULL%1,                  John T.%Watson%NULL%1,                 Marie E.%Killerby%lxo9@cdc.gov%1,                 Holly M.%Biggs%NULL%1,                 Amber%Haynes%NULL%1,                 Rebecca M.%Dahl%NULL%1,                 Desiree%Mustaquim%NULL%1,                 Susan I.%Gerber%NULL%1,                 John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                  Hee‐Dong%Jung%NULL%1,                  Hyang‐Min%Cheong%NULL%1,                  Anna%Lee%NULL%1,                  Nam‐Joo%Lee%NULL%1,                  Hyuk%Chu%NULL%1,                  Joo‐Yeon%Lee%NULL%1,                  Sung Soon%Kim%NULL%1,                  Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                 Jeong‐Min%Kim%NULL%1,                 Hee‐Dong%Jung%NULL%1,                 Hyang‐Min%Cheong%NULL%1,                 Anna%Lee%NULL%1,                 Nam‐Joo%Lee%NULL%1,                 Hyuk%Chu%NULL%1,                 Joo‐Yeon%Lee%NULL%1,                 Sung Soon%Kim%NULL%1,                 Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,      Patrick C. Y.%Woo%xref no email%1,      Cyril C. Y.%Yip%xref no email%1,      Herman%Tse%xref no email%1,      Hoi-wah%Tsoi%xref no email%1,      Vincent C. C.%Cheng%xref no email%1,      Paul%Lee%xref no email%1,      Bone S. F.%Tang%xref no email%1,      Chris H. Y.%Cheung%xref no email%1,      Rodney A.%Lee%xref no email%1,      Lok-yee%So%xref no email%1,      Yu-lung%Lau%xref no email%1,      Kwok-hung%Chan%xref no email%1,      Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,      Guruprasad R.%Medigeshi%xref no email%1,      Vishnu S.%Mishra%xref no email%1,      Mojahidul%Islam%xref no email%1,      Shivani%Randev%xref no email%1,      Aparna%Mukherjee%xref no email%1,      Rama%Chaudhry%xref no email%1,      Arti%Kapil%xref no email%1,      Kana%Ram Jat%xref no email%1,      Rakesh%Lodha%xref no email%1,      Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,      Shin Hae%Lee%xref no email%1,      Eun Kyo%Ha%xref no email%1,      Youn Ho%Sheen%xref no email%1,      Myong Soon%Sung%xref no email%1,      Young-Ho%Jung%xref no email%1,      Kyung Suk%Lee%xref no email%1,      Hye Mi%Jee%xref no email%1,      Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                  Juansheng%Li%lijsh16@163.com%1,                  Lei%Meng%mleicdc@163.com%1,                  Wanqi%Zhu%NULL%1,                  Xinfeng%Liu%NULL%1,                  Mei%Yang%NULL%1,                  Deshan%Yu%NULL%2,                  Lixia%Niu%NULL%1,                  Xiping%Shen%NULL%1,                 Xuechao%Li%NULL%1,                 Juansheng%Li%lijsh16@163.com%1,                 Lei%Meng%mleicdc@163.com%1,                 Wanqi%Zhu%NULL%1,                 Xinfeng%Liu%NULL%1,                 Mei%Yang%NULL%1,                 Deshan%Yu%NULL%2,                 Lixia%Niu%NULL%1,                 Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                  James G.%Bosley%NULL%1,                 Christine M.%Litwin%clitwin@gru.edu%1,                 James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,      Chieko%Abiko%xref no email%1,      Tatsuya%Ikeda%xref no email%1,      Yoko%Aoki%xref no email%1,      Yu%Suzuki%xref no email%1,      Kazue%Yahagi%xref no email%1,      Yoko%Matsuzaki%xref no email%1,      Tsutomu%Itagaki%xref no email%1,      Fumio%Katsushima%xref no email%1,      Yuriko%Katsushima%xref no email%1,      Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                  Elsie Laban%Yekwa%NULL%1,                  Pierre%Cappy%NULL%1,                  Astrid%Vabret%NULL%2,                  Pascal%Boisier%NULL%1,                  Dominique%Rousset%NULL%1,                 Richard%Njouom%NULL%1,                 Elsie Laban%Yekwa%NULL%1,                 Pierre%Cappy%NULL%1,                 Astrid%Vabret%NULL%2,                 Pascal%Boisier%NULL%1,                 Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                  Suvi%Lappalainen%NULL%1,                  Timo%Vesikari%NULL%1,                 Minna%Paloniemi%NULL%1,                 Suvi%Lappalainen%NULL%1,                 Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                  Richard%Gonzalez%NULL%1,                  Jin%Xu%NULL%1,                  Yan%Xiao%NULL%1,                  Yongjun%Li%NULL%1,                  Hongli%Zhou%NULL%1,                  Jianguo%Li%NULL%1,                  Qingqing%Yang%NULL%1,                  Jing%Zhang%NULL%1,                  Lan%Chen%NULL%1,                  Wei%Wang%NULL%1,                  Guy%Vernet%NULL%1,                  Gláucia%Paranhos‐Baccalà%NULL%1,                  Zhong%Wang%wangzhong523@vip.163.com%1,                  Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                 Lili%Ren%NULL%1,                 Richard%Gonzalez%NULL%1,                 Jin%Xu%NULL%1,                 Yan%Xiao%NULL%1,                 Yongjun%Li%NULL%1,                 Hongli%Zhou%NULL%1,                 Jianguo%Li%NULL%1,                 Qingqing%Yang%NULL%1,                 Jing%Zhang%NULL%1,                 Lan%Chen%NULL%1,                 Wei%Wang%NULL%1,                 Guy%Vernet%NULL%1,                 Gláucia%Paranhos‐Baccalà%NULL%1,                 Zhong%Wang%wangzhong523@vip.163.com%1,                 Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,              Druelle%Valentin%coreGivesNoEmail%1,              Dyrdak%Robert%coreGivesNoEmail%1,              Hodcroft%Emma B.%coreGivesNoEmail%1,              Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                  Ilada%Thongpan%ilada.cu09@gmail.com%1,                  Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                  Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                  Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                  Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                  Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                  Yong%Poovorawan%yong.p@chula.ac.th%1,                 Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                 Ilada%Thongpan%ilada.cu09@gmail.com%1,                 Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                 Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                 Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                 Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                 Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                 Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                  Janet A%Englund%NULL%1,                  Jane Y%Kuypers%NULL%1,                  Helen Y%Chu%NULL%1,                  Mark C%Steinhoff%NULL%1,                  Subarna K%Khatry%NULL%1,                  Steve C%LeClerq%NULL%1,                  James M%Tielsch%NULL%1,                  Luke C%Mullany%NULL%1,                  Laxman%Shrestha%NULL%2,                  Joanne%Katz%jkatz1@jhu.edu%2,                 S M Iftekhar%Uddin%NULL%1,                 Janet A%Englund%NULL%1,                 Jane Y%Kuypers%NULL%1,                 Helen Y%Chu%NULL%1,                 Mark C%Steinhoff%NULL%1,                 Subarna K%Khatry%NULL%1,                 Steve C%LeClerq%NULL%1,                 James M%Tielsch%NULL%1,                 Luke C%Mullany%NULL%1,                 Laxman%Shrestha%NULL%2,                 Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                  Joanne%Katz%NULL%0,                  James%Tielsch%NULL%1,                  Subarna K.%Khatry%NULL%1,                  Laxman%Shrestha%NULL%0,                  Steven C.%LeClerq%NULL%1,                  Amalia%Magaret%NULL%1,                  Jane%Kuypers%NULL%1,                  Mark%Steinhoff%NULL%1,                  Janet A.%Englund%NULL%1,                 Helen Y.%Chu%helenchu@uw.edu%1,                 Joanne%Katz%NULL%0,                 James%Tielsch%NULL%1,                 Subarna K.%Khatry%NULL%1,                 Laxman%Shrestha%NULL%0,                 Steven C.%LeClerq%NULL%1,                 Amalia%Magaret%NULL%1,                 Jane%Kuypers%NULL%1,                 Mark%Steinhoff%NULL%1,                 Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                  Gabriele%Ihorst%NULL%1,                  Klaus%Sure%NULL%1,                  Astrid%Vabret%NULL%0,                  Ronald%Dijkman%NULL%1,                  Michel%de Vries%NULL%1,                  Johannes%Forster%NULL%1,                  Ben%Berkhout%NULL%1,                  Klaus%Uberla%NULL%1,                 Lia%van der Hoek%NULL%1,                 Gabriele%Ihorst%NULL%1,                 Klaus%Sure%NULL%1,                 Astrid%Vabret%NULL%0,                 Ronald%Dijkman%NULL%1,                 Michel%de Vries%NULL%1,                 Johannes%Forster%NULL%1,                 Ben%Berkhout%NULL%1,                 Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                  Philip%Zachariah%pz2177@cumc.columbia.edu%1,                  Celibell%Vargas%NULL%1,                  Philip%LaRussa%NULL%1,                  Ryan T%Demmer%NULL%1,                  Yoko E%Furuya%NULL%1,                  Susan%Whittier%NULL%1,                  Carrie%Reed%NULL%1,                  Melissa S%Stockwell%NULL%1,                  Lisa%Saiman%NULL%1,                 Litty%Varghese%NULL%1,                 Philip%Zachariah%pz2177@cumc.columbia.edu%1,                 Celibell%Vargas%NULL%1,                 Philip%LaRussa%NULL%1,                 Ryan T%Demmer%NULL%1,                 Yoko E%Furuya%NULL%1,                 Susan%Whittier%NULL%1,                 Carrie%Reed%NULL%1,                 Melissa S%Stockwell%NULL%1,                 Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                  Ria%Lassaunière%NULL%1,                  Tina Louise%Kresfelder%NULL%1,                  Yvette%Westerberg%NULL%1,                  Adele%Visser%NULL%1,                 Marietjie%Venter%marietjiev@nicd.ac.za%1,                 Ria%Lassaunière%NULL%1,                 Tina Louise%Kresfelder%NULL%1,                 Yvette%Westerberg%NULL%1,                 Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                  Charles%Burdet%NULL%1,                  Guillaume%Voiriot%NULL%1,                  François-Xavier%Lescure%NULL%1,                  Taous%Chougar%NULL%1,                  Olivier%Brugière%NULL%1,                  Bruno%Crestani%NULL%1,                  Enrique%Casalino%NULL%1,                  Charlotte%Charpentier%NULL%1,                  Diane%Descamps%NULL%1,                  Jean-François%Timsit%NULL%1,                  Yazdan%Yazdanpanah%NULL%1,                  Nadhira%Houhou-Fidouh%NULL%1,                  Dena L.%Schanzer%NULL%1,                 Benoit%Visseaux%NULL%1,                 Charles%Burdet%NULL%1,                 Guillaume%Voiriot%NULL%1,                 François-Xavier%Lescure%NULL%1,                 Taous%Chougar%NULL%1,                 Olivier%Brugière%NULL%1,                 Bruno%Crestani%NULL%1,                 Enrique%Casalino%NULL%1,                 Charlotte%Charpentier%NULL%1,                 Diane%Descamps%NULL%1,                 Jean-François%Timsit%NULL%1,                 Yazdan%Yazdanpanah%NULL%1,                 Nadhira%Houhou-Fidouh%NULL%1,                 Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                  Deshan%Yu%NULL%0,                  Naiying%Mao%NULL%1,                  Zhen%Zhu%NULL%1,                  Hui%Zhang%NULL%1,                  Zhongyi%Jiang%NULL%1,                  Hongyu%Li%NULL%1,                  Yan%Zhang%NULL%1,                  Jing%Shi%NULL%1,                  Shuang%Zhang%NULL%1,                  Xinhua%Wang%NULL%1,                  Wenbo%Xu%NULL%1,                  Dong-Yan%Jin%NULL%1,                 Guohong%Huang%NULL%1,                 Deshan%Yu%NULL%0,                 Naiying%Mao%NULL%1,                 Zhen%Zhu%NULL%1,                 Hui%Zhang%NULL%1,                 Zhongyi%Jiang%NULL%1,                 Hongyu%Li%NULL%1,                 Yan%Zhang%NULL%1,                 Jing%Shi%NULL%1,                 Shuang%Zhang%NULL%1,                 Xinhua%Wang%NULL%1,                 Wenbo%Xu%NULL%1,                 Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                  Jiu-ling%Tuo%NULL%1,                  Xu-bin%Huang%NULL%1,                  Xun%Zhu%NULL%1,                  Ding-mei%Zhang%NULL%1,                  Kai%Zhou%NULL%1,                  Lei%Yuan%NULL%1,                  Hong-jiao%Luo%NULL%1,                  Bo-jian%Zheng%NULL%1,                  Kwok-yung%Yuen%NULL%1,                  Meng-feng%Li%NULL%1,                  Kai-yuan%Cao%NULL%1,                  Lin%Xu%NULL%1,                  Stefan%Pöhlmann%NULL%1,                 Su-fen%Zhang%NULL%1,                 Jiu-ling%Tuo%NULL%1,                 Xu-bin%Huang%NULL%1,                 Xun%Zhu%NULL%1,                 Ding-mei%Zhang%NULL%1,                 Kai%Zhou%NULL%1,                 Lei%Yuan%NULL%1,                 Hong-jiao%Luo%NULL%1,                 Bo-jian%Zheng%NULL%1,                 Kwok-yung%Yuen%NULL%1,                 Meng-feng%Li%NULL%1,                 Kai-yuan%Cao%NULL%1,                 Lin%Xu%NULL%1,                 Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2681,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -2506,7 +2710,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2535,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2564,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2593,7 +2797,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2622,7 +2826,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -2651,7 +2855,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -2680,7 +2884,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -2709,7 +2913,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2738,7 +2942,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2767,7 +2971,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2796,7 +3000,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -2825,7 +3029,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2854,7 +3058,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -2883,7 +3087,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -2912,7 +3116,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -2941,7 +3145,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -2970,7 +3174,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -2999,7 +3203,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3028,7 +3232,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3057,7 +3261,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3086,7 +3290,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3115,7 +3319,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3144,7 +3348,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -3173,7 +3377,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3202,7 +3406,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3260,7 +3464,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3289,7 +3493,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -3318,7 +3522,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -3347,7 +3551,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -3376,7 +3580,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -3405,7 +3609,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -3434,7 +3638,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -3463,7 +3667,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="711">
   <si>
     <t>Doi</t>
   </si>
@@ -2351,6 +2351,108 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                  Jiu-ling%Tuo%NULL%1,                  Xu-bin%Huang%NULL%1,                  Xun%Zhu%NULL%1,                  Ding-mei%Zhang%NULL%1,                  Kai%Zhou%NULL%1,                  Lei%Yuan%NULL%1,                  Hong-jiao%Luo%NULL%1,                  Bo-jian%Zheng%NULL%1,                  Kwok-yung%Yuen%NULL%1,                  Meng-feng%Li%NULL%1,                  Kai-yuan%Cao%NULL%1,                  Lin%Xu%NULL%1,                  Stefan%Pöhlmann%NULL%1,                 Su-fen%Zhang%NULL%1,                 Jiu-ling%Tuo%NULL%1,                 Xu-bin%Huang%NULL%1,                 Xun%Zhu%NULL%1,                 Ding-mei%Zhang%NULL%1,                 Kai%Zhou%NULL%1,                 Lei%Yuan%NULL%1,                 Hong-jiao%Luo%NULL%1,                 Bo-jian%Zheng%NULL%1,                 Kwok-yung%Yuen%NULL%1,                 Meng-feng%Li%NULL%1,                 Kai-yuan%Cao%NULL%1,                 Lin%Xu%NULL%1,                 Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                 Rachel M%Reeves%null%1,                 Xin%Wang%null%1,                 Quique%Bassat%null%1,                 W Abdullah%Brooks%null%1,                 Cheryl%Cohen%null%1,                 David P%Moore%null%1,                 Marta%Nunes%null%1,                 Barbara%Rath%null%1,                 Harry%Campbell%null%1,                 Harish%Nair%null%1,                 Sozinho%Acacio%null%1,                 Wladimir J%Alonso%null%1,                 Martin%Antonio%null%1,                 Guadalupe%Ayora Talavera%null%1,                 Darmaa%Badarch%null%1,                 Vicky L%Baillie%null%1,                 Gisela%Barrera-Badillo%null%1,                 Godfrey%Bigogo%null%1,                 Shobha%Broor%null%1,                 Dana%Bruden%null%1,                 Philippe%Buchy%null%1,                 Peter%Byass%null%1,                 James%Chipeta%null%1,                 Wilfrido%Clara%null%1,                 Duc-Anh%Dang%null%1,                 Carla Cecília%de Freitas Lázaro Emediato%null%1,                 Menno%de Jong%null%1,                 José Alberto%Díaz-Quiñonez%null%1,                 Lien Anh Ha%Do%null%1,                 Rodrigo A%Fasce%null%1,                 Luzhao%Feng%null%1,                 Mark J%Ferson%null%1,                 Angela%Gentile%null%1,                 Bradford D%Gessner%null%1,                 Doli%Goswami%null%1,                 Sophie%Goyet%null%1,                 Carlos G%Grijalva%null%1,                 Natasha%Halasa%null%1,                 Orienka%Hellferscee%null%1,                 Danielle%Hessong%null%1,                 Nusrat%Homaira%null%1,                 Jorge%Jara%null%1,                 Kathleen%Kahn%null%1,                 Najwa%Khuri-Bulos%null%1,                 Karen L%Kotloff%null%1,                 Claudio F%Lanata%null%1,                 Olga%Lopez%null%1,                 Maria Renee%Lopez Bolaños%null%1,                 Marilla G%Lucero%null%1,                 Florencia%Lucion%null%1,                 Socorro P%Lupisan%null%1,                 Shabir A%Madhi%null%1,                 Omphile%Mekgoe%null%1,                 Cinta%Moraleda%null%1,                 Jocelyn%Moyes%null%1,                 Kim%Mulholland%null%1,                 Patrick K%Munywoki%null%1,                 Fathima%Naby%null%1,                 Thanh Hung%Nguyen%null%1,                 Mark P%Nicol%null%1,                 D James%Nokes%null%1,                 Daniel E%Noyola%null%1,                 Daisuke%Onozuka%null%1,                 Nandhini%Palani%null%1,                 Yong%Poovorawan%null%1,                 Mustafizur%Rahman%null%1,                 Kaat%Ramaekers%null%1,                 Candice%Romero%null%1,                 Elizabeth P%Schlaudecker%null%1,                 Brunhilde%Schweiger%null%1,                 Phil%Seidenberg%null%1,                 Eric A F%Simoes%null%1,                 Rosalyn%Singleton%null%1,                 Sujatha%Sistla%null%1,                 Katharine%Sturm-Ramirez%null%1,                 Nungruthai%Suntronwong%null%1,                 Agustinus%Sutanto%null%1,                 Milagritos D%Tapia%null%1,                 Somsak%Thamthitiwat%null%1,                 Ilada%Thongpan%null%1,                 Gayani%Tillekeratne%null%1,                 Yeny O%Tinoco%null%1,                 Florette K%Treurnicht%null%1,                 Claudia%Turner%null%1,                 Paul%Turner%null%1,                 Rogier%van Doorn%null%1,                 Marc%Van Ranst%null%2,                 Benoit%Visseaux%null%1,                 Sunthareeya%Waicharoen%null%1,                 Jianwei%Wang%null%1,                 Lay-Myint%Yoshida%null%1,                 Heather J%Zar%null%1,             You%Li%null%1,             Rachel M%Reeves%null%1,             Xin%Wang%null%1,             Quique%Bassat%null%1,             W Abdullah%Brooks%null%1,             Cheryl%Cohen%null%1,             David P%Moore%null%1,             Marta%Nunes%null%1,             Barbara%Rath%null%1,             Harry%Campbell%null%1,             Harish%Nair%null%1,             Sozinho%Acacio%null%1,             Wladimir J%Alonso%null%1,             Martin%Antonio%null%1,             Guadalupe%Ayora Talavera%null%1,             Darmaa%Badarch%null%1,             Vicky L%Baillie%null%1,             Gisela%Barrera-Badillo%null%1,             Godfrey%Bigogo%null%1,             Shobha%Broor%null%1,             Dana%Bruden%null%1,             Philippe%Buchy%null%1,             Peter%Byass%null%1,             James%Chipeta%null%1,             Wilfrido%Clara%null%1,             Duc-Anh%Dang%null%1,             Carla Cecília%de Freitas Lázaro Emediato%null%1,             Menno%de Jong%null%1,             José Alberto%Díaz-Quiñonez%null%1,             Lien Anh Ha%Do%null%1,             Rodrigo A%Fasce%null%1,             Luzhao%Feng%null%2,             Mark J%Ferson%null%1,             Angela%Gentile%null%1,             Bradford D%Gessner%null%1,             Doli%Goswami%null%1,             Sophie%Goyet%null%1,             Carlos G%Grijalva%null%1,             Natasha%Halasa%null%1,             Orienka%Hellferscee%null%1,             Danielle%Hessong%null%1,             Nusrat%Homaira%null%1,             Jorge%Jara%null%1,             Kathleen%Kahn%null%1,             Najwa%Khuri-Bulos%null%1,             Karen L%Kotloff%null%1,             Claudio F%Lanata%null%1,             Olga%Lopez%null%1,             Maria Renee%Lopez Bolaños%null%1,             Marilla G%Lucero%null%1,             Florencia%Lucion%null%1,             Socorro P%Lupisan%null%1,             Shabir A%Madhi%null%1,             Omphile%Mekgoe%null%1,             Cinta%Moraleda%null%1,             Jocelyn%Moyes%null%1,             Kim%Mulholland%null%1,             Patrick K%Munywoki%null%1,             Fathima%Naby%null%1,             Thanh Hung%Nguyen%null%1,             Mark P%Nicol%null%1,             D James%Nokes%null%1,             Daniel E%Noyola%null%1,             Daisuke%Onozuka%null%1,             Nandhini%Palani%null%1,             Yong%Poovorawan%null%1,             Mustafizur%Rahman%null%1,             Kaat%Ramaekers%null%1,             Candice%Romero%null%1,             Elizabeth P%Schlaudecker%null%1,             Brunhilde%Schweiger%null%1,             Phil%Seidenberg%null%1,             Eric A F%Simoes%null%1,             Rosalyn%Singleton%null%1,             Sujatha%Sistla%null%1,             Katharine%Sturm-Ramirez%null%1,             Nungruthai%Suntronwong%null%1,             Agustinus%Sutanto%null%1,             Milagritos D%Tapia%null%1,             Somsak%Thamthitiwat%null%1,             Ilada%Thongpan%null%1,             Gayani%Tillekeratne%null%1,             Yeny O%Tinoco%null%1,             Florette K%Treurnicht%null%1,             Claudia%Turner%null%1,             Paul%Turner%null%1,             Rogier%van Doorn%null%1,             Marc%Van Ranst%null%3,             Benoit%Visseaux%null%1,             Sunthareeya%Waicharoen%null%1,             Jianwei%Wang%null%5,             Lay-Myint%Yoshida%null%1,             Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,               Jack%Bee Chook%coreGivesNoEmail%1,               Kim%Tien Ng%coreGivesNoEmail%1,               Kok%Keng Tee%coreGivesNoEmail%1,               Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,               Nik%Sherina Hanafi%coreGivesNoEmail%1,               van%der Hoek%coreGivesNoEmail%2,               van%der Hoek%coreGivesNoEmail%0,               van%Elden%coreGivesNoEmail%1,               Xiang%Yong Oong%coreGivesNoEmail%1,               Yong%Kek Pang%coreGivesNoEmail%1,               Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,       Lars-Magnus%Andersson%xref no email%1,       Sigvard%Olofsson%xref no email%1,       Magnus%Lindh%xref no email%1,       Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                   Dangui%Zhang%danguizhang@stu.edu.cn%1,                   Hui%Pan%michaelpan@stu.edu.cn%1,                   Fan%Zhang%lemon_fan@163.com%1,                   Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                   Frieda%Law%lawf@stu.edu.cn%1,                   H Rogier%van Doorn%hrogier@gmail.com%1,                   Beiyan%Wu%1261305798@qq.com%1,                   William%Ba-Thein%wbathein@stu.edu.cn%1,                  Binglin%Cui%binglincui@stu.edu.cn%1,                  Dangui%Zhang%danguizhang@stu.edu.cn%1,                  Hui%Pan%michaelpan@stu.edu.cn%1,                  Fan%Zhang%lemon_fan@163.com%1,                  Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                  Frieda%Law%lawf@stu.edu.cn%1,                  H Rogier%van Doorn%hrogier@gmail.com%1,                  Beiyan%Wu%1261305798@qq.com%1,                  William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,               Andrew%Berglund%coreGivesNoEmail%1,               Christine%C. Robinson%coreGivesNoEmail%1,               Christopher%D. Town%coreGivesNoEmail%1,               Edison%Luiz Durigon%coreGivesNoEmail%1,               Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,               Kathryn%V. Holmes%coreGivesNoEmail%1,               Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,               Nadia%Fedorova%coreGivesNoEmail%1,               Philip%A. Weston%coreGivesNoEmail%1,               Rebecca%A. Halpin%coreGivesNoEmail%1,               Samuel%R. Dominguez%coreGivesNoEmail%1,               Susmita%Shrivastava%coreGivesNoEmail%1,               Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                   Lifeng%Pan%NULL%1,                   Qiao%Sun%NULL%1,                   Weiping%Zhu%NULL%1,                   Linying%Zhu%NULL%1,                   Chuchu%Ye%NULL%1,                   Caoyi%Xue%NULL%1,                   Yuanping%Wang%NULL%1,                   Qing%Liu%NULL%1,                   Ping%Ma%NULL%1,                   Huifang%Qiu%NULL%1,                   Srinand%Sreevatsan%NULL%1,                  Yifei%Fu%NULL%1,                  Lifeng%Pan%NULL%1,                  Qiao%Sun%NULL%1,                  Weiping%Zhu%NULL%1,                  Linying%Zhu%NULL%1,                  Chuchu%Ye%NULL%1,                  Caoyi%Xue%NULL%1,                  Yuanping%Wang%NULL%1,                  Qing%Liu%NULL%1,                  Ping%Ma%NULL%1,                  Huifang%Qiu%NULL%1,                  Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                   Mumtaz Cem%Sirin%NULL%1,                  Safak%Goktas%NULL%1,                  Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                   Nina%Moe%NULL%1,                   Sidsel%Krokstad%NULL%2,                   Andreas%Christensen%NULL%2,                   Lars Høsøien%Skanke%NULL%2,                   Svein Arne%Nordbø%NULL%2,                   Henrik%Døllner%henrik.dollner@ntnu.no%2,                  Inger%Heimdal%NULL%1,                  Nina%Moe%NULL%2,                  Sidsel%Krokstad%NULL%2,                  Andreas%Christensen%NULL%2,                  Lars Høsøien%Skanke%NULL%2,                  Svein Arne%Nordbø%NULL%2,                  Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                   Inger Heimdal%Stenseng%NULL%1,                   Sidsel%Krokstad%NULL%0,                   Andreas%Christensen%NULL%0,                   Lars Høsøien%Skanke%NULL%0,                   Kari Ravndal%Risnes%NULL%1,                   Svein Arne%Nordbø%NULL%0,                   Henrik%Døllner%henrik.dollner@ntnu.no%0,                  Nina%Moe%NULL%0,                  Inger Heimdal%Stenseng%NULL%1,                  Sidsel%Krokstad%NULL%0,                  Andreas%Christensen%NULL%0,                  Lars Høsøien%Skanke%NULL%0,                  Kari Ravndal%Risnes%NULL%1,                  Svein Arne%Nordbø%NULL%0,                  Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,       Derek J.%Williams%xref no email%1,       Sandra R.%Arnold%xref no email%1,       Krow%Ampofo%xref no email%1,       Anna M.%Bramley%xref no email%1,       Carrie%Reed%xref no email%1,       Chris%Stockmann%xref no email%1,       Evan J.%Anderson%xref no email%1,       Carlos G.%Grijalva%xref no email%1,       Wesley H.%Self%xref no email%1,       Yuwei%Zhu%xref no email%1,       Anami%Patel%xref no email%1,       Weston%Hymas%xref no email%1,       James D.%Chappell%xref no email%1,       Robert A.%Kaufman%xref no email%1,       J. Herman%Kan%xref no email%1,       David%Dansie%xref no email%1,       Noel%Lenny%xref no email%1,       David R.%Hillyard%xref no email%1,       Lia M.%Haynes%xref no email%1,       Min%Levine%xref no email%1,       Stephen%Lindstrom%xref no email%1,       Jonas M.%Winchell%xref no email%1,       Jacqueline M.%Katz%xref no email%1,       Dean%Erdman%xref no email%1,       Eileen%Schneider%xref no email%1,       Lauri A.%Hicks%xref no email%1,       Richard G.%Wunderink%xref no email%1,       Kathryn M.%Edwards%xref no email%1,       Andrew T.%Pavia%xref no email%1,       Jonathan A.%McCullers%xref no email%1,       Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                   Andrej%Steyer%NULL%1,                   Marko%Pokorn%NULL%1,                   Tatjana%Mrvič%NULL%1,                   Štefan%Grosek%NULL%1,                   Franc%Strle%NULL%1,                   Lara%Lusa%NULL%1,                   Miroslav%Petrovec%NULL%1,                   Oliver%Schildgen%NULL%1,                  Monika%Jevšnik%NULL%1,                  Andrej%Steyer%NULL%1,                  Marko%Pokorn%NULL%1,                  Tatjana%Mrvič%NULL%1,                  Štefan%Grosek%NULL%1,                  Franc%Strle%NULL%1,                  Lara%Lusa%NULL%1,                  Miroslav%Petrovec%NULL%1,                  Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                   Matti%Waris%NULL%1,                   Kari%Johansen%NULL%1,                   René%Snacken%NULL%1,                   Pasi%Penttinen%NULL%1,                   NULL%NULL%NULL%3,                  Eeva K%Broberg%NULL%1,                  Matti%Waris%NULL%1,                  Kari%Johansen%NULL%1,                  René%Snacken%NULL%1,                  Pasi%Penttinen%NULL%1,                  NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                   Qiaoyun%Fang%NULL%1,                   Jian%Zhang%NULL%1,                   Angao%Xu%NULL%1,                   Lihuan%Liang%NULL%1,                   Changwen%Ke%hzmedicine@163.com%1,                  Xiongfei%Ju%NULL%1,                  Qiaoyun%Fang%NULL%1,                  Jian%Zhang%NULL%1,                  Angao%Xu%NULL%1,                  Lihuan%Liang%NULL%1,                  Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                   Holly M.%Biggs%NULL%1,                   Amber%Haynes%NULL%1,                   Rebecca M.%Dahl%NULL%1,                   Desiree%Mustaquim%NULL%1,                   Susan I.%Gerber%NULL%1,                   John T.%Watson%NULL%1,                  Marie E.%Killerby%lxo9@cdc.gov%1,                  Holly M.%Biggs%NULL%1,                  Amber%Haynes%NULL%1,                  Rebecca M.%Dahl%NULL%1,                  Desiree%Mustaquim%NULL%1,                  Susan I.%Gerber%NULL%1,                  John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                   Hee‐Dong%Jung%NULL%1,                   Hyang‐Min%Cheong%NULL%1,                   Anna%Lee%NULL%1,                   Nam‐Joo%Lee%NULL%1,                   Hyuk%Chu%NULL%1,                   Joo‐Yeon%Lee%NULL%1,                   Sung Soon%Kim%NULL%1,                   Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                  Jeong‐Min%Kim%NULL%1,                  Hee‐Dong%Jung%NULL%1,                  Hyang‐Min%Cheong%NULL%1,                  Anna%Lee%NULL%1,                  Nam‐Joo%Lee%NULL%1,                  Hyuk%Chu%NULL%1,                  Joo‐Yeon%Lee%NULL%1,                  Sung Soon%Kim%NULL%1,                  Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,       Patrick C. Y.%Woo%xref no email%1,       Cyril C. Y.%Yip%xref no email%1,       Herman%Tse%xref no email%1,       Hoi-wah%Tsoi%xref no email%1,       Vincent C. C.%Cheng%xref no email%1,       Paul%Lee%xref no email%1,       Bone S. F.%Tang%xref no email%1,       Chris H. Y.%Cheung%xref no email%1,       Rodney A.%Lee%xref no email%1,       Lok-yee%So%xref no email%1,       Yu-lung%Lau%xref no email%1,       Kwok-hung%Chan%xref no email%1,       Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,       Guruprasad R.%Medigeshi%xref no email%1,       Vishnu S.%Mishra%xref no email%1,       Mojahidul%Islam%xref no email%1,       Shivani%Randev%xref no email%1,       Aparna%Mukherjee%xref no email%1,       Rama%Chaudhry%xref no email%1,       Arti%Kapil%xref no email%1,       Kana%Ram Jat%xref no email%1,       Rakesh%Lodha%xref no email%1,       Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,       Shin Hae%Lee%xref no email%1,       Eun Kyo%Ha%xref no email%1,       Youn Ho%Sheen%xref no email%1,       Myong Soon%Sung%xref no email%1,       Young-Ho%Jung%xref no email%1,       Kyung Suk%Lee%xref no email%1,       Hye Mi%Jee%xref no email%1,       Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                   Juansheng%Li%lijsh16@163.com%1,                   Lei%Meng%mleicdc@163.com%1,                   Wanqi%Zhu%NULL%1,                   Xinfeng%Liu%NULL%1,                   Mei%Yang%NULL%1,                   Deshan%Yu%NULL%2,                   Lixia%Niu%NULL%1,                   Xiping%Shen%NULL%1,                  Xuechao%Li%NULL%1,                  Juansheng%Li%lijsh16@163.com%1,                  Lei%Meng%mleicdc@163.com%1,                  Wanqi%Zhu%NULL%1,                  Xinfeng%Liu%NULL%1,                  Mei%Yang%NULL%1,                  Deshan%Yu%NULL%2,                  Lixia%Niu%NULL%1,                  Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                   James G.%Bosley%NULL%1,                  Christine M.%Litwin%clitwin@gru.edu%1,                  James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,       Chieko%Abiko%xref no email%1,       Tatsuya%Ikeda%xref no email%1,       Yoko%Aoki%xref no email%1,       Yu%Suzuki%xref no email%1,       Kazue%Yahagi%xref no email%1,       Yoko%Matsuzaki%xref no email%1,       Tsutomu%Itagaki%xref no email%1,       Fumio%Katsushima%xref no email%1,       Yuriko%Katsushima%xref no email%1,       Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                   Elsie Laban%Yekwa%NULL%1,                   Pierre%Cappy%NULL%1,                   Astrid%Vabret%NULL%2,                   Pascal%Boisier%NULL%1,                   Dominique%Rousset%NULL%1,                  Richard%Njouom%NULL%1,                  Elsie Laban%Yekwa%NULL%1,                  Pierre%Cappy%NULL%1,                  Astrid%Vabret%NULL%2,                  Pascal%Boisier%NULL%1,                  Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                   Suvi%Lappalainen%NULL%1,                   Timo%Vesikari%NULL%1,                  Minna%Paloniemi%NULL%1,                  Suvi%Lappalainen%NULL%1,                  Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                   Richard%Gonzalez%NULL%1,                   Jin%Xu%NULL%1,                   Yan%Xiao%NULL%1,                   Yongjun%Li%NULL%1,                   Hongli%Zhou%NULL%1,                   Jianguo%Li%NULL%1,                   Qingqing%Yang%NULL%1,                   Jing%Zhang%NULL%1,                   Lan%Chen%NULL%1,                   Wei%Wang%NULL%1,                   Guy%Vernet%NULL%1,                   Gláucia%Paranhos‐Baccalà%NULL%1,                   Zhong%Wang%wangzhong523@vip.163.com%1,                   Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                  Lili%Ren%NULL%1,                  Richard%Gonzalez%NULL%1,                  Jin%Xu%NULL%1,                  Yan%Xiao%NULL%1,                  Yongjun%Li%NULL%1,                  Hongli%Zhou%NULL%1,                  Jianguo%Li%NULL%1,                  Qingqing%Yang%NULL%1,                  Jing%Zhang%NULL%1,                  Lan%Chen%NULL%1,                  Wei%Wang%NULL%1,                  Guy%Vernet%NULL%1,                  Gláucia%Paranhos‐Baccalà%NULL%1,                  Zhong%Wang%wangzhong523@vip.163.com%1,                  Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,               Druelle%Valentin%coreGivesNoEmail%1,               Dyrdak%Robert%coreGivesNoEmail%1,               Hodcroft%Emma B.%coreGivesNoEmail%1,               Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                   Ilada%Thongpan%ilada.cu09@gmail.com%1,                   Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                   Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                   Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                   Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                   Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                   Yong%Poovorawan%yong.p@chula.ac.th%1,                  Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                  Ilada%Thongpan%ilada.cu09@gmail.com%1,                  Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                  Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                  Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                  Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                  Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                  Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                   Janet A%Englund%NULL%1,                   Jane Y%Kuypers%NULL%1,                   Helen Y%Chu%NULL%1,                   Mark C%Steinhoff%NULL%1,                   Subarna K%Khatry%NULL%1,                   Steve C%LeClerq%NULL%1,                   James M%Tielsch%NULL%1,                   Luke C%Mullany%NULL%1,                   Laxman%Shrestha%NULL%2,                   Joanne%Katz%jkatz1@jhu.edu%2,                  S M Iftekhar%Uddin%NULL%1,                  Janet A%Englund%NULL%1,                  Jane Y%Kuypers%NULL%1,                  Helen Y%Chu%NULL%1,                  Mark C%Steinhoff%NULL%1,                  Subarna K%Khatry%NULL%1,                  Steve C%LeClerq%NULL%1,                  James M%Tielsch%NULL%1,                  Luke C%Mullany%NULL%1,                  Laxman%Shrestha%NULL%2,                  Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                   Joanne%Katz%NULL%0,                   James%Tielsch%NULL%1,                   Subarna K.%Khatry%NULL%1,                   Laxman%Shrestha%NULL%0,                   Steven C.%LeClerq%NULL%1,                   Amalia%Magaret%NULL%1,                   Jane%Kuypers%NULL%1,                   Mark%Steinhoff%NULL%1,                   Janet A.%Englund%NULL%1,                  Helen Y.%Chu%helenchu@uw.edu%1,                  Joanne%Katz%NULL%0,                  James%Tielsch%NULL%1,                  Subarna K.%Khatry%NULL%1,                  Laxman%Shrestha%NULL%0,                  Steven C.%LeClerq%NULL%1,                  Amalia%Magaret%NULL%1,                  Jane%Kuypers%NULL%1,                  Mark%Steinhoff%NULL%1,                  Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                   Gabriele%Ihorst%NULL%1,                   Klaus%Sure%NULL%1,                   Astrid%Vabret%NULL%0,                   Ronald%Dijkman%NULL%1,                   Michel%de Vries%NULL%1,                   Johannes%Forster%NULL%1,                   Ben%Berkhout%NULL%1,                   Klaus%Uberla%NULL%1,                  Lia%van der Hoek%NULL%1,                  Gabriele%Ihorst%NULL%1,                  Klaus%Sure%NULL%1,                  Astrid%Vabret%NULL%0,                  Ronald%Dijkman%NULL%1,                  Michel%de Vries%NULL%1,                  Johannes%Forster%NULL%1,                  Ben%Berkhout%NULL%1,                  Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                   Philip%Zachariah%pz2177@cumc.columbia.edu%1,                   Celibell%Vargas%NULL%1,                   Philip%LaRussa%NULL%1,                   Ryan T%Demmer%NULL%1,                   Yoko E%Furuya%NULL%1,                   Susan%Whittier%NULL%1,                   Carrie%Reed%NULL%1,                   Melissa S%Stockwell%NULL%1,                   Lisa%Saiman%NULL%1,                  Litty%Varghese%NULL%1,                  Philip%Zachariah%pz2177@cumc.columbia.edu%1,                  Celibell%Vargas%NULL%1,                  Philip%LaRussa%NULL%1,                  Ryan T%Demmer%NULL%1,                  Yoko E%Furuya%NULL%1,                  Susan%Whittier%NULL%1,                  Carrie%Reed%NULL%1,                  Melissa S%Stockwell%NULL%1,                  Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                   Ria%Lassaunière%NULL%1,                   Tina Louise%Kresfelder%NULL%1,                   Yvette%Westerberg%NULL%1,                   Adele%Visser%NULL%1,                  Marietjie%Venter%marietjiev@nicd.ac.za%1,                  Ria%Lassaunière%NULL%1,                  Tina Louise%Kresfelder%NULL%1,                  Yvette%Westerberg%NULL%1,                  Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                   Charles%Burdet%NULL%1,                   Guillaume%Voiriot%NULL%1,                   François-Xavier%Lescure%NULL%1,                   Taous%Chougar%NULL%1,                   Olivier%Brugière%NULL%1,                   Bruno%Crestani%NULL%1,                   Enrique%Casalino%NULL%1,                   Charlotte%Charpentier%NULL%1,                   Diane%Descamps%NULL%1,                   Jean-François%Timsit%NULL%1,                   Yazdan%Yazdanpanah%NULL%1,                   Nadhira%Houhou-Fidouh%NULL%1,                   Dena L.%Schanzer%NULL%1,                  Benoit%Visseaux%NULL%1,                  Charles%Burdet%NULL%1,                  Guillaume%Voiriot%NULL%1,                  François-Xavier%Lescure%NULL%1,                  Taous%Chougar%NULL%1,                  Olivier%Brugière%NULL%1,                  Bruno%Crestani%NULL%1,                  Enrique%Casalino%NULL%1,                  Charlotte%Charpentier%NULL%1,                  Diane%Descamps%NULL%1,                  Jean-François%Timsit%NULL%1,                  Yazdan%Yazdanpanah%NULL%1,                  Nadhira%Houhou-Fidouh%NULL%1,                  Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                   Deshan%Yu%NULL%0,                   Naiying%Mao%NULL%1,                   Zhen%Zhu%NULL%1,                   Hui%Zhang%NULL%1,                   Zhongyi%Jiang%NULL%1,                   Hongyu%Li%NULL%1,                   Yan%Zhang%NULL%1,                   Jing%Shi%NULL%1,                   Shuang%Zhang%NULL%1,                   Xinhua%Wang%NULL%1,                   Wenbo%Xu%NULL%1,                   Dong-Yan%Jin%NULL%1,                  Guohong%Huang%NULL%1,                  Deshan%Yu%NULL%0,                  Naiying%Mao%NULL%1,                  Zhen%Zhu%NULL%1,                  Hui%Zhang%NULL%1,                  Zhongyi%Jiang%NULL%1,                  Hongyu%Li%NULL%1,                  Yan%Zhang%NULL%1,                  Jing%Shi%NULL%1,                  Shuang%Zhang%NULL%1,                  Xinhua%Wang%NULL%1,                  Wenbo%Xu%NULL%1,                  Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                   Jiu-ling%Tuo%NULL%1,                   Xu-bin%Huang%NULL%1,                   Xun%Zhu%NULL%1,                   Ding-mei%Zhang%NULL%1,                   Kai%Zhou%NULL%1,                   Lei%Yuan%NULL%1,                   Hong-jiao%Luo%NULL%1,                   Bo-jian%Zheng%NULL%1,                   Kwok-yung%Yuen%NULL%1,                   Meng-feng%Li%NULL%1,                   Kai-yuan%Cao%NULL%1,                   Lin%Xu%NULL%1,                   Stefan%Pöhlmann%NULL%1,                  Su-fen%Zhang%NULL%1,                  Jiu-ling%Tuo%NULL%1,                  Xu-bin%Huang%NULL%1,                  Xun%Zhu%NULL%1,                  Ding-mei%Zhang%NULL%1,                  Kai%Zhou%NULL%1,                  Lei%Yuan%NULL%1,                  Hong-jiao%Luo%NULL%1,                  Bo-jian%Zheng%NULL%1,                  Kwok-yung%Yuen%NULL%1,                  Meng-feng%Li%NULL%1,                  Kai-yuan%Cao%NULL%1,                  Lin%Xu%NULL%1,                  Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2783,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -2710,7 +2812,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2739,7 +2841,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2768,7 +2870,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2797,7 +2899,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2826,7 +2928,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -2855,7 +2957,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -2884,7 +2986,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -2913,7 +3015,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2942,7 +3044,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2971,7 +3073,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3000,7 +3102,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3029,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3058,7 +3160,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3087,7 +3189,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3116,7 +3218,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3145,7 +3247,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3174,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3203,7 +3305,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3232,7 +3334,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3261,7 +3363,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3290,7 +3392,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3319,7 +3421,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3348,7 +3450,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -3377,7 +3479,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3406,7 +3508,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3464,7 +3566,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3493,7 +3595,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -3522,7 +3624,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -3551,7 +3653,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -3580,7 +3682,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -3609,7 +3711,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -3638,7 +3740,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -3667,7 +3769,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="745">
   <si>
     <t>Doi</t>
   </si>
@@ -2453,6 +2453,108 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                   Jiu-ling%Tuo%NULL%1,                   Xu-bin%Huang%NULL%1,                   Xun%Zhu%NULL%1,                   Ding-mei%Zhang%NULL%1,                   Kai%Zhou%NULL%1,                   Lei%Yuan%NULL%1,                   Hong-jiao%Luo%NULL%1,                   Bo-jian%Zheng%NULL%1,                   Kwok-yung%Yuen%NULL%1,                   Meng-feng%Li%NULL%1,                   Kai-yuan%Cao%NULL%1,                   Lin%Xu%NULL%1,                   Stefan%Pöhlmann%NULL%1,                  Su-fen%Zhang%NULL%1,                  Jiu-ling%Tuo%NULL%1,                  Xu-bin%Huang%NULL%1,                  Xun%Zhu%NULL%1,                  Ding-mei%Zhang%NULL%1,                  Kai%Zhou%NULL%1,                  Lei%Yuan%NULL%1,                  Hong-jiao%Luo%NULL%1,                  Bo-jian%Zheng%NULL%1,                  Kwok-yung%Yuen%NULL%1,                  Meng-feng%Li%NULL%1,                  Kai-yuan%Cao%NULL%1,                  Lin%Xu%NULL%1,                  Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                  Rachel M%Reeves%null%1,                  Xin%Wang%null%1,                  Quique%Bassat%null%1,                  W Abdullah%Brooks%null%1,                  Cheryl%Cohen%null%1,                  David P%Moore%null%1,                  Marta%Nunes%null%1,                  Barbara%Rath%null%1,                  Harry%Campbell%null%1,                  Harish%Nair%null%1,                  Sozinho%Acacio%null%1,                  Wladimir J%Alonso%null%1,                  Martin%Antonio%null%1,                  Guadalupe%Ayora Talavera%null%1,                  Darmaa%Badarch%null%1,                  Vicky L%Baillie%null%1,                  Gisela%Barrera-Badillo%null%1,                  Godfrey%Bigogo%null%1,                  Shobha%Broor%null%1,                  Dana%Bruden%null%1,                  Philippe%Buchy%null%1,                  Peter%Byass%null%1,                  James%Chipeta%null%1,                  Wilfrido%Clara%null%1,                  Duc-Anh%Dang%null%1,                  Carla Cecília%de Freitas Lázaro Emediato%null%1,                  Menno%de Jong%null%1,                  José Alberto%Díaz-Quiñonez%null%1,                  Lien Anh Ha%Do%null%1,                  Rodrigo A%Fasce%null%1,                  Luzhao%Feng%null%1,                  Mark J%Ferson%null%1,                  Angela%Gentile%null%1,                  Bradford D%Gessner%null%1,                  Doli%Goswami%null%1,                  Sophie%Goyet%null%1,                  Carlos G%Grijalva%null%1,                  Natasha%Halasa%null%1,                  Orienka%Hellferscee%null%1,                  Danielle%Hessong%null%1,                  Nusrat%Homaira%null%1,                  Jorge%Jara%null%1,                  Kathleen%Kahn%null%1,                  Najwa%Khuri-Bulos%null%1,                  Karen L%Kotloff%null%1,                  Claudio F%Lanata%null%1,                  Olga%Lopez%null%1,                  Maria Renee%Lopez Bolaños%null%1,                  Marilla G%Lucero%null%1,                  Florencia%Lucion%null%1,                  Socorro P%Lupisan%null%1,                  Shabir A%Madhi%null%1,                  Omphile%Mekgoe%null%1,                  Cinta%Moraleda%null%1,                  Jocelyn%Moyes%null%1,                  Kim%Mulholland%null%1,                  Patrick K%Munywoki%null%1,                  Fathima%Naby%null%1,                  Thanh Hung%Nguyen%null%1,                  Mark P%Nicol%null%1,                  D James%Nokes%null%1,                  Daniel E%Noyola%null%1,                  Daisuke%Onozuka%null%1,                  Nandhini%Palani%null%1,                  Yong%Poovorawan%null%1,                  Mustafizur%Rahman%null%1,                  Kaat%Ramaekers%null%1,                  Candice%Romero%null%1,                  Elizabeth P%Schlaudecker%null%1,                  Brunhilde%Schweiger%null%1,                  Phil%Seidenberg%null%1,                  Eric A F%Simoes%null%1,                  Rosalyn%Singleton%null%1,                  Sujatha%Sistla%null%1,                  Katharine%Sturm-Ramirez%null%1,                  Nungruthai%Suntronwong%null%1,                  Agustinus%Sutanto%null%1,                  Milagritos D%Tapia%null%1,                  Somsak%Thamthitiwat%null%1,                  Ilada%Thongpan%null%1,                  Gayani%Tillekeratne%null%1,                  Yeny O%Tinoco%null%1,                  Florette K%Treurnicht%null%1,                  Claudia%Turner%null%1,                  Paul%Turner%null%1,                  Rogier%van Doorn%null%1,                  Marc%Van Ranst%null%2,                  Benoit%Visseaux%null%1,                  Sunthareeya%Waicharoen%null%1,                  Jianwei%Wang%null%1,                  Lay-Myint%Yoshida%null%1,                  Heather J%Zar%null%1,              You%Li%null%1,              Rachel M%Reeves%null%1,              Xin%Wang%null%1,              Quique%Bassat%null%1,              W Abdullah%Brooks%null%1,              Cheryl%Cohen%null%1,              David P%Moore%null%1,              Marta%Nunes%null%1,              Barbara%Rath%null%1,              Harry%Campbell%null%1,              Harish%Nair%null%1,              Sozinho%Acacio%null%1,              Wladimir J%Alonso%null%1,              Martin%Antonio%null%1,              Guadalupe%Ayora Talavera%null%1,              Darmaa%Badarch%null%1,              Vicky L%Baillie%null%1,              Gisela%Barrera-Badillo%null%1,              Godfrey%Bigogo%null%1,              Shobha%Broor%null%1,              Dana%Bruden%null%1,              Philippe%Buchy%null%1,              Peter%Byass%null%1,              James%Chipeta%null%1,              Wilfrido%Clara%null%1,              Duc-Anh%Dang%null%1,              Carla Cecília%de Freitas Lázaro Emediato%null%1,              Menno%de Jong%null%1,              José Alberto%Díaz-Quiñonez%null%1,              Lien Anh Ha%Do%null%1,              Rodrigo A%Fasce%null%1,              Luzhao%Feng%null%2,              Mark J%Ferson%null%1,              Angela%Gentile%null%1,              Bradford D%Gessner%null%1,              Doli%Goswami%null%1,              Sophie%Goyet%null%1,              Carlos G%Grijalva%null%1,              Natasha%Halasa%null%1,              Orienka%Hellferscee%null%1,              Danielle%Hessong%null%1,              Nusrat%Homaira%null%1,              Jorge%Jara%null%1,              Kathleen%Kahn%null%1,              Najwa%Khuri-Bulos%null%1,              Karen L%Kotloff%null%1,              Claudio F%Lanata%null%1,              Olga%Lopez%null%1,              Maria Renee%Lopez Bolaños%null%1,              Marilla G%Lucero%null%1,              Florencia%Lucion%null%1,              Socorro P%Lupisan%null%1,              Shabir A%Madhi%null%1,              Omphile%Mekgoe%null%1,              Cinta%Moraleda%null%1,              Jocelyn%Moyes%null%1,              Kim%Mulholland%null%1,              Patrick K%Munywoki%null%1,              Fathima%Naby%null%1,              Thanh Hung%Nguyen%null%1,              Mark P%Nicol%null%1,              D James%Nokes%null%1,              Daniel E%Noyola%null%1,              Daisuke%Onozuka%null%1,              Nandhini%Palani%null%1,              Yong%Poovorawan%null%1,              Mustafizur%Rahman%null%1,              Kaat%Ramaekers%null%1,              Candice%Romero%null%1,              Elizabeth P%Schlaudecker%null%1,              Brunhilde%Schweiger%null%1,              Phil%Seidenberg%null%1,              Eric A F%Simoes%null%1,              Rosalyn%Singleton%null%1,              Sujatha%Sistla%null%1,              Katharine%Sturm-Ramirez%null%1,              Nungruthai%Suntronwong%null%1,              Agustinus%Sutanto%null%1,              Milagritos D%Tapia%null%1,              Somsak%Thamthitiwat%null%1,              Ilada%Thongpan%null%1,              Gayani%Tillekeratne%null%1,              Yeny O%Tinoco%null%1,              Florette K%Treurnicht%null%1,              Claudia%Turner%null%1,              Paul%Turner%null%1,              Rogier%van Doorn%null%1,              Marc%Van Ranst%null%3,              Benoit%Visseaux%null%1,              Sunthareeya%Waicharoen%null%1,              Jianwei%Wang%null%5,              Lay-Myint%Yoshida%null%1,              Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                Jack%Bee Chook%coreGivesNoEmail%1,                Kim%Tien Ng%coreGivesNoEmail%1,                Kok%Keng Tee%coreGivesNoEmail%1,                Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                Nik%Sherina Hanafi%coreGivesNoEmail%1,                van%der Hoek%coreGivesNoEmail%2,                van%der Hoek%coreGivesNoEmail%0,                van%Elden%coreGivesNoEmail%1,                Xiang%Yong Oong%coreGivesNoEmail%1,                Yong%Kek Pang%coreGivesNoEmail%1,                Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,        Lars-Magnus%Andersson%xref no email%1,        Sigvard%Olofsson%xref no email%1,        Magnus%Lindh%xref no email%1,        Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                    Dangui%Zhang%danguizhang@stu.edu.cn%1,                    Hui%Pan%michaelpan@stu.edu.cn%1,                    Fan%Zhang%lemon_fan@163.com%1,                    Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                    Frieda%Law%lawf@stu.edu.cn%1,                    H Rogier%van Doorn%hrogier@gmail.com%1,                    Beiyan%Wu%1261305798@qq.com%1,                    William%Ba-Thein%wbathein@stu.edu.cn%1,                   Binglin%Cui%binglincui@stu.edu.cn%1,                   Dangui%Zhang%danguizhang@stu.edu.cn%1,                   Hui%Pan%michaelpan@stu.edu.cn%1,                   Fan%Zhang%lemon_fan@163.com%1,                   Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                   Frieda%Law%lawf@stu.edu.cn%1,                   H Rogier%van Doorn%hrogier@gmail.com%1,                   Beiyan%Wu%1261305798@qq.com%1,                   William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                Andrew%Berglund%coreGivesNoEmail%1,                Christine%C. Robinson%coreGivesNoEmail%1,                Christopher%D. Town%coreGivesNoEmail%1,                Edison%Luiz Durigon%coreGivesNoEmail%1,                Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                Kathryn%V. Holmes%coreGivesNoEmail%1,                Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                Nadia%Fedorova%coreGivesNoEmail%1,                Philip%A. Weston%coreGivesNoEmail%1,                Rebecca%A. Halpin%coreGivesNoEmail%1,                Samuel%R. Dominguez%coreGivesNoEmail%1,                Susmita%Shrivastava%coreGivesNoEmail%1,                Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                    Lifeng%Pan%NULL%1,                    Qiao%Sun%NULL%1,                    Weiping%Zhu%NULL%1,                    Linying%Zhu%NULL%1,                    Chuchu%Ye%NULL%1,                    Caoyi%Xue%NULL%1,                    Yuanping%Wang%NULL%1,                    Qing%Liu%NULL%1,                    Ping%Ma%NULL%1,                    Huifang%Qiu%NULL%1,                    Srinand%Sreevatsan%NULL%1,                   Yifei%Fu%NULL%1,                   Lifeng%Pan%NULL%1,                   Qiao%Sun%NULL%1,                   Weiping%Zhu%NULL%1,                   Linying%Zhu%NULL%1,                   Chuchu%Ye%NULL%1,                   Caoyi%Xue%NULL%1,                   Yuanping%Wang%NULL%1,                   Qing%Liu%NULL%1,                   Ping%Ma%NULL%1,                   Huifang%Qiu%NULL%1,                   Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                    Mumtaz Cem%Sirin%NULL%1,                   Safak%Goktas%NULL%1,                   Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                    Nina%Moe%NULL%1,                    Sidsel%Krokstad%NULL%2,                    Andreas%Christensen%NULL%2,                    Lars Høsøien%Skanke%NULL%2,                    Svein Arne%Nordbø%NULL%2,                    Henrik%Døllner%henrik.dollner@ntnu.no%2,                   Inger%Heimdal%NULL%1,                   Nina%Moe%NULL%2,                   Sidsel%Krokstad%NULL%2,                   Andreas%Christensen%NULL%2,                   Lars Høsøien%Skanke%NULL%2,                   Svein Arne%Nordbø%NULL%2,                   Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                    Inger Heimdal%Stenseng%NULL%1,                    Sidsel%Krokstad%NULL%0,                    Andreas%Christensen%NULL%0,                    Lars Høsøien%Skanke%NULL%0,                    Kari Ravndal%Risnes%NULL%1,                    Svein Arne%Nordbø%NULL%0,                    Henrik%Døllner%henrik.dollner@ntnu.no%0,                   Nina%Moe%NULL%0,                   Inger Heimdal%Stenseng%NULL%1,                   Sidsel%Krokstad%NULL%0,                   Andreas%Christensen%NULL%0,                   Lars Høsøien%Skanke%NULL%0,                   Kari Ravndal%Risnes%NULL%1,                   Svein Arne%Nordbø%NULL%0,                   Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,        Derek J.%Williams%xref no email%1,        Sandra R.%Arnold%xref no email%1,        Krow%Ampofo%xref no email%1,        Anna M.%Bramley%xref no email%1,        Carrie%Reed%xref no email%1,        Chris%Stockmann%xref no email%1,        Evan J.%Anderson%xref no email%1,        Carlos G.%Grijalva%xref no email%1,        Wesley H.%Self%xref no email%1,        Yuwei%Zhu%xref no email%1,        Anami%Patel%xref no email%1,        Weston%Hymas%xref no email%1,        James D.%Chappell%xref no email%1,        Robert A.%Kaufman%xref no email%1,        J. Herman%Kan%xref no email%1,        David%Dansie%xref no email%1,        Noel%Lenny%xref no email%1,        David R.%Hillyard%xref no email%1,        Lia M.%Haynes%xref no email%1,        Min%Levine%xref no email%1,        Stephen%Lindstrom%xref no email%1,        Jonas M.%Winchell%xref no email%1,        Jacqueline M.%Katz%xref no email%1,        Dean%Erdman%xref no email%1,        Eileen%Schneider%xref no email%1,        Lauri A.%Hicks%xref no email%1,        Richard G.%Wunderink%xref no email%1,        Kathryn M.%Edwards%xref no email%1,        Andrew T.%Pavia%xref no email%1,        Jonathan A.%McCullers%xref no email%1,        Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                    Andrej%Steyer%NULL%1,                    Marko%Pokorn%NULL%1,                    Tatjana%Mrvič%NULL%1,                    Štefan%Grosek%NULL%1,                    Franc%Strle%NULL%1,                    Lara%Lusa%NULL%1,                    Miroslav%Petrovec%NULL%1,                    Oliver%Schildgen%NULL%1,                   Monika%Jevšnik%NULL%1,                   Andrej%Steyer%NULL%1,                   Marko%Pokorn%NULL%1,                   Tatjana%Mrvič%NULL%1,                   Štefan%Grosek%NULL%1,                   Franc%Strle%NULL%1,                   Lara%Lusa%NULL%1,                   Miroslav%Petrovec%NULL%1,                   Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                    Matti%Waris%NULL%1,                    Kari%Johansen%NULL%1,                    René%Snacken%NULL%1,                    Pasi%Penttinen%NULL%1,                    NULL%NULL%NULL%3,                   Eeva K%Broberg%NULL%1,                   Matti%Waris%NULL%1,                   Kari%Johansen%NULL%1,                   René%Snacken%NULL%1,                   Pasi%Penttinen%NULL%1,                   NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                    Qiaoyun%Fang%NULL%1,                    Jian%Zhang%NULL%1,                    Angao%Xu%NULL%1,                    Lihuan%Liang%NULL%1,                    Changwen%Ke%hzmedicine@163.com%1,                   Xiongfei%Ju%NULL%1,                   Qiaoyun%Fang%NULL%1,                   Jian%Zhang%NULL%1,                   Angao%Xu%NULL%1,                   Lihuan%Liang%NULL%1,                   Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                    Holly M.%Biggs%NULL%1,                    Amber%Haynes%NULL%1,                    Rebecca M.%Dahl%NULL%1,                    Desiree%Mustaquim%NULL%1,                    Susan I.%Gerber%NULL%1,                    John T.%Watson%NULL%1,                   Marie E.%Killerby%lxo9@cdc.gov%1,                   Holly M.%Biggs%NULL%1,                   Amber%Haynes%NULL%1,                   Rebecca M.%Dahl%NULL%1,                   Desiree%Mustaquim%NULL%1,                   Susan I.%Gerber%NULL%1,                   John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                    Hee‐Dong%Jung%NULL%1,                    Hyang‐Min%Cheong%NULL%1,                    Anna%Lee%NULL%1,                    Nam‐Joo%Lee%NULL%1,                    Hyuk%Chu%NULL%1,                    Joo‐Yeon%Lee%NULL%1,                    Sung Soon%Kim%NULL%1,                    Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                   Jeong‐Min%Kim%NULL%1,                   Hee‐Dong%Jung%NULL%1,                   Hyang‐Min%Cheong%NULL%1,                   Anna%Lee%NULL%1,                   Nam‐Joo%Lee%NULL%1,                   Hyuk%Chu%NULL%1,                   Joo‐Yeon%Lee%NULL%1,                   Sung Soon%Kim%NULL%1,                   Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,        Patrick C. Y.%Woo%xref no email%1,        Cyril C. Y.%Yip%xref no email%1,        Herman%Tse%xref no email%1,        Hoi-wah%Tsoi%xref no email%1,        Vincent C. C.%Cheng%xref no email%1,        Paul%Lee%xref no email%1,        Bone S. F.%Tang%xref no email%1,        Chris H. Y.%Cheung%xref no email%1,        Rodney A.%Lee%xref no email%1,        Lok-yee%So%xref no email%1,        Yu-lung%Lau%xref no email%1,        Kwok-hung%Chan%xref no email%1,        Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,        Guruprasad R.%Medigeshi%xref no email%1,        Vishnu S.%Mishra%xref no email%1,        Mojahidul%Islam%xref no email%1,        Shivani%Randev%xref no email%1,        Aparna%Mukherjee%xref no email%1,        Rama%Chaudhry%xref no email%1,        Arti%Kapil%xref no email%1,        Kana%Ram Jat%xref no email%1,        Rakesh%Lodha%xref no email%1,        Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,        Shin Hae%Lee%xref no email%1,        Eun Kyo%Ha%xref no email%1,        Youn Ho%Sheen%xref no email%1,        Myong Soon%Sung%xref no email%1,        Young-Ho%Jung%xref no email%1,        Kyung Suk%Lee%xref no email%1,        Hye Mi%Jee%xref no email%1,        Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                    Juansheng%Li%lijsh16@163.com%1,                    Lei%Meng%mleicdc@163.com%1,                    Wanqi%Zhu%NULL%1,                    Xinfeng%Liu%NULL%1,                    Mei%Yang%NULL%1,                    Deshan%Yu%NULL%2,                    Lixia%Niu%NULL%1,                    Xiping%Shen%NULL%1,                   Xuechao%Li%NULL%1,                   Juansheng%Li%lijsh16@163.com%1,                   Lei%Meng%mleicdc@163.com%1,                   Wanqi%Zhu%NULL%1,                   Xinfeng%Liu%NULL%1,                   Mei%Yang%NULL%1,                   Deshan%Yu%NULL%2,                   Lixia%Niu%NULL%1,                   Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                    James G.%Bosley%NULL%1,                   Christine M.%Litwin%clitwin@gru.edu%1,                   James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,        Chieko%Abiko%xref no email%1,        Tatsuya%Ikeda%xref no email%1,        Yoko%Aoki%xref no email%1,        Yu%Suzuki%xref no email%1,        Kazue%Yahagi%xref no email%1,        Yoko%Matsuzaki%xref no email%1,        Tsutomu%Itagaki%xref no email%1,        Fumio%Katsushima%xref no email%1,        Yuriko%Katsushima%xref no email%1,        Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                    Elsie Laban%Yekwa%NULL%1,                    Pierre%Cappy%NULL%1,                    Astrid%Vabret%NULL%2,                    Pascal%Boisier%NULL%1,                    Dominique%Rousset%NULL%1,                   Richard%Njouom%NULL%1,                   Elsie Laban%Yekwa%NULL%1,                   Pierre%Cappy%NULL%1,                   Astrid%Vabret%NULL%2,                   Pascal%Boisier%NULL%1,                   Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                    Suvi%Lappalainen%NULL%1,                    Timo%Vesikari%NULL%1,                   Minna%Paloniemi%NULL%1,                   Suvi%Lappalainen%NULL%1,                   Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                    Richard%Gonzalez%NULL%1,                    Jin%Xu%NULL%1,                    Yan%Xiao%NULL%1,                    Yongjun%Li%NULL%1,                    Hongli%Zhou%NULL%1,                    Jianguo%Li%NULL%1,                    Qingqing%Yang%NULL%1,                    Jing%Zhang%NULL%1,                    Lan%Chen%NULL%1,                    Wei%Wang%NULL%1,                    Guy%Vernet%NULL%1,                    Gláucia%Paranhos‐Baccalà%NULL%1,                    Zhong%Wang%wangzhong523@vip.163.com%1,                    Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                   Lili%Ren%NULL%1,                   Richard%Gonzalez%NULL%1,                   Jin%Xu%NULL%1,                   Yan%Xiao%NULL%1,                   Yongjun%Li%NULL%1,                   Hongli%Zhou%NULL%1,                   Jianguo%Li%NULL%1,                   Qingqing%Yang%NULL%1,                   Jing%Zhang%NULL%1,                   Lan%Chen%NULL%1,                   Wei%Wang%NULL%1,                   Guy%Vernet%NULL%1,                   Gláucia%Paranhos‐Baccalà%NULL%1,                   Zhong%Wang%wangzhong523@vip.163.com%1,                   Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                Druelle%Valentin%coreGivesNoEmail%1,                Dyrdak%Robert%coreGivesNoEmail%1,                Hodcroft%Emma B.%coreGivesNoEmail%1,                Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                    Ilada%Thongpan%ilada.cu09@gmail.com%1,                    Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                    Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                    Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                    Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                    Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                    Yong%Poovorawan%yong.p@chula.ac.th%1,                   Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                   Ilada%Thongpan%ilada.cu09@gmail.com%1,                   Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                   Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                   Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                   Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                   Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                   Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                    Janet A%Englund%NULL%1,                    Jane Y%Kuypers%NULL%1,                    Helen Y%Chu%NULL%1,                    Mark C%Steinhoff%NULL%1,                    Subarna K%Khatry%NULL%1,                    Steve C%LeClerq%NULL%1,                    James M%Tielsch%NULL%1,                    Luke C%Mullany%NULL%1,                    Laxman%Shrestha%NULL%2,                    Joanne%Katz%jkatz1@jhu.edu%2,                   S M Iftekhar%Uddin%NULL%1,                   Janet A%Englund%NULL%1,                   Jane Y%Kuypers%NULL%1,                   Helen Y%Chu%NULL%1,                   Mark C%Steinhoff%NULL%1,                   Subarna K%Khatry%NULL%1,                   Steve C%LeClerq%NULL%1,                   James M%Tielsch%NULL%1,                   Luke C%Mullany%NULL%1,                   Laxman%Shrestha%NULL%2,                   Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                    Joanne%Katz%NULL%0,                    James%Tielsch%NULL%1,                    Subarna K.%Khatry%NULL%1,                    Laxman%Shrestha%NULL%0,                    Steven C.%LeClerq%NULL%1,                    Amalia%Magaret%NULL%1,                    Jane%Kuypers%NULL%1,                    Mark%Steinhoff%NULL%1,                    Janet A.%Englund%NULL%1,                   Helen Y.%Chu%helenchu@uw.edu%1,                   Joanne%Katz%NULL%0,                   James%Tielsch%NULL%1,                   Subarna K.%Khatry%NULL%1,                   Laxman%Shrestha%NULL%0,                   Steven C.%LeClerq%NULL%1,                   Amalia%Magaret%NULL%1,                   Jane%Kuypers%NULL%1,                   Mark%Steinhoff%NULL%1,                   Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                    Gabriele%Ihorst%NULL%1,                    Klaus%Sure%NULL%1,                    Astrid%Vabret%NULL%0,                    Ronald%Dijkman%NULL%1,                    Michel%de Vries%NULL%1,                    Johannes%Forster%NULL%1,                    Ben%Berkhout%NULL%1,                    Klaus%Uberla%NULL%1,                   Lia%van der Hoek%NULL%1,                   Gabriele%Ihorst%NULL%1,                   Klaus%Sure%NULL%1,                   Astrid%Vabret%NULL%0,                   Ronald%Dijkman%NULL%1,                   Michel%de Vries%NULL%1,                   Johannes%Forster%NULL%1,                   Ben%Berkhout%NULL%1,                   Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                    Philip%Zachariah%pz2177@cumc.columbia.edu%1,                    Celibell%Vargas%NULL%1,                    Philip%LaRussa%NULL%1,                    Ryan T%Demmer%NULL%1,                    Yoko E%Furuya%NULL%1,                    Susan%Whittier%NULL%1,                    Carrie%Reed%NULL%1,                    Melissa S%Stockwell%NULL%1,                    Lisa%Saiman%NULL%1,                   Litty%Varghese%NULL%1,                   Philip%Zachariah%pz2177@cumc.columbia.edu%1,                   Celibell%Vargas%NULL%1,                   Philip%LaRussa%NULL%1,                   Ryan T%Demmer%NULL%1,                   Yoko E%Furuya%NULL%1,                   Susan%Whittier%NULL%1,                   Carrie%Reed%NULL%1,                   Melissa S%Stockwell%NULL%1,                   Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                    Ria%Lassaunière%NULL%1,                    Tina Louise%Kresfelder%NULL%1,                    Yvette%Westerberg%NULL%1,                    Adele%Visser%NULL%1,                   Marietjie%Venter%marietjiev@nicd.ac.za%1,                   Ria%Lassaunière%NULL%1,                   Tina Louise%Kresfelder%NULL%1,                   Yvette%Westerberg%NULL%1,                   Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                    Charles%Burdet%NULL%1,                    Guillaume%Voiriot%NULL%1,                    François-Xavier%Lescure%NULL%1,                    Taous%Chougar%NULL%1,                    Olivier%Brugière%NULL%1,                    Bruno%Crestani%NULL%1,                    Enrique%Casalino%NULL%1,                    Charlotte%Charpentier%NULL%1,                    Diane%Descamps%NULL%1,                    Jean-François%Timsit%NULL%1,                    Yazdan%Yazdanpanah%NULL%1,                    Nadhira%Houhou-Fidouh%NULL%1,                    Dena L.%Schanzer%NULL%1,                   Benoit%Visseaux%NULL%1,                   Charles%Burdet%NULL%1,                   Guillaume%Voiriot%NULL%1,                   François-Xavier%Lescure%NULL%1,                   Taous%Chougar%NULL%1,                   Olivier%Brugière%NULL%1,                   Bruno%Crestani%NULL%1,                   Enrique%Casalino%NULL%1,                   Charlotte%Charpentier%NULL%1,                   Diane%Descamps%NULL%1,                   Jean-François%Timsit%NULL%1,                   Yazdan%Yazdanpanah%NULL%1,                   Nadhira%Houhou-Fidouh%NULL%1,                   Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                    Deshan%Yu%NULL%0,                    Naiying%Mao%NULL%1,                    Zhen%Zhu%NULL%1,                    Hui%Zhang%NULL%1,                    Zhongyi%Jiang%NULL%1,                    Hongyu%Li%NULL%1,                    Yan%Zhang%NULL%1,                    Jing%Shi%NULL%1,                    Shuang%Zhang%NULL%1,                    Xinhua%Wang%NULL%1,                    Wenbo%Xu%NULL%1,                    Dong-Yan%Jin%NULL%1,                   Guohong%Huang%NULL%1,                   Deshan%Yu%NULL%0,                   Naiying%Mao%NULL%1,                   Zhen%Zhu%NULL%1,                   Hui%Zhang%NULL%1,                   Zhongyi%Jiang%NULL%1,                   Hongyu%Li%NULL%1,                   Yan%Zhang%NULL%1,                   Jing%Shi%NULL%1,                   Shuang%Zhang%NULL%1,                   Xinhua%Wang%NULL%1,                   Wenbo%Xu%NULL%1,                   Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                    Jiu-ling%Tuo%NULL%1,                    Xu-bin%Huang%NULL%1,                    Xun%Zhu%NULL%1,                    Ding-mei%Zhang%NULL%1,                    Kai%Zhou%NULL%1,                    Lei%Yuan%NULL%1,                    Hong-jiao%Luo%NULL%1,                    Bo-jian%Zheng%NULL%1,                    Kwok-yung%Yuen%NULL%1,                    Meng-feng%Li%NULL%1,                    Kai-yuan%Cao%NULL%1,                    Lin%Xu%NULL%1,                    Stefan%Pöhlmann%NULL%1,                   Su-fen%Zhang%NULL%1,                   Jiu-ling%Tuo%NULL%1,                   Xu-bin%Huang%NULL%1,                   Xun%Zhu%NULL%1,                   Ding-mei%Zhang%NULL%1,                   Kai%Zhou%NULL%1,                   Lei%Yuan%NULL%1,                   Hong-jiao%Luo%NULL%1,                   Bo-jian%Zheng%NULL%1,                   Kwok-yung%Yuen%NULL%1,                   Meng-feng%Li%NULL%1,                   Kai-yuan%Cao%NULL%1,                   Lin%Xu%NULL%1,                   Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2885,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -2812,7 +2914,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2841,7 +2943,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2870,7 +2972,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2899,7 +3001,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2928,7 +3030,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -2957,7 +3059,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -2986,7 +3088,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -3015,7 +3117,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3044,7 +3146,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3073,7 +3175,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3102,7 +3204,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3131,7 +3233,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3160,7 +3262,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3189,7 +3291,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3218,7 +3320,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3247,7 +3349,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3276,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3305,7 +3407,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3334,7 +3436,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3363,7 +3465,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3392,7 +3494,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3421,7 +3523,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3450,7 +3552,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -3479,7 +3581,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3508,7 +3610,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3566,7 +3668,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3595,7 +3697,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -3624,7 +3726,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -3653,7 +3755,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -3682,7 +3784,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -3711,7 +3813,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -3740,7 +3842,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -3769,7 +3871,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="813">
   <si>
     <t>Doi</t>
   </si>
@@ -2555,6 +2555,210 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                    Jiu-ling%Tuo%NULL%1,                    Xu-bin%Huang%NULL%1,                    Xun%Zhu%NULL%1,                    Ding-mei%Zhang%NULL%1,                    Kai%Zhou%NULL%1,                    Lei%Yuan%NULL%1,                    Hong-jiao%Luo%NULL%1,                    Bo-jian%Zheng%NULL%1,                    Kwok-yung%Yuen%NULL%1,                    Meng-feng%Li%NULL%1,                    Kai-yuan%Cao%NULL%1,                    Lin%Xu%NULL%1,                    Stefan%Pöhlmann%NULL%1,                   Su-fen%Zhang%NULL%1,                   Jiu-ling%Tuo%NULL%1,                   Xu-bin%Huang%NULL%1,                   Xun%Zhu%NULL%1,                   Ding-mei%Zhang%NULL%1,                   Kai%Zhou%NULL%1,                   Lei%Yuan%NULL%1,                   Hong-jiao%Luo%NULL%1,                   Bo-jian%Zheng%NULL%1,                   Kwok-yung%Yuen%NULL%1,                   Meng-feng%Li%NULL%1,                   Kai-yuan%Cao%NULL%1,                   Lin%Xu%NULL%1,                   Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                   Rachel M%Reeves%null%1,                   Xin%Wang%null%1,                   Quique%Bassat%null%1,                   W Abdullah%Brooks%null%1,                   Cheryl%Cohen%null%1,                   David P%Moore%null%1,                   Marta%Nunes%null%1,                   Barbara%Rath%null%1,                   Harry%Campbell%null%1,                   Harish%Nair%null%1,                   Sozinho%Acacio%null%1,                   Wladimir J%Alonso%null%1,                   Martin%Antonio%null%1,                   Guadalupe%Ayora Talavera%null%1,                   Darmaa%Badarch%null%1,                   Vicky L%Baillie%null%1,                   Gisela%Barrera-Badillo%null%1,                   Godfrey%Bigogo%null%1,                   Shobha%Broor%null%1,                   Dana%Bruden%null%1,                   Philippe%Buchy%null%1,                   Peter%Byass%null%1,                   James%Chipeta%null%1,                   Wilfrido%Clara%null%1,                   Duc-Anh%Dang%null%1,                   Carla Cecília%de Freitas Lázaro Emediato%null%1,                   Menno%de Jong%null%1,                   José Alberto%Díaz-Quiñonez%null%1,                   Lien Anh Ha%Do%null%1,                   Rodrigo A%Fasce%null%1,                   Luzhao%Feng%null%1,                   Mark J%Ferson%null%1,                   Angela%Gentile%null%1,                   Bradford D%Gessner%null%1,                   Doli%Goswami%null%1,                   Sophie%Goyet%null%1,                   Carlos G%Grijalva%null%1,                   Natasha%Halasa%null%1,                   Orienka%Hellferscee%null%1,                   Danielle%Hessong%null%1,                   Nusrat%Homaira%null%1,                   Jorge%Jara%null%1,                   Kathleen%Kahn%null%1,                   Najwa%Khuri-Bulos%null%1,                   Karen L%Kotloff%null%1,                   Claudio F%Lanata%null%1,                   Olga%Lopez%null%1,                   Maria Renee%Lopez Bolaños%null%1,                   Marilla G%Lucero%null%1,                   Florencia%Lucion%null%1,                   Socorro P%Lupisan%null%1,                   Shabir A%Madhi%null%1,                   Omphile%Mekgoe%null%1,                   Cinta%Moraleda%null%1,                   Jocelyn%Moyes%null%1,                   Kim%Mulholland%null%1,                   Patrick K%Munywoki%null%1,                   Fathima%Naby%null%1,                   Thanh Hung%Nguyen%null%1,                   Mark P%Nicol%null%1,                   D James%Nokes%null%1,                   Daniel E%Noyola%null%1,                   Daisuke%Onozuka%null%1,                   Nandhini%Palani%null%1,                   Yong%Poovorawan%null%1,                   Mustafizur%Rahman%null%1,                   Kaat%Ramaekers%null%1,                   Candice%Romero%null%1,                   Elizabeth P%Schlaudecker%null%1,                   Brunhilde%Schweiger%null%1,                   Phil%Seidenberg%null%1,                   Eric A F%Simoes%null%1,                   Rosalyn%Singleton%null%1,                   Sujatha%Sistla%null%1,                   Katharine%Sturm-Ramirez%null%1,                   Nungruthai%Suntronwong%null%1,                   Agustinus%Sutanto%null%1,                   Milagritos D%Tapia%null%1,                   Somsak%Thamthitiwat%null%1,                   Ilada%Thongpan%null%1,                   Gayani%Tillekeratne%null%1,                   Yeny O%Tinoco%null%1,                   Florette K%Treurnicht%null%1,                   Claudia%Turner%null%1,                   Paul%Turner%null%1,                   Rogier%van Doorn%null%1,                   Marc%Van Ranst%null%2,                   Benoit%Visseaux%null%1,                   Sunthareeya%Waicharoen%null%1,                   Jianwei%Wang%null%1,                   Lay-Myint%Yoshida%null%1,                   Heather J%Zar%null%1,               You%Li%null%1,               Rachel M%Reeves%null%1,               Xin%Wang%null%1,               Quique%Bassat%null%1,               W Abdullah%Brooks%null%1,               Cheryl%Cohen%null%1,               David P%Moore%null%1,               Marta%Nunes%null%1,               Barbara%Rath%null%1,               Harry%Campbell%null%1,               Harish%Nair%null%1,               Sozinho%Acacio%null%1,               Wladimir J%Alonso%null%1,               Martin%Antonio%null%1,               Guadalupe%Ayora Talavera%null%1,               Darmaa%Badarch%null%1,               Vicky L%Baillie%null%1,               Gisela%Barrera-Badillo%null%1,               Godfrey%Bigogo%null%1,               Shobha%Broor%null%1,               Dana%Bruden%null%1,               Philippe%Buchy%null%1,               Peter%Byass%null%1,               James%Chipeta%null%1,               Wilfrido%Clara%null%1,               Duc-Anh%Dang%null%1,               Carla Cecília%de Freitas Lázaro Emediato%null%1,               Menno%de Jong%null%1,               José Alberto%Díaz-Quiñonez%null%1,               Lien Anh Ha%Do%null%1,               Rodrigo A%Fasce%null%1,               Luzhao%Feng%null%2,               Mark J%Ferson%null%1,               Angela%Gentile%null%1,               Bradford D%Gessner%null%1,               Doli%Goswami%null%1,               Sophie%Goyet%null%1,               Carlos G%Grijalva%null%1,               Natasha%Halasa%null%1,               Orienka%Hellferscee%null%1,               Danielle%Hessong%null%1,               Nusrat%Homaira%null%1,               Jorge%Jara%null%1,               Kathleen%Kahn%null%1,               Najwa%Khuri-Bulos%null%1,               Karen L%Kotloff%null%1,               Claudio F%Lanata%null%1,               Olga%Lopez%null%1,               Maria Renee%Lopez Bolaños%null%1,               Marilla G%Lucero%null%1,               Florencia%Lucion%null%1,               Socorro P%Lupisan%null%1,               Shabir A%Madhi%null%1,               Omphile%Mekgoe%null%1,               Cinta%Moraleda%null%1,               Jocelyn%Moyes%null%1,               Kim%Mulholland%null%1,               Patrick K%Munywoki%null%1,               Fathima%Naby%null%1,               Thanh Hung%Nguyen%null%1,               Mark P%Nicol%null%1,               D James%Nokes%null%1,               Daniel E%Noyola%null%1,               Daisuke%Onozuka%null%1,               Nandhini%Palani%null%1,               Yong%Poovorawan%null%1,               Mustafizur%Rahman%null%1,               Kaat%Ramaekers%null%1,               Candice%Romero%null%1,               Elizabeth P%Schlaudecker%null%1,               Brunhilde%Schweiger%null%1,               Phil%Seidenberg%null%1,               Eric A F%Simoes%null%1,               Rosalyn%Singleton%null%1,               Sujatha%Sistla%null%1,               Katharine%Sturm-Ramirez%null%1,               Nungruthai%Suntronwong%null%1,               Agustinus%Sutanto%null%1,               Milagritos D%Tapia%null%1,               Somsak%Thamthitiwat%null%1,               Ilada%Thongpan%null%1,               Gayani%Tillekeratne%null%1,               Yeny O%Tinoco%null%1,               Florette K%Treurnicht%null%1,               Claudia%Turner%null%1,               Paul%Turner%null%1,               Rogier%van Doorn%null%1,               Marc%Van Ranst%null%3,               Benoit%Visseaux%null%1,               Sunthareeya%Waicharoen%null%1,               Jianwei%Wang%null%5,               Lay-Myint%Yoshida%null%1,               Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                 Jack%Bee Chook%coreGivesNoEmail%1,                 Kim%Tien Ng%coreGivesNoEmail%1,                 Kok%Keng Tee%coreGivesNoEmail%1,                 Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                 Nik%Sherina Hanafi%coreGivesNoEmail%1,                 van%der Hoek%coreGivesNoEmail%2,                 van%der Hoek%coreGivesNoEmail%0,                 van%Elden%coreGivesNoEmail%1,                 Xiang%Yong Oong%coreGivesNoEmail%1,                 Yong%Kek Pang%coreGivesNoEmail%1,                 Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,         Lars-Magnus%Andersson%xref no email%1,         Sigvard%Olofsson%xref no email%1,         Magnus%Lindh%xref no email%1,         Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                     Dangui%Zhang%danguizhang@stu.edu.cn%1,                     Hui%Pan%michaelpan@stu.edu.cn%1,                     Fan%Zhang%lemon_fan@163.com%1,                     Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                     Frieda%Law%lawf@stu.edu.cn%1,                     H Rogier%van Doorn%hrogier@gmail.com%1,                     Beiyan%Wu%1261305798@qq.com%1,                     William%Ba-Thein%wbathein@stu.edu.cn%1,                    Binglin%Cui%binglincui@stu.edu.cn%1,                    Dangui%Zhang%danguizhang@stu.edu.cn%1,                    Hui%Pan%michaelpan@stu.edu.cn%1,                    Fan%Zhang%lemon_fan@163.com%1,                    Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                    Frieda%Law%lawf@stu.edu.cn%1,                    H Rogier%van Doorn%hrogier@gmail.com%1,                    Beiyan%Wu%1261305798@qq.com%1,                    William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                 Andrew%Berglund%coreGivesNoEmail%1,                 Christine%C. Robinson%coreGivesNoEmail%1,                 Christopher%D. Town%coreGivesNoEmail%1,                 Edison%Luiz Durigon%coreGivesNoEmail%1,                 Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                 Kathryn%V. Holmes%coreGivesNoEmail%1,                 Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                 Nadia%Fedorova%coreGivesNoEmail%1,                 Philip%A. Weston%coreGivesNoEmail%1,                 Rebecca%A. Halpin%coreGivesNoEmail%1,                 Samuel%R. Dominguez%coreGivesNoEmail%1,                 Susmita%Shrivastava%coreGivesNoEmail%1,                 Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                     Lifeng%Pan%NULL%1,                     Qiao%Sun%NULL%1,                     Weiping%Zhu%NULL%1,                     Linying%Zhu%NULL%1,                     Chuchu%Ye%NULL%1,                     Caoyi%Xue%NULL%1,                     Yuanping%Wang%NULL%1,                     Qing%Liu%NULL%1,                     Ping%Ma%NULL%1,                     Huifang%Qiu%NULL%1,                     Srinand%Sreevatsan%NULL%1,                    Yifei%Fu%NULL%1,                    Lifeng%Pan%NULL%1,                    Qiao%Sun%NULL%1,                    Weiping%Zhu%NULL%1,                    Linying%Zhu%NULL%1,                    Chuchu%Ye%NULL%1,                    Caoyi%Xue%NULL%1,                    Yuanping%Wang%NULL%1,                    Qing%Liu%NULL%1,                    Ping%Ma%NULL%1,                    Huifang%Qiu%NULL%1,                    Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                     Mumtaz Cem%Sirin%NULL%1,                    Safak%Goktas%NULL%1,                    Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                     Nina%Moe%NULL%1,                     Sidsel%Krokstad%NULL%2,                     Andreas%Christensen%NULL%2,                     Lars Høsøien%Skanke%NULL%2,                     Svein Arne%Nordbø%NULL%2,                     Henrik%Døllner%henrik.dollner@ntnu.no%2,                    Inger%Heimdal%NULL%1,                    Nina%Moe%NULL%2,                    Sidsel%Krokstad%NULL%2,                    Andreas%Christensen%NULL%2,                    Lars Høsøien%Skanke%NULL%2,                    Svein Arne%Nordbø%NULL%2,                    Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                     Inger Heimdal%Stenseng%NULL%1,                     Sidsel%Krokstad%NULL%0,                     Andreas%Christensen%NULL%0,                     Lars Høsøien%Skanke%NULL%0,                     Kari Ravndal%Risnes%NULL%1,                     Svein Arne%Nordbø%NULL%0,                     Henrik%Døllner%henrik.dollner@ntnu.no%0,                    Nina%Moe%NULL%0,                    Inger Heimdal%Stenseng%NULL%1,                    Sidsel%Krokstad%NULL%0,                    Andreas%Christensen%NULL%0,                    Lars Høsøien%Skanke%NULL%0,                    Kari Ravndal%Risnes%NULL%1,                    Svein Arne%Nordbø%NULL%0,                    Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,         Derek J.%Williams%xref no email%1,         Sandra R.%Arnold%xref no email%1,         Krow%Ampofo%xref no email%1,         Anna M.%Bramley%xref no email%1,         Carrie%Reed%xref no email%1,         Chris%Stockmann%xref no email%1,         Evan J.%Anderson%xref no email%1,         Carlos G.%Grijalva%xref no email%1,         Wesley H.%Self%xref no email%1,         Yuwei%Zhu%xref no email%1,         Anami%Patel%xref no email%1,         Weston%Hymas%xref no email%1,         James D.%Chappell%xref no email%1,         Robert A.%Kaufman%xref no email%1,         J. Herman%Kan%xref no email%1,         David%Dansie%xref no email%1,         Noel%Lenny%xref no email%1,         David R.%Hillyard%xref no email%1,         Lia M.%Haynes%xref no email%1,         Min%Levine%xref no email%1,         Stephen%Lindstrom%xref no email%1,         Jonas M.%Winchell%xref no email%1,         Jacqueline M.%Katz%xref no email%1,         Dean%Erdman%xref no email%1,         Eileen%Schneider%xref no email%1,         Lauri A.%Hicks%xref no email%1,         Richard G.%Wunderink%xref no email%1,         Kathryn M.%Edwards%xref no email%1,         Andrew T.%Pavia%xref no email%1,         Jonathan A.%McCullers%xref no email%1,         Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                     Andrej%Steyer%NULL%1,                     Marko%Pokorn%NULL%1,                     Tatjana%Mrvič%NULL%1,                     Štefan%Grosek%NULL%1,                     Franc%Strle%NULL%1,                     Lara%Lusa%NULL%1,                     Miroslav%Petrovec%NULL%1,                     Oliver%Schildgen%NULL%1,                    Monika%Jevšnik%NULL%1,                    Andrej%Steyer%NULL%1,                    Marko%Pokorn%NULL%1,                    Tatjana%Mrvič%NULL%1,                    Štefan%Grosek%NULL%1,                    Franc%Strle%NULL%1,                    Lara%Lusa%NULL%1,                    Miroslav%Petrovec%NULL%1,                    Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                     Matti%Waris%NULL%1,                     Kari%Johansen%NULL%1,                     René%Snacken%NULL%1,                     Pasi%Penttinen%NULL%1,                     NULL%NULL%NULL%3,                    Eeva K%Broberg%NULL%1,                    Matti%Waris%NULL%1,                    Kari%Johansen%NULL%1,                    René%Snacken%NULL%1,                    Pasi%Penttinen%NULL%1,                    NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                     Qiaoyun%Fang%NULL%1,                     Jian%Zhang%NULL%1,                     Angao%Xu%NULL%1,                     Lihuan%Liang%NULL%1,                     Changwen%Ke%hzmedicine@163.com%1,                    Xiongfei%Ju%NULL%1,                    Qiaoyun%Fang%NULL%1,                    Jian%Zhang%NULL%1,                    Angao%Xu%NULL%1,                    Lihuan%Liang%NULL%1,                    Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                     Holly M.%Biggs%NULL%1,                     Amber%Haynes%NULL%1,                     Rebecca M.%Dahl%NULL%1,                     Desiree%Mustaquim%NULL%1,                     Susan I.%Gerber%NULL%1,                     John T.%Watson%NULL%1,                    Marie E.%Killerby%lxo9@cdc.gov%1,                    Holly M.%Biggs%NULL%1,                    Amber%Haynes%NULL%1,                    Rebecca M.%Dahl%NULL%1,                    Desiree%Mustaquim%NULL%1,                    Susan I.%Gerber%NULL%1,                    John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                     Hee‐Dong%Jung%NULL%1,                     Hyang‐Min%Cheong%NULL%1,                     Anna%Lee%NULL%1,                     Nam‐Joo%Lee%NULL%1,                     Hyuk%Chu%NULL%1,                     Joo‐Yeon%Lee%NULL%1,                     Sung Soon%Kim%NULL%1,                     Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                    Jeong‐Min%Kim%NULL%1,                    Hee‐Dong%Jung%NULL%1,                    Hyang‐Min%Cheong%NULL%1,                    Anna%Lee%NULL%1,                    Nam‐Joo%Lee%NULL%1,                    Hyuk%Chu%NULL%1,                    Joo‐Yeon%Lee%NULL%1,                    Sung Soon%Kim%NULL%1,                    Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,         Patrick C. Y.%Woo%xref no email%1,         Cyril C. Y.%Yip%xref no email%1,         Herman%Tse%xref no email%1,         Hoi-wah%Tsoi%xref no email%1,         Vincent C. C.%Cheng%xref no email%1,         Paul%Lee%xref no email%1,         Bone S. F.%Tang%xref no email%1,         Chris H. Y.%Cheung%xref no email%1,         Rodney A.%Lee%xref no email%1,         Lok-yee%So%xref no email%1,         Yu-lung%Lau%xref no email%1,         Kwok-hung%Chan%xref no email%1,         Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,         Guruprasad R.%Medigeshi%xref no email%1,         Vishnu S.%Mishra%xref no email%1,         Mojahidul%Islam%xref no email%1,         Shivani%Randev%xref no email%1,         Aparna%Mukherjee%xref no email%1,         Rama%Chaudhry%xref no email%1,         Arti%Kapil%xref no email%1,         Kana%Ram Jat%xref no email%1,         Rakesh%Lodha%xref no email%1,         Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,         Shin Hae%Lee%xref no email%1,         Eun Kyo%Ha%xref no email%1,         Youn Ho%Sheen%xref no email%1,         Myong Soon%Sung%xref no email%1,         Young-Ho%Jung%xref no email%1,         Kyung Suk%Lee%xref no email%1,         Hye Mi%Jee%xref no email%1,         Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                     Juansheng%Li%lijsh16@163.com%1,                     Lei%Meng%mleicdc@163.com%1,                     Wanqi%Zhu%NULL%1,                     Xinfeng%Liu%NULL%1,                     Mei%Yang%NULL%1,                     Deshan%Yu%NULL%2,                     Lixia%Niu%NULL%1,                     Xiping%Shen%NULL%1,                    Xuechao%Li%NULL%1,                    Juansheng%Li%lijsh16@163.com%1,                    Lei%Meng%mleicdc@163.com%1,                    Wanqi%Zhu%NULL%1,                    Xinfeng%Liu%NULL%1,                    Mei%Yang%NULL%1,                    Deshan%Yu%NULL%2,                    Lixia%Niu%NULL%1,                    Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                     James G.%Bosley%NULL%1,                    Christine M.%Litwin%clitwin@gru.edu%1,                    James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,         Chieko%Abiko%xref no email%1,         Tatsuya%Ikeda%xref no email%1,         Yoko%Aoki%xref no email%1,         Yu%Suzuki%xref no email%1,         Kazue%Yahagi%xref no email%1,         Yoko%Matsuzaki%xref no email%1,         Tsutomu%Itagaki%xref no email%1,         Fumio%Katsushima%xref no email%1,         Yuriko%Katsushima%xref no email%1,         Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                     Elsie Laban%Yekwa%NULL%1,                     Pierre%Cappy%NULL%1,                     Astrid%Vabret%NULL%2,                     Pascal%Boisier%NULL%1,                     Dominique%Rousset%NULL%1,                    Richard%Njouom%NULL%1,                    Elsie Laban%Yekwa%NULL%1,                    Pierre%Cappy%NULL%1,                    Astrid%Vabret%NULL%2,                    Pascal%Boisier%NULL%1,                    Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                     Suvi%Lappalainen%NULL%1,                     Timo%Vesikari%NULL%1,                    Minna%Paloniemi%NULL%1,                    Suvi%Lappalainen%NULL%1,                    Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                     Richard%Gonzalez%NULL%1,                     Jin%Xu%NULL%1,                     Yan%Xiao%NULL%1,                     Yongjun%Li%NULL%1,                     Hongli%Zhou%NULL%1,                     Jianguo%Li%NULL%1,                     Qingqing%Yang%NULL%1,                     Jing%Zhang%NULL%1,                     Lan%Chen%NULL%1,                     Wei%Wang%NULL%1,                     Guy%Vernet%NULL%1,                     Gláucia%Paranhos‐Baccalà%NULL%1,                     Zhong%Wang%wangzhong523@vip.163.com%1,                     Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                    Lili%Ren%NULL%1,                    Richard%Gonzalez%NULL%1,                    Jin%Xu%NULL%1,                    Yan%Xiao%NULL%1,                    Yongjun%Li%NULL%1,                    Hongli%Zhou%NULL%1,                    Jianguo%Li%NULL%1,                    Qingqing%Yang%NULL%1,                    Jing%Zhang%NULL%1,                    Lan%Chen%NULL%1,                    Wei%Wang%NULL%1,                    Guy%Vernet%NULL%1,                    Gláucia%Paranhos‐Baccalà%NULL%1,                    Zhong%Wang%wangzhong523@vip.163.com%1,                    Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                 Druelle%Valentin%coreGivesNoEmail%1,                 Dyrdak%Robert%coreGivesNoEmail%1,                 Hodcroft%Emma B.%coreGivesNoEmail%1,                 Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                     Ilada%Thongpan%ilada.cu09@gmail.com%1,                     Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                     Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                     Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                     Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                     Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                     Yong%Poovorawan%yong.p@chula.ac.th%1,                    Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                    Ilada%Thongpan%ilada.cu09@gmail.com%1,                    Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                    Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                    Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                    Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                    Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                    Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                     Janet A%Englund%NULL%1,                     Jane Y%Kuypers%NULL%1,                     Helen Y%Chu%NULL%1,                     Mark C%Steinhoff%NULL%1,                     Subarna K%Khatry%NULL%1,                     Steve C%LeClerq%NULL%1,                     James M%Tielsch%NULL%1,                     Luke C%Mullany%NULL%1,                     Laxman%Shrestha%NULL%2,                     Joanne%Katz%jkatz1@jhu.edu%2,                    S M Iftekhar%Uddin%NULL%1,                    Janet A%Englund%NULL%1,                    Jane Y%Kuypers%NULL%1,                    Helen Y%Chu%NULL%1,                    Mark C%Steinhoff%NULL%1,                    Subarna K%Khatry%NULL%1,                    Steve C%LeClerq%NULL%1,                    James M%Tielsch%NULL%1,                    Luke C%Mullany%NULL%1,                    Laxman%Shrestha%NULL%2,                    Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                     Joanne%Katz%NULL%0,                     James%Tielsch%NULL%1,                     Subarna K.%Khatry%NULL%1,                     Laxman%Shrestha%NULL%0,                     Steven C.%LeClerq%NULL%1,                     Amalia%Magaret%NULL%1,                     Jane%Kuypers%NULL%1,                     Mark%Steinhoff%NULL%1,                     Janet A.%Englund%NULL%1,                    Helen Y.%Chu%helenchu@uw.edu%1,                    Joanne%Katz%NULL%0,                    James%Tielsch%NULL%1,                    Subarna K.%Khatry%NULL%1,                    Laxman%Shrestha%NULL%0,                    Steven C.%LeClerq%NULL%1,                    Amalia%Magaret%NULL%1,                    Jane%Kuypers%NULL%1,                    Mark%Steinhoff%NULL%1,                    Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                     Gabriele%Ihorst%NULL%1,                     Klaus%Sure%NULL%1,                     Astrid%Vabret%NULL%0,                     Ronald%Dijkman%NULL%1,                     Michel%de Vries%NULL%1,                     Johannes%Forster%NULL%1,                     Ben%Berkhout%NULL%1,                     Klaus%Uberla%NULL%1,                    Lia%van der Hoek%NULL%1,                    Gabriele%Ihorst%NULL%1,                    Klaus%Sure%NULL%1,                    Astrid%Vabret%NULL%0,                    Ronald%Dijkman%NULL%1,                    Michel%de Vries%NULL%1,                    Johannes%Forster%NULL%1,                    Ben%Berkhout%NULL%1,                    Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                     Philip%Zachariah%pz2177@cumc.columbia.edu%1,                     Celibell%Vargas%NULL%1,                     Philip%LaRussa%NULL%1,                     Ryan T%Demmer%NULL%1,                     Yoko E%Furuya%NULL%1,                     Susan%Whittier%NULL%1,                     Carrie%Reed%NULL%1,                     Melissa S%Stockwell%NULL%1,                     Lisa%Saiman%NULL%1,                    Litty%Varghese%NULL%1,                    Philip%Zachariah%pz2177@cumc.columbia.edu%1,                    Celibell%Vargas%NULL%1,                    Philip%LaRussa%NULL%1,                    Ryan T%Demmer%NULL%1,                    Yoko E%Furuya%NULL%1,                    Susan%Whittier%NULL%1,                    Carrie%Reed%NULL%1,                    Melissa S%Stockwell%NULL%1,                    Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                     Ria%Lassaunière%NULL%1,                     Tina Louise%Kresfelder%NULL%1,                     Yvette%Westerberg%NULL%1,                     Adele%Visser%NULL%1,                    Marietjie%Venter%marietjiev@nicd.ac.za%1,                    Ria%Lassaunière%NULL%1,                    Tina Louise%Kresfelder%NULL%1,                    Yvette%Westerberg%NULL%1,                    Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                     Charles%Burdet%NULL%1,                     Guillaume%Voiriot%NULL%1,                     François-Xavier%Lescure%NULL%1,                     Taous%Chougar%NULL%1,                     Olivier%Brugière%NULL%1,                     Bruno%Crestani%NULL%1,                     Enrique%Casalino%NULL%1,                     Charlotte%Charpentier%NULL%1,                     Diane%Descamps%NULL%1,                     Jean-François%Timsit%NULL%1,                     Yazdan%Yazdanpanah%NULL%1,                     Nadhira%Houhou-Fidouh%NULL%1,                     Dena L.%Schanzer%NULL%1,                    Benoit%Visseaux%NULL%1,                    Charles%Burdet%NULL%1,                    Guillaume%Voiriot%NULL%1,                    François-Xavier%Lescure%NULL%1,                    Taous%Chougar%NULL%1,                    Olivier%Brugière%NULL%1,                    Bruno%Crestani%NULL%1,                    Enrique%Casalino%NULL%1,                    Charlotte%Charpentier%NULL%1,                    Diane%Descamps%NULL%1,                    Jean-François%Timsit%NULL%1,                    Yazdan%Yazdanpanah%NULL%1,                    Nadhira%Houhou-Fidouh%NULL%1,                    Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                     Deshan%Yu%NULL%0,                     Naiying%Mao%NULL%1,                     Zhen%Zhu%NULL%1,                     Hui%Zhang%NULL%1,                     Zhongyi%Jiang%NULL%1,                     Hongyu%Li%NULL%1,                     Yan%Zhang%NULL%1,                     Jing%Shi%NULL%1,                     Shuang%Zhang%NULL%1,                     Xinhua%Wang%NULL%1,                     Wenbo%Xu%NULL%1,                     Dong-Yan%Jin%NULL%1,                    Guohong%Huang%NULL%1,                    Deshan%Yu%NULL%0,                    Naiying%Mao%NULL%1,                    Zhen%Zhu%NULL%1,                    Hui%Zhang%NULL%1,                    Zhongyi%Jiang%NULL%1,                    Hongyu%Li%NULL%1,                    Yan%Zhang%NULL%1,                    Jing%Shi%NULL%1,                    Shuang%Zhang%NULL%1,                    Xinhua%Wang%NULL%1,                    Wenbo%Xu%NULL%1,                    Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                     Jiu-ling%Tuo%NULL%1,                     Xu-bin%Huang%NULL%1,                     Xun%Zhu%NULL%1,                     Ding-mei%Zhang%NULL%1,                     Kai%Zhou%NULL%1,                     Lei%Yuan%NULL%1,                     Hong-jiao%Luo%NULL%1,                     Bo-jian%Zheng%NULL%1,                     Kwok-yung%Yuen%NULL%1,                     Meng-feng%Li%NULL%1,                     Kai-yuan%Cao%NULL%1,                     Lin%Xu%NULL%1,                     Stefan%Pöhlmann%NULL%1,                    Su-fen%Zhang%NULL%1,                    Jiu-ling%Tuo%NULL%1,                    Xu-bin%Huang%NULL%1,                    Xun%Zhu%NULL%1,                    Ding-mei%Zhang%NULL%1,                    Kai%Zhou%NULL%1,                    Lei%Yuan%NULL%1,                    Hong-jiao%Luo%NULL%1,                    Bo-jian%Zheng%NULL%1,                    Kwok-yung%Yuen%NULL%1,                    Meng-feng%Li%NULL%1,                    Kai-yuan%Cao%NULL%1,                    Lin%Xu%NULL%1,                    Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                    Rachel M%Reeves%null%1,                    Xin%Wang%null%1,                    Quique%Bassat%null%1,                    W Abdullah%Brooks%null%1,                    Cheryl%Cohen%null%1,                    David P%Moore%null%1,                    Marta%Nunes%null%1,                    Barbara%Rath%null%1,                    Harry%Campbell%null%1,                    Harish%Nair%null%1,                    Sozinho%Acacio%null%1,                    Wladimir J%Alonso%null%1,                    Martin%Antonio%null%1,                    Guadalupe%Ayora Talavera%null%1,                    Darmaa%Badarch%null%1,                    Vicky L%Baillie%null%1,                    Gisela%Barrera-Badillo%null%1,                    Godfrey%Bigogo%null%1,                    Shobha%Broor%null%1,                    Dana%Bruden%null%1,                    Philippe%Buchy%null%1,                    Peter%Byass%null%1,                    James%Chipeta%null%1,                    Wilfrido%Clara%null%1,                    Duc-Anh%Dang%null%1,                    Carla Cecília%de Freitas Lázaro Emediato%null%1,                    Menno%de Jong%null%1,                    José Alberto%Díaz-Quiñonez%null%1,                    Lien Anh Ha%Do%null%1,                    Rodrigo A%Fasce%null%1,                    Luzhao%Feng%null%1,                    Mark J%Ferson%null%1,                    Angela%Gentile%null%1,                    Bradford D%Gessner%null%1,                    Doli%Goswami%null%1,                    Sophie%Goyet%null%1,                    Carlos G%Grijalva%null%1,                    Natasha%Halasa%null%1,                    Orienka%Hellferscee%null%1,                    Danielle%Hessong%null%1,                    Nusrat%Homaira%null%1,                    Jorge%Jara%null%1,                    Kathleen%Kahn%null%1,                    Najwa%Khuri-Bulos%null%1,                    Karen L%Kotloff%null%1,                    Claudio F%Lanata%null%1,                    Olga%Lopez%null%1,                    Maria Renee%Lopez Bolaños%null%1,                    Marilla G%Lucero%null%1,                    Florencia%Lucion%null%1,                    Socorro P%Lupisan%null%1,                    Shabir A%Madhi%null%1,                    Omphile%Mekgoe%null%1,                    Cinta%Moraleda%null%1,                    Jocelyn%Moyes%null%1,                    Kim%Mulholland%null%1,                    Patrick K%Munywoki%null%1,                    Fathima%Naby%null%1,                    Thanh Hung%Nguyen%null%1,                    Mark P%Nicol%null%1,                    D James%Nokes%null%1,                    Daniel E%Noyola%null%1,                    Daisuke%Onozuka%null%1,                    Nandhini%Palani%null%1,                    Yong%Poovorawan%null%1,                    Mustafizur%Rahman%null%1,                    Kaat%Ramaekers%null%1,                    Candice%Romero%null%1,                    Elizabeth P%Schlaudecker%null%1,                    Brunhilde%Schweiger%null%1,                    Phil%Seidenberg%null%1,                    Eric A F%Simoes%null%1,                    Rosalyn%Singleton%null%1,                    Sujatha%Sistla%null%1,                    Katharine%Sturm-Ramirez%null%1,                    Nungruthai%Suntronwong%null%1,                    Agustinus%Sutanto%null%1,                    Milagritos D%Tapia%null%1,                    Somsak%Thamthitiwat%null%1,                    Ilada%Thongpan%null%1,                    Gayani%Tillekeratne%null%1,                    Yeny O%Tinoco%null%1,                    Florette K%Treurnicht%null%1,                    Claudia%Turner%null%1,                    Paul%Turner%null%1,                    Rogier%van Doorn%null%1,                    Marc%Van Ranst%null%1,                    Benoit%Visseaux%null%1,                    Sunthareeya%Waicharoen%null%1,                    Jianwei%Wang%null%1,                    Lay-Myint%Yoshida%null%1,                    Heather J%Zar%null%1,                You%Li%null%1,                Rachel M%Reeves%null%1,                Xin%Wang%null%1,                Quique%Bassat%null%1,                W Abdullah%Brooks%null%1,                Cheryl%Cohen%null%1,                David P%Moore%null%1,                Marta%Nunes%null%1,                Barbara%Rath%null%1,                Harry%Campbell%null%1,                Harish%Nair%null%1,                Sozinho%Acacio%null%1,                Wladimir J%Alonso%null%1,                Martin%Antonio%null%1,                Guadalupe%Ayora Talavera%null%1,                Darmaa%Badarch%null%1,                Vicky L%Baillie%null%1,                Gisela%Barrera-Badillo%null%1,                Godfrey%Bigogo%null%1,                Shobha%Broor%null%1,                Dana%Bruden%null%1,                Philippe%Buchy%null%1,                Peter%Byass%null%1,                James%Chipeta%null%1,                Wilfrido%Clara%null%1,                Duc-Anh%Dang%null%1,                Carla Cecília%de Freitas Lázaro Emediato%null%1,                Menno%de Jong%null%1,                José Alberto%Díaz-Quiñonez%null%1,                Lien Anh Ha%Do%null%1,                Rodrigo A%Fasce%null%1,                Luzhao%Feng%null%2,                Mark J%Ferson%null%1,                Angela%Gentile%null%1,                Bradford D%Gessner%null%1,                Doli%Goswami%null%1,                Sophie%Goyet%null%1,                Carlos G%Grijalva%null%1,                Natasha%Halasa%null%1,                Orienka%Hellferscee%null%1,                Danielle%Hessong%null%1,                Nusrat%Homaira%null%1,                Jorge%Jara%null%1,                Kathleen%Kahn%null%1,                Najwa%Khuri-Bulos%null%1,                Karen L%Kotloff%null%1,                Claudio F%Lanata%null%1,                Olga%Lopez%null%1,                Maria Renee%Lopez Bolaños%null%1,                Marilla G%Lucero%null%1,                Florencia%Lucion%null%1,                Socorro P%Lupisan%null%1,                Shabir A%Madhi%null%1,                Omphile%Mekgoe%null%1,                Cinta%Moraleda%null%1,                Jocelyn%Moyes%null%1,                Kim%Mulholland%null%1,                Patrick K%Munywoki%null%1,                Fathima%Naby%null%1,                Thanh Hung%Nguyen%null%1,                Mark P%Nicol%null%1,                D James%Nokes%null%1,                Daniel E%Noyola%null%1,                Daisuke%Onozuka%null%1,                Nandhini%Palani%null%1,                Yong%Poovorawan%null%1,                Mustafizur%Rahman%null%1,                Kaat%Ramaekers%null%1,                Candice%Romero%null%1,                Elizabeth P%Schlaudecker%null%1,                Brunhilde%Schweiger%null%1,                Phil%Seidenberg%null%1,                Eric A F%Simoes%null%1,                Rosalyn%Singleton%null%1,                Sujatha%Sistla%null%1,                Katharine%Sturm-Ramirez%null%1,                Nungruthai%Suntronwong%null%1,                Agustinus%Sutanto%null%1,                Milagritos D%Tapia%null%1,                Somsak%Thamthitiwat%null%1,                Ilada%Thongpan%null%1,                Gayani%Tillekeratne%null%1,                Yeny O%Tinoco%null%1,                Florette K%Treurnicht%null%1,                Claudia%Turner%null%1,                Paul%Turner%null%1,                Rogier%van Doorn%null%1,                Marc%Van Ranst%null%3,                Benoit%Visseaux%null%1,                Sunthareeya%Waicharoen%null%1,                Jianwei%Wang%null%5,                Lay-Myint%Yoshida%null%1,                Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                  Jack%Bee Chook%coreGivesNoEmail%1,                  Kim%Tien Ng%coreGivesNoEmail%1,                  Kok%Keng Tee%coreGivesNoEmail%1,                  Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                  Nik%Sherina Hanafi%coreGivesNoEmail%1,                  van%der Hoek%coreGivesNoEmail%2,                  van%der Hoek%coreGivesNoEmail%0,                  van%Elden%coreGivesNoEmail%1,                  Xiang%Yong Oong%coreGivesNoEmail%1,                  Yong%Kek Pang%coreGivesNoEmail%1,                  Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,          Lars-Magnus%Andersson%xref no email%1,          Sigvard%Olofsson%xref no email%1,          Magnus%Lindh%xref no email%1,          Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                      Dangui%Zhang%danguizhang@stu.edu.cn%1,                      Hui%Pan%michaelpan@stu.edu.cn%1,                      Fan%Zhang%lemon_fan@163.com%1,                      Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                      Frieda%Law%lawf@stu.edu.cn%1,                      H Rogier%van Doorn%hrogier@gmail.com%1,                      Beiyan%Wu%1261305798@qq.com%1,                      William%Ba-Thein%wbathein@stu.edu.cn%1,                     Binglin%Cui%binglincui@stu.edu.cn%1,                     Dangui%Zhang%danguizhang@stu.edu.cn%1,                     Hui%Pan%michaelpan@stu.edu.cn%1,                     Fan%Zhang%lemon_fan@163.com%1,                     Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                     Frieda%Law%lawf@stu.edu.cn%1,                     H Rogier%van Doorn%hrogier@gmail.com%1,                     Beiyan%Wu%1261305798@qq.com%1,                     William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                  Andrew%Berglund%coreGivesNoEmail%1,                  Christine%C. Robinson%coreGivesNoEmail%1,                  Christopher%D. Town%coreGivesNoEmail%1,                  Edison%Luiz Durigon%coreGivesNoEmail%1,                  Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                  Kathryn%V. Holmes%coreGivesNoEmail%1,                  Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                  Nadia%Fedorova%coreGivesNoEmail%1,                  Philip%A. Weston%coreGivesNoEmail%1,                  Rebecca%A. Halpin%coreGivesNoEmail%1,                  Samuel%R. Dominguez%coreGivesNoEmail%1,                  Susmita%Shrivastava%coreGivesNoEmail%1,                  Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                      Lifeng%Pan%NULL%1,                      Qiao%Sun%NULL%1,                      Weiping%Zhu%NULL%1,                      Linying%Zhu%NULL%1,                      Chuchu%Ye%NULL%1,                      Caoyi%Xue%NULL%1,                      Yuanping%Wang%NULL%1,                      Qing%Liu%NULL%1,                      Ping%Ma%NULL%1,                      Huifang%Qiu%NULL%1,                      Srinand%Sreevatsan%NULL%1,                     Yifei%Fu%NULL%1,                     Lifeng%Pan%NULL%1,                     Qiao%Sun%NULL%1,                     Weiping%Zhu%NULL%1,                     Linying%Zhu%NULL%1,                     Chuchu%Ye%NULL%1,                     Caoyi%Xue%NULL%1,                     Yuanping%Wang%NULL%1,                     Qing%Liu%NULL%1,                     Ping%Ma%NULL%1,                     Huifang%Qiu%NULL%1,                     Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                      Mumtaz Cem%Sirin%NULL%1,                     Safak%Goktas%NULL%1,                     Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                      Nina%Moe%NULL%1,                      Sidsel%Krokstad%NULL%2,                      Andreas%Christensen%NULL%2,                      Lars Høsøien%Skanke%NULL%2,                      Svein Arne%Nordbø%NULL%2,                      Henrik%Døllner%henrik.dollner@ntnu.no%2,                     Inger%Heimdal%NULL%1,                     Nina%Moe%NULL%2,                     Sidsel%Krokstad%NULL%2,                     Andreas%Christensen%NULL%2,                     Lars Høsøien%Skanke%NULL%2,                     Svein Arne%Nordbø%NULL%2,                     Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                      Inger Heimdal%Stenseng%NULL%1,                      Sidsel%Krokstad%NULL%0,                      Andreas%Christensen%NULL%0,                      Lars Høsøien%Skanke%NULL%0,                      Kari Ravndal%Risnes%NULL%1,                      Svein Arne%Nordbø%NULL%0,                      Henrik%Døllner%henrik.dollner@ntnu.no%0,                     Nina%Moe%NULL%0,                     Inger Heimdal%Stenseng%NULL%1,                     Sidsel%Krokstad%NULL%0,                     Andreas%Christensen%NULL%0,                     Lars Høsøien%Skanke%NULL%0,                     Kari Ravndal%Risnes%NULL%1,                     Svein Arne%Nordbø%NULL%0,                     Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,          Derek J.%Williams%xref no email%1,          Sandra R.%Arnold%xref no email%1,          Krow%Ampofo%xref no email%1,          Anna M.%Bramley%xref no email%1,          Carrie%Reed%xref no email%1,          Chris%Stockmann%xref no email%1,          Evan J.%Anderson%xref no email%1,          Carlos G.%Grijalva%xref no email%1,          Wesley H.%Self%xref no email%1,          Yuwei%Zhu%xref no email%1,          Anami%Patel%xref no email%1,          Weston%Hymas%xref no email%1,          James D.%Chappell%xref no email%1,          Robert A.%Kaufman%xref no email%1,          J. Herman%Kan%xref no email%1,          David%Dansie%xref no email%1,          Noel%Lenny%xref no email%1,          David R.%Hillyard%xref no email%1,          Lia M.%Haynes%xref no email%1,          Min%Levine%xref no email%1,          Stephen%Lindstrom%xref no email%1,          Jonas M.%Winchell%xref no email%1,          Jacqueline M.%Katz%xref no email%1,          Dean%Erdman%xref no email%1,          Eileen%Schneider%xref no email%1,          Lauri A.%Hicks%xref no email%1,          Richard G.%Wunderink%xref no email%1,          Kathryn M.%Edwards%xref no email%1,          Andrew T.%Pavia%xref no email%1,          Jonathan A.%McCullers%xref no email%1,          Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                      Andrej%Steyer%NULL%1,                      Marko%Pokorn%NULL%1,                      Tatjana%Mrvič%NULL%1,                      Štefan%Grosek%NULL%1,                      Franc%Strle%NULL%1,                      Lara%Lusa%NULL%1,                      Miroslav%Petrovec%NULL%1,                      Oliver%Schildgen%NULL%1,                     Monika%Jevšnik%NULL%1,                     Andrej%Steyer%NULL%1,                     Marko%Pokorn%NULL%1,                     Tatjana%Mrvič%NULL%1,                     Štefan%Grosek%NULL%1,                     Franc%Strle%NULL%1,                     Lara%Lusa%NULL%1,                     Miroslav%Petrovec%NULL%1,                     Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                      Matti%Waris%NULL%1,                      Kari%Johansen%NULL%1,                      René%Snacken%NULL%1,                      Pasi%Penttinen%NULL%1,                      NULL%NULL%NULL%3,                     Eeva K%Broberg%NULL%1,                     Matti%Waris%NULL%1,                     Kari%Johansen%NULL%1,                     René%Snacken%NULL%1,                     Pasi%Penttinen%NULL%1,                     NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                      Qiaoyun%Fang%NULL%1,                      Jian%Zhang%NULL%1,                      Angao%Xu%NULL%1,                      Lihuan%Liang%NULL%1,                      Changwen%Ke%hzmedicine@163.com%1,                     Xiongfei%Ju%NULL%1,                     Qiaoyun%Fang%NULL%1,                     Jian%Zhang%NULL%1,                     Angao%Xu%NULL%1,                     Lihuan%Liang%NULL%1,                     Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                      Holly M.%Biggs%NULL%1,                      Amber%Haynes%NULL%1,                      Rebecca M.%Dahl%NULL%1,                      Desiree%Mustaquim%NULL%1,                      Susan I.%Gerber%NULL%1,                      John T.%Watson%NULL%1,                     Marie E.%Killerby%lxo9@cdc.gov%1,                     Holly M.%Biggs%NULL%1,                     Amber%Haynes%NULL%1,                     Rebecca M.%Dahl%NULL%1,                     Desiree%Mustaquim%NULL%1,                     Susan I.%Gerber%NULL%1,                     John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                      Hee‐Dong%Jung%NULL%1,                      Hyang‐Min%Cheong%NULL%1,                      Anna%Lee%NULL%1,                      Nam‐Joo%Lee%NULL%1,                      Hyuk%Chu%NULL%1,                      Joo‐Yeon%Lee%NULL%1,                      Sung Soon%Kim%NULL%1,                      Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                     Jeong‐Min%Kim%NULL%1,                     Hee‐Dong%Jung%NULL%1,                     Hyang‐Min%Cheong%NULL%1,                     Anna%Lee%NULL%1,                     Nam‐Joo%Lee%NULL%1,                     Hyuk%Chu%NULL%1,                     Joo‐Yeon%Lee%NULL%1,                     Sung Soon%Kim%NULL%1,                     Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,          Patrick C. Y.%Woo%xref no email%1,          Cyril C. Y.%Yip%xref no email%1,          Herman%Tse%xref no email%1,          Hoi-wah%Tsoi%xref no email%1,          Vincent C. C.%Cheng%xref no email%1,          Paul%Lee%xref no email%1,          Bone S. F.%Tang%xref no email%1,          Chris H. Y.%Cheung%xref no email%1,          Rodney A.%Lee%xref no email%1,          Lok-yee%So%xref no email%1,          Yu-lung%Lau%xref no email%1,          Kwok-hung%Chan%xref no email%1,          Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,          Guruprasad R.%Medigeshi%xref no email%1,          Vishnu S.%Mishra%xref no email%1,          Mojahidul%Islam%xref no email%1,          Shivani%Randev%xref no email%1,          Aparna%Mukherjee%xref no email%1,          Rama%Chaudhry%xref no email%1,          Arti%Kapil%xref no email%1,          Kana%Ram Jat%xref no email%1,          Rakesh%Lodha%xref no email%1,          Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,          Shin Hae%Lee%xref no email%1,          Eun Kyo%Ha%xref no email%1,          Youn Ho%Sheen%xref no email%1,          Myong Soon%Sung%xref no email%1,          Young-Ho%Jung%xref no email%1,          Kyung Suk%Lee%xref no email%1,          Hye Mi%Jee%xref no email%1,          Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                      Juansheng%Li%lijsh16@163.com%1,                      Lei%Meng%mleicdc@163.com%1,                      Wanqi%Zhu%NULL%1,                      Xinfeng%Liu%NULL%1,                      Mei%Yang%NULL%1,                      Deshan%Yu%NULL%2,                      Lixia%Niu%NULL%1,                      Xiping%Shen%NULL%1,                     Xuechao%Li%NULL%1,                     Juansheng%Li%lijsh16@163.com%1,                     Lei%Meng%mleicdc@163.com%1,                     Wanqi%Zhu%NULL%1,                     Xinfeng%Liu%NULL%1,                     Mei%Yang%NULL%1,                     Deshan%Yu%NULL%2,                     Lixia%Niu%NULL%1,                     Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                      James G.%Bosley%NULL%1,                     Christine M.%Litwin%clitwin@gru.edu%1,                     James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,          Chieko%Abiko%xref no email%1,          Tatsuya%Ikeda%xref no email%1,          Yoko%Aoki%xref no email%1,          Yu%Suzuki%xref no email%1,          Kazue%Yahagi%xref no email%1,          Yoko%Matsuzaki%xref no email%1,          Tsutomu%Itagaki%xref no email%1,          Fumio%Katsushima%xref no email%1,          Yuriko%Katsushima%xref no email%1,          Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                      Elsie Laban%Yekwa%NULL%1,                      Pierre%Cappy%NULL%1,                      Astrid%Vabret%NULL%2,                      Pascal%Boisier%NULL%1,                      Dominique%Rousset%NULL%1,                     Richard%Njouom%NULL%1,                     Elsie Laban%Yekwa%NULL%1,                     Pierre%Cappy%NULL%1,                     Astrid%Vabret%NULL%2,                     Pascal%Boisier%NULL%1,                     Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                      Suvi%Lappalainen%NULL%1,                      Timo%Vesikari%NULL%1,                     Minna%Paloniemi%NULL%1,                     Suvi%Lappalainen%NULL%1,                     Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                      Richard%Gonzalez%NULL%1,                      Jin%Xu%NULL%1,                      Yan%Xiao%NULL%1,                      Yongjun%Li%NULL%1,                      Hongli%Zhou%NULL%1,                      Jianguo%Li%NULL%1,                      Qingqing%Yang%NULL%1,                      Jing%Zhang%NULL%1,                      Lan%Chen%NULL%1,                      Wei%Wang%NULL%1,                      Guy%Vernet%NULL%1,                      Gláucia%Paranhos‐Baccalà%NULL%1,                      Zhong%Wang%wangzhong523@vip.163.com%1,                      Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                     Lili%Ren%NULL%1,                     Richard%Gonzalez%NULL%1,                     Jin%Xu%NULL%1,                     Yan%Xiao%NULL%1,                     Yongjun%Li%NULL%1,                     Hongli%Zhou%NULL%1,                     Jianguo%Li%NULL%1,                     Qingqing%Yang%NULL%1,                     Jing%Zhang%NULL%1,                     Lan%Chen%NULL%1,                     Wei%Wang%NULL%1,                     Guy%Vernet%NULL%1,                     Gláucia%Paranhos‐Baccalà%NULL%1,                     Zhong%Wang%wangzhong523@vip.163.com%1,                     Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                  Druelle%Valentin%coreGivesNoEmail%1,                  Dyrdak%Robert%coreGivesNoEmail%1,                  Hodcroft%Emma B.%coreGivesNoEmail%1,                  Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                      Ilada%Thongpan%ilada.cu09@gmail.com%1,                      Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                      Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                      Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                      Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                      Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                      Yong%Poovorawan%yong.p@chula.ac.th%1,                     Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                     Ilada%Thongpan%ilada.cu09@gmail.com%1,                     Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                     Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                     Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                     Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                     Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                     Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                      Janet A%Englund%NULL%1,                      Jane Y%Kuypers%NULL%1,                      Helen Y%Chu%NULL%1,                      Mark C%Steinhoff%NULL%1,                      Subarna K%Khatry%NULL%1,                      Steve C%LeClerq%NULL%1,                      James M%Tielsch%NULL%1,                      Luke C%Mullany%NULL%1,                      Laxman%Shrestha%NULL%2,                      Joanne%Katz%jkatz1@jhu.edu%2,                     S M Iftekhar%Uddin%NULL%1,                     Janet A%Englund%NULL%1,                     Jane Y%Kuypers%NULL%1,                     Helen Y%Chu%NULL%1,                     Mark C%Steinhoff%NULL%1,                     Subarna K%Khatry%NULL%1,                     Steve C%LeClerq%NULL%1,                     James M%Tielsch%NULL%1,                     Luke C%Mullany%NULL%1,                     Laxman%Shrestha%NULL%2,                     Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                      Joanne%Katz%NULL%0,                      James%Tielsch%NULL%1,                      Subarna K.%Khatry%NULL%1,                      Laxman%Shrestha%NULL%0,                      Steven C.%LeClerq%NULL%1,                      Amalia%Magaret%NULL%1,                      Jane%Kuypers%NULL%1,                      Mark%Steinhoff%NULL%1,                      Janet A.%Englund%NULL%1,                     Helen Y.%Chu%helenchu@uw.edu%1,                     Joanne%Katz%NULL%0,                     James%Tielsch%NULL%1,                     Subarna K.%Khatry%NULL%1,                     Laxman%Shrestha%NULL%0,                     Steven C.%LeClerq%NULL%1,                     Amalia%Magaret%NULL%1,                     Jane%Kuypers%NULL%1,                     Mark%Steinhoff%NULL%1,                     Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                      Gabriele%Ihorst%NULL%1,                      Klaus%Sure%NULL%1,                      Astrid%Vabret%NULL%0,                      Ronald%Dijkman%NULL%1,                      Michel%de Vries%NULL%1,                      Johannes%Forster%NULL%1,                      Ben%Berkhout%NULL%1,                      Klaus%Uberla%NULL%1,                     Lia%van der Hoek%NULL%1,                     Gabriele%Ihorst%NULL%1,                     Klaus%Sure%NULL%1,                     Astrid%Vabret%NULL%0,                     Ronald%Dijkman%NULL%1,                     Michel%de Vries%NULL%1,                     Johannes%Forster%NULL%1,                     Ben%Berkhout%NULL%1,                     Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                      Philip%Zachariah%pz2177@cumc.columbia.edu%1,                      Celibell%Vargas%NULL%1,                      Philip%LaRussa%NULL%1,                      Ryan T%Demmer%NULL%1,                      Yoko E%Furuya%NULL%1,                      Susan%Whittier%NULL%1,                      Carrie%Reed%NULL%1,                      Melissa S%Stockwell%NULL%1,                      Lisa%Saiman%NULL%1,                     Litty%Varghese%NULL%1,                     Philip%Zachariah%pz2177@cumc.columbia.edu%1,                     Celibell%Vargas%NULL%1,                     Philip%LaRussa%NULL%1,                     Ryan T%Demmer%NULL%1,                     Yoko E%Furuya%NULL%1,                     Susan%Whittier%NULL%1,                     Carrie%Reed%NULL%1,                     Melissa S%Stockwell%NULL%1,                     Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                      Ria%Lassaunière%NULL%1,                      Tina Louise%Kresfelder%NULL%1,                      Yvette%Westerberg%NULL%1,                      Adele%Visser%NULL%1,                     Marietjie%Venter%marietjiev@nicd.ac.za%1,                     Ria%Lassaunière%NULL%1,                     Tina Louise%Kresfelder%NULL%1,                     Yvette%Westerberg%NULL%1,                     Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                      Charles%Burdet%NULL%1,                      Guillaume%Voiriot%NULL%1,                      François-Xavier%Lescure%NULL%1,                      Taous%Chougar%NULL%1,                      Olivier%Brugière%NULL%1,                      Bruno%Crestani%NULL%1,                      Enrique%Casalino%NULL%1,                      Charlotte%Charpentier%NULL%1,                      Diane%Descamps%NULL%1,                      Jean-François%Timsit%NULL%1,                      Yazdan%Yazdanpanah%NULL%1,                      Nadhira%Houhou-Fidouh%NULL%1,                      Dena L.%Schanzer%NULL%1,                     Benoit%Visseaux%NULL%1,                     Charles%Burdet%NULL%1,                     Guillaume%Voiriot%NULL%1,                     François-Xavier%Lescure%NULL%1,                     Taous%Chougar%NULL%1,                     Olivier%Brugière%NULL%1,                     Bruno%Crestani%NULL%1,                     Enrique%Casalino%NULL%1,                     Charlotte%Charpentier%NULL%1,                     Diane%Descamps%NULL%1,                     Jean-François%Timsit%NULL%1,                     Yazdan%Yazdanpanah%NULL%1,                     Nadhira%Houhou-Fidouh%NULL%1,                     Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                      Deshan%Yu%NULL%0,                      Naiying%Mao%NULL%1,                      Zhen%Zhu%NULL%1,                      Hui%Zhang%NULL%1,                      Zhongyi%Jiang%NULL%1,                      Hongyu%Li%NULL%1,                      Yan%Zhang%NULL%1,                      Jing%Shi%NULL%1,                      Shuang%Zhang%NULL%1,                      Xinhua%Wang%NULL%1,                      Wenbo%Xu%NULL%1,                      Dong-Yan%Jin%NULL%1,                     Guohong%Huang%NULL%1,                     Deshan%Yu%NULL%0,                     Naiying%Mao%NULL%1,                     Zhen%Zhu%NULL%1,                     Hui%Zhang%NULL%1,                     Zhongyi%Jiang%NULL%1,                     Hongyu%Li%NULL%1,                     Yan%Zhang%NULL%1,                     Jing%Shi%NULL%1,                     Shuang%Zhang%NULL%1,                     Xinhua%Wang%NULL%1,                     Wenbo%Xu%NULL%1,                     Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                      Jiu-ling%Tuo%NULL%1,                      Xu-bin%Huang%NULL%1,                      Xun%Zhu%NULL%1,                      Ding-mei%Zhang%NULL%1,                      Kai%Zhou%NULL%1,                      Lei%Yuan%NULL%1,                      Hong-jiao%Luo%NULL%1,                      Bo-jian%Zheng%NULL%1,                      Kwok-yung%Yuen%NULL%1,                      Meng-feng%Li%NULL%1,                      Kai-yuan%Cao%NULL%1,                      Lin%Xu%NULL%1,                      Stefan%Pöhlmann%NULL%1,                     Su-fen%Zhang%NULL%1,                     Jiu-ling%Tuo%NULL%1,                     Xu-bin%Huang%NULL%1,                     Xun%Zhu%NULL%1,                     Ding-mei%Zhang%NULL%1,                     Kai%Zhou%NULL%1,                     Lei%Yuan%NULL%1,                     Hong-jiao%Luo%NULL%1,                     Bo-jian%Zheng%NULL%1,                     Kwok-yung%Yuen%NULL%1,                     Meng-feng%Li%NULL%1,                     Kai-yuan%Cao%NULL%1,                     Lin%Xu%NULL%1,                     Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +3089,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>711</v>
+        <v>779</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -2914,7 +3118,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>780</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2943,7 +3147,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>713</v>
+        <v>781</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2972,7 +3176,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>782</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3001,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3030,7 +3234,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>716</v>
+        <v>784</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -3059,7 +3263,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>717</v>
+        <v>785</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -3088,7 +3292,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>718</v>
+        <v>786</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -3117,7 +3321,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>719</v>
+        <v>787</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3146,7 +3350,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>720</v>
+        <v>788</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3175,7 +3379,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>789</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3204,7 +3408,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>722</v>
+        <v>790</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3233,7 +3437,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>791</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3262,7 +3466,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3291,7 +3495,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>725</v>
+        <v>793</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3320,7 +3524,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>726</v>
+        <v>794</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3349,7 +3553,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>727</v>
+        <v>795</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3378,7 +3582,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>796</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3407,7 +3611,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>729</v>
+        <v>797</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3436,7 +3640,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>730</v>
+        <v>798</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3465,7 +3669,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>731</v>
+        <v>799</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3494,7 +3698,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>732</v>
+        <v>800</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3523,7 +3727,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>733</v>
+        <v>801</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3552,7 +3756,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>734</v>
+        <v>802</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -3581,7 +3785,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>735</v>
+        <v>803</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3610,7 +3814,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>736</v>
+        <v>804</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3668,7 +3872,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>737</v>
+        <v>805</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3697,7 +3901,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>738</v>
+        <v>806</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -3726,7 +3930,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>739</v>
+        <v>807</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -3755,7 +3959,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>740</v>
+        <v>808</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -3784,7 +3988,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>741</v>
+        <v>809</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -3813,7 +4017,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>742</v>
+        <v>810</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -3842,7 +4046,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>743</v>
+        <v>811</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -3871,7 +4075,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>744</v>
+        <v>812</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="847">
   <si>
     <t>Doi</t>
   </si>
@@ -2759,6 +2759,108 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                      Jiu-ling%Tuo%NULL%1,                      Xu-bin%Huang%NULL%1,                      Xun%Zhu%NULL%1,                      Ding-mei%Zhang%NULL%1,                      Kai%Zhou%NULL%1,                      Lei%Yuan%NULL%1,                      Hong-jiao%Luo%NULL%1,                      Bo-jian%Zheng%NULL%1,                      Kwok-yung%Yuen%NULL%1,                      Meng-feng%Li%NULL%1,                      Kai-yuan%Cao%NULL%1,                      Lin%Xu%NULL%1,                      Stefan%Pöhlmann%NULL%1,                     Su-fen%Zhang%NULL%1,                     Jiu-ling%Tuo%NULL%1,                     Xu-bin%Huang%NULL%1,                     Xun%Zhu%NULL%1,                     Ding-mei%Zhang%NULL%1,                     Kai%Zhou%NULL%1,                     Lei%Yuan%NULL%1,                     Hong-jiao%Luo%NULL%1,                     Bo-jian%Zheng%NULL%1,                     Kwok-yung%Yuen%NULL%1,                     Meng-feng%Li%NULL%1,                     Kai-yuan%Cao%NULL%1,                     Lin%Xu%NULL%1,                     Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                     Rachel M%Reeves%null%1,                     Xin%Wang%null%1,                     Quique%Bassat%null%1,                     W Abdullah%Brooks%null%1,                     Cheryl%Cohen%null%1,                     David P%Moore%null%1,                     Marta%Nunes%null%1,                     Barbara%Rath%null%1,                     Harry%Campbell%null%1,                     Harish%Nair%null%1,                     Sozinho%Acacio%null%1,                     Wladimir J%Alonso%null%1,                     Martin%Antonio%null%1,                     Guadalupe%Ayora Talavera%null%1,                     Darmaa%Badarch%null%1,                     Vicky L%Baillie%null%1,                     Gisela%Barrera-Badillo%null%1,                     Godfrey%Bigogo%null%1,                     Shobha%Broor%null%1,                     Dana%Bruden%null%1,                     Philippe%Buchy%null%1,                     Peter%Byass%null%1,                     James%Chipeta%null%1,                     Wilfrido%Clara%null%1,                     Duc-Anh%Dang%null%1,                     Carla Cecília%de Freitas Lázaro Emediato%null%1,                     Menno%de Jong%null%1,                     José Alberto%Díaz-Quiñonez%null%1,                     Lien Anh Ha%Do%null%1,                     Rodrigo A%Fasce%null%1,                     Luzhao%Feng%null%1,                     Mark J%Ferson%null%1,                     Angela%Gentile%null%1,                     Bradford D%Gessner%null%1,                     Doli%Goswami%null%1,                     Sophie%Goyet%null%1,                     Carlos G%Grijalva%null%1,                     Natasha%Halasa%null%1,                     Orienka%Hellferscee%null%1,                     Danielle%Hessong%null%1,                     Nusrat%Homaira%null%1,                     Jorge%Jara%null%1,                     Kathleen%Kahn%null%1,                     Najwa%Khuri-Bulos%null%1,                     Karen L%Kotloff%null%1,                     Claudio F%Lanata%null%1,                     Olga%Lopez%null%1,                     Maria Renee%Lopez Bolaños%null%1,                     Marilla G%Lucero%null%1,                     Florencia%Lucion%null%1,                     Socorro P%Lupisan%null%1,                     Shabir A%Madhi%null%1,                     Omphile%Mekgoe%null%1,                     Cinta%Moraleda%null%1,                     Jocelyn%Moyes%null%1,                     Kim%Mulholland%null%1,                     Patrick K%Munywoki%null%1,                     Fathima%Naby%null%1,                     Thanh Hung%Nguyen%null%1,                     Mark P%Nicol%null%1,                     D James%Nokes%null%1,                     Daniel E%Noyola%null%1,                     Daisuke%Onozuka%null%1,                     Nandhini%Palani%null%1,                     Yong%Poovorawan%null%1,                     Mustafizur%Rahman%null%1,                     Kaat%Ramaekers%null%1,                     Candice%Romero%null%1,                     Elizabeth P%Schlaudecker%null%1,                     Brunhilde%Schweiger%null%1,                     Phil%Seidenberg%null%1,                     Eric A F%Simoes%null%1,                     Rosalyn%Singleton%null%1,                     Sujatha%Sistla%null%1,                     Katharine%Sturm-Ramirez%null%1,                     Nungruthai%Suntronwong%null%1,                     Agustinus%Sutanto%null%1,                     Milagritos D%Tapia%null%1,                     Somsak%Thamthitiwat%null%1,                     Ilada%Thongpan%null%1,                     Gayani%Tillekeratne%null%1,                     Yeny O%Tinoco%null%1,                     Florette K%Treurnicht%null%1,                     Claudia%Turner%null%1,                     Paul%Turner%null%1,                     Rogier%van Doorn%null%1,                     Marc%Van Ranst%null%1,                     Benoit%Visseaux%null%1,                     Sunthareeya%Waicharoen%null%1,                     Jianwei%Wang%null%1,                     Lay-Myint%Yoshida%null%1,                     Heather J%Zar%null%1,                 You%Li%null%1,                 Rachel M%Reeves%null%1,                 Xin%Wang%null%1,                 Quique%Bassat%null%1,                 W Abdullah%Brooks%null%1,                 Cheryl%Cohen%null%1,                 David P%Moore%null%1,                 Marta%Nunes%null%1,                 Barbara%Rath%null%1,                 Harry%Campbell%null%1,                 Harish%Nair%null%1,                 Sozinho%Acacio%null%1,                 Wladimir J%Alonso%null%1,                 Martin%Antonio%null%1,                 Guadalupe%Ayora Talavera%null%1,                 Darmaa%Badarch%null%1,                 Vicky L%Baillie%null%1,                 Gisela%Barrera-Badillo%null%1,                 Godfrey%Bigogo%null%1,                 Shobha%Broor%null%1,                 Dana%Bruden%null%1,                 Philippe%Buchy%null%1,                 Peter%Byass%null%1,                 James%Chipeta%null%1,                 Wilfrido%Clara%null%1,                 Duc-Anh%Dang%null%1,                 Carla Cecília%de Freitas Lázaro Emediato%null%1,                 Menno%de Jong%null%1,                 José Alberto%Díaz-Quiñonez%null%1,                 Lien Anh Ha%Do%null%1,                 Rodrigo A%Fasce%null%1,                 Luzhao%Feng%null%2,                 Mark J%Ferson%null%1,                 Angela%Gentile%null%1,                 Bradford D%Gessner%null%1,                 Doli%Goswami%null%1,                 Sophie%Goyet%null%1,                 Carlos G%Grijalva%null%1,                 Natasha%Halasa%null%1,                 Orienka%Hellferscee%null%1,                 Danielle%Hessong%null%1,                 Nusrat%Homaira%null%1,                 Jorge%Jara%null%1,                 Kathleen%Kahn%null%1,                 Najwa%Khuri-Bulos%null%1,                 Karen L%Kotloff%null%1,                 Claudio F%Lanata%null%1,                 Olga%Lopez%null%1,                 Maria Renee%Lopez Bolaños%null%1,                 Marilla G%Lucero%null%1,                 Florencia%Lucion%null%1,                 Socorro P%Lupisan%null%1,                 Shabir A%Madhi%null%1,                 Omphile%Mekgoe%null%1,                 Cinta%Moraleda%null%1,                 Jocelyn%Moyes%null%1,                 Kim%Mulholland%null%1,                 Patrick K%Munywoki%null%1,                 Fathima%Naby%null%1,                 Thanh Hung%Nguyen%null%1,                 Mark P%Nicol%null%1,                 D James%Nokes%null%1,                 Daniel E%Noyola%null%1,                 Daisuke%Onozuka%null%1,                 Nandhini%Palani%null%1,                 Yong%Poovorawan%null%1,                 Mustafizur%Rahman%null%1,                 Kaat%Ramaekers%null%1,                 Candice%Romero%null%1,                 Elizabeth P%Schlaudecker%null%1,                 Brunhilde%Schweiger%null%1,                 Phil%Seidenberg%null%1,                 Eric A F%Simoes%null%1,                 Rosalyn%Singleton%null%1,                 Sujatha%Sistla%null%1,                 Katharine%Sturm-Ramirez%null%1,                 Nungruthai%Suntronwong%null%1,                 Agustinus%Sutanto%null%1,                 Milagritos D%Tapia%null%1,                 Somsak%Thamthitiwat%null%1,                 Ilada%Thongpan%null%1,                 Gayani%Tillekeratne%null%1,                 Yeny O%Tinoco%null%1,                 Florette K%Treurnicht%null%1,                 Claudia%Turner%null%1,                 Paul%Turner%null%1,                 Rogier%van Doorn%null%1,                 Marc%Van Ranst%null%3,                 Benoit%Visseaux%null%1,                 Sunthareeya%Waicharoen%null%1,                 Jianwei%Wang%null%5,                 Lay-Myint%Yoshida%null%1,                 Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                   Jack%Bee Chook%coreGivesNoEmail%1,                   Kim%Tien Ng%coreGivesNoEmail%1,                   Kok%Keng Tee%coreGivesNoEmail%1,                   Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                   Nik%Sherina Hanafi%coreGivesNoEmail%1,                   van%der Hoek%coreGivesNoEmail%2,                   van%der Hoek%coreGivesNoEmail%0,                   van%Elden%coreGivesNoEmail%1,                   Xiang%Yong Oong%coreGivesNoEmail%1,                   Yong%Kek Pang%coreGivesNoEmail%1,                   Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,           Lars-Magnus%Andersson%xref no email%1,           Sigvard%Olofsson%xref no email%1,           Magnus%Lindh%xref no email%1,           Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                       Dangui%Zhang%danguizhang@stu.edu.cn%1,                       Hui%Pan%michaelpan@stu.edu.cn%1,                       Fan%Zhang%lemon_fan@163.com%1,                       Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                       Frieda%Law%lawf@stu.edu.cn%1,                       H Rogier%van Doorn%hrogier@gmail.com%1,                       Beiyan%Wu%1261305798@qq.com%1,                       William%Ba-Thein%wbathein@stu.edu.cn%1,                      Binglin%Cui%binglincui@stu.edu.cn%1,                      Dangui%Zhang%danguizhang@stu.edu.cn%1,                      Hui%Pan%michaelpan@stu.edu.cn%1,                      Fan%Zhang%lemon_fan@163.com%1,                      Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                      Frieda%Law%lawf@stu.edu.cn%1,                      H Rogier%van Doorn%hrogier@gmail.com%1,                      Beiyan%Wu%1261305798@qq.com%1,                      William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                   Andrew%Berglund%coreGivesNoEmail%1,                   Christine%C. Robinson%coreGivesNoEmail%1,                   Christopher%D. Town%coreGivesNoEmail%1,                   Edison%Luiz Durigon%coreGivesNoEmail%1,                   Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                   Kathryn%V. Holmes%coreGivesNoEmail%1,                   Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                   Nadia%Fedorova%coreGivesNoEmail%1,                   Philip%A. Weston%coreGivesNoEmail%1,                   Rebecca%A. Halpin%coreGivesNoEmail%1,                   Samuel%R. Dominguez%coreGivesNoEmail%1,                   Susmita%Shrivastava%coreGivesNoEmail%1,                   Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                       Lifeng%Pan%NULL%1,                       Qiao%Sun%NULL%1,                       Weiping%Zhu%NULL%1,                       Linying%Zhu%NULL%1,                       Chuchu%Ye%NULL%1,                       Caoyi%Xue%NULL%1,                       Yuanping%Wang%NULL%1,                       Qing%Liu%NULL%1,                       Ping%Ma%NULL%1,                       Huifang%Qiu%NULL%1,                       Srinand%Sreevatsan%NULL%1,                      Yifei%Fu%NULL%1,                      Lifeng%Pan%NULL%1,                      Qiao%Sun%NULL%1,                      Weiping%Zhu%NULL%1,                      Linying%Zhu%NULL%1,                      Chuchu%Ye%NULL%1,                      Caoyi%Xue%NULL%1,                      Yuanping%Wang%NULL%1,                      Qing%Liu%NULL%1,                      Ping%Ma%NULL%1,                      Huifang%Qiu%NULL%1,                      Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                       Mumtaz Cem%Sirin%NULL%1,                      Safak%Goktas%NULL%1,                      Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                       Nina%Moe%NULL%1,                       Sidsel%Krokstad%NULL%2,                       Andreas%Christensen%NULL%2,                       Lars Høsøien%Skanke%NULL%2,                       Svein Arne%Nordbø%NULL%2,                       Henrik%Døllner%henrik.dollner@ntnu.no%2,                      Inger%Heimdal%NULL%1,                      Nina%Moe%NULL%2,                      Sidsel%Krokstad%NULL%2,                      Andreas%Christensen%NULL%2,                      Lars Høsøien%Skanke%NULL%2,                      Svein Arne%Nordbø%NULL%2,                      Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                       Inger Heimdal%Stenseng%NULL%1,                       Sidsel%Krokstad%NULL%0,                       Andreas%Christensen%NULL%0,                       Lars Høsøien%Skanke%NULL%0,                       Kari Ravndal%Risnes%NULL%1,                       Svein Arne%Nordbø%NULL%0,                       Henrik%Døllner%henrik.dollner@ntnu.no%0,                      Nina%Moe%NULL%0,                      Inger Heimdal%Stenseng%NULL%1,                      Sidsel%Krokstad%NULL%0,                      Andreas%Christensen%NULL%0,                      Lars Høsøien%Skanke%NULL%0,                      Kari Ravndal%Risnes%NULL%1,                      Svein Arne%Nordbø%NULL%0,                      Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,           Derek J.%Williams%xref no email%1,           Sandra R.%Arnold%xref no email%1,           Krow%Ampofo%xref no email%1,           Anna M.%Bramley%xref no email%1,           Carrie%Reed%xref no email%1,           Chris%Stockmann%xref no email%1,           Evan J.%Anderson%xref no email%1,           Carlos G.%Grijalva%xref no email%1,           Wesley H.%Self%xref no email%1,           Yuwei%Zhu%xref no email%1,           Anami%Patel%xref no email%1,           Weston%Hymas%xref no email%1,           James D.%Chappell%xref no email%1,           Robert A.%Kaufman%xref no email%1,           J. Herman%Kan%xref no email%1,           David%Dansie%xref no email%1,           Noel%Lenny%xref no email%1,           David R.%Hillyard%xref no email%1,           Lia M.%Haynes%xref no email%1,           Min%Levine%xref no email%1,           Stephen%Lindstrom%xref no email%1,           Jonas M.%Winchell%xref no email%1,           Jacqueline M.%Katz%xref no email%1,           Dean%Erdman%xref no email%1,           Eileen%Schneider%xref no email%1,           Lauri A.%Hicks%xref no email%1,           Richard G.%Wunderink%xref no email%1,           Kathryn M.%Edwards%xref no email%1,           Andrew T.%Pavia%xref no email%1,           Jonathan A.%McCullers%xref no email%1,           Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                       Andrej%Steyer%NULL%1,                       Marko%Pokorn%NULL%1,                       Tatjana%Mrvič%NULL%1,                       Štefan%Grosek%NULL%1,                       Franc%Strle%NULL%1,                       Lara%Lusa%NULL%1,                       Miroslav%Petrovec%NULL%1,                       Oliver%Schildgen%NULL%1,                      Monika%Jevšnik%NULL%1,                      Andrej%Steyer%NULL%1,                      Marko%Pokorn%NULL%1,                      Tatjana%Mrvič%NULL%1,                      Štefan%Grosek%NULL%1,                      Franc%Strle%NULL%1,                      Lara%Lusa%NULL%1,                      Miroslav%Petrovec%NULL%1,                      Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                       Matti%Waris%NULL%1,                       Kari%Johansen%NULL%1,                       René%Snacken%NULL%1,                       Pasi%Penttinen%NULL%1,                       NULL%NULL%NULL%3,                      Eeva K%Broberg%NULL%1,                      Matti%Waris%NULL%1,                      Kari%Johansen%NULL%1,                      René%Snacken%NULL%1,                      Pasi%Penttinen%NULL%1,                      NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                       Qiaoyun%Fang%NULL%1,                       Jian%Zhang%NULL%1,                       Angao%Xu%NULL%1,                       Lihuan%Liang%NULL%1,                       Changwen%Ke%hzmedicine@163.com%1,                      Xiongfei%Ju%NULL%1,                      Qiaoyun%Fang%NULL%1,                      Jian%Zhang%NULL%1,                      Angao%Xu%NULL%1,                      Lihuan%Liang%NULL%1,                      Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                       Holly M.%Biggs%NULL%1,                       Amber%Haynes%NULL%1,                       Rebecca M.%Dahl%NULL%1,                       Desiree%Mustaquim%NULL%1,                       Susan I.%Gerber%NULL%1,                       John T.%Watson%NULL%1,                      Marie E.%Killerby%lxo9@cdc.gov%1,                      Holly M.%Biggs%NULL%1,                      Amber%Haynes%NULL%1,                      Rebecca M.%Dahl%NULL%1,                      Desiree%Mustaquim%NULL%1,                      Susan I.%Gerber%NULL%1,                      John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                       Hee‐Dong%Jung%NULL%1,                       Hyang‐Min%Cheong%NULL%1,                       Anna%Lee%NULL%1,                       Nam‐Joo%Lee%NULL%1,                       Hyuk%Chu%NULL%1,                       Joo‐Yeon%Lee%NULL%1,                       Sung Soon%Kim%NULL%1,                       Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                      Jeong‐Min%Kim%NULL%1,                      Hee‐Dong%Jung%NULL%1,                      Hyang‐Min%Cheong%NULL%1,                      Anna%Lee%NULL%1,                      Nam‐Joo%Lee%NULL%1,                      Hyuk%Chu%NULL%1,                      Joo‐Yeon%Lee%NULL%1,                      Sung Soon%Kim%NULL%1,                      Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,           Patrick C. Y.%Woo%xref no email%1,           Cyril C. Y.%Yip%xref no email%1,           Herman%Tse%xref no email%1,           Hoi-wah%Tsoi%xref no email%1,           Vincent C. C.%Cheng%xref no email%1,           Paul%Lee%xref no email%1,           Bone S. F.%Tang%xref no email%1,           Chris H. Y.%Cheung%xref no email%1,           Rodney A.%Lee%xref no email%1,           Lok-yee%So%xref no email%1,           Yu-lung%Lau%xref no email%1,           Kwok-hung%Chan%xref no email%1,           Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,           Guruprasad R.%Medigeshi%xref no email%1,           Vishnu S.%Mishra%xref no email%1,           Mojahidul%Islam%xref no email%1,           Shivani%Randev%xref no email%1,           Aparna%Mukherjee%xref no email%1,           Rama%Chaudhry%xref no email%1,           Arti%Kapil%xref no email%1,           Kana%Ram Jat%xref no email%1,           Rakesh%Lodha%xref no email%1,           Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,           Shin Hae%Lee%xref no email%1,           Eun Kyo%Ha%xref no email%1,           Youn Ho%Sheen%xref no email%1,           Myong Soon%Sung%xref no email%1,           Young-Ho%Jung%xref no email%1,           Kyung Suk%Lee%xref no email%1,           Hye Mi%Jee%xref no email%1,           Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                       Juansheng%Li%lijsh16@163.com%1,                       Lei%Meng%mleicdc@163.com%1,                       Wanqi%Zhu%NULL%1,                       Xinfeng%Liu%NULL%1,                       Mei%Yang%NULL%1,                       Deshan%Yu%NULL%2,                       Lixia%Niu%NULL%1,                       Xiping%Shen%NULL%1,                      Xuechao%Li%NULL%1,                      Juansheng%Li%lijsh16@163.com%1,                      Lei%Meng%mleicdc@163.com%1,                      Wanqi%Zhu%NULL%1,                      Xinfeng%Liu%NULL%1,                      Mei%Yang%NULL%1,                      Deshan%Yu%NULL%2,                      Lixia%Niu%NULL%1,                      Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                       James G.%Bosley%NULL%1,                      Christine M.%Litwin%clitwin@gru.edu%1,                      James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,           Chieko%Abiko%xref no email%1,           Tatsuya%Ikeda%xref no email%1,           Yoko%Aoki%xref no email%1,           Yu%Suzuki%xref no email%1,           Kazue%Yahagi%xref no email%1,           Yoko%Matsuzaki%xref no email%1,           Tsutomu%Itagaki%xref no email%1,           Fumio%Katsushima%xref no email%1,           Yuriko%Katsushima%xref no email%1,           Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                       Elsie Laban%Yekwa%NULL%1,                       Pierre%Cappy%NULL%1,                       Astrid%Vabret%NULL%2,                       Pascal%Boisier%NULL%1,                       Dominique%Rousset%NULL%1,                      Richard%Njouom%NULL%1,                      Elsie Laban%Yekwa%NULL%1,                      Pierre%Cappy%NULL%1,                      Astrid%Vabret%NULL%2,                      Pascal%Boisier%NULL%1,                      Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                       Suvi%Lappalainen%NULL%1,                       Timo%Vesikari%NULL%1,                      Minna%Paloniemi%NULL%1,                      Suvi%Lappalainen%NULL%1,                      Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%2,                       Richard%Gonzalez%NULL%1,                       Jin%Xu%NULL%1,                       Yan%Xiao%NULL%1,                       Yongjun%Li%NULL%1,                       Hongli%Zhou%NULL%1,                       Jianguo%Li%NULL%1,                       Qingqing%Yang%NULL%1,                       Jing%Zhang%NULL%1,                       Lan%Chen%NULL%1,                       Wei%Wang%NULL%1,                       Guy%Vernet%NULL%1,                       Gláucia%Paranhos‐Baccalà%NULL%1,                       Zhong%Wang%wangzhong523@vip.163.com%1,                       Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                      Lili%Ren%NULL%1,                      Richard%Gonzalez%NULL%1,                      Jin%Xu%NULL%1,                      Yan%Xiao%NULL%1,                      Yongjun%Li%NULL%1,                      Hongli%Zhou%NULL%1,                      Jianguo%Li%NULL%1,                      Qingqing%Yang%NULL%1,                      Jing%Zhang%NULL%1,                      Lan%Chen%NULL%1,                      Wei%Wang%NULL%1,                      Guy%Vernet%NULL%1,                      Gláucia%Paranhos‐Baccalà%NULL%1,                      Zhong%Wang%wangzhong523@vip.163.com%1,                      Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                   Druelle%Valentin%coreGivesNoEmail%1,                   Dyrdak%Robert%coreGivesNoEmail%1,                   Hodcroft%Emma B.%coreGivesNoEmail%1,                   Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                       Ilada%Thongpan%ilada.cu09@gmail.com%1,                       Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                       Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                       Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                       Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                       Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                       Yong%Poovorawan%yong.p@chula.ac.th%1,                      Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                      Ilada%Thongpan%ilada.cu09@gmail.com%1,                      Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                      Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                      Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                      Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                      Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                      Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                       Janet A%Englund%NULL%1,                       Jane Y%Kuypers%NULL%1,                       Helen Y%Chu%NULL%1,                       Mark C%Steinhoff%NULL%1,                       Subarna K%Khatry%NULL%1,                       Steve C%LeClerq%NULL%1,                       James M%Tielsch%NULL%1,                       Luke C%Mullany%NULL%1,                       Laxman%Shrestha%NULL%2,                       Joanne%Katz%jkatz1@jhu.edu%2,                      S M Iftekhar%Uddin%NULL%1,                      Janet A%Englund%NULL%1,                      Jane Y%Kuypers%NULL%1,                      Helen Y%Chu%NULL%1,                      Mark C%Steinhoff%NULL%1,                      Subarna K%Khatry%NULL%1,                      Steve C%LeClerq%NULL%1,                      James M%Tielsch%NULL%1,                      Luke C%Mullany%NULL%1,                      Laxman%Shrestha%NULL%2,                      Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                       Joanne%Katz%NULL%0,                       James%Tielsch%NULL%1,                       Subarna K.%Khatry%NULL%1,                       Laxman%Shrestha%NULL%0,                       Steven C.%LeClerq%NULL%1,                       Amalia%Magaret%NULL%1,                       Jane%Kuypers%NULL%1,                       Mark%Steinhoff%NULL%1,                       Janet A.%Englund%NULL%1,                      Helen Y.%Chu%helenchu@uw.edu%1,                      Joanne%Katz%NULL%0,                      James%Tielsch%NULL%1,                      Subarna K.%Khatry%NULL%1,                      Laxman%Shrestha%NULL%0,                      Steven C.%LeClerq%NULL%1,                      Amalia%Magaret%NULL%1,                      Jane%Kuypers%NULL%1,                      Mark%Steinhoff%NULL%1,                      Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                       Gabriele%Ihorst%NULL%1,                       Klaus%Sure%NULL%1,                       Astrid%Vabret%NULL%0,                       Ronald%Dijkman%NULL%1,                       Michel%de Vries%NULL%1,                       Johannes%Forster%NULL%1,                       Ben%Berkhout%NULL%1,                       Klaus%Uberla%NULL%1,                      Lia%van der Hoek%NULL%1,                      Gabriele%Ihorst%NULL%1,                      Klaus%Sure%NULL%1,                      Astrid%Vabret%NULL%0,                      Ronald%Dijkman%NULL%1,                      Michel%de Vries%NULL%1,                      Johannes%Forster%NULL%1,                      Ben%Berkhout%NULL%1,                      Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                       Philip%Zachariah%pz2177@cumc.columbia.edu%1,                       Celibell%Vargas%NULL%1,                       Philip%LaRussa%NULL%1,                       Ryan T%Demmer%NULL%1,                       Yoko E%Furuya%NULL%1,                       Susan%Whittier%NULL%1,                       Carrie%Reed%NULL%1,                       Melissa S%Stockwell%NULL%1,                       Lisa%Saiman%NULL%1,                      Litty%Varghese%NULL%1,                      Philip%Zachariah%pz2177@cumc.columbia.edu%1,                      Celibell%Vargas%NULL%1,                      Philip%LaRussa%NULL%1,                      Ryan T%Demmer%NULL%1,                      Yoko E%Furuya%NULL%1,                      Susan%Whittier%NULL%1,                      Carrie%Reed%NULL%1,                      Melissa S%Stockwell%NULL%1,                      Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                       Ria%Lassaunière%NULL%1,                       Tina Louise%Kresfelder%NULL%1,                       Yvette%Westerberg%NULL%1,                       Adele%Visser%NULL%1,                      Marietjie%Venter%marietjiev@nicd.ac.za%1,                      Ria%Lassaunière%NULL%1,                      Tina Louise%Kresfelder%NULL%1,                      Yvette%Westerberg%NULL%1,                      Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                       Charles%Burdet%NULL%1,                       Guillaume%Voiriot%NULL%1,                       François-Xavier%Lescure%NULL%1,                       Taous%Chougar%NULL%1,                       Olivier%Brugière%NULL%1,                       Bruno%Crestani%NULL%1,                       Enrique%Casalino%NULL%1,                       Charlotte%Charpentier%NULL%1,                       Diane%Descamps%NULL%1,                       Jean-François%Timsit%NULL%1,                       Yazdan%Yazdanpanah%NULL%1,                       Nadhira%Houhou-Fidouh%NULL%1,                       Dena L.%Schanzer%NULL%1,                      Benoit%Visseaux%NULL%1,                      Charles%Burdet%NULL%1,                      Guillaume%Voiriot%NULL%1,                      François-Xavier%Lescure%NULL%1,                      Taous%Chougar%NULL%1,                      Olivier%Brugière%NULL%1,                      Bruno%Crestani%NULL%1,                      Enrique%Casalino%NULL%1,                      Charlotte%Charpentier%NULL%1,                      Diane%Descamps%NULL%1,                      Jean-François%Timsit%NULL%1,                      Yazdan%Yazdanpanah%NULL%1,                      Nadhira%Houhou-Fidouh%NULL%1,                      Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                       Deshan%Yu%NULL%0,                       Naiying%Mao%NULL%1,                       Zhen%Zhu%NULL%1,                       Hui%Zhang%NULL%1,                       Zhongyi%Jiang%NULL%1,                       Hongyu%Li%NULL%1,                       Yan%Zhang%NULL%1,                       Jing%Shi%NULL%1,                       Shuang%Zhang%NULL%1,                       Xinhua%Wang%NULL%1,                       Wenbo%Xu%NULL%1,                       Dong-Yan%Jin%NULL%1,                      Guohong%Huang%NULL%1,                      Deshan%Yu%NULL%0,                      Naiying%Mao%NULL%1,                      Zhen%Zhu%NULL%1,                      Hui%Zhang%NULL%1,                      Zhongyi%Jiang%NULL%1,                      Hongyu%Li%NULL%1,                      Yan%Zhang%NULL%1,                      Jing%Shi%NULL%1,                      Shuang%Zhang%NULL%1,                      Xinhua%Wang%NULL%1,                      Wenbo%Xu%NULL%1,                      Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                       Jiu-ling%Tuo%NULL%1,                       Xu-bin%Huang%NULL%1,                       Xun%Zhu%NULL%1,                       Ding-mei%Zhang%NULL%1,                       Kai%Zhou%NULL%1,                       Lei%Yuan%NULL%1,                       Hong-jiao%Luo%NULL%1,                       Bo-jian%Zheng%NULL%1,                       Kwok-yung%Yuen%NULL%1,                       Meng-feng%Li%NULL%1,                       Kai-yuan%Cao%NULL%1,                       Lin%Xu%NULL%1,                       Stefan%Pöhlmann%NULL%1,                      Su-fen%Zhang%NULL%1,                      Jiu-ling%Tuo%NULL%1,                      Xu-bin%Huang%NULL%1,                      Xun%Zhu%NULL%1,                      Ding-mei%Zhang%NULL%1,                      Kai%Zhou%NULL%1,                      Lei%Yuan%NULL%1,                      Hong-jiao%Luo%NULL%1,                      Bo-jian%Zheng%NULL%1,                      Kwok-yung%Yuen%NULL%1,                      Meng-feng%Li%NULL%1,                      Kai-yuan%Cao%NULL%1,                      Lin%Xu%NULL%1,                      Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3089,7 +3191,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -3118,7 +3220,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3147,7 +3249,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3176,7 +3278,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3205,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3234,7 +3336,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -3263,7 +3365,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -3292,7 +3394,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -3321,7 +3423,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>787</v>
+        <v>821</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3350,7 +3452,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3379,7 +3481,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3408,7 +3510,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3437,7 +3539,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>791</v>
+        <v>825</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3466,7 +3568,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3495,7 +3597,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3524,7 +3626,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3553,7 +3655,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3582,7 +3684,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3611,7 +3713,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3640,7 +3742,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3669,7 +3771,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3698,7 +3800,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3727,7 +3829,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3756,7 +3858,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -3785,7 +3887,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3814,7 +3916,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3872,7 +3974,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3901,7 +4003,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -3930,7 +4032,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -3959,7 +4061,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -3988,7 +4090,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -4017,7 +4119,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -4046,7 +4148,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -4075,7 +4177,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5617" uniqueCount="885">
   <si>
     <t>Doi</t>
   </si>
@@ -2861,6 +2861,120 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                       Jiu-ling%Tuo%NULL%1,                       Xu-bin%Huang%NULL%1,                       Xun%Zhu%NULL%1,                       Ding-mei%Zhang%NULL%1,                       Kai%Zhou%NULL%1,                       Lei%Yuan%NULL%1,                       Hong-jiao%Luo%NULL%1,                       Bo-jian%Zheng%NULL%1,                       Kwok-yung%Yuen%NULL%1,                       Meng-feng%Li%NULL%1,                       Kai-yuan%Cao%NULL%1,                       Lin%Xu%NULL%1,                       Stefan%Pöhlmann%NULL%1,                      Su-fen%Zhang%NULL%1,                      Jiu-ling%Tuo%NULL%1,                      Xu-bin%Huang%NULL%1,                      Xun%Zhu%NULL%1,                      Ding-mei%Zhang%NULL%1,                      Kai%Zhou%NULL%1,                      Lei%Yuan%NULL%1,                      Hong-jiao%Luo%NULL%1,                      Bo-jian%Zheng%NULL%1,                      Kwok-yung%Yuen%NULL%1,                      Meng-feng%Li%NULL%1,                      Kai-yuan%Cao%NULL%1,                      Lin%Xu%NULL%1,                      Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                      Rachel M%Reeves%null%1,                      Xin%Wang%null%1,                      Quique%Bassat%null%1,                      W Abdullah%Brooks%null%1,                      Cheryl%Cohen%null%1,                      David P%Moore%null%1,                      Marta%Nunes%null%1,                      Barbara%Rath%null%1,                      Harry%Campbell%null%1,                      Harish%Nair%null%1,                      Sozinho%Acacio%null%1,                      Wladimir J%Alonso%null%1,                      Martin%Antonio%null%1,                      Guadalupe%Ayora Talavera%null%1,                      Darmaa%Badarch%null%1,                      Vicky L%Baillie%null%1,                      Gisela%Barrera-Badillo%null%1,                      Godfrey%Bigogo%null%1,                      Shobha%Broor%null%1,                      Dana%Bruden%null%1,                      Philippe%Buchy%null%1,                      Peter%Byass%null%1,                      James%Chipeta%null%1,                      Wilfrido%Clara%null%1,                      Duc-Anh%Dang%null%1,                      Carla Cecília%de Freitas Lázaro Emediato%null%1,                      Menno%de Jong%null%1,                      José Alberto%Díaz-Quiñonez%null%1,                      Lien Anh Ha%Do%null%1,                      Rodrigo A%Fasce%null%1,                      Luzhao%Feng%null%1,                      Mark J%Ferson%null%1,                      Angela%Gentile%null%1,                      Bradford D%Gessner%null%1,                      Doli%Goswami%null%1,                      Sophie%Goyet%null%1,                      Carlos G%Grijalva%null%1,                      Natasha%Halasa%null%1,                      Orienka%Hellferscee%null%1,                      Danielle%Hessong%null%1,                      Nusrat%Homaira%null%1,                      Jorge%Jara%null%1,                      Kathleen%Kahn%null%1,                      Najwa%Khuri-Bulos%null%1,                      Karen L%Kotloff%null%1,                      Claudio F%Lanata%null%1,                      Olga%Lopez%null%1,                      Maria Renee%Lopez Bolaños%null%1,                      Marilla G%Lucero%null%1,                      Florencia%Lucion%null%1,                      Socorro P%Lupisan%null%1,                      Shabir A%Madhi%null%1,                      Omphile%Mekgoe%null%1,                      Cinta%Moraleda%null%1,                      Jocelyn%Moyes%null%1,                      Kim%Mulholland%null%1,                      Patrick K%Munywoki%null%1,                      Fathima%Naby%null%1,                      Thanh Hung%Nguyen%null%1,                      Mark P%Nicol%null%1,                      D James%Nokes%null%1,                      Daniel E%Noyola%null%1,                      Daisuke%Onozuka%null%1,                      Nandhini%Palani%null%1,                      Yong%Poovorawan%null%1,                      Mustafizur%Rahman%null%1,                      Kaat%Ramaekers%null%1,                      Candice%Romero%null%1,                      Elizabeth P%Schlaudecker%null%1,                      Brunhilde%Schweiger%null%1,                      Phil%Seidenberg%null%1,                      Eric A F%Simoes%null%1,                      Rosalyn%Singleton%null%1,                      Sujatha%Sistla%null%1,                      Katharine%Sturm-Ramirez%null%1,                      Nungruthai%Suntronwong%null%1,                      Agustinus%Sutanto%null%1,                      Milagritos D%Tapia%null%1,                      Somsak%Thamthitiwat%null%1,                      Ilada%Thongpan%null%1,                      Gayani%Tillekeratne%null%1,                      Yeny O%Tinoco%null%1,                      Florette K%Treurnicht%null%1,                      Claudia%Turner%null%1,                      Paul%Turner%null%1,                      Rogier%van Doorn%null%1,                      Marc%Van Ranst%null%1,                      Benoit%Visseaux%null%1,                      Sunthareeya%Waicharoen%null%1,                      Jianwei%Wang%null%1,                      Lay-Myint%Yoshida%null%1,                      Heather J%Zar%null%1,                  You%Li%null%1,                  Rachel M%Reeves%null%1,                  Xin%Wang%null%1,                  Quique%Bassat%null%1,                  W Abdullah%Brooks%null%1,                  Cheryl%Cohen%null%1,                  David P%Moore%null%1,                  Marta%Nunes%null%1,                  Barbara%Rath%null%1,                  Harry%Campbell%null%1,                  Harish%Nair%null%1,                  Sozinho%Acacio%null%1,                  Wladimir J%Alonso%null%1,                  Martin%Antonio%null%1,                  Guadalupe%Ayora Talavera%null%1,                  Darmaa%Badarch%null%1,                  Vicky L%Baillie%null%1,                  Gisela%Barrera-Badillo%null%1,                  Godfrey%Bigogo%null%1,                  Shobha%Broor%null%1,                  Dana%Bruden%null%1,                  Philippe%Buchy%null%1,                  Peter%Byass%null%1,                  James%Chipeta%null%1,                  Wilfrido%Clara%null%1,                  Duc-Anh%Dang%null%1,                  Carla Cecília%de Freitas Lázaro Emediato%null%1,                  Menno%de Jong%null%1,                  José Alberto%Díaz-Quiñonez%null%1,                  Lien Anh Ha%Do%null%1,                  Rodrigo A%Fasce%null%1,                  Luzhao%Feng%null%2,                  Mark J%Ferson%null%1,                  Angela%Gentile%null%1,                  Bradford D%Gessner%null%1,                  Doli%Goswami%null%1,                  Sophie%Goyet%null%1,                  Carlos G%Grijalva%null%1,                  Natasha%Halasa%null%1,                  Orienka%Hellferscee%null%1,                  Danielle%Hessong%null%1,                  Nusrat%Homaira%null%1,                  Jorge%Jara%null%1,                  Kathleen%Kahn%null%1,                  Najwa%Khuri-Bulos%null%1,                  Karen L%Kotloff%null%1,                  Claudio F%Lanata%null%1,                  Olga%Lopez%null%1,                  Maria Renee%Lopez Bolaños%null%1,                  Marilla G%Lucero%null%1,                  Florencia%Lucion%null%1,                  Socorro P%Lupisan%null%1,                  Shabir A%Madhi%null%1,                  Omphile%Mekgoe%null%1,                  Cinta%Moraleda%null%1,                  Jocelyn%Moyes%null%1,                  Kim%Mulholland%null%1,                  Patrick K%Munywoki%null%1,                  Fathima%Naby%null%1,                  Thanh Hung%Nguyen%null%1,                  Mark P%Nicol%null%1,                  D James%Nokes%null%1,                  Daniel E%Noyola%null%1,                  Daisuke%Onozuka%null%1,                  Nandhini%Palani%null%1,                  Yong%Poovorawan%null%1,                  Mustafizur%Rahman%null%1,                  Kaat%Ramaekers%null%1,                  Candice%Romero%null%1,                  Elizabeth P%Schlaudecker%null%1,                  Brunhilde%Schweiger%null%1,                  Phil%Seidenberg%null%1,                  Eric A F%Simoes%null%1,                  Rosalyn%Singleton%null%1,                  Sujatha%Sistla%null%1,                  Katharine%Sturm-Ramirez%null%1,                  Nungruthai%Suntronwong%null%1,                  Agustinus%Sutanto%null%1,                  Milagritos D%Tapia%null%1,                  Somsak%Thamthitiwat%null%1,                  Ilada%Thongpan%null%1,                  Gayani%Tillekeratne%null%1,                  Yeny O%Tinoco%null%1,                  Florette K%Treurnicht%null%1,                  Claudia%Turner%null%1,                  Paul%Turner%null%1,                  Rogier%van Doorn%null%1,                  Marc%Van Ranst%null%3,                  Benoit%Visseaux%null%1,                  Sunthareeya%Waicharoen%null%1,                  Jianwei%Wang%null%5,                  Lay-Myint%Yoshida%null%1,                  Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                    Jack%Bee Chook%coreGivesNoEmail%1,                    Kim%Tien Ng%coreGivesNoEmail%1,                    Kok%Keng Tee%coreGivesNoEmail%1,                    Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                    Nik%Sherina Hanafi%coreGivesNoEmail%1,                    van%der Hoek%coreGivesNoEmail%2,                    van%der Hoek%coreGivesNoEmail%0,                    van%Elden%coreGivesNoEmail%1,                    Xiang%Yong Oong%coreGivesNoEmail%1,                    Yong%Kek Pang%coreGivesNoEmail%1,                    Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,            Lars-Magnus%Andersson%xref no email%1,            Sigvard%Olofsson%xref no email%1,            Magnus%Lindh%xref no email%1,            Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                        Dangui%Zhang%danguizhang@stu.edu.cn%1,                        Hui%Pan%michaelpan@stu.edu.cn%1,                        Fan%Zhang%lemon_fan@163.com%1,                        Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                        Frieda%Law%lawf@stu.edu.cn%1,                        H Rogier%van Doorn%hrogier@gmail.com%1,                        Beiyan%Wu%1261305798@qq.com%1,                        William%Ba-Thein%wbathein@stu.edu.cn%1,                       Binglin%Cui%binglincui@stu.edu.cn%1,                       Dangui%Zhang%danguizhang@stu.edu.cn%1,                       Hui%Pan%michaelpan@stu.edu.cn%1,                       Fan%Zhang%lemon_fan@163.com%1,                       Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                       Frieda%Law%lawf@stu.edu.cn%1,                       H Rogier%van Doorn%hrogier@gmail.com%1,                       Beiyan%Wu%1261305798@qq.com%1,                       William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                    Andrew%Berglund%coreGivesNoEmail%1,                    Christine%C. Robinson%coreGivesNoEmail%1,                    Christopher%D. Town%coreGivesNoEmail%1,                    Edison%Luiz Durigon%coreGivesNoEmail%1,                    Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                    Kathryn%V. Holmes%coreGivesNoEmail%1,                    Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                    Nadia%Fedorova%coreGivesNoEmail%1,                    Philip%A. Weston%coreGivesNoEmail%1,                    Rebecca%A. Halpin%coreGivesNoEmail%1,                    Samuel%R. Dominguez%coreGivesNoEmail%1,                    Susmita%Shrivastava%coreGivesNoEmail%1,                    Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                        Lifeng%Pan%NULL%1,                        Qiao%Sun%NULL%1,                        Weiping%Zhu%NULL%1,                        Linying%Zhu%NULL%1,                        Chuchu%Ye%NULL%1,                        Caoyi%Xue%NULL%1,                        Yuanping%Wang%NULL%1,                        Qing%Liu%NULL%1,                        Ping%Ma%NULL%1,                        Huifang%Qiu%NULL%1,                        Srinand%Sreevatsan%NULL%1,                       Yifei%Fu%NULL%1,                       Lifeng%Pan%NULL%1,                       Qiao%Sun%NULL%1,                       Weiping%Zhu%NULL%1,                       Linying%Zhu%NULL%1,                       Chuchu%Ye%NULL%1,                       Caoyi%Xue%NULL%1,                       Yuanping%Wang%NULL%1,                       Qing%Liu%NULL%1,                       Ping%Ma%NULL%1,                       Huifang%Qiu%NULL%1,                       Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                        Mumtaz Cem%Sirin%NULL%1,                       Safak%Goktas%NULL%1,                       Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                        Nina%Moe%NULL%1,                        Sidsel%Krokstad%NULL%2,                        Andreas%Christensen%NULL%2,                        Lars Høsøien%Skanke%NULL%2,                        Svein Arne%Nordbø%NULL%2,                        Henrik%Døllner%henrik.dollner@ntnu.no%2,                       Inger%Heimdal%NULL%1,                       Nina%Moe%NULL%2,                       Sidsel%Krokstad%NULL%2,                       Andreas%Christensen%NULL%2,                       Lars Høsøien%Skanke%NULL%2,                       Svein Arne%Nordbø%NULL%2,                       Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                        Inger Heimdal%Stenseng%NULL%1,                        Sidsel%Krokstad%NULL%0,                        Andreas%Christensen%NULL%0,                        Lars Høsøien%Skanke%NULL%0,                        Kari Ravndal%Risnes%NULL%1,                        Svein Arne%Nordbø%NULL%0,                        Henrik%Døllner%henrik.dollner@ntnu.no%0,                       Nina%Moe%NULL%0,                       Inger Heimdal%Stenseng%NULL%1,                       Sidsel%Krokstad%NULL%0,                       Andreas%Christensen%NULL%0,                       Lars Høsøien%Skanke%NULL%0,                       Kari Ravndal%Risnes%NULL%1,                       Svein Arne%Nordbø%NULL%0,                       Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,            Derek J.%Williams%xref no email%1,            Sandra R.%Arnold%xref no email%1,            Krow%Ampofo%xref no email%1,            Anna M.%Bramley%xref no email%1,            Carrie%Reed%xref no email%1,            Chris%Stockmann%xref no email%1,            Evan J.%Anderson%xref no email%1,            Carlos G.%Grijalva%xref no email%1,            Wesley H.%Self%xref no email%1,            Yuwei%Zhu%xref no email%1,            Anami%Patel%xref no email%1,            Weston%Hymas%xref no email%1,            James D.%Chappell%xref no email%1,            Robert A.%Kaufman%xref no email%1,            J. Herman%Kan%xref no email%1,            David%Dansie%xref no email%1,            Noel%Lenny%xref no email%1,            David R.%Hillyard%xref no email%1,            Lia M.%Haynes%xref no email%1,            Min%Levine%xref no email%1,            Stephen%Lindstrom%xref no email%1,            Jonas M.%Winchell%xref no email%1,            Jacqueline M.%Katz%xref no email%1,            Dean%Erdman%xref no email%1,            Eileen%Schneider%xref no email%1,            Lauri A.%Hicks%xref no email%1,            Richard G.%Wunderink%xref no email%1,            Kathryn M.%Edwards%xref no email%1,            Andrew T.%Pavia%xref no email%1,            Jonathan A.%McCullers%xref no email%1,            Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                        Andrej%Steyer%NULL%1,                        Marko%Pokorn%NULL%1,                        Tatjana%Mrvič%NULL%1,                        Štefan%Grosek%NULL%1,                        Franc%Strle%NULL%1,                        Lara%Lusa%NULL%1,                        Miroslav%Petrovec%NULL%1,                        Oliver%Schildgen%NULL%1,                       Monika%Jevšnik%NULL%1,                       Andrej%Steyer%NULL%1,                       Marko%Pokorn%NULL%1,                       Tatjana%Mrvič%NULL%1,                       Štefan%Grosek%NULL%1,                       Franc%Strle%NULL%1,                       Lara%Lusa%NULL%1,                       Miroslav%Petrovec%NULL%1,                       Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                        Matti%Waris%NULL%1,                        Kari%Johansen%NULL%1,                        René%Snacken%NULL%1,                        Pasi%Penttinen%NULL%1,                        NULL%NULL%NULL%3,                       Eeva K%Broberg%NULL%1,                       Matti%Waris%NULL%1,                       Kari%Johansen%NULL%1,                       René%Snacken%NULL%1,                       Pasi%Penttinen%NULL%1,                       NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                        Qiaoyun%Fang%NULL%1,                        Jian%Zhang%NULL%1,                        Angao%Xu%NULL%1,                        Lihuan%Liang%NULL%1,                        Changwen%Ke%hzmedicine@163.com%1,                       Xiongfei%Ju%NULL%1,                       Qiaoyun%Fang%NULL%1,                       Jian%Zhang%NULL%1,                       Angao%Xu%NULL%1,                       Lihuan%Liang%NULL%1,                       Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                        Holly M.%Biggs%NULL%1,                        Amber%Haynes%NULL%1,                        Rebecca M.%Dahl%NULL%1,                        Desiree%Mustaquim%NULL%1,                        Susan I.%Gerber%NULL%1,                        John T.%Watson%NULL%1,                       Marie E.%Killerby%lxo9@cdc.gov%1,                       Holly M.%Biggs%NULL%1,                       Amber%Haynes%NULL%1,                       Rebecca M.%Dahl%NULL%1,                       Desiree%Mustaquim%NULL%1,                       Susan I.%Gerber%NULL%1,                       John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                        Hee‐Dong%Jung%NULL%1,                        Hyang‐Min%Cheong%NULL%1,                        Anna%Lee%NULL%1,                        Nam‐Joo%Lee%NULL%1,                        Hyuk%Chu%NULL%1,                        Joo‐Yeon%Lee%NULL%1,                        Sung Soon%Kim%NULL%1,                        Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                       Jeong‐Min%Kim%NULL%1,                       Hee‐Dong%Jung%NULL%1,                       Hyang‐Min%Cheong%NULL%1,                       Anna%Lee%NULL%1,                       Nam‐Joo%Lee%NULL%1,                       Hyuk%Chu%NULL%1,                       Joo‐Yeon%Lee%NULL%1,                       Sung Soon%Kim%NULL%1,                       Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,            Patrick C. Y.%Woo%xref no email%1,            Cyril C. Y.%Yip%xref no email%1,            Herman%Tse%xref no email%1,            Hoi-wah%Tsoi%xref no email%1,            Vincent C. C.%Cheng%xref no email%1,            Paul%Lee%xref no email%1,            Bone S. F.%Tang%xref no email%1,            Chris H. Y.%Cheung%xref no email%1,            Rodney A.%Lee%xref no email%1,            Lok-yee%So%xref no email%1,            Yu-lung%Lau%xref no email%1,            Kwok-hung%Chan%xref no email%1,            Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,            Guruprasad R.%Medigeshi%xref no email%1,            Vishnu S.%Mishra%xref no email%1,            Mojahidul%Islam%xref no email%1,            Shivani%Randev%xref no email%1,            Aparna%Mukherjee%xref no email%1,            Rama%Chaudhry%xref no email%1,            Arti%Kapil%xref no email%1,            Kana%Ram Jat%xref no email%1,            Rakesh%Lodha%xref no email%1,            Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,            Shin Hae%Lee%xref no email%1,            Eun Kyo%Ha%xref no email%1,            Youn Ho%Sheen%xref no email%1,            Myong Soon%Sung%xref no email%1,            Young-Ho%Jung%xref no email%1,            Kyung Suk%Lee%xref no email%1,            Hye Mi%Jee%xref no email%1,            Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                        Juansheng%Li%lijsh16@163.com%1,                        Lei%Meng%mleicdc@163.com%1,                        Wanqi%Zhu%NULL%1,                        Xinfeng%Liu%NULL%1,                        Mei%Yang%NULL%1,                        Deshan%Yu%NULL%2,                        Lixia%Niu%NULL%1,                        Xiping%Shen%NULL%1,                       Xuechao%Li%NULL%1,                       Juansheng%Li%lijsh16@163.com%1,                       Lei%Meng%mleicdc@163.com%1,                       Wanqi%Zhu%NULL%1,                       Xinfeng%Liu%NULL%1,                       Mei%Yang%NULL%1,                       Deshan%Yu%NULL%2,                       Lixia%Niu%NULL%1,                       Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                        James G.%Bosley%NULL%1,                       Christine M.%Litwin%clitwin@gru.edu%1,                       James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,            Chieko%Abiko%xref no email%1,            Tatsuya%Ikeda%xref no email%1,            Yoko%Aoki%xref no email%1,            Yu%Suzuki%xref no email%1,            Kazue%Yahagi%xref no email%1,            Yoko%Matsuzaki%xref no email%1,            Tsutomu%Itagaki%xref no email%1,            Fumio%Katsushima%xref no email%1,            Yuriko%Katsushima%xref no email%1,            Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                        Elsie Laban%Yekwa%NULL%1,                        Pierre%Cappy%NULL%1,                        Astrid%Vabret%NULL%2,                        Pascal%Boisier%NULL%1,                        Dominique%Rousset%NULL%1,                       Richard%Njouom%NULL%1,                       Elsie Laban%Yekwa%NULL%1,                       Pierre%Cappy%NULL%1,                       Astrid%Vabret%NULL%2,                       Pascal%Boisier%NULL%1,                       Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                        Suvi%Lappalainen%NULL%1,                        Timo%Vesikari%NULL%1,                       Minna%Paloniemi%NULL%1,                       Suvi%Lappalainen%NULL%1,                       Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                        Richard%Gonzalez%NULL%1,                        Jin%Xu%NULL%1,                        Yan%Xiao%NULL%1,                        Yongjun%Li%NULL%1,                        Hongli%Zhou%NULL%1,                        Jianguo%Li%NULL%1,                        Qingqing%Yang%NULL%1,                        Jing%Zhang%NULL%1,                        Lan%Chen%NULL%1,                        Wei%Wang%NULL%1,                        Guy%Vernet%NULL%1,                        Gláucia%Paranhos‐Baccalà%NULL%1,                        Zhong%Wang%wangzhong523@vip.163.com%1,                        Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                       Lili%Ren%NULL%1,                       Richard%Gonzalez%NULL%1,                       Jin%Xu%NULL%1,                       Yan%Xiao%NULL%1,                       Yongjun%Li%NULL%1,                       Hongli%Zhou%NULL%1,                       Jianguo%Li%NULL%1,                       Qingqing%Yang%NULL%1,                       Jing%Zhang%NULL%1,                       Lan%Chen%NULL%1,                       Wei%Wang%NULL%1,                       Guy%Vernet%NULL%1,                       Gláucia%Paranhos‐Baccalà%NULL%1,                       Zhong%Wang%wangzhong523@vip.163.com%1,                       Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                    Druelle%Valentin%coreGivesNoEmail%1,                    Dyrdak%Robert%coreGivesNoEmail%1,                    Hodcroft%Emma B.%coreGivesNoEmail%1,                    Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                        Ilada%Thongpan%ilada.cu09@gmail.com%1,                        Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                        Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                        Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                        Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                        Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                        Yong%Poovorawan%yong.p@chula.ac.th%1,                       Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                       Ilada%Thongpan%ilada.cu09@gmail.com%1,                       Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                       Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                       Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                       Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                       Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                       Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                        Janet A%Englund%NULL%1,                        Jane Y%Kuypers%NULL%1,                        Helen Y%Chu%NULL%1,                        Mark C%Steinhoff%NULL%1,                        Subarna K%Khatry%NULL%1,                        Steve C%LeClerq%NULL%1,                        James M%Tielsch%NULL%1,                        Luke C%Mullany%NULL%1,                        Laxman%Shrestha%NULL%2,                        Joanne%Katz%jkatz1@jhu.edu%2,                       S M Iftekhar%Uddin%NULL%1,                       Janet A%Englund%NULL%1,                       Jane Y%Kuypers%NULL%1,                       Helen Y%Chu%NULL%1,                       Mark C%Steinhoff%NULL%1,                       Subarna K%Khatry%NULL%1,                       Steve C%LeClerq%NULL%1,                       James M%Tielsch%NULL%1,                       Luke C%Mullany%NULL%1,                       Laxman%Shrestha%NULL%2,                       Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                        Joanne%Katz%NULL%0,                        James%Tielsch%NULL%1,                        Subarna K.%Khatry%NULL%1,                        Laxman%Shrestha%NULL%0,                        Steven C.%LeClerq%NULL%1,                        Amalia%Magaret%NULL%1,                        Jane%Kuypers%NULL%1,                        Mark%Steinhoff%NULL%1,                        Janet A.%Englund%NULL%1,                       Helen Y.%Chu%helenchu@uw.edu%1,                       Joanne%Katz%NULL%0,                       James%Tielsch%NULL%1,                       Subarna K.%Khatry%NULL%1,                       Laxman%Shrestha%NULL%0,                       Steven C.%LeClerq%NULL%1,                       Amalia%Magaret%NULL%1,                       Jane%Kuypers%NULL%1,                       Mark%Steinhoff%NULL%1,                       Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                        Gabriele%Ihorst%NULL%1,                        Klaus%Sure%NULL%1,                        Astrid%Vabret%NULL%0,                        Ronald%Dijkman%NULL%1,                        Michel%de Vries%NULL%1,                        Johannes%Forster%NULL%1,                        Ben%Berkhout%NULL%1,                        Klaus%Uberla%NULL%1,                       Lia%van der Hoek%NULL%1,                       Gabriele%Ihorst%NULL%1,                       Klaus%Sure%NULL%1,                       Astrid%Vabret%NULL%0,                       Ronald%Dijkman%NULL%1,                       Michel%de Vries%NULL%1,                       Johannes%Forster%NULL%1,                       Ben%Berkhout%NULL%1,                       Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                        Philip%Zachariah%pz2177@cumc.columbia.edu%1,                        Celibell%Vargas%NULL%1,                        Philip%LaRussa%NULL%1,                        Ryan T%Demmer%NULL%1,                        Yoko E%Furuya%NULL%1,                        Susan%Whittier%NULL%1,                        Carrie%Reed%NULL%1,                        Melissa S%Stockwell%NULL%1,                        Lisa%Saiman%NULL%1,                       Litty%Varghese%NULL%1,                       Philip%Zachariah%pz2177@cumc.columbia.edu%1,                       Celibell%Vargas%NULL%1,                       Philip%LaRussa%NULL%1,                       Ryan T%Demmer%NULL%1,                       Yoko E%Furuya%NULL%1,                       Susan%Whittier%NULL%1,                       Carrie%Reed%NULL%1,                       Melissa S%Stockwell%NULL%1,                       Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                        Ria%Lassaunière%NULL%1,                        Tina Louise%Kresfelder%NULL%1,                        Yvette%Westerberg%NULL%1,                        Adele%Visser%NULL%1,                       Marietjie%Venter%marietjiev@nicd.ac.za%1,                       Ria%Lassaunière%NULL%1,                       Tina Louise%Kresfelder%NULL%1,                       Yvette%Westerberg%NULL%1,                       Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                        Charles%Burdet%NULL%1,                        Guillaume%Voiriot%NULL%1,                        François-Xavier%Lescure%NULL%1,                        Taous%Chougar%NULL%1,                        Olivier%Brugière%NULL%1,                        Bruno%Crestani%NULL%1,                        Enrique%Casalino%NULL%1,                        Charlotte%Charpentier%NULL%1,                        Diane%Descamps%NULL%1,                        Jean-François%Timsit%NULL%1,                        Yazdan%Yazdanpanah%NULL%1,                        Nadhira%Houhou-Fidouh%NULL%1,                        Dena L.%Schanzer%NULL%1,                       Benoit%Visseaux%NULL%1,                       Charles%Burdet%NULL%1,                       Guillaume%Voiriot%NULL%1,                       François-Xavier%Lescure%NULL%1,                       Taous%Chougar%NULL%1,                       Olivier%Brugière%NULL%1,                       Bruno%Crestani%NULL%1,                       Enrique%Casalino%NULL%1,                       Charlotte%Charpentier%NULL%1,                       Diane%Descamps%NULL%1,                       Jean-François%Timsit%NULL%1,                       Yazdan%Yazdanpanah%NULL%1,                       Nadhira%Houhou-Fidouh%NULL%1,                       Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                        Deshan%Yu%NULL%0,                        Naiying%Mao%NULL%1,                        Zhen%Zhu%NULL%1,                        Hui%Zhang%NULL%1,                        Zhongyi%Jiang%NULL%1,                        Hongyu%Li%NULL%1,                        Yan%Zhang%NULL%1,                        Jing%Shi%NULL%1,                        Shuang%Zhang%NULL%1,                        Xinhua%Wang%NULL%1,                        Wenbo%Xu%NULL%1,                        Dong-Yan%Jin%NULL%1,                       Guohong%Huang%NULL%1,                       Deshan%Yu%NULL%0,                       Naiying%Mao%NULL%1,                       Zhen%Zhu%NULL%1,                       Hui%Zhang%NULL%1,                       Zhongyi%Jiang%NULL%1,                       Hongyu%Li%NULL%1,                       Yan%Zhang%NULL%1,                       Jing%Shi%NULL%1,                       Shuang%Zhang%NULL%1,                       Xinhua%Wang%NULL%1,                       Wenbo%Xu%NULL%1,                       Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                        Jiu-ling%Tuo%NULL%1,                        Xu-bin%Huang%NULL%1,                        Xun%Zhu%NULL%1,                        Ding-mei%Zhang%NULL%1,                        Kai%Zhou%NULL%1,                        Lei%Yuan%NULL%1,                        Hong-jiao%Luo%NULL%1,                        Bo-jian%Zheng%NULL%1,                        Kwok-yung%Yuen%NULL%1,                        Meng-feng%Li%NULL%1,                        Kai-yuan%Cao%NULL%1,                        Lin%Xu%NULL%1,                        Stefan%Pöhlmann%NULL%1,                       Su-fen%Zhang%NULL%1,                       Jiu-ling%Tuo%NULL%1,                       Xu-bin%Huang%NULL%1,                       Xun%Zhu%NULL%1,                       Ding-mei%Zhang%NULL%1,                       Kai%Zhou%NULL%1,                       Lei%Yuan%NULL%1,                       Hong-jiao%Luo%NULL%1,                       Bo-jian%Zheng%NULL%1,                       Kwok-yung%Yuen%NULL%1,                       Meng-feng%Li%NULL%1,                       Kai-yuan%Cao%NULL%1,                       Lin%Xu%NULL%1,                       Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3191,7 +3305,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -3203,7 +3317,7 @@
         <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3220,7 +3334,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>814</v>
+        <v>849</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3232,7 +3346,7 @@
         <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3249,7 +3363,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>815</v>
+        <v>850</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3261,7 +3375,7 @@
         <v>462</v>
       </c>
       <c r="I4" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3278,7 +3392,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>816</v>
+        <v>851</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3290,7 +3404,7 @@
         <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>317</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3307,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3319,7 +3433,7 @@
         <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3336,7 +3450,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -3348,7 +3462,7 @@
         <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3365,7 +3479,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -3377,7 +3491,7 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3394,7 +3508,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -3406,7 +3520,7 @@
         <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3423,7 +3537,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3435,7 +3549,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3452,7 +3566,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3464,7 +3578,7 @@
         <v>471</v>
       </c>
       <c r="I11" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3481,7 +3595,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3493,7 +3607,7 @@
         <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3510,7 +3624,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3522,7 +3636,7 @@
         <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3539,7 +3653,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3551,7 +3665,7 @@
         <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>317</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3568,7 +3682,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3580,7 +3694,7 @@
         <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3597,7 +3711,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>827</v>
+        <v>865</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3609,7 +3723,7 @@
         <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3626,7 +3740,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>828</v>
+        <v>866</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3638,7 +3752,7 @@
         <v>480</v>
       </c>
       <c r="I17" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3655,7 +3769,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>829</v>
+        <v>867</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3667,7 +3781,7 @@
         <v>483</v>
       </c>
       <c r="I18" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3684,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3696,7 +3810,7 @@
         <v>486</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3713,7 +3827,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>831</v>
+        <v>869</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3725,7 +3839,7 @@
         <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3742,7 +3856,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>832</v>
+        <v>870</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3754,7 +3868,7 @@
         <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>317</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3771,7 +3885,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>833</v>
+        <v>871</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3783,7 +3897,7 @@
         <v>491</v>
       </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3800,7 +3914,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>834</v>
+        <v>872</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3812,7 +3926,7 @@
         <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3829,7 +3943,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>835</v>
+        <v>873</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3841,7 +3955,7 @@
         <v>110</v>
       </c>
       <c r="I24" t="s">
-        <v>328</v>
+        <v>864</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3858,7 +3972,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -3870,7 +3984,7 @@
         <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3887,7 +4001,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>837</v>
+        <v>875</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -3899,7 +4013,7 @@
         <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3916,7 +4030,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>838</v>
+        <v>876</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -3928,7 +4042,7 @@
         <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>317</v>
+        <v>852</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3957,7 +4071,7 @@
         <v>498</v>
       </c>
       <c r="I28" t="s">
-        <v>314</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3974,7 +4088,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>839</v>
+        <v>877</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -3986,7 +4100,7 @@
         <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4003,7 +4117,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>840</v>
+        <v>878</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -4015,7 +4129,7 @@
         <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>328</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4032,7 +4146,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>841</v>
+        <v>879</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -4044,7 +4158,7 @@
         <v>115</v>
       </c>
       <c r="I31" t="s">
-        <v>328</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4061,7 +4175,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>842</v>
+        <v>880</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -4073,7 +4187,7 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4090,7 +4204,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>843</v>
+        <v>881</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -4102,7 +4216,7 @@
         <v>117</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4119,7 +4233,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>844</v>
+        <v>882</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -4131,7 +4245,7 @@
         <v>118</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4148,7 +4262,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -4160,7 +4274,7 @@
         <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4177,7 +4291,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>846</v>
+        <v>884</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -4189,7 +4303,7 @@
         <v>120</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5617" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5869" uniqueCount="919">
   <si>
     <t>Doi</t>
   </si>
@@ -2975,6 +2975,108 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                        Jiu-ling%Tuo%NULL%1,                        Xu-bin%Huang%NULL%1,                        Xun%Zhu%NULL%1,                        Ding-mei%Zhang%NULL%1,                        Kai%Zhou%NULL%1,                        Lei%Yuan%NULL%1,                        Hong-jiao%Luo%NULL%1,                        Bo-jian%Zheng%NULL%1,                        Kwok-yung%Yuen%NULL%1,                        Meng-feng%Li%NULL%1,                        Kai-yuan%Cao%NULL%1,                        Lin%Xu%NULL%1,                        Stefan%Pöhlmann%NULL%1,                       Su-fen%Zhang%NULL%1,                       Jiu-ling%Tuo%NULL%1,                       Xu-bin%Huang%NULL%1,                       Xun%Zhu%NULL%1,                       Ding-mei%Zhang%NULL%1,                       Kai%Zhou%NULL%1,                       Lei%Yuan%NULL%1,                       Hong-jiao%Luo%NULL%1,                       Bo-jian%Zheng%NULL%1,                       Kwok-yung%Yuen%NULL%1,                       Meng-feng%Li%NULL%1,                       Kai-yuan%Cao%NULL%1,                       Lin%Xu%NULL%1,                       Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                       Rachel M%Reeves%null%1,                       Xin%Wang%null%1,                       Quique%Bassat%null%1,                       W Abdullah%Brooks%null%1,                       Cheryl%Cohen%null%1,                       David P%Moore%null%1,                       Marta%Nunes%null%1,                       Barbara%Rath%null%1,                       Harry%Campbell%null%1,                       Harish%Nair%null%1,                       Sozinho%Acacio%null%1,                       Wladimir J%Alonso%null%1,                       Martin%Antonio%null%1,                       Guadalupe%Ayora Talavera%null%1,                       Darmaa%Badarch%null%1,                       Vicky L%Baillie%null%1,                       Gisela%Barrera-Badillo%null%1,                       Godfrey%Bigogo%null%1,                       Shobha%Broor%null%1,                       Dana%Bruden%null%1,                       Philippe%Buchy%null%1,                       Peter%Byass%null%1,                       James%Chipeta%null%1,                       Wilfrido%Clara%null%1,                       Duc-Anh%Dang%null%1,                       Carla Cecília%de Freitas Lázaro Emediato%null%1,                       Menno%de Jong%null%1,                       José Alberto%Díaz-Quiñonez%null%1,                       Lien Anh Ha%Do%null%1,                       Rodrigo A%Fasce%null%1,                       Luzhao%Feng%null%1,                       Mark J%Ferson%null%1,                       Angela%Gentile%null%1,                       Bradford D%Gessner%null%1,                       Doli%Goswami%null%1,                       Sophie%Goyet%null%1,                       Carlos G%Grijalva%null%1,                       Natasha%Halasa%null%1,                       Orienka%Hellferscee%null%1,                       Danielle%Hessong%null%1,                       Nusrat%Homaira%null%1,                       Jorge%Jara%null%1,                       Kathleen%Kahn%null%1,                       Najwa%Khuri-Bulos%null%1,                       Karen L%Kotloff%null%1,                       Claudio F%Lanata%null%1,                       Olga%Lopez%null%1,                       Maria Renee%Lopez Bolaños%null%1,                       Marilla G%Lucero%null%1,                       Florencia%Lucion%null%1,                       Socorro P%Lupisan%null%1,                       Shabir A%Madhi%null%1,                       Omphile%Mekgoe%null%1,                       Cinta%Moraleda%null%1,                       Jocelyn%Moyes%null%1,                       Kim%Mulholland%null%1,                       Patrick K%Munywoki%null%1,                       Fathima%Naby%null%1,                       Thanh Hung%Nguyen%null%1,                       Mark P%Nicol%null%1,                       D James%Nokes%null%1,                       Daniel E%Noyola%null%1,                       Daisuke%Onozuka%null%1,                       Nandhini%Palani%null%1,                       Yong%Poovorawan%null%1,                       Mustafizur%Rahman%null%1,                       Kaat%Ramaekers%null%1,                       Candice%Romero%null%1,                       Elizabeth P%Schlaudecker%null%1,                       Brunhilde%Schweiger%null%1,                       Phil%Seidenberg%null%1,                       Eric A F%Simoes%null%1,                       Rosalyn%Singleton%null%1,                       Sujatha%Sistla%null%1,                       Katharine%Sturm-Ramirez%null%1,                       Nungruthai%Suntronwong%null%1,                       Agustinus%Sutanto%null%1,                       Milagritos D%Tapia%null%1,                       Somsak%Thamthitiwat%null%1,                       Ilada%Thongpan%null%1,                       Gayani%Tillekeratne%null%1,                       Yeny O%Tinoco%null%1,                       Florette K%Treurnicht%null%1,                       Claudia%Turner%null%1,                       Paul%Turner%null%1,                       Rogier%van Doorn%null%1,                       Marc%Van Ranst%null%1,                       Benoit%Visseaux%null%1,                       Sunthareeya%Waicharoen%null%1,                       Jianwei%Wang%null%1,                       Lay-Myint%Yoshida%null%1,                       Heather J%Zar%null%1,                   You%Li%null%1,                   Rachel M%Reeves%null%1,                   Xin%Wang%null%1,                   Quique%Bassat%null%1,                   W Abdullah%Brooks%null%1,                   Cheryl%Cohen%null%1,                   David P%Moore%null%1,                   Marta%Nunes%null%1,                   Barbara%Rath%null%1,                   Harry%Campbell%null%1,                   Harish%Nair%null%1,                   Sozinho%Acacio%null%1,                   Wladimir J%Alonso%null%1,                   Martin%Antonio%null%1,                   Guadalupe%Ayora Talavera%null%1,                   Darmaa%Badarch%null%1,                   Vicky L%Baillie%null%1,                   Gisela%Barrera-Badillo%null%1,                   Godfrey%Bigogo%null%1,                   Shobha%Broor%null%1,                   Dana%Bruden%null%1,                   Philippe%Buchy%null%1,                   Peter%Byass%null%1,                   James%Chipeta%null%1,                   Wilfrido%Clara%null%1,                   Duc-Anh%Dang%null%1,                   Carla Cecília%de Freitas Lázaro Emediato%null%1,                   Menno%de Jong%null%1,                   José Alberto%Díaz-Quiñonez%null%1,                   Lien Anh Ha%Do%null%1,                   Rodrigo A%Fasce%null%1,                   Luzhao%Feng%null%2,                   Mark J%Ferson%null%1,                   Angela%Gentile%null%1,                   Bradford D%Gessner%null%1,                   Doli%Goswami%null%1,                   Sophie%Goyet%null%1,                   Carlos G%Grijalva%null%1,                   Natasha%Halasa%null%1,                   Orienka%Hellferscee%null%1,                   Danielle%Hessong%null%1,                   Nusrat%Homaira%null%1,                   Jorge%Jara%null%1,                   Kathleen%Kahn%null%1,                   Najwa%Khuri-Bulos%null%1,                   Karen L%Kotloff%null%1,                   Claudio F%Lanata%null%1,                   Olga%Lopez%null%1,                   Maria Renee%Lopez Bolaños%null%1,                   Marilla G%Lucero%null%1,                   Florencia%Lucion%null%1,                   Socorro P%Lupisan%null%1,                   Shabir A%Madhi%null%1,                   Omphile%Mekgoe%null%1,                   Cinta%Moraleda%null%1,                   Jocelyn%Moyes%null%1,                   Kim%Mulholland%null%1,                   Patrick K%Munywoki%null%1,                   Fathima%Naby%null%1,                   Thanh Hung%Nguyen%null%1,                   Mark P%Nicol%null%1,                   D James%Nokes%null%1,                   Daniel E%Noyola%null%1,                   Daisuke%Onozuka%null%1,                   Nandhini%Palani%null%1,                   Yong%Poovorawan%null%1,                   Mustafizur%Rahman%null%1,                   Kaat%Ramaekers%null%1,                   Candice%Romero%null%1,                   Elizabeth P%Schlaudecker%null%1,                   Brunhilde%Schweiger%null%1,                   Phil%Seidenberg%null%1,                   Eric A F%Simoes%null%1,                   Rosalyn%Singleton%null%1,                   Sujatha%Sistla%null%1,                   Katharine%Sturm-Ramirez%null%1,                   Nungruthai%Suntronwong%null%1,                   Agustinus%Sutanto%null%1,                   Milagritos D%Tapia%null%1,                   Somsak%Thamthitiwat%null%1,                   Ilada%Thongpan%null%1,                   Gayani%Tillekeratne%null%1,                   Yeny O%Tinoco%null%1,                   Florette K%Treurnicht%null%1,                   Claudia%Turner%null%1,                   Paul%Turner%null%1,                   Rogier%van Doorn%null%1,                   Marc%Van Ranst%null%3,                   Benoit%Visseaux%null%1,                   Sunthareeya%Waicharoen%null%1,                   Jianwei%Wang%null%5,                   Lay-Myint%Yoshida%null%1,                   Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                     Jack%Bee Chook%coreGivesNoEmail%1,                     Kim%Tien Ng%coreGivesNoEmail%1,                     Kok%Keng Tee%coreGivesNoEmail%1,                     Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                     Nik%Sherina Hanafi%coreGivesNoEmail%1,                     van%der Hoek%coreGivesNoEmail%2,                     van%der Hoek%coreGivesNoEmail%0,                     van%Elden%coreGivesNoEmail%1,                     Xiang%Yong Oong%coreGivesNoEmail%1,                     Yong%Kek Pang%coreGivesNoEmail%1,                     Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%1,             Lars-Magnus%Andersson%xref no email%1,             Sigvard%Olofsson%xref no email%1,             Magnus%Lindh%xref no email%1,             Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                         Dangui%Zhang%danguizhang@stu.edu.cn%1,                         Hui%Pan%michaelpan@stu.edu.cn%1,                         Fan%Zhang%lemon_fan@163.com%1,                         Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                         Frieda%Law%lawf@stu.edu.cn%1,                         H Rogier%van Doorn%hrogier@gmail.com%1,                         Beiyan%Wu%1261305798@qq.com%1,                         William%Ba-Thein%wbathein@stu.edu.cn%1,                        Binglin%Cui%binglincui@stu.edu.cn%1,                        Dangui%Zhang%danguizhang@stu.edu.cn%1,                        Hui%Pan%michaelpan@stu.edu.cn%1,                        Fan%Zhang%lemon_fan@163.com%1,                        Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                        Frieda%Law%lawf@stu.edu.cn%1,                        H Rogier%van Doorn%hrogier@gmail.com%1,                        Beiyan%Wu%1261305798@qq.com%1,                        William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                     Andrew%Berglund%coreGivesNoEmail%1,                     Christine%C. Robinson%coreGivesNoEmail%1,                     Christopher%D. Town%coreGivesNoEmail%1,                     Edison%Luiz Durigon%coreGivesNoEmail%1,                     Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                     Kathryn%V. Holmes%coreGivesNoEmail%1,                     Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                     Nadia%Fedorova%coreGivesNoEmail%1,                     Philip%A. Weston%coreGivesNoEmail%1,                     Rebecca%A. Halpin%coreGivesNoEmail%1,                     Samuel%R. Dominguez%coreGivesNoEmail%1,                     Susmita%Shrivastava%coreGivesNoEmail%1,                     Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                         Lifeng%Pan%NULL%1,                         Qiao%Sun%NULL%1,                         Weiping%Zhu%NULL%1,                         Linying%Zhu%NULL%1,                         Chuchu%Ye%NULL%1,                         Caoyi%Xue%NULL%1,                         Yuanping%Wang%NULL%1,                         Qing%Liu%NULL%1,                         Ping%Ma%NULL%1,                         Huifang%Qiu%NULL%1,                         Srinand%Sreevatsan%NULL%1,                        Yifei%Fu%NULL%1,                        Lifeng%Pan%NULL%1,                        Qiao%Sun%NULL%1,                        Weiping%Zhu%NULL%1,                        Linying%Zhu%NULL%1,                        Chuchu%Ye%NULL%1,                        Caoyi%Xue%NULL%1,                        Yuanping%Wang%NULL%1,                        Qing%Liu%NULL%1,                        Ping%Ma%NULL%1,                        Huifang%Qiu%NULL%1,                        Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                         Mumtaz Cem%Sirin%NULL%1,                        Safak%Goktas%NULL%1,                        Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                         Nina%Moe%NULL%1,                         Sidsel%Krokstad%NULL%2,                         Andreas%Christensen%NULL%2,                         Lars Høsøien%Skanke%NULL%2,                         Svein Arne%Nordbø%NULL%2,                         Henrik%Døllner%henrik.dollner@ntnu.no%2,                        Inger%Heimdal%NULL%1,                        Nina%Moe%NULL%2,                        Sidsel%Krokstad%NULL%2,                        Andreas%Christensen%NULL%2,                        Lars Høsøien%Skanke%NULL%2,                        Svein Arne%Nordbø%NULL%2,                        Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                         Inger Heimdal%Stenseng%NULL%1,                         Sidsel%Krokstad%NULL%0,                         Andreas%Christensen%NULL%0,                         Lars Høsøien%Skanke%NULL%0,                         Kari Ravndal%Risnes%NULL%1,                         Svein Arne%Nordbø%NULL%0,                         Henrik%Døllner%henrik.dollner@ntnu.no%0,                        Nina%Moe%NULL%0,                        Inger Heimdal%Stenseng%NULL%1,                        Sidsel%Krokstad%NULL%0,                        Andreas%Christensen%NULL%0,                        Lars Høsøien%Skanke%NULL%0,                        Kari Ravndal%Risnes%NULL%1,                        Svein Arne%Nordbø%NULL%0,                        Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%1,             Derek J.%Williams%xref no email%1,             Sandra R.%Arnold%xref no email%1,             Krow%Ampofo%xref no email%1,             Anna M.%Bramley%xref no email%1,             Carrie%Reed%xref no email%1,             Chris%Stockmann%xref no email%1,             Evan J.%Anderson%xref no email%1,             Carlos G.%Grijalva%xref no email%1,             Wesley H.%Self%xref no email%1,             Yuwei%Zhu%xref no email%1,             Anami%Patel%xref no email%1,             Weston%Hymas%xref no email%1,             James D.%Chappell%xref no email%1,             Robert A.%Kaufman%xref no email%1,             J. Herman%Kan%xref no email%1,             David%Dansie%xref no email%1,             Noel%Lenny%xref no email%1,             David R.%Hillyard%xref no email%1,             Lia M.%Haynes%xref no email%1,             Min%Levine%xref no email%1,             Stephen%Lindstrom%xref no email%1,             Jonas M.%Winchell%xref no email%1,             Jacqueline M.%Katz%xref no email%1,             Dean%Erdman%xref no email%1,             Eileen%Schneider%xref no email%1,             Lauri A.%Hicks%xref no email%1,             Richard G.%Wunderink%xref no email%1,             Kathryn M.%Edwards%xref no email%1,             Andrew T.%Pavia%xref no email%1,             Jonathan A.%McCullers%xref no email%1,             Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                         Andrej%Steyer%NULL%1,                         Marko%Pokorn%NULL%1,                         Tatjana%Mrvič%NULL%1,                         Štefan%Grosek%NULL%1,                         Franc%Strle%NULL%1,                         Lara%Lusa%NULL%1,                         Miroslav%Petrovec%NULL%1,                         Oliver%Schildgen%NULL%1,                        Monika%Jevšnik%NULL%1,                        Andrej%Steyer%NULL%1,                        Marko%Pokorn%NULL%1,                        Tatjana%Mrvič%NULL%1,                        Štefan%Grosek%NULL%1,                        Franc%Strle%NULL%1,                        Lara%Lusa%NULL%1,                        Miroslav%Petrovec%NULL%1,                        Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                         Matti%Waris%NULL%1,                         Kari%Johansen%NULL%1,                         René%Snacken%NULL%1,                         Pasi%Penttinen%NULL%1,                         NULL%NULL%NULL%3,                        Eeva K%Broberg%NULL%1,                        Matti%Waris%NULL%1,                        Kari%Johansen%NULL%1,                        René%Snacken%NULL%1,                        Pasi%Penttinen%NULL%1,                        NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                         Qiaoyun%Fang%NULL%1,                         Jian%Zhang%NULL%1,                         Angao%Xu%NULL%1,                         Lihuan%Liang%NULL%1,                         Changwen%Ke%hzmedicine@163.com%1,                        Xiongfei%Ju%NULL%1,                        Qiaoyun%Fang%NULL%1,                        Jian%Zhang%NULL%1,                        Angao%Xu%NULL%1,                        Lihuan%Liang%NULL%1,                        Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                         Holly M.%Biggs%NULL%1,                         Amber%Haynes%NULL%1,                         Rebecca M.%Dahl%NULL%1,                         Desiree%Mustaquim%NULL%1,                         Susan I.%Gerber%NULL%1,                         John T.%Watson%NULL%1,                        Marie E.%Killerby%lxo9@cdc.gov%1,                        Holly M.%Biggs%NULL%1,                        Amber%Haynes%NULL%1,                        Rebecca M.%Dahl%NULL%1,                        Desiree%Mustaquim%NULL%1,                        Susan I.%Gerber%NULL%1,                        John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                         Hee‐Dong%Jung%NULL%1,                         Hyang‐Min%Cheong%NULL%1,                         Anna%Lee%NULL%1,                         Nam‐Joo%Lee%NULL%1,                         Hyuk%Chu%NULL%1,                         Joo‐Yeon%Lee%NULL%1,                         Sung Soon%Kim%NULL%1,                         Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                        Jeong‐Min%Kim%NULL%1,                        Hee‐Dong%Jung%NULL%1,                        Hyang‐Min%Cheong%NULL%1,                        Anna%Lee%NULL%1,                        Nam‐Joo%Lee%NULL%1,                        Hyuk%Chu%NULL%1,                        Joo‐Yeon%Lee%NULL%1,                        Sung Soon%Kim%NULL%1,                        Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%1,             Patrick C. Y.%Woo%xref no email%1,             Cyril C. Y.%Yip%xref no email%1,             Herman%Tse%xref no email%1,             Hoi-wah%Tsoi%xref no email%1,             Vincent C. C.%Cheng%xref no email%1,             Paul%Lee%xref no email%1,             Bone S. F.%Tang%xref no email%1,             Chris H. Y.%Cheung%xref no email%1,             Rodney A.%Lee%xref no email%1,             Lok-yee%So%xref no email%1,             Yu-lung%Lau%xref no email%1,             Kwok-hung%Chan%xref no email%1,             Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%1,             Guruprasad R.%Medigeshi%xref no email%1,             Vishnu S.%Mishra%xref no email%1,             Mojahidul%Islam%xref no email%1,             Shivani%Randev%xref no email%1,             Aparna%Mukherjee%xref no email%1,             Rama%Chaudhry%xref no email%1,             Arti%Kapil%xref no email%1,             Kana%Ram Jat%xref no email%1,             Rakesh%Lodha%xref no email%1,             Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%1,             Shin Hae%Lee%xref no email%1,             Eun Kyo%Ha%xref no email%1,             Youn Ho%Sheen%xref no email%1,             Myong Soon%Sung%xref no email%1,             Young-Ho%Jung%xref no email%1,             Kyung Suk%Lee%xref no email%1,             Hye Mi%Jee%xref no email%1,             Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                         Juansheng%Li%lijsh16@163.com%1,                         Lei%Meng%mleicdc@163.com%1,                         Wanqi%Zhu%NULL%1,                         Xinfeng%Liu%NULL%1,                         Mei%Yang%NULL%1,                         Deshan%Yu%NULL%2,                         Lixia%Niu%NULL%1,                         Xiping%Shen%NULL%1,                        Xuechao%Li%NULL%1,                        Juansheng%Li%lijsh16@163.com%1,                        Lei%Meng%mleicdc@163.com%1,                        Wanqi%Zhu%NULL%1,                        Xinfeng%Liu%NULL%1,                        Mei%Yang%NULL%1,                        Deshan%Yu%NULL%2,                        Lixia%Niu%NULL%1,                        Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                         James G.%Bosley%NULL%1,                        Christine M.%Litwin%clitwin@gru.edu%1,                        James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%1,             Chieko%Abiko%xref no email%1,             Tatsuya%Ikeda%xref no email%1,             Yoko%Aoki%xref no email%1,             Yu%Suzuki%xref no email%1,             Kazue%Yahagi%xref no email%1,             Yoko%Matsuzaki%xref no email%1,             Tsutomu%Itagaki%xref no email%1,             Fumio%Katsushima%xref no email%1,             Yuriko%Katsushima%xref no email%1,             Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                         Elsie Laban%Yekwa%NULL%1,                         Pierre%Cappy%NULL%1,                         Astrid%Vabret%NULL%2,                         Pascal%Boisier%NULL%1,                         Dominique%Rousset%NULL%1,                        Richard%Njouom%NULL%1,                        Elsie Laban%Yekwa%NULL%1,                        Pierre%Cappy%NULL%1,                        Astrid%Vabret%NULL%2,                        Pascal%Boisier%NULL%1,                        Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                         Suvi%Lappalainen%NULL%1,                         Timo%Vesikari%NULL%1,                        Minna%Paloniemi%NULL%1,                        Suvi%Lappalainen%NULL%1,                        Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                         Richard%Gonzalez%NULL%1,                         Jin%Xu%NULL%1,                         Yan%Xiao%NULL%1,                         Yongjun%Li%NULL%1,                         Hongli%Zhou%NULL%1,                         Jianguo%Li%NULL%1,                         Qingqing%Yang%NULL%1,                         Jing%Zhang%NULL%1,                         Lan%Chen%NULL%1,                         Wei%Wang%NULL%1,                         Guy%Vernet%NULL%1,                         Gláucia%Paranhos‐Baccalà%NULL%1,                         Zhong%Wang%wangzhong523@vip.163.com%1,                         Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                        Lili%Ren%NULL%1,                        Richard%Gonzalez%NULL%1,                        Jin%Xu%NULL%1,                        Yan%Xiao%NULL%1,                        Yongjun%Li%NULL%1,                        Hongli%Zhou%NULL%1,                        Jianguo%Li%NULL%1,                        Qingqing%Yang%NULL%1,                        Jing%Zhang%NULL%1,                        Lan%Chen%NULL%1,                        Wei%Wang%NULL%1,                        Guy%Vernet%NULL%1,                        Gláucia%Paranhos‐Baccalà%NULL%1,                        Zhong%Wang%wangzhong523@vip.163.com%1,                        Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                     Druelle%Valentin%coreGivesNoEmail%1,                     Dyrdak%Robert%coreGivesNoEmail%1,                     Hodcroft%Emma B.%coreGivesNoEmail%1,                     Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                         Ilada%Thongpan%ilada.cu09@gmail.com%1,                         Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                         Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                         Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                         Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                         Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                         Yong%Poovorawan%yong.p@chula.ac.th%1,                        Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                        Ilada%Thongpan%ilada.cu09@gmail.com%1,                        Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                        Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                        Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                        Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                        Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                        Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                         Janet A%Englund%NULL%1,                         Jane Y%Kuypers%NULL%1,                         Helen Y%Chu%NULL%1,                         Mark C%Steinhoff%NULL%1,                         Subarna K%Khatry%NULL%1,                         Steve C%LeClerq%NULL%1,                         James M%Tielsch%NULL%1,                         Luke C%Mullany%NULL%1,                         Laxman%Shrestha%NULL%2,                         Joanne%Katz%jkatz1@jhu.edu%2,                        S M Iftekhar%Uddin%NULL%1,                        Janet A%Englund%NULL%1,                        Jane Y%Kuypers%NULL%1,                        Helen Y%Chu%NULL%1,                        Mark C%Steinhoff%NULL%1,                        Subarna K%Khatry%NULL%1,                        Steve C%LeClerq%NULL%1,                        James M%Tielsch%NULL%1,                        Luke C%Mullany%NULL%1,                        Laxman%Shrestha%NULL%2,                        Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                         Joanne%Katz%NULL%0,                         James%Tielsch%NULL%1,                         Subarna K.%Khatry%NULL%1,                         Laxman%Shrestha%NULL%0,                         Steven C.%LeClerq%NULL%1,                         Amalia%Magaret%NULL%1,                         Jane%Kuypers%NULL%1,                         Mark%Steinhoff%NULL%1,                         Janet A.%Englund%NULL%1,                        Helen Y.%Chu%helenchu@uw.edu%1,                        Joanne%Katz%NULL%0,                        James%Tielsch%NULL%1,                        Subarna K.%Khatry%NULL%1,                        Laxman%Shrestha%NULL%0,                        Steven C.%LeClerq%NULL%1,                        Amalia%Magaret%NULL%1,                        Jane%Kuypers%NULL%1,                        Mark%Steinhoff%NULL%1,                        Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                         Gabriele%Ihorst%NULL%1,                         Klaus%Sure%NULL%1,                         Astrid%Vabret%NULL%0,                         Ronald%Dijkman%NULL%1,                         Michel%de Vries%NULL%1,                         Johannes%Forster%NULL%1,                         Ben%Berkhout%NULL%1,                         Klaus%Uberla%NULL%1,                        Lia%van der Hoek%NULL%1,                        Gabriele%Ihorst%NULL%1,                        Klaus%Sure%NULL%1,                        Astrid%Vabret%NULL%0,                        Ronald%Dijkman%NULL%1,                        Michel%de Vries%NULL%1,                        Johannes%Forster%NULL%1,                        Ben%Berkhout%NULL%1,                        Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                         Philip%Zachariah%pz2177@cumc.columbia.edu%1,                         Celibell%Vargas%NULL%1,                         Philip%LaRussa%NULL%1,                         Ryan T%Demmer%NULL%1,                         Yoko E%Furuya%NULL%1,                         Susan%Whittier%NULL%1,                         Carrie%Reed%NULL%1,                         Melissa S%Stockwell%NULL%1,                         Lisa%Saiman%NULL%1,                        Litty%Varghese%NULL%1,                        Philip%Zachariah%pz2177@cumc.columbia.edu%1,                        Celibell%Vargas%NULL%1,                        Philip%LaRussa%NULL%1,                        Ryan T%Demmer%NULL%1,                        Yoko E%Furuya%NULL%1,                        Susan%Whittier%NULL%1,                        Carrie%Reed%NULL%1,                        Melissa S%Stockwell%NULL%1,                        Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                         Ria%Lassaunière%NULL%1,                         Tina Louise%Kresfelder%NULL%1,                         Yvette%Westerberg%NULL%1,                         Adele%Visser%NULL%1,                        Marietjie%Venter%marietjiev@nicd.ac.za%1,                        Ria%Lassaunière%NULL%1,                        Tina Louise%Kresfelder%NULL%1,                        Yvette%Westerberg%NULL%1,                        Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                         Charles%Burdet%NULL%1,                         Guillaume%Voiriot%NULL%1,                         François-Xavier%Lescure%NULL%1,                         Taous%Chougar%NULL%1,                         Olivier%Brugière%NULL%1,                         Bruno%Crestani%NULL%1,                         Enrique%Casalino%NULL%1,                         Charlotte%Charpentier%NULL%1,                         Diane%Descamps%NULL%1,                         Jean-François%Timsit%NULL%1,                         Yazdan%Yazdanpanah%NULL%1,                         Nadhira%Houhou-Fidouh%NULL%1,                         Dena L.%Schanzer%NULL%1,                        Benoit%Visseaux%NULL%1,                        Charles%Burdet%NULL%1,                        Guillaume%Voiriot%NULL%1,                        François-Xavier%Lescure%NULL%1,                        Taous%Chougar%NULL%1,                        Olivier%Brugière%NULL%1,                        Bruno%Crestani%NULL%1,                        Enrique%Casalino%NULL%1,                        Charlotte%Charpentier%NULL%1,                        Diane%Descamps%NULL%1,                        Jean-François%Timsit%NULL%1,                        Yazdan%Yazdanpanah%NULL%1,                        Nadhira%Houhou-Fidouh%NULL%1,                        Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                         Deshan%Yu%NULL%0,                         Naiying%Mao%NULL%1,                         Zhen%Zhu%NULL%1,                         Hui%Zhang%NULL%1,                         Zhongyi%Jiang%NULL%1,                         Hongyu%Li%NULL%1,                         Yan%Zhang%NULL%1,                         Jing%Shi%NULL%1,                         Shuang%Zhang%NULL%1,                         Xinhua%Wang%NULL%1,                         Wenbo%Xu%NULL%1,                         Dong-Yan%Jin%NULL%1,                        Guohong%Huang%NULL%1,                        Deshan%Yu%NULL%0,                        Naiying%Mao%NULL%1,                        Zhen%Zhu%NULL%1,                        Hui%Zhang%NULL%1,                        Zhongyi%Jiang%NULL%1,                        Hongyu%Li%NULL%1,                        Yan%Zhang%NULL%1,                        Jing%Shi%NULL%1,                        Shuang%Zhang%NULL%1,                        Xinhua%Wang%NULL%1,                        Wenbo%Xu%NULL%1,                        Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                         Jiu-ling%Tuo%NULL%1,                         Xu-bin%Huang%NULL%1,                         Xun%Zhu%NULL%1,                         Ding-mei%Zhang%NULL%1,                         Kai%Zhou%NULL%1,                         Lei%Yuan%NULL%1,                         Hong-jiao%Luo%NULL%1,                         Bo-jian%Zheng%NULL%1,                         Kwok-yung%Yuen%NULL%1,                         Meng-feng%Li%NULL%1,                         Kai-yuan%Cao%NULL%1,                         Lin%Xu%NULL%1,                         Stefan%Pöhlmann%NULL%1,                        Su-fen%Zhang%NULL%1,                        Jiu-ling%Tuo%NULL%1,                        Xu-bin%Huang%NULL%1,                        Xun%Zhu%NULL%1,                        Ding-mei%Zhang%NULL%1,                        Kai%Zhou%NULL%1,                        Lei%Yuan%NULL%1,                        Hong-jiao%Luo%NULL%1,                        Bo-jian%Zheng%NULL%1,                        Kwok-yung%Yuen%NULL%1,                        Meng-feng%Li%NULL%1,                        Kai-yuan%Cao%NULL%1,                        Lin%Xu%NULL%1,                        Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3305,7 +3407,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>847</v>
+        <v>885</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -3334,7 +3436,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3363,7 +3465,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3392,7 +3494,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3421,7 +3523,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3450,7 +3552,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -3479,7 +3581,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -3508,7 +3610,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -3537,7 +3639,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3566,7 +3668,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3595,7 +3697,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3624,7 +3726,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3653,7 +3755,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>862</v>
+        <v>897</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3682,7 +3784,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>863</v>
+        <v>898</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3711,7 +3813,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>865</v>
+        <v>899</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3740,7 +3842,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>866</v>
+        <v>900</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3769,7 +3871,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>867</v>
+        <v>901</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3798,7 +3900,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>868</v>
+        <v>902</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3827,7 +3929,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>869</v>
+        <v>903</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3856,7 +3958,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>870</v>
+        <v>904</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3885,7 +3987,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3914,7 +4016,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>872</v>
+        <v>906</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -3943,7 +4045,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -3972,7 +4074,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>874</v>
+        <v>908</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4001,7 +4103,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>875</v>
+        <v>909</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -4030,7 +4132,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -4088,7 +4190,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -4117,7 +4219,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -4146,7 +4248,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -4175,7 +4277,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -4204,7 +4306,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -4233,7 +4335,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -4262,7 +4364,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -4291,7 +4393,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5869" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="1073">
   <si>
     <t>Doi</t>
   </si>
@@ -3077,6 +3077,468 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                         Jiu-ling%Tuo%NULL%1,                         Xu-bin%Huang%NULL%1,                         Xun%Zhu%NULL%1,                         Ding-mei%Zhang%NULL%1,                         Kai%Zhou%NULL%1,                         Lei%Yuan%NULL%1,                         Hong-jiao%Luo%NULL%1,                         Bo-jian%Zheng%NULL%1,                         Kwok-yung%Yuen%NULL%1,                         Meng-feng%Li%NULL%1,                         Kai-yuan%Cao%NULL%1,                         Lin%Xu%NULL%1,                         Stefan%Pöhlmann%NULL%1,                        Su-fen%Zhang%NULL%1,                        Jiu-ling%Tuo%NULL%1,                        Xu-bin%Huang%NULL%1,                        Xun%Zhu%NULL%1,                        Ding-mei%Zhang%NULL%1,                        Kai%Zhou%NULL%1,                        Lei%Yuan%NULL%1,                        Hong-jiao%Luo%NULL%1,                        Bo-jian%Zheng%NULL%1,                        Kwok-yung%Yuen%NULL%1,                        Meng-feng%Li%NULL%1,                        Kai-yuan%Cao%NULL%1,                        Lin%Xu%NULL%1,                        Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                        Rachel M%Reeves%null%1,                        Xin%Wang%null%1,                        Quique%Bassat%null%1,                        W Abdullah%Brooks%null%1,                        Cheryl%Cohen%null%1,                        David P%Moore%null%1,                        Marta%Nunes%null%1,                        Barbara%Rath%null%1,                        Harry%Campbell%null%1,                        Harish%Nair%null%1,                        Sozinho%Acacio%null%1,                        Wladimir J%Alonso%null%1,                        Martin%Antonio%null%1,                        Guadalupe%Ayora Talavera%null%1,                        Darmaa%Badarch%null%1,                        Vicky L%Baillie%null%1,                        Gisela%Barrera-Badillo%null%1,                        Godfrey%Bigogo%null%1,                        Shobha%Broor%null%1,                        Dana%Bruden%null%1,                        Philippe%Buchy%null%1,                        Peter%Byass%null%1,                        James%Chipeta%null%1,                        Wilfrido%Clara%null%1,                        Duc-Anh%Dang%null%1,                        Carla Cecília%de Freitas Lázaro Emediato%null%1,                        Menno%de Jong%null%1,                        José Alberto%Díaz-Quiñonez%null%1,                        Lien Anh Ha%Do%null%1,                        Rodrigo A%Fasce%null%1,                        Luzhao%Feng%null%1,                        Mark J%Ferson%null%1,                        Angela%Gentile%null%1,                        Bradford D%Gessner%null%1,                        Doli%Goswami%null%1,                        Sophie%Goyet%null%1,                        Carlos G%Grijalva%null%1,                        Natasha%Halasa%null%1,                        Orienka%Hellferscee%null%1,                        Danielle%Hessong%null%1,                        Nusrat%Homaira%null%1,                        Jorge%Jara%null%1,                        Kathleen%Kahn%null%1,                        Najwa%Khuri-Bulos%null%1,                        Karen L%Kotloff%null%1,                        Claudio F%Lanata%null%1,                        Olga%Lopez%null%1,                        Maria Renee%Lopez Bolaños%null%1,                        Marilla G%Lucero%null%1,                        Florencia%Lucion%null%1,                        Socorro P%Lupisan%null%1,                        Shabir A%Madhi%null%1,                        Omphile%Mekgoe%null%1,                        Cinta%Moraleda%null%1,                        Jocelyn%Moyes%null%1,                        Kim%Mulholland%null%1,                        Patrick K%Munywoki%null%1,                        Fathima%Naby%null%1,                        Thanh Hung%Nguyen%null%1,                        Mark P%Nicol%null%1,                        D James%Nokes%null%1,                        Daniel E%Noyola%null%1,                        Daisuke%Onozuka%null%1,                        Nandhini%Palani%null%1,                        Yong%Poovorawan%null%1,                        Mustafizur%Rahman%null%1,                        Kaat%Ramaekers%null%1,                        Candice%Romero%null%1,                        Elizabeth P%Schlaudecker%null%1,                        Brunhilde%Schweiger%null%1,                        Phil%Seidenberg%null%1,                        Eric A F%Simoes%null%1,                        Rosalyn%Singleton%null%1,                        Sujatha%Sistla%null%1,                        Katharine%Sturm-Ramirez%null%1,                        Nungruthai%Suntronwong%null%1,                        Agustinus%Sutanto%null%1,                        Milagritos D%Tapia%null%1,                        Somsak%Thamthitiwat%null%1,                        Ilada%Thongpan%null%1,                        Gayani%Tillekeratne%null%1,                        Yeny O%Tinoco%null%1,                        Florette K%Treurnicht%null%1,                        Claudia%Turner%null%1,                        Paul%Turner%null%1,                        Rogier%van Doorn%null%1,                        Marc%Van Ranst%null%1,                        Benoit%Visseaux%null%1,                        Sunthareeya%Waicharoen%null%1,                        Jianwei%Wang%null%1,                        Lay-Myint%Yoshida%null%1,                        Heather J%Zar%null%1,                    You%Li%null%1,                    Rachel M%Reeves%null%1,                    Xin%Wang%null%1,                    Quique%Bassat%null%1,                    W Abdullah%Brooks%null%1,                    Cheryl%Cohen%null%1,                    David P%Moore%null%1,                    Marta%Nunes%null%1,                    Barbara%Rath%null%1,                    Harry%Campbell%null%1,                    Harish%Nair%null%1,                    Sozinho%Acacio%null%1,                    Wladimir J%Alonso%null%1,                    Martin%Antonio%null%1,                    Guadalupe%Ayora Talavera%null%1,                    Darmaa%Badarch%null%1,                    Vicky L%Baillie%null%1,                    Gisela%Barrera-Badillo%null%1,                    Godfrey%Bigogo%null%1,                    Shobha%Broor%null%1,                    Dana%Bruden%null%1,                    Philippe%Buchy%null%1,                    Peter%Byass%null%1,                    James%Chipeta%null%1,                    Wilfrido%Clara%null%1,                    Duc-Anh%Dang%null%1,                    Carla Cecília%de Freitas Lázaro Emediato%null%1,                    Menno%de Jong%null%1,                    José Alberto%Díaz-Quiñonez%null%1,                    Lien Anh Ha%Do%null%1,                    Rodrigo A%Fasce%null%1,                    Luzhao%Feng%null%2,                    Mark J%Ferson%null%1,                    Angela%Gentile%null%1,                    Bradford D%Gessner%null%1,                    Doli%Goswami%null%1,                    Sophie%Goyet%null%1,                    Carlos G%Grijalva%null%1,                    Natasha%Halasa%null%1,                    Orienka%Hellferscee%null%1,                    Danielle%Hessong%null%1,                    Nusrat%Homaira%null%1,                    Jorge%Jara%null%1,                    Kathleen%Kahn%null%1,                    Najwa%Khuri-Bulos%null%1,                    Karen L%Kotloff%null%1,                    Claudio F%Lanata%null%1,                    Olga%Lopez%null%1,                    Maria Renee%Lopez Bolaños%null%1,                    Marilla G%Lucero%null%1,                    Florencia%Lucion%null%1,                    Socorro P%Lupisan%null%1,                    Shabir A%Madhi%null%1,                    Omphile%Mekgoe%null%1,                    Cinta%Moraleda%null%1,                    Jocelyn%Moyes%null%1,                    Kim%Mulholland%null%1,                    Patrick K%Munywoki%null%1,                    Fathima%Naby%null%1,                    Thanh Hung%Nguyen%null%1,                    Mark P%Nicol%null%1,                    D James%Nokes%null%1,                    Daniel E%Noyola%null%1,                    Daisuke%Onozuka%null%1,                    Nandhini%Palani%null%1,                    Yong%Poovorawan%null%1,                    Mustafizur%Rahman%null%1,                    Kaat%Ramaekers%null%1,                    Candice%Romero%null%1,                    Elizabeth P%Schlaudecker%null%1,                    Brunhilde%Schweiger%null%1,                    Phil%Seidenberg%null%1,                    Eric A F%Simoes%null%1,                    Rosalyn%Singleton%null%1,                    Sujatha%Sistla%null%1,                    Katharine%Sturm-Ramirez%null%1,                    Nungruthai%Suntronwong%null%1,                    Agustinus%Sutanto%null%1,                    Milagritos D%Tapia%null%1,                    Somsak%Thamthitiwat%null%1,                    Ilada%Thongpan%null%1,                    Gayani%Tillekeratne%null%1,                    Yeny O%Tinoco%null%1,                    Florette K%Treurnicht%null%1,                    Claudia%Turner%null%1,                    Paul%Turner%null%1,                    Rogier%van Doorn%null%1,                    Marc%Van Ranst%null%3,                    Benoit%Visseaux%null%1,                    Sunthareeya%Waicharoen%null%1,                    Jianwei%Wang%null%5,                    Lay-Myint%Yoshida%null%1,                    Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                      Jack%Bee Chook%coreGivesNoEmail%1,                      Kim%Tien Ng%coreGivesNoEmail%1,                      Kok%Keng Tee%coreGivesNoEmail%1,                      Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                      Nik%Sherina Hanafi%coreGivesNoEmail%1,                      van%der Hoek%coreGivesNoEmail%2,                      van%der Hoek%coreGivesNoEmail%0,                      van%Elden%coreGivesNoEmail%1,                      Xiang%Yong Oong%coreGivesNoEmail%1,                      Yong%Kek Pang%coreGivesNoEmail%1,                      Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Robin%Brittain-Long%xref no email%0, Lars-Magnus%Andersson%xref no email%1, Sigvard%Olofsson%xref no email%1, Magnus%Lindh%xref no email%1, Johan%Westin%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                          Dangui%Zhang%danguizhang@stu.edu.cn%1,                          Hui%Pan%michaelpan@stu.edu.cn%1,                          Fan%Zhang%lemon_fan@163.com%1,                          Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                          Frieda%Law%lawf@stu.edu.cn%1,                          H Rogier%van Doorn%hrogier@gmail.com%1,                          Beiyan%Wu%1261305798@qq.com%1,                          William%Ba-Thein%wbathein@stu.edu.cn%1,                         Binglin%Cui%binglincui@stu.edu.cn%1,                         Dangui%Zhang%danguizhang@stu.edu.cn%1,                         Hui%Pan%michaelpan@stu.edu.cn%1,                         Fan%Zhang%lemon_fan@163.com%1,                         Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                         Frieda%Law%lawf@stu.edu.cn%1,                         H Rogier%van Doorn%hrogier@gmail.com%1,                         Beiyan%Wu%1261305798@qq.com%1,                         William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                      Andrew%Berglund%coreGivesNoEmail%1,                      Christine%C. Robinson%coreGivesNoEmail%1,                      Christopher%D. Town%coreGivesNoEmail%1,                      Edison%Luiz Durigon%coreGivesNoEmail%1,                      Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                      Kathryn%V. Holmes%coreGivesNoEmail%1,                      Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                      Nadia%Fedorova%coreGivesNoEmail%1,                      Philip%A. Weston%coreGivesNoEmail%1,                      Rebecca%A. Halpin%coreGivesNoEmail%1,                      Samuel%R. Dominguez%coreGivesNoEmail%1,                      Susmita%Shrivastava%coreGivesNoEmail%1,                      Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                          Lifeng%Pan%NULL%1,                          Qiao%Sun%NULL%1,                          Weiping%Zhu%NULL%1,                          Linying%Zhu%NULL%1,                          Chuchu%Ye%NULL%1,                          Caoyi%Xue%NULL%1,                          Yuanping%Wang%NULL%1,                          Qing%Liu%NULL%1,                          Ping%Ma%NULL%1,                          Huifang%Qiu%NULL%1,                          Srinand%Sreevatsan%NULL%1,                         Yifei%Fu%NULL%1,                         Lifeng%Pan%NULL%1,                         Qiao%Sun%NULL%1,                         Weiping%Zhu%NULL%1,                         Linying%Zhu%NULL%1,                         Chuchu%Ye%NULL%1,                         Caoyi%Xue%NULL%1,                         Yuanping%Wang%NULL%1,                         Qing%Liu%NULL%1,                         Ping%Ma%NULL%1,                         Huifang%Qiu%NULL%1,                         Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                          Mumtaz Cem%Sirin%NULL%1,                         Safak%Goktas%NULL%1,                         Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                          Nina%Moe%NULL%1,                          Sidsel%Krokstad%NULL%2,                          Andreas%Christensen%NULL%2,                          Lars Høsøien%Skanke%NULL%2,                          Svein Arne%Nordbø%NULL%2,                          Henrik%Døllner%henrik.dollner@ntnu.no%2,                         Inger%Heimdal%NULL%1,                         Nina%Moe%NULL%2,                         Sidsel%Krokstad%NULL%2,                         Andreas%Christensen%NULL%2,                         Lars Høsøien%Skanke%NULL%2,                         Svein Arne%Nordbø%NULL%2,                         Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                          Inger Heimdal%Stenseng%NULL%1,                          Sidsel%Krokstad%NULL%0,                          Andreas%Christensen%NULL%0,                          Lars Høsøien%Skanke%NULL%0,                          Kari Ravndal%Risnes%NULL%1,                          Svein Arne%Nordbø%NULL%0,                          Henrik%Døllner%henrik.dollner@ntnu.no%0,                         Nina%Moe%NULL%0,                         Inger Heimdal%Stenseng%NULL%1,                         Sidsel%Krokstad%NULL%0,                         Andreas%Christensen%NULL%0,                         Lars Høsøien%Skanke%NULL%0,                         Kari Ravndal%Risnes%NULL%1,                         Svein Arne%Nordbø%NULL%0,                         Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Seema%Jain%xref no email%0, Derek J.%Williams%xref no email%1, Sandra R.%Arnold%xref no email%1, Krow%Ampofo%xref no email%1, Anna M.%Bramley%xref no email%1, Carrie%Reed%xref no email%1, Chris%Stockmann%xref no email%1, Evan J.%Anderson%xref no email%1, Carlos G.%Grijalva%xref no email%1, Wesley H.%Self%xref no email%1, Yuwei%Zhu%xref no email%1, Anami%Patel%xref no email%1, Weston%Hymas%xref no email%1, James D.%Chappell%xref no email%1, Robert A.%Kaufman%xref no email%1, J. Herman%Kan%xref no email%1, David%Dansie%xref no email%1, Noel%Lenny%xref no email%1, David R.%Hillyard%xref no email%1, Lia M.%Haynes%xref no email%1, Min%Levine%xref no email%1, Stephen%Lindstrom%xref no email%1, Jonas M.%Winchell%xref no email%1, Jacqueline M.%Katz%xref no email%1, Dean%Erdman%xref no email%1, Eileen%Schneider%xref no email%1, Lauri A.%Hicks%xref no email%1, Richard G.%Wunderink%xref no email%1, Kathryn M.%Edwards%xref no email%1, Andrew T.%Pavia%xref no email%1, Jonathan A.%McCullers%xref no email%1, Lyn%Finelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                          Andrej%Steyer%NULL%1,                          Marko%Pokorn%NULL%1,                          Tatjana%Mrvič%NULL%1,                          Štefan%Grosek%NULL%1,                          Franc%Strle%NULL%1,                          Lara%Lusa%NULL%1,                          Miroslav%Petrovec%NULL%1,                          Oliver%Schildgen%NULL%1,                         Monika%Jevšnik%NULL%1,                         Andrej%Steyer%NULL%1,                         Marko%Pokorn%NULL%1,                         Tatjana%Mrvič%NULL%1,                         Štefan%Grosek%NULL%1,                         Franc%Strle%NULL%1,                         Lara%Lusa%NULL%1,                         Miroslav%Petrovec%NULL%1,                         Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                          Matti%Waris%NULL%1,                          Kari%Johansen%NULL%1,                          René%Snacken%NULL%1,                          Pasi%Penttinen%NULL%1,                          NULL%NULL%NULL%3,                         Eeva K%Broberg%NULL%1,                         Matti%Waris%NULL%1,                         Kari%Johansen%NULL%1,                         René%Snacken%NULL%1,                         Pasi%Penttinen%NULL%1,                         NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                          Qiaoyun%Fang%NULL%1,                          Jian%Zhang%NULL%1,                          Angao%Xu%NULL%1,                          Lihuan%Liang%NULL%1,                          Changwen%Ke%hzmedicine@163.com%1,                         Xiongfei%Ju%NULL%1,                         Qiaoyun%Fang%NULL%1,                         Jian%Zhang%NULL%1,                         Angao%Xu%NULL%1,                         Lihuan%Liang%NULL%1,                         Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                          Holly M.%Biggs%NULL%1,                          Amber%Haynes%NULL%1,                          Rebecca M.%Dahl%NULL%1,                          Desiree%Mustaquim%NULL%1,                          Susan I.%Gerber%NULL%1,                          John T.%Watson%NULL%1,                         Marie E.%Killerby%lxo9@cdc.gov%1,                         Holly M.%Biggs%NULL%1,                         Amber%Haynes%NULL%1,                         Rebecca M.%Dahl%NULL%1,                         Desiree%Mustaquim%NULL%1,                         Susan I.%Gerber%NULL%1,                         John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                          Hee‐Dong%Jung%NULL%1,                          Hyang‐Min%Cheong%NULL%1,                          Anna%Lee%NULL%1,                          Nam‐Joo%Lee%NULL%1,                          Hyuk%Chu%NULL%1,                          Joo‐Yeon%Lee%NULL%1,                          Sung Soon%Kim%NULL%1,                          Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                         Jeong‐Min%Kim%NULL%1,                         Hee‐Dong%Jung%NULL%1,                         Hyang‐Min%Cheong%NULL%1,                         Anna%Lee%NULL%1,                         Nam‐Joo%Lee%NULL%1,                         Hyuk%Chu%NULL%1,                         Joo‐Yeon%Lee%NULL%1,                         Sung Soon%Kim%NULL%1,                         Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Susanna K. P.%Lau%xref no email%0, Patrick C. Y.%Woo%xref no email%1, Cyril C. Y.%Yip%xref no email%1, Herman%Tse%xref no email%1, Hoi-wah%Tsoi%xref no email%1, Vincent C. C.%Cheng%xref no email%0, Paul%Lee%xref no email%1, Bone S. F.%Tang%xref no email%1, Chris H. Y.%Cheung%xref no email%1, Rodney A.%Lee%xref no email%1, Lok-yee%So%xref no email%1, Yu-lung%Lau%xref no email%1, Kwok-hung%Chan%xref no email%1, Kwok-yung%Yuen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Microbiology</t>
+  </si>
+  <si>
+    <t>[Prawin%Kumar%xref no email%0, Guruprasad R.%Medigeshi%xref no email%1, Vishnu S.%Mishra%xref no email%1, Mojahidul%Islam%xref no email%1, Shivani%Randev%xref no email%1, Aparna%Mukherjee%xref no email%1, Rama%Chaudhry%xref no email%1, Arti%Kapil%xref no email%1, Kana%Ram Jat%xref no email%1, Rakesh%Lodha%xref no email%1, Sushil K.%Kabra%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Seung Jin%Lee%xref no email%0, Shin Hae%Lee%xref no email%1, Eun Kyo%Ha%xref no email%1, Youn Ho%Sheen%xref no email%1, Myong Soon%Sung%xref no email%1, Young-Ho%Jung%xref no email%1, Kyung Suk%Lee%xref no email%1, Hye Mi%Jee%xref no email%1, Man Yong%Han%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: The Korean Academy of Asthma, Allergy and Clinical Immunology and The Korean Academy of Pediatric Al</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                          Juansheng%Li%lijsh16@163.com%1,                          Lei%Meng%mleicdc@163.com%1,                          Wanqi%Zhu%NULL%1,                          Xinfeng%Liu%NULL%1,                          Mei%Yang%NULL%1,                          Deshan%Yu%NULL%2,                          Lixia%Niu%NULL%1,                          Xiping%Shen%NULL%1,                         Xuechao%Li%NULL%1,                         Juansheng%Li%lijsh16@163.com%1,                         Lei%Meng%mleicdc@163.com%1,                         Wanqi%Zhu%NULL%1,                         Xinfeng%Liu%NULL%1,                         Mei%Yang%NULL%1,                         Deshan%Yu%NULL%2,                         Lixia%Niu%NULL%1,                         Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                          James G.%Bosley%NULL%1,                         Christine M.%Litwin%clitwin@gru.edu%1,                         James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yohei%Matoba%xref no email%0, Chieko%Abiko%xref no email%1, Tatsuya%Ikeda%xref no email%1, Yoko%Aoki%xref no email%1, Yu%Suzuki%xref no email%1, Kazue%Yahagi%xref no email%1, Yoko%Matsuzaki%xref no email%1, Tsutomu%Itagaki%xref no email%1, Fumio%Katsushima%xref no email%1, Yuriko%Katsushima%xref no email%1, Katsumi%Mizuta%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Editorial Committee of Japanese Journal of Infectious Diseases, National Institute of Infectious Dis</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                          Elsie Laban%Yekwa%NULL%1,                          Pierre%Cappy%NULL%1,                          Astrid%Vabret%NULL%2,                          Pascal%Boisier%NULL%1,                          Dominique%Rousset%NULL%1,                         Richard%Njouom%NULL%1,                         Elsie Laban%Yekwa%NULL%1,                         Pierre%Cappy%NULL%1,                         Astrid%Vabret%NULL%2,                         Pascal%Boisier%NULL%1,                         Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                          Suvi%Lappalainen%NULL%1,                          Timo%Vesikari%NULL%1,                         Minna%Paloniemi%NULL%1,                         Suvi%Lappalainen%NULL%1,                         Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                          Richard%Gonzalez%NULL%1,                          Jin%Xu%NULL%1,                          Yan%Xiao%NULL%1,                          Yongjun%Li%NULL%1,                          Hongli%Zhou%NULL%1,                          Jianguo%Li%NULL%1,                          Qingqing%Yang%NULL%1,                          Jing%Zhang%NULL%1,                          Lan%Chen%NULL%1,                          Wei%Wang%NULL%1,                          Guy%Vernet%NULL%1,                          Gláucia%Paranhos‐Baccalà%NULL%1,                          Zhong%Wang%wangzhong523@vip.163.com%1,                          Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                         Lili%Ren%NULL%1,                         Richard%Gonzalez%NULL%1,                         Jin%Xu%NULL%1,                         Yan%Xiao%NULL%1,                         Yongjun%Li%NULL%1,                         Hongli%Zhou%NULL%1,                         Jianguo%Li%NULL%1,                         Qingqing%Yang%NULL%1,                         Jing%Zhang%NULL%1,                         Lan%Chen%NULL%1,                         Wei%Wang%NULL%1,                         Guy%Vernet%NULL%1,                         Gláucia%Paranhos‐Baccalà%NULL%1,                         Zhong%Wang%wangzhong523@vip.163.com%1,                         Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                      Druelle%Valentin%coreGivesNoEmail%1,                      Dyrdak%Robert%coreGivesNoEmail%1,                      Hodcroft%Emma B.%coreGivesNoEmail%1,                      Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                          Ilada%Thongpan%ilada.cu09@gmail.com%1,                          Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                          Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                          Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                          Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                          Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                          Yong%Poovorawan%yong.p@chula.ac.th%1,                         Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                         Ilada%Thongpan%ilada.cu09@gmail.com%1,                         Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                         Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                         Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                         Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                         Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                         Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                          Janet A%Englund%NULL%1,                          Jane Y%Kuypers%NULL%1,                          Helen Y%Chu%NULL%1,                          Mark C%Steinhoff%NULL%1,                          Subarna K%Khatry%NULL%1,                          Steve C%LeClerq%NULL%1,                          James M%Tielsch%NULL%1,                          Luke C%Mullany%NULL%1,                          Laxman%Shrestha%NULL%2,                          Joanne%Katz%jkatz1@jhu.edu%2,                         S M Iftekhar%Uddin%NULL%1,                         Janet A%Englund%NULL%1,                         Jane Y%Kuypers%NULL%1,                         Helen Y%Chu%NULL%1,                         Mark C%Steinhoff%NULL%1,                         Subarna K%Khatry%NULL%1,                         Steve C%LeClerq%NULL%1,                         James M%Tielsch%NULL%1,                         Luke C%Mullany%NULL%1,                         Laxman%Shrestha%NULL%2,                         Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                          Joanne%Katz%NULL%0,                          James%Tielsch%NULL%1,                          Subarna K.%Khatry%NULL%1,                          Laxman%Shrestha%NULL%0,                          Steven C.%LeClerq%NULL%1,                          Amalia%Magaret%NULL%1,                          Jane%Kuypers%NULL%1,                          Mark%Steinhoff%NULL%1,                          Janet A.%Englund%NULL%1,                         Helen Y.%Chu%helenchu@uw.edu%1,                         Joanne%Katz%NULL%0,                         James%Tielsch%NULL%1,                         Subarna K.%Khatry%NULL%1,                         Laxman%Shrestha%NULL%0,                         Steven C.%LeClerq%NULL%1,                         Amalia%Magaret%NULL%1,                         Jane%Kuypers%NULL%1,                         Mark%Steinhoff%NULL%1,                         Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                          Gabriele%Ihorst%NULL%1,                          Klaus%Sure%NULL%1,                          Astrid%Vabret%NULL%0,                          Ronald%Dijkman%NULL%1,                          Michel%de Vries%NULL%1,                          Johannes%Forster%NULL%1,                          Ben%Berkhout%NULL%1,                          Klaus%Uberla%NULL%1,                         Lia%van der Hoek%NULL%1,                         Gabriele%Ihorst%NULL%1,                         Klaus%Sure%NULL%1,                         Astrid%Vabret%NULL%0,                         Ronald%Dijkman%NULL%1,                         Michel%de Vries%NULL%1,                         Johannes%Forster%NULL%1,                         Ben%Berkhout%NULL%1,                         Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                          Philip%Zachariah%pz2177@cumc.columbia.edu%1,                          Celibell%Vargas%NULL%1,                          Philip%LaRussa%NULL%1,                          Ryan T%Demmer%NULL%1,                          Yoko E%Furuya%NULL%1,                          Susan%Whittier%NULL%1,                          Carrie%Reed%NULL%1,                          Melissa S%Stockwell%NULL%1,                          Lisa%Saiman%NULL%1,                         Litty%Varghese%NULL%1,                         Philip%Zachariah%pz2177@cumc.columbia.edu%1,                         Celibell%Vargas%NULL%1,                         Philip%LaRussa%NULL%1,                         Ryan T%Demmer%NULL%1,                         Yoko E%Furuya%NULL%1,                         Susan%Whittier%NULL%1,                         Carrie%Reed%NULL%1,                         Melissa S%Stockwell%NULL%1,                         Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                          Ria%Lassaunière%NULL%1,                          Tina Louise%Kresfelder%NULL%1,                          Yvette%Westerberg%NULL%1,                          Adele%Visser%NULL%1,                         Marietjie%Venter%marietjiev@nicd.ac.za%1,                         Ria%Lassaunière%NULL%1,                         Tina Louise%Kresfelder%NULL%1,                         Yvette%Westerberg%NULL%1,                         Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                          Charles%Burdet%NULL%1,                          Guillaume%Voiriot%NULL%1,                          François-Xavier%Lescure%NULL%1,                          Taous%Chougar%NULL%1,                          Olivier%Brugière%NULL%1,                          Bruno%Crestani%NULL%1,                          Enrique%Casalino%NULL%1,                          Charlotte%Charpentier%NULL%1,                          Diane%Descamps%NULL%1,                          Jean-François%Timsit%NULL%1,                          Yazdan%Yazdanpanah%NULL%1,                          Nadhira%Houhou-Fidouh%NULL%1,                          Dena L.%Schanzer%NULL%1,                         Benoit%Visseaux%NULL%1,                         Charles%Burdet%NULL%1,                         Guillaume%Voiriot%NULL%1,                         François-Xavier%Lescure%NULL%1,                         Taous%Chougar%NULL%1,                         Olivier%Brugière%NULL%1,                         Bruno%Crestani%NULL%1,                         Enrique%Casalino%NULL%1,                         Charlotte%Charpentier%NULL%1,                         Diane%Descamps%NULL%1,                         Jean-François%Timsit%NULL%1,                         Yazdan%Yazdanpanah%NULL%1,                         Nadhira%Houhou-Fidouh%NULL%1,                         Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                          Deshan%Yu%NULL%0,                          Naiying%Mao%NULL%1,                          Zhen%Zhu%NULL%1,                          Hui%Zhang%NULL%1,                          Zhongyi%Jiang%NULL%1,                          Hongyu%Li%NULL%1,                          Yan%Zhang%NULL%1,                          Jing%Shi%NULL%1,                          Shuang%Zhang%NULL%1,                          Xinhua%Wang%NULL%1,                          Wenbo%Xu%NULL%1,                          Dong-Yan%Jin%NULL%1,                         Guohong%Huang%NULL%1,                         Deshan%Yu%NULL%0,                         Naiying%Mao%NULL%1,                         Zhen%Zhu%NULL%1,                         Hui%Zhang%NULL%1,                         Zhongyi%Jiang%NULL%1,                         Hongyu%Li%NULL%1,                         Yan%Zhang%NULL%1,                         Jing%Shi%NULL%1,                         Shuang%Zhang%NULL%1,                         Xinhua%Wang%NULL%1,                         Wenbo%Xu%NULL%1,                         Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                          Jiu-ling%Tuo%NULL%1,                          Xu-bin%Huang%NULL%1,                          Xun%Zhu%NULL%1,                          Ding-mei%Zhang%NULL%1,                          Kai%Zhou%NULL%1,                          Lei%Yuan%NULL%1,                          Hong-jiao%Luo%NULL%1,                          Bo-jian%Zheng%NULL%1,                          Kwok-yung%Yuen%NULL%1,                          Meng-feng%Li%NULL%1,                          Kai-yuan%Cao%NULL%1,                          Lin%Xu%NULL%1,                          Stefan%Pöhlmann%NULL%1,                         Su-fen%Zhang%NULL%1,                         Jiu-ling%Tuo%NULL%1,                         Xu-bin%Huang%NULL%1,                         Xun%Zhu%NULL%1,                         Ding-mei%Zhang%NULL%1,                         Kai%Zhou%NULL%1,                         Lei%Yuan%NULL%1,                         Hong-jiao%Luo%NULL%1,                         Bo-jian%Zheng%NULL%1,                         Kwok-yung%Yuen%NULL%1,                         Meng-feng%Li%NULL%1,                         Kai-yuan%Cao%NULL%1,                         Lin%Xu%NULL%1,                         Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                         Rachel M%Reeves%null%1,                         Xin%Wang%null%1,                         Quique%Bassat%null%1,                         W Abdullah%Brooks%null%1,                         Cheryl%Cohen%null%1,                         David P%Moore%null%1,                         Marta%Nunes%null%1,                         Barbara%Rath%null%1,                         Harry%Campbell%null%1,                         Harish%Nair%null%1,                         Sozinho%Acacio%null%1,                         Wladimir J%Alonso%null%1,                         Martin%Antonio%null%1,                         Guadalupe%Ayora Talavera%null%1,                         Darmaa%Badarch%null%1,                         Vicky L%Baillie%null%1,                         Gisela%Barrera-Badillo%null%1,                         Godfrey%Bigogo%null%1,                         Shobha%Broor%null%1,                         Dana%Bruden%null%1,                         Philippe%Buchy%null%1,                         Peter%Byass%null%1,                         James%Chipeta%null%1,                         Wilfrido%Clara%null%1,                         Duc-Anh%Dang%null%1,                         Carla Cecília%de Freitas Lázaro Emediato%null%1,                         Menno%de Jong%null%1,                         José Alberto%Díaz-Quiñonez%null%1,                         Lien Anh Ha%Do%null%1,                         Rodrigo A%Fasce%null%1,                         Luzhao%Feng%null%1,                         Mark J%Ferson%null%1,                         Angela%Gentile%null%1,                         Bradford D%Gessner%null%1,                         Doli%Goswami%null%1,                         Sophie%Goyet%null%1,                         Carlos G%Grijalva%null%1,                         Natasha%Halasa%null%1,                         Orienka%Hellferscee%null%1,                         Danielle%Hessong%null%1,                         Nusrat%Homaira%null%1,                         Jorge%Jara%null%1,                         Kathleen%Kahn%null%1,                         Najwa%Khuri-Bulos%null%1,                         Karen L%Kotloff%null%1,                         Claudio F%Lanata%null%1,                         Olga%Lopez%null%1,                         Maria Renee%Lopez Bolaños%null%1,                         Marilla G%Lucero%null%1,                         Florencia%Lucion%null%1,                         Socorro P%Lupisan%null%1,                         Shabir A%Madhi%null%1,                         Omphile%Mekgoe%null%1,                         Cinta%Moraleda%null%1,                         Jocelyn%Moyes%null%1,                         Kim%Mulholland%null%1,                         Patrick K%Munywoki%null%1,                         Fathima%Naby%null%1,                         Thanh Hung%Nguyen%null%1,                         Mark P%Nicol%null%1,                         D James%Nokes%null%1,                         Daniel E%Noyola%null%1,                         Daisuke%Onozuka%null%1,                         Nandhini%Palani%null%1,                         Yong%Poovorawan%null%1,                         Mustafizur%Rahman%null%1,                         Kaat%Ramaekers%null%1,                         Candice%Romero%null%1,                         Elizabeth P%Schlaudecker%null%1,                         Brunhilde%Schweiger%null%1,                         Phil%Seidenberg%null%1,                         Eric A F%Simoes%null%1,                         Rosalyn%Singleton%null%1,                         Sujatha%Sistla%null%1,                         Katharine%Sturm-Ramirez%null%1,                         Nungruthai%Suntronwong%null%1,                         Agustinus%Sutanto%null%1,                         Milagritos D%Tapia%null%1,                         Somsak%Thamthitiwat%null%1,                         Ilada%Thongpan%null%1,                         Gayani%Tillekeratne%null%1,                         Yeny O%Tinoco%null%1,                         Florette K%Treurnicht%null%1,                         Claudia%Turner%null%1,                         Paul%Turner%null%1,                         Rogier%van Doorn%null%1,                         Marc%Van Ranst%null%1,                         Benoit%Visseaux%null%1,                         Sunthareeya%Waicharoen%null%1,                         Jianwei%Wang%null%1,                         Lay-Myint%Yoshida%null%1,                         Heather J%Zar%null%1,                     You%Li%null%1,                     Rachel M%Reeves%null%1,                     Xin%Wang%null%1,                     Quique%Bassat%null%1,                     W Abdullah%Brooks%null%1,                     Cheryl%Cohen%null%1,                     David P%Moore%null%1,                     Marta%Nunes%null%1,                     Barbara%Rath%null%1,                     Harry%Campbell%null%1,                     Harish%Nair%null%1,                     Sozinho%Acacio%null%1,                     Wladimir J%Alonso%null%1,                     Martin%Antonio%null%1,                     Guadalupe%Ayora Talavera%null%1,                     Darmaa%Badarch%null%1,                     Vicky L%Baillie%null%1,                     Gisela%Barrera-Badillo%null%1,                     Godfrey%Bigogo%null%1,                     Shobha%Broor%null%1,                     Dana%Bruden%null%1,                     Philippe%Buchy%null%1,                     Peter%Byass%null%1,                     James%Chipeta%null%1,                     Wilfrido%Clara%null%1,                     Duc-Anh%Dang%null%1,                     Carla Cecília%de Freitas Lázaro Emediato%null%1,                     Menno%de Jong%null%1,                     José Alberto%Díaz-Quiñonez%null%1,                     Lien Anh Ha%Do%null%1,                     Rodrigo A%Fasce%null%1,                     Luzhao%Feng%null%2,                     Mark J%Ferson%null%1,                     Angela%Gentile%null%1,                     Bradford D%Gessner%null%1,                     Doli%Goswami%null%1,                     Sophie%Goyet%null%1,                     Carlos G%Grijalva%null%1,                     Natasha%Halasa%null%1,                     Orienka%Hellferscee%null%1,                     Danielle%Hessong%null%1,                     Nusrat%Homaira%null%1,                     Jorge%Jara%null%1,                     Kathleen%Kahn%null%1,                     Najwa%Khuri-Bulos%null%1,                     Karen L%Kotloff%null%1,                     Claudio F%Lanata%null%1,                     Olga%Lopez%null%1,                     Maria Renee%Lopez Bolaños%null%1,                     Marilla G%Lucero%null%1,                     Florencia%Lucion%null%1,                     Socorro P%Lupisan%null%1,                     Shabir A%Madhi%null%1,                     Omphile%Mekgoe%null%1,                     Cinta%Moraleda%null%1,                     Jocelyn%Moyes%null%1,                     Kim%Mulholland%null%1,                     Patrick K%Munywoki%null%1,                     Fathima%Naby%null%1,                     Thanh Hung%Nguyen%null%1,                     Mark P%Nicol%null%1,                     D James%Nokes%null%1,                     Daniel E%Noyola%null%1,                     Daisuke%Onozuka%null%1,                     Nandhini%Palani%null%1,                     Yong%Poovorawan%null%1,                     Mustafizur%Rahman%null%1,                     Kaat%Ramaekers%null%1,                     Candice%Romero%null%1,                     Elizabeth P%Schlaudecker%null%1,                     Brunhilde%Schweiger%null%1,                     Phil%Seidenberg%null%1,                     Eric A F%Simoes%null%1,                     Rosalyn%Singleton%null%1,                     Sujatha%Sistla%null%1,                     Katharine%Sturm-Ramirez%null%1,                     Nungruthai%Suntronwong%null%1,                     Agustinus%Sutanto%null%1,                     Milagritos D%Tapia%null%1,                     Somsak%Thamthitiwat%null%1,                     Ilada%Thongpan%null%1,                     Gayani%Tillekeratne%null%1,                     Yeny O%Tinoco%null%1,                     Florette K%Treurnicht%null%1,                     Claudia%Turner%null%1,                     Paul%Turner%null%1,                     Rogier%van Doorn%null%1,                     Marc%Van Ranst%null%3,                     Benoit%Visseaux%null%1,                     Sunthareeya%Waicharoen%null%1,                     Jianwei%Wang%null%5,                     Lay-Myint%Yoshida%null%1,                     Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                       Jack%Bee Chook%coreGivesNoEmail%1,                       Kim%Tien Ng%coreGivesNoEmail%1,                       Kok%Keng Tee%coreGivesNoEmail%1,                       Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                       Nik%Sherina Hanafi%coreGivesNoEmail%1,                       van%der Hoek%coreGivesNoEmail%2,                       van%der Hoek%coreGivesNoEmail%0,                       van%Elden%coreGivesNoEmail%1,                       Xiang%Yong Oong%coreGivesNoEmail%1,                       Yong%Kek Pang%coreGivesNoEmail%1,                       Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                           Dangui%Zhang%danguizhang@stu.edu.cn%1,                           Hui%Pan%michaelpan@stu.edu.cn%1,                           Fan%Zhang%lemon_fan@163.com%1,                           Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                           Frieda%Law%lawf@stu.edu.cn%1,                           H Rogier%van Doorn%hrogier@gmail.com%1,                           Beiyan%Wu%1261305798@qq.com%1,                           William%Ba-Thein%wbathein@stu.edu.cn%1,                          Binglin%Cui%binglincui@stu.edu.cn%1,                          Dangui%Zhang%danguizhang@stu.edu.cn%1,                          Hui%Pan%michaelpan@stu.edu.cn%1,                          Fan%Zhang%lemon_fan@163.com%1,                          Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                          Frieda%Law%lawf@stu.edu.cn%1,                          H Rogier%van Doorn%hrogier@gmail.com%1,                          Beiyan%Wu%1261305798@qq.com%1,                          William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                       Andrew%Berglund%coreGivesNoEmail%1,                       Christine%C. Robinson%coreGivesNoEmail%1,                       Christopher%D. Town%coreGivesNoEmail%1,                       Edison%Luiz Durigon%coreGivesNoEmail%1,                       Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                       Kathryn%V. Holmes%coreGivesNoEmail%1,                       Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                       Nadia%Fedorova%coreGivesNoEmail%1,                       Philip%A. Weston%coreGivesNoEmail%1,                       Rebecca%A. Halpin%coreGivesNoEmail%1,                       Samuel%R. Dominguez%coreGivesNoEmail%1,                       Susmita%Shrivastava%coreGivesNoEmail%1,                       Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                           Lifeng%Pan%NULL%1,                           Qiao%Sun%NULL%1,                           Weiping%Zhu%NULL%1,                           Linying%Zhu%NULL%1,                           Chuchu%Ye%NULL%1,                           Caoyi%Xue%NULL%1,                           Yuanping%Wang%NULL%1,                           Qing%Liu%NULL%1,                           Ping%Ma%NULL%1,                           Huifang%Qiu%NULL%1,                           Srinand%Sreevatsan%NULL%1,                          Yifei%Fu%NULL%1,                          Lifeng%Pan%NULL%1,                          Qiao%Sun%NULL%1,                          Weiping%Zhu%NULL%1,                          Linying%Zhu%NULL%1,                          Chuchu%Ye%NULL%1,                          Caoyi%Xue%NULL%1,                          Yuanping%Wang%NULL%1,                          Qing%Liu%NULL%1,                          Ping%Ma%NULL%1,                          Huifang%Qiu%NULL%1,                          Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                           Mumtaz Cem%Sirin%NULL%1,                          Safak%Goktas%NULL%1,                          Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                           Nina%Moe%NULL%1,                           Sidsel%Krokstad%NULL%2,                           Andreas%Christensen%NULL%2,                           Lars Høsøien%Skanke%NULL%2,                           Svein Arne%Nordbø%NULL%2,                           Henrik%Døllner%henrik.dollner@ntnu.no%2,                          Inger%Heimdal%NULL%1,                          Nina%Moe%NULL%2,                          Sidsel%Krokstad%NULL%2,                          Andreas%Christensen%NULL%2,                          Lars Høsøien%Skanke%NULL%2,                          Svein Arne%Nordbø%NULL%2,                          Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                           Inger Heimdal%Stenseng%NULL%1,                           Sidsel%Krokstad%NULL%0,                           Andreas%Christensen%NULL%0,                           Lars Høsøien%Skanke%NULL%0,                           Kari Ravndal%Risnes%NULL%1,                           Svein Arne%Nordbø%NULL%0,                           Henrik%Døllner%henrik.dollner@ntnu.no%0,                          Nina%Moe%NULL%0,                          Inger Heimdal%Stenseng%NULL%1,                          Sidsel%Krokstad%NULL%0,                          Andreas%Christensen%NULL%0,                          Lars Høsøien%Skanke%NULL%0,                          Kari Ravndal%Risnes%NULL%1,                          Svein Arne%Nordbø%NULL%0,                          Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                           Andrej%Steyer%NULL%1,                           Marko%Pokorn%NULL%1,                           Tatjana%Mrvič%NULL%1,                           Štefan%Grosek%NULL%1,                           Franc%Strle%NULL%1,                           Lara%Lusa%NULL%1,                           Miroslav%Petrovec%NULL%1,                           Oliver%Schildgen%NULL%1,                          Monika%Jevšnik%NULL%1,                          Andrej%Steyer%NULL%1,                          Marko%Pokorn%NULL%1,                          Tatjana%Mrvič%NULL%1,                          Štefan%Grosek%NULL%1,                          Franc%Strle%NULL%1,                          Lara%Lusa%NULL%1,                          Miroslav%Petrovec%NULL%1,                          Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                           Matti%Waris%NULL%1,                           Kari%Johansen%NULL%1,                           René%Snacken%NULL%1,                           Pasi%Penttinen%NULL%1,                           NULL%NULL%NULL%3,                          Eeva K%Broberg%NULL%1,                          Matti%Waris%NULL%1,                          Kari%Johansen%NULL%1,                          René%Snacken%NULL%1,                          Pasi%Penttinen%NULL%1,                          NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                           Qiaoyun%Fang%NULL%1,                           Jian%Zhang%NULL%1,                           Angao%Xu%NULL%1,                           Lihuan%Liang%NULL%1,                           Changwen%Ke%hzmedicine@163.com%1,                          Xiongfei%Ju%NULL%1,                          Qiaoyun%Fang%NULL%1,                          Jian%Zhang%NULL%1,                          Angao%Xu%NULL%1,                          Lihuan%Liang%NULL%1,                          Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                           Holly M.%Biggs%NULL%1,                           Amber%Haynes%NULL%1,                           Rebecca M.%Dahl%NULL%1,                           Desiree%Mustaquim%NULL%1,                           Susan I.%Gerber%NULL%1,                           John T.%Watson%NULL%1,                          Marie E.%Killerby%lxo9@cdc.gov%1,                          Holly M.%Biggs%NULL%1,                          Amber%Haynes%NULL%1,                          Rebecca M.%Dahl%NULL%1,                          Desiree%Mustaquim%NULL%1,                          Susan I.%Gerber%NULL%1,                          John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                           Hee‐Dong%Jung%NULL%1,                           Hyang‐Min%Cheong%NULL%1,                           Anna%Lee%NULL%1,                           Nam‐Joo%Lee%NULL%1,                           Hyuk%Chu%NULL%1,                           Joo‐Yeon%Lee%NULL%1,                           Sung Soon%Kim%NULL%1,                           Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                          Jeong‐Min%Kim%NULL%1,                          Hee‐Dong%Jung%NULL%1,                          Hyang‐Min%Cheong%NULL%1,                          Anna%Lee%NULL%1,                          Nam‐Joo%Lee%NULL%1,                          Hyuk%Chu%NULL%1,                          Joo‐Yeon%Lee%NULL%1,                          Sung Soon%Kim%NULL%1,                          Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                           Juansheng%Li%lijsh16@163.com%1,                           Lei%Meng%mleicdc@163.com%1,                           Wanqi%Zhu%NULL%1,                           Xinfeng%Liu%NULL%1,                           Mei%Yang%NULL%1,                           Deshan%Yu%NULL%2,                           Lixia%Niu%NULL%1,                           Xiping%Shen%NULL%1,                          Xuechao%Li%NULL%1,                          Juansheng%Li%lijsh16@163.com%1,                          Lei%Meng%mleicdc@163.com%1,                          Wanqi%Zhu%NULL%1,                          Xinfeng%Liu%NULL%1,                          Mei%Yang%NULL%1,                          Deshan%Yu%NULL%2,                          Lixia%Niu%NULL%1,                          Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                           James G.%Bosley%NULL%1,                          Christine M.%Litwin%clitwin@gru.edu%1,                          James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                           Elsie Laban%Yekwa%NULL%1,                           Pierre%Cappy%NULL%1,                           Astrid%Vabret%NULL%2,                           Pascal%Boisier%NULL%1,                           Dominique%Rousset%NULL%1,                          Richard%Njouom%NULL%1,                          Elsie Laban%Yekwa%NULL%1,                          Pierre%Cappy%NULL%1,                          Astrid%Vabret%NULL%2,                          Pascal%Boisier%NULL%1,                          Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                           Suvi%Lappalainen%NULL%1,                           Timo%Vesikari%NULL%1,                          Minna%Paloniemi%NULL%1,                          Suvi%Lappalainen%NULL%1,                          Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                           Richard%Gonzalez%NULL%1,                           Jin%Xu%NULL%1,                           Yan%Xiao%NULL%1,                           Yongjun%Li%NULL%1,                           Hongli%Zhou%NULL%1,                           Jianguo%Li%NULL%1,                           Qingqing%Yang%NULL%1,                           Jing%Zhang%NULL%1,                           Lan%Chen%NULL%1,                           Wei%Wang%NULL%1,                           Guy%Vernet%NULL%1,                           Gláucia%Paranhos‐Baccalà%NULL%1,                           Zhong%Wang%wangzhong523@vip.163.com%1,                           Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                          Lili%Ren%NULL%1,                          Richard%Gonzalez%NULL%1,                          Jin%Xu%NULL%1,                          Yan%Xiao%NULL%1,                          Yongjun%Li%NULL%1,                          Hongli%Zhou%NULL%1,                          Jianguo%Li%NULL%1,                          Qingqing%Yang%NULL%1,                          Jing%Zhang%NULL%1,                          Lan%Chen%NULL%1,                          Wei%Wang%NULL%1,                          Guy%Vernet%NULL%1,                          Gláucia%Paranhos‐Baccalà%NULL%1,                          Zhong%Wang%wangzhong523@vip.163.com%1,                          Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                       Druelle%Valentin%coreGivesNoEmail%1,                       Dyrdak%Robert%coreGivesNoEmail%1,                       Hodcroft%Emma B.%coreGivesNoEmail%1,                       Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                           Ilada%Thongpan%ilada.cu09@gmail.com%1,                           Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                           Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                           Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                           Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                           Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                           Yong%Poovorawan%yong.p@chula.ac.th%1,                          Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                          Ilada%Thongpan%ilada.cu09@gmail.com%1,                          Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                          Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                          Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                          Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                          Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                          Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                           Janet A%Englund%NULL%1,                           Jane Y%Kuypers%NULL%1,                           Helen Y%Chu%NULL%1,                           Mark C%Steinhoff%NULL%1,                           Subarna K%Khatry%NULL%1,                           Steve C%LeClerq%NULL%1,                           James M%Tielsch%NULL%1,                           Luke C%Mullany%NULL%1,                           Laxman%Shrestha%NULL%2,                           Joanne%Katz%jkatz1@jhu.edu%2,                          S M Iftekhar%Uddin%NULL%1,                          Janet A%Englund%NULL%1,                          Jane Y%Kuypers%NULL%1,                          Helen Y%Chu%NULL%1,                          Mark C%Steinhoff%NULL%1,                          Subarna K%Khatry%NULL%1,                          Steve C%LeClerq%NULL%1,                          James M%Tielsch%NULL%1,                          Luke C%Mullany%NULL%1,                          Laxman%Shrestha%NULL%2,                          Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                           Joanne%Katz%NULL%0,                           James%Tielsch%NULL%1,                           Subarna K.%Khatry%NULL%1,                           Laxman%Shrestha%NULL%0,                           Steven C.%LeClerq%NULL%1,                           Amalia%Magaret%NULL%1,                           Jane%Kuypers%NULL%1,                           Mark%Steinhoff%NULL%1,                           Janet A.%Englund%NULL%1,                          Helen Y.%Chu%helenchu@uw.edu%1,                          Joanne%Katz%NULL%0,                          James%Tielsch%NULL%1,                          Subarna K.%Khatry%NULL%1,                          Laxman%Shrestha%NULL%0,                          Steven C.%LeClerq%NULL%1,                          Amalia%Magaret%NULL%1,                          Jane%Kuypers%NULL%1,                          Mark%Steinhoff%NULL%1,                          Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                           Gabriele%Ihorst%NULL%1,                           Klaus%Sure%NULL%1,                           Astrid%Vabret%NULL%0,                           Ronald%Dijkman%NULL%1,                           Michel%de Vries%NULL%1,                           Johannes%Forster%NULL%1,                           Ben%Berkhout%NULL%1,                           Klaus%Uberla%NULL%1,                          Lia%van der Hoek%NULL%1,                          Gabriele%Ihorst%NULL%1,                          Klaus%Sure%NULL%1,                          Astrid%Vabret%NULL%0,                          Ronald%Dijkman%NULL%1,                          Michel%de Vries%NULL%1,                          Johannes%Forster%NULL%1,                          Ben%Berkhout%NULL%1,                          Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                           Philip%Zachariah%pz2177@cumc.columbia.edu%1,                           Celibell%Vargas%NULL%1,                           Philip%LaRussa%NULL%1,                           Ryan T%Demmer%NULL%1,                           Yoko E%Furuya%NULL%1,                           Susan%Whittier%NULL%1,                           Carrie%Reed%NULL%1,                           Melissa S%Stockwell%NULL%1,                           Lisa%Saiman%NULL%1,                          Litty%Varghese%NULL%1,                          Philip%Zachariah%pz2177@cumc.columbia.edu%1,                          Celibell%Vargas%NULL%1,                          Philip%LaRussa%NULL%1,                          Ryan T%Demmer%NULL%1,                          Yoko E%Furuya%NULL%1,                          Susan%Whittier%NULL%1,                          Carrie%Reed%NULL%1,                          Melissa S%Stockwell%NULL%1,                          Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                           Ria%Lassaunière%NULL%1,                           Tina Louise%Kresfelder%NULL%1,                           Yvette%Westerberg%NULL%1,                           Adele%Visser%NULL%1,                          Marietjie%Venter%marietjiev@nicd.ac.za%1,                          Ria%Lassaunière%NULL%1,                          Tina Louise%Kresfelder%NULL%1,                          Yvette%Westerberg%NULL%1,                          Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                           Charles%Burdet%NULL%1,                           Guillaume%Voiriot%NULL%1,                           François-Xavier%Lescure%NULL%1,                           Taous%Chougar%NULL%1,                           Olivier%Brugière%NULL%1,                           Bruno%Crestani%NULL%1,                           Enrique%Casalino%NULL%1,                           Charlotte%Charpentier%NULL%1,                           Diane%Descamps%NULL%1,                           Jean-François%Timsit%NULL%1,                           Yazdan%Yazdanpanah%NULL%1,                           Nadhira%Houhou-Fidouh%NULL%1,                           Dena L.%Schanzer%NULL%1,                          Benoit%Visseaux%NULL%1,                          Charles%Burdet%NULL%1,                          Guillaume%Voiriot%NULL%1,                          François-Xavier%Lescure%NULL%1,                          Taous%Chougar%NULL%1,                          Olivier%Brugière%NULL%1,                          Bruno%Crestani%NULL%1,                          Enrique%Casalino%NULL%1,                          Charlotte%Charpentier%NULL%1,                          Diane%Descamps%NULL%1,                          Jean-François%Timsit%NULL%1,                          Yazdan%Yazdanpanah%NULL%1,                          Nadhira%Houhou-Fidouh%NULL%1,                          Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                           Deshan%Yu%NULL%0,                           Naiying%Mao%NULL%1,                           Zhen%Zhu%NULL%1,                           Hui%Zhang%NULL%1,                           Zhongyi%Jiang%NULL%1,                           Hongyu%Li%NULL%1,                           Yan%Zhang%NULL%1,                           Jing%Shi%NULL%1,                           Shuang%Zhang%NULL%1,                           Xinhua%Wang%NULL%1,                           Wenbo%Xu%NULL%1,                           Dong-Yan%Jin%NULL%1,                          Guohong%Huang%NULL%1,                          Deshan%Yu%NULL%0,                          Naiying%Mao%NULL%1,                          Zhen%Zhu%NULL%1,                          Hui%Zhang%NULL%1,                          Zhongyi%Jiang%NULL%1,                          Hongyu%Li%NULL%1,                          Yan%Zhang%NULL%1,                          Jing%Shi%NULL%1,                          Shuang%Zhang%NULL%1,                          Xinhua%Wang%NULL%1,                          Wenbo%Xu%NULL%1,                          Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                           Jiu-ling%Tuo%NULL%1,                           Xu-bin%Huang%NULL%1,                           Xun%Zhu%NULL%1,                           Ding-mei%Zhang%NULL%1,                           Kai%Zhou%NULL%1,                           Lei%Yuan%NULL%1,                           Hong-jiao%Luo%NULL%1,                           Bo-jian%Zheng%NULL%1,                           Kwok-yung%Yuen%NULL%1,                           Meng-feng%Li%NULL%1,                           Kai-yuan%Cao%NULL%1,                           Lin%Xu%NULL%1,                           Stefan%Pöhlmann%NULL%1,                          Su-fen%Zhang%NULL%1,                          Jiu-ling%Tuo%NULL%1,                          Xu-bin%Huang%NULL%1,                          Xun%Zhu%NULL%1,                          Ding-mei%Zhang%NULL%1,                          Kai%Zhou%NULL%1,                          Lei%Yuan%NULL%1,                          Hong-jiao%Luo%NULL%1,                          Bo-jian%Zheng%NULL%1,                          Kwok-yung%Yuen%NULL%1,                          Meng-feng%Li%NULL%1,                          Kai-yuan%Cao%NULL%1,                          Lin%Xu%NULL%1,                          Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                          Rachel M%Reeves%null%1,                          Xin%Wang%null%1,                          Quique%Bassat%null%1,                          W Abdullah%Brooks%null%1,                          Cheryl%Cohen%null%1,                          David P%Moore%null%1,                          Marta%Nunes%null%1,                          Barbara%Rath%null%1,                          Harry%Campbell%null%1,                          Harish%Nair%null%1,                          Sozinho%Acacio%null%1,                          Wladimir J%Alonso%null%1,                          Martin%Antonio%null%1,                          Guadalupe%Ayora Talavera%null%1,                          Darmaa%Badarch%null%1,                          Vicky L%Baillie%null%1,                          Gisela%Barrera-Badillo%null%1,                          Godfrey%Bigogo%null%1,                          Shobha%Broor%null%1,                          Dana%Bruden%null%1,                          Philippe%Buchy%null%1,                          Peter%Byass%null%1,                          James%Chipeta%null%1,                          Wilfrido%Clara%null%1,                          Duc-Anh%Dang%null%1,                          Carla Cecília%de Freitas Lázaro Emediato%null%1,                          Menno%de Jong%null%1,                          José Alberto%Díaz-Quiñonez%null%1,                          Lien Anh Ha%Do%null%1,                          Rodrigo A%Fasce%null%1,                          Luzhao%Feng%null%1,                          Mark J%Ferson%null%1,                          Angela%Gentile%null%1,                          Bradford D%Gessner%null%1,                          Doli%Goswami%null%1,                          Sophie%Goyet%null%1,                          Carlos G%Grijalva%null%1,                          Natasha%Halasa%null%1,                          Orienka%Hellferscee%null%1,                          Danielle%Hessong%null%1,                          Nusrat%Homaira%null%1,                          Jorge%Jara%null%1,                          Kathleen%Kahn%null%1,                          Najwa%Khuri-Bulos%null%1,                          Karen L%Kotloff%null%1,                          Claudio F%Lanata%null%1,                          Olga%Lopez%null%1,                          Maria Renee%Lopez Bolaños%null%1,                          Marilla G%Lucero%null%1,                          Florencia%Lucion%null%1,                          Socorro P%Lupisan%null%1,                          Shabir A%Madhi%null%1,                          Omphile%Mekgoe%null%1,                          Cinta%Moraleda%null%1,                          Jocelyn%Moyes%null%1,                          Kim%Mulholland%null%1,                          Patrick K%Munywoki%null%1,                          Fathima%Naby%null%1,                          Thanh Hung%Nguyen%null%1,                          Mark P%Nicol%null%1,                          D James%Nokes%null%1,                          Daniel E%Noyola%null%1,                          Daisuke%Onozuka%null%1,                          Nandhini%Palani%null%1,                          Yong%Poovorawan%null%1,                          Mustafizur%Rahman%null%1,                          Kaat%Ramaekers%null%1,                          Candice%Romero%null%1,                          Elizabeth P%Schlaudecker%null%1,                          Brunhilde%Schweiger%null%1,                          Phil%Seidenberg%null%1,                          Eric A F%Simoes%null%1,                          Rosalyn%Singleton%null%1,                          Sujatha%Sistla%null%1,                          Katharine%Sturm-Ramirez%null%1,                          Nungruthai%Suntronwong%null%1,                          Agustinus%Sutanto%null%1,                          Milagritos D%Tapia%null%1,                          Somsak%Thamthitiwat%null%1,                          Ilada%Thongpan%null%1,                          Gayani%Tillekeratne%null%1,                          Yeny O%Tinoco%null%1,                          Florette K%Treurnicht%null%1,                          Claudia%Turner%null%1,                          Paul%Turner%null%1,                          Rogier%van Doorn%null%1,                          Marc%Van Ranst%null%1,                          Benoit%Visseaux%null%1,                          Sunthareeya%Waicharoen%null%1,                          Jianwei%Wang%null%1,                          Lay-Myint%Yoshida%null%1,                          Heather J%Zar%null%1,                      You%Li%null%1,                      Rachel M%Reeves%null%1,                      Xin%Wang%null%1,                      Quique%Bassat%null%1,                      W Abdullah%Brooks%null%1,                      Cheryl%Cohen%null%1,                      David P%Moore%null%1,                      Marta%Nunes%null%1,                      Barbara%Rath%null%1,                      Harry%Campbell%null%1,                      Harish%Nair%null%1,                      Sozinho%Acacio%null%1,                      Wladimir J%Alonso%null%1,                      Martin%Antonio%null%1,                      Guadalupe%Ayora Talavera%null%1,                      Darmaa%Badarch%null%1,                      Vicky L%Baillie%null%1,                      Gisela%Barrera-Badillo%null%1,                      Godfrey%Bigogo%null%1,                      Shobha%Broor%null%1,                      Dana%Bruden%null%1,                      Philippe%Buchy%null%1,                      Peter%Byass%null%1,                      James%Chipeta%null%1,                      Wilfrido%Clara%null%1,                      Duc-Anh%Dang%null%1,                      Carla Cecília%de Freitas Lázaro Emediato%null%1,                      Menno%de Jong%null%1,                      José Alberto%Díaz-Quiñonez%null%1,                      Lien Anh Ha%Do%null%1,                      Rodrigo A%Fasce%null%1,                      Luzhao%Feng%null%2,                      Mark J%Ferson%null%1,                      Angela%Gentile%null%1,                      Bradford D%Gessner%null%1,                      Doli%Goswami%null%1,                      Sophie%Goyet%null%1,                      Carlos G%Grijalva%null%1,                      Natasha%Halasa%null%1,                      Orienka%Hellferscee%null%1,                      Danielle%Hessong%null%1,                      Nusrat%Homaira%null%1,                      Jorge%Jara%null%1,                      Kathleen%Kahn%null%1,                      Najwa%Khuri-Bulos%null%1,                      Karen L%Kotloff%null%1,                      Claudio F%Lanata%null%1,                      Olga%Lopez%null%1,                      Maria Renee%Lopez Bolaños%null%1,                      Marilla G%Lucero%null%1,                      Florencia%Lucion%null%1,                      Socorro P%Lupisan%null%1,                      Shabir A%Madhi%null%1,                      Omphile%Mekgoe%null%1,                      Cinta%Moraleda%null%1,                      Jocelyn%Moyes%null%1,                      Kim%Mulholland%null%1,                      Patrick K%Munywoki%null%1,                      Fathima%Naby%null%1,                      Thanh Hung%Nguyen%null%1,                      Mark P%Nicol%null%1,                      D James%Nokes%null%1,                      Daniel E%Noyola%null%1,                      Daisuke%Onozuka%null%1,                      Nandhini%Palani%null%1,                      Yong%Poovorawan%null%1,                      Mustafizur%Rahman%null%1,                      Kaat%Ramaekers%null%1,                      Candice%Romero%null%1,                      Elizabeth P%Schlaudecker%null%1,                      Brunhilde%Schweiger%null%1,                      Phil%Seidenberg%null%1,                      Eric A F%Simoes%null%1,                      Rosalyn%Singleton%null%1,                      Sujatha%Sistla%null%1,                      Katharine%Sturm-Ramirez%null%1,                      Nungruthai%Suntronwong%null%1,                      Agustinus%Sutanto%null%1,                      Milagritos D%Tapia%null%1,                      Somsak%Thamthitiwat%null%1,                      Ilada%Thongpan%null%1,                      Gayani%Tillekeratne%null%1,                      Yeny O%Tinoco%null%1,                      Florette K%Treurnicht%null%1,                      Claudia%Turner%null%1,                      Paul%Turner%null%1,                      Rogier%van Doorn%null%1,                      Marc%Van Ranst%null%3,                      Benoit%Visseaux%null%1,                      Sunthareeya%Waicharoen%null%1,                      Jianwei%Wang%null%5,                      Lay-Myint%Yoshida%null%1,                      Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                        Jack%Bee Chook%coreGivesNoEmail%1,                        Kim%Tien Ng%coreGivesNoEmail%1,                        Kok%Keng Tee%coreGivesNoEmail%1,                        Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                        Nik%Sherina Hanafi%coreGivesNoEmail%1,                        van%der Hoek%coreGivesNoEmail%2,                        van%der Hoek%coreGivesNoEmail%0,                        van%Elden%coreGivesNoEmail%1,                        Xiang%Yong Oong%coreGivesNoEmail%1,                        Yong%Kek Pang%coreGivesNoEmail%1,                        Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                            Dangui%Zhang%danguizhang@stu.edu.cn%1,                            Hui%Pan%michaelpan@stu.edu.cn%1,                            Fan%Zhang%lemon_fan@163.com%1,                            Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                            Frieda%Law%lawf@stu.edu.cn%1,                            H Rogier%van Doorn%hrogier@gmail.com%1,                            Beiyan%Wu%1261305798@qq.com%1,                            William%Ba-Thein%wbathein@stu.edu.cn%1,                           Binglin%Cui%binglincui@stu.edu.cn%1,                           Dangui%Zhang%danguizhang@stu.edu.cn%1,                           Hui%Pan%michaelpan@stu.edu.cn%1,                           Fan%Zhang%lemon_fan@163.com%1,                           Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                           Frieda%Law%lawf@stu.edu.cn%1,                           H Rogier%van Doorn%hrogier@gmail.com%1,                           Beiyan%Wu%1261305798@qq.com%1,                           William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                        Andrew%Berglund%coreGivesNoEmail%1,                        Christine%C. Robinson%coreGivesNoEmail%1,                        Christopher%D. Town%coreGivesNoEmail%1,                        Edison%Luiz Durigon%coreGivesNoEmail%1,                        Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                        Kathryn%V. Holmes%coreGivesNoEmail%1,                        Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                        Nadia%Fedorova%coreGivesNoEmail%1,                        Philip%A. Weston%coreGivesNoEmail%1,                        Rebecca%A. Halpin%coreGivesNoEmail%1,                        Samuel%R. Dominguez%coreGivesNoEmail%1,                        Susmita%Shrivastava%coreGivesNoEmail%1,                        Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                            Lifeng%Pan%NULL%1,                            Qiao%Sun%NULL%1,                            Weiping%Zhu%NULL%1,                            Linying%Zhu%NULL%1,                            Chuchu%Ye%NULL%1,                            Caoyi%Xue%NULL%1,                            Yuanping%Wang%NULL%1,                            Qing%Liu%NULL%1,                            Ping%Ma%NULL%1,                            Huifang%Qiu%NULL%1,                            Srinand%Sreevatsan%NULL%1,                           Yifei%Fu%NULL%1,                           Lifeng%Pan%NULL%1,                           Qiao%Sun%NULL%1,                           Weiping%Zhu%NULL%1,                           Linying%Zhu%NULL%1,                           Chuchu%Ye%NULL%1,                           Caoyi%Xue%NULL%1,                           Yuanping%Wang%NULL%1,                           Qing%Liu%NULL%1,                           Ping%Ma%NULL%1,                           Huifang%Qiu%NULL%1,                           Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                            Mumtaz Cem%Sirin%NULL%1,                           Safak%Goktas%NULL%1,                           Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                            Nina%Moe%NULL%1,                            Sidsel%Krokstad%NULL%2,                            Andreas%Christensen%NULL%2,                            Lars Høsøien%Skanke%NULL%2,                            Svein Arne%Nordbø%NULL%2,                            Henrik%Døllner%henrik.dollner@ntnu.no%2,                           Inger%Heimdal%NULL%1,                           Nina%Moe%NULL%2,                           Sidsel%Krokstad%NULL%2,                           Andreas%Christensen%NULL%2,                           Lars Høsøien%Skanke%NULL%2,                           Svein Arne%Nordbø%NULL%2,                           Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                            Inger Heimdal%Stenseng%NULL%1,                            Sidsel%Krokstad%NULL%0,                            Andreas%Christensen%NULL%0,                            Lars Høsøien%Skanke%NULL%0,                            Kari Ravndal%Risnes%NULL%1,                            Svein Arne%Nordbø%NULL%0,                            Henrik%Døllner%henrik.dollner@ntnu.no%0,                           Nina%Moe%NULL%0,                           Inger Heimdal%Stenseng%NULL%1,                           Sidsel%Krokstad%NULL%0,                           Andreas%Christensen%NULL%0,                           Lars Høsøien%Skanke%NULL%0,                           Kari Ravndal%Risnes%NULL%1,                           Svein Arne%Nordbø%NULL%0,                           Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                            Andrej%Steyer%NULL%1,                            Marko%Pokorn%NULL%1,                            Tatjana%Mrvič%NULL%1,                            Štefan%Grosek%NULL%1,                            Franc%Strle%NULL%1,                            Lara%Lusa%NULL%1,                            Miroslav%Petrovec%NULL%1,                            Oliver%Schildgen%NULL%1,                           Monika%Jevšnik%NULL%1,                           Andrej%Steyer%NULL%1,                           Marko%Pokorn%NULL%1,                           Tatjana%Mrvič%NULL%1,                           Štefan%Grosek%NULL%1,                           Franc%Strle%NULL%1,                           Lara%Lusa%NULL%1,                           Miroslav%Petrovec%NULL%1,                           Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                            Matti%Waris%NULL%1,                            Kari%Johansen%NULL%1,                            René%Snacken%NULL%1,                            Pasi%Penttinen%NULL%1,                            NULL%NULL%NULL%3,                           Eeva K%Broberg%NULL%1,                           Matti%Waris%NULL%1,                           Kari%Johansen%NULL%1,                           René%Snacken%NULL%1,                           Pasi%Penttinen%NULL%1,                           NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                            Qiaoyun%Fang%NULL%1,                            Jian%Zhang%NULL%1,                            Angao%Xu%NULL%1,                            Lihuan%Liang%NULL%1,                            Changwen%Ke%hzmedicine@163.com%1,                           Xiongfei%Ju%NULL%1,                           Qiaoyun%Fang%NULL%1,                           Jian%Zhang%NULL%1,                           Angao%Xu%NULL%1,                           Lihuan%Liang%NULL%1,                           Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                            Holly M.%Biggs%NULL%1,                            Amber%Haynes%NULL%1,                            Rebecca M.%Dahl%NULL%1,                            Desiree%Mustaquim%NULL%1,                            Susan I.%Gerber%NULL%1,                            John T.%Watson%NULL%1,                           Marie E.%Killerby%lxo9@cdc.gov%1,                           Holly M.%Biggs%NULL%1,                           Amber%Haynes%NULL%1,                           Rebecca M.%Dahl%NULL%1,                           Desiree%Mustaquim%NULL%1,                           Susan I.%Gerber%NULL%1,                           John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                            Hee‐Dong%Jung%NULL%1,                            Hyang‐Min%Cheong%NULL%1,                            Anna%Lee%NULL%1,                            Nam‐Joo%Lee%NULL%1,                            Hyuk%Chu%NULL%1,                            Joo‐Yeon%Lee%NULL%1,                            Sung Soon%Kim%NULL%1,                            Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                           Jeong‐Min%Kim%NULL%1,                           Hee‐Dong%Jung%NULL%1,                           Hyang‐Min%Cheong%NULL%1,                           Anna%Lee%NULL%1,                           Nam‐Joo%Lee%NULL%1,                           Hyuk%Chu%NULL%1,                           Joo‐Yeon%Lee%NULL%1,                           Sung Soon%Kim%NULL%1,                           Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                            Juansheng%Li%lijsh16@163.com%1,                            Lei%Meng%mleicdc@163.com%1,                            Wanqi%Zhu%NULL%1,                            Xinfeng%Liu%NULL%1,                            Mei%Yang%NULL%1,                            Deshan%Yu%NULL%2,                            Lixia%Niu%NULL%1,                            Xiping%Shen%NULL%1,                           Xuechao%Li%NULL%1,                           Juansheng%Li%lijsh16@163.com%1,                           Lei%Meng%mleicdc@163.com%1,                           Wanqi%Zhu%NULL%1,                           Xinfeng%Liu%NULL%1,                           Mei%Yang%NULL%1,                           Deshan%Yu%NULL%2,                           Lixia%Niu%NULL%1,                           Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                            James G.%Bosley%NULL%1,                           Christine M.%Litwin%clitwin@gru.edu%1,                           James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                            Elsie Laban%Yekwa%NULL%1,                            Pierre%Cappy%NULL%1,                            Astrid%Vabret%NULL%2,                            Pascal%Boisier%NULL%1,                            Dominique%Rousset%NULL%1,                           Richard%Njouom%NULL%1,                           Elsie Laban%Yekwa%NULL%1,                           Pierre%Cappy%NULL%1,                           Astrid%Vabret%NULL%2,                           Pascal%Boisier%NULL%1,                           Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                            Suvi%Lappalainen%NULL%1,                            Timo%Vesikari%NULL%1,                           Minna%Paloniemi%NULL%1,                           Suvi%Lappalainen%NULL%1,                           Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                            Richard%Gonzalez%NULL%1,                            Jin%Xu%NULL%1,                            Yan%Xiao%NULL%1,                            Yongjun%Li%NULL%1,                            Hongli%Zhou%NULL%1,                            Jianguo%Li%NULL%1,                            Qingqing%Yang%NULL%1,                            Jing%Zhang%NULL%1,                            Lan%Chen%NULL%1,                            Wei%Wang%NULL%1,                            Guy%Vernet%NULL%1,                            Gláucia%Paranhos‐Baccalà%NULL%1,                            Zhong%Wang%wangzhong523@vip.163.com%1,                            Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                           Lili%Ren%NULL%1,                           Richard%Gonzalez%NULL%1,                           Jin%Xu%NULL%1,                           Yan%Xiao%NULL%1,                           Yongjun%Li%NULL%1,                           Hongli%Zhou%NULL%1,                           Jianguo%Li%NULL%1,                           Qingqing%Yang%NULL%1,                           Jing%Zhang%NULL%1,                           Lan%Chen%NULL%1,                           Wei%Wang%NULL%1,                           Guy%Vernet%NULL%1,                           Gláucia%Paranhos‐Baccalà%NULL%1,                           Zhong%Wang%wangzhong523@vip.163.com%1,                           Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                        Druelle%Valentin%coreGivesNoEmail%1,                        Dyrdak%Robert%coreGivesNoEmail%1,                        Hodcroft%Emma B.%coreGivesNoEmail%1,                        Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                            Ilada%Thongpan%ilada.cu09@gmail.com%1,                            Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                            Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                            Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                            Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                            Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                            Yong%Poovorawan%yong.p@chula.ac.th%1,                           Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                           Ilada%Thongpan%ilada.cu09@gmail.com%1,                           Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                           Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                           Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                           Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                           Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                           Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                            Janet A%Englund%NULL%1,                            Jane Y%Kuypers%NULL%1,                            Helen Y%Chu%NULL%1,                            Mark C%Steinhoff%NULL%1,                            Subarna K%Khatry%NULL%1,                            Steve C%LeClerq%NULL%1,                            James M%Tielsch%NULL%1,                            Luke C%Mullany%NULL%1,                            Laxman%Shrestha%NULL%2,                            Joanne%Katz%jkatz1@jhu.edu%2,                           S M Iftekhar%Uddin%NULL%1,                           Janet A%Englund%NULL%1,                           Jane Y%Kuypers%NULL%1,                           Helen Y%Chu%NULL%1,                           Mark C%Steinhoff%NULL%1,                           Subarna K%Khatry%NULL%1,                           Steve C%LeClerq%NULL%1,                           James M%Tielsch%NULL%1,                           Luke C%Mullany%NULL%1,                           Laxman%Shrestha%NULL%2,                           Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                            Joanne%Katz%NULL%0,                            James%Tielsch%NULL%1,                            Subarna K.%Khatry%NULL%1,                            Laxman%Shrestha%NULL%0,                            Steven C.%LeClerq%NULL%1,                            Amalia%Magaret%NULL%1,                            Jane%Kuypers%NULL%1,                            Mark%Steinhoff%NULL%1,                            Janet A.%Englund%NULL%1,                           Helen Y.%Chu%helenchu@uw.edu%1,                           Joanne%Katz%NULL%0,                           James%Tielsch%NULL%1,                           Subarna K.%Khatry%NULL%1,                           Laxman%Shrestha%NULL%0,                           Steven C.%LeClerq%NULL%1,                           Amalia%Magaret%NULL%1,                           Jane%Kuypers%NULL%1,                           Mark%Steinhoff%NULL%1,                           Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                            Gabriele%Ihorst%NULL%1,                            Klaus%Sure%NULL%1,                            Astrid%Vabret%NULL%0,                            Ronald%Dijkman%NULL%1,                            Michel%de Vries%NULL%1,                            Johannes%Forster%NULL%1,                            Ben%Berkhout%NULL%1,                            Klaus%Uberla%NULL%1,                           Lia%van der Hoek%NULL%1,                           Gabriele%Ihorst%NULL%1,                           Klaus%Sure%NULL%1,                           Astrid%Vabret%NULL%0,                           Ronald%Dijkman%NULL%1,                           Michel%de Vries%NULL%1,                           Johannes%Forster%NULL%1,                           Ben%Berkhout%NULL%1,                           Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                            Philip%Zachariah%pz2177@cumc.columbia.edu%1,                            Celibell%Vargas%NULL%1,                            Philip%LaRussa%NULL%1,                            Ryan T%Demmer%NULL%1,                            Yoko E%Furuya%NULL%1,                            Susan%Whittier%NULL%1,                            Carrie%Reed%NULL%1,                            Melissa S%Stockwell%NULL%1,                            Lisa%Saiman%NULL%1,                           Litty%Varghese%NULL%1,                           Philip%Zachariah%pz2177@cumc.columbia.edu%1,                           Celibell%Vargas%NULL%1,                           Philip%LaRussa%NULL%1,                           Ryan T%Demmer%NULL%1,                           Yoko E%Furuya%NULL%1,                           Susan%Whittier%NULL%1,                           Carrie%Reed%NULL%1,                           Melissa S%Stockwell%NULL%1,                           Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                            Ria%Lassaunière%NULL%1,                            Tina Louise%Kresfelder%NULL%1,                            Yvette%Westerberg%NULL%1,                            Adele%Visser%NULL%1,                           Marietjie%Venter%marietjiev@nicd.ac.za%1,                           Ria%Lassaunière%NULL%1,                           Tina Louise%Kresfelder%NULL%1,                           Yvette%Westerberg%NULL%1,                           Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                            Charles%Burdet%NULL%1,                            Guillaume%Voiriot%NULL%1,                            François-Xavier%Lescure%NULL%1,                            Taous%Chougar%NULL%1,                            Olivier%Brugière%NULL%1,                            Bruno%Crestani%NULL%1,                            Enrique%Casalino%NULL%1,                            Charlotte%Charpentier%NULL%1,                            Diane%Descamps%NULL%1,                            Jean-François%Timsit%NULL%1,                            Yazdan%Yazdanpanah%NULL%1,                            Nadhira%Houhou-Fidouh%NULL%1,                            Dena L.%Schanzer%NULL%1,                           Benoit%Visseaux%NULL%1,                           Charles%Burdet%NULL%1,                           Guillaume%Voiriot%NULL%1,                           François-Xavier%Lescure%NULL%1,                           Taous%Chougar%NULL%1,                           Olivier%Brugière%NULL%1,                           Bruno%Crestani%NULL%1,                           Enrique%Casalino%NULL%1,                           Charlotte%Charpentier%NULL%1,                           Diane%Descamps%NULL%1,                           Jean-François%Timsit%NULL%1,                           Yazdan%Yazdanpanah%NULL%1,                           Nadhira%Houhou-Fidouh%NULL%1,                           Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                            Deshan%Yu%NULL%0,                            Naiying%Mao%NULL%1,                            Zhen%Zhu%NULL%1,                            Hui%Zhang%NULL%1,                            Zhongyi%Jiang%NULL%1,                            Hongyu%Li%NULL%1,                            Yan%Zhang%NULL%1,                            Jing%Shi%NULL%1,                            Shuang%Zhang%NULL%1,                            Xinhua%Wang%NULL%1,                            Wenbo%Xu%NULL%1,                            Dong-Yan%Jin%NULL%1,                           Guohong%Huang%NULL%1,                           Deshan%Yu%NULL%0,                           Naiying%Mao%NULL%1,                           Zhen%Zhu%NULL%1,                           Hui%Zhang%NULL%1,                           Zhongyi%Jiang%NULL%1,                           Hongyu%Li%NULL%1,                           Yan%Zhang%NULL%1,                           Jing%Shi%NULL%1,                           Shuang%Zhang%NULL%1,                           Xinhua%Wang%NULL%1,                           Wenbo%Xu%NULL%1,                           Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                            Jiu-ling%Tuo%NULL%1,                            Xu-bin%Huang%NULL%1,                            Xun%Zhu%NULL%1,                            Ding-mei%Zhang%NULL%1,                            Kai%Zhou%NULL%1,                            Lei%Yuan%NULL%1,                            Hong-jiao%Luo%NULL%1,                            Bo-jian%Zheng%NULL%1,                            Kwok-yung%Yuen%NULL%1,                            Meng-feng%Li%NULL%1,                            Kai-yuan%Cao%NULL%1,                            Lin%Xu%NULL%1,                            Stefan%Pöhlmann%NULL%1,                           Su-fen%Zhang%NULL%1,                           Jiu-ling%Tuo%NULL%1,                           Xu-bin%Huang%NULL%1,                           Xun%Zhu%NULL%1,                           Ding-mei%Zhang%NULL%1,                           Kai%Zhou%NULL%1,                           Lei%Yuan%NULL%1,                           Hong-jiao%Luo%NULL%1,                           Bo-jian%Zheng%NULL%1,                           Kwok-yung%Yuen%NULL%1,                           Meng-feng%Li%NULL%1,                           Kai-yuan%Cao%NULL%1,                           Lin%Xu%NULL%1,                           Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                           Rachel M%Reeves%null%1,                           Xin%Wang%null%1,                           Quique%Bassat%null%1,                           W Abdullah%Brooks%null%1,                           Cheryl%Cohen%null%1,                           David P%Moore%null%1,                           Marta%Nunes%null%1,                           Barbara%Rath%null%1,                           Harry%Campbell%null%1,                           Harish%Nair%null%1,                           Sozinho%Acacio%null%1,                           Wladimir J%Alonso%null%1,                           Martin%Antonio%null%1,                           Guadalupe%Ayora Talavera%null%1,                           Darmaa%Badarch%null%1,                           Vicky L%Baillie%null%1,                           Gisela%Barrera-Badillo%null%1,                           Godfrey%Bigogo%null%1,                           Shobha%Broor%null%1,                           Dana%Bruden%null%1,                           Philippe%Buchy%null%1,                           Peter%Byass%null%1,                           James%Chipeta%null%1,                           Wilfrido%Clara%null%1,                           Duc-Anh%Dang%null%1,                           Carla Cecília%de Freitas Lázaro Emediato%null%1,                           Menno%de Jong%null%1,                           José Alberto%Díaz-Quiñonez%null%1,                           Lien Anh Ha%Do%null%1,                           Rodrigo A%Fasce%null%1,                           Luzhao%Feng%null%1,                           Mark J%Ferson%null%1,                           Angela%Gentile%null%1,                           Bradford D%Gessner%null%1,                           Doli%Goswami%null%1,                           Sophie%Goyet%null%1,                           Carlos G%Grijalva%null%1,                           Natasha%Halasa%null%1,                           Orienka%Hellferscee%null%1,                           Danielle%Hessong%null%1,                           Nusrat%Homaira%null%1,                           Jorge%Jara%null%1,                           Kathleen%Kahn%null%1,                           Najwa%Khuri-Bulos%null%1,                           Karen L%Kotloff%null%1,                           Claudio F%Lanata%null%1,                           Olga%Lopez%null%1,                           Maria Renee%Lopez Bolaños%null%1,                           Marilla G%Lucero%null%1,                           Florencia%Lucion%null%1,                           Socorro P%Lupisan%null%1,                           Shabir A%Madhi%null%1,                           Omphile%Mekgoe%null%1,                           Cinta%Moraleda%null%1,                           Jocelyn%Moyes%null%1,                           Kim%Mulholland%null%1,                           Patrick K%Munywoki%null%1,                           Fathima%Naby%null%1,                           Thanh Hung%Nguyen%null%1,                           Mark P%Nicol%null%1,                           D James%Nokes%null%1,                           Daniel E%Noyola%null%1,                           Daisuke%Onozuka%null%1,                           Nandhini%Palani%null%1,                           Yong%Poovorawan%null%1,                           Mustafizur%Rahman%null%1,                           Kaat%Ramaekers%null%1,                           Candice%Romero%null%1,                           Elizabeth P%Schlaudecker%null%1,                           Brunhilde%Schweiger%null%1,                           Phil%Seidenberg%null%1,                           Eric A F%Simoes%null%1,                           Rosalyn%Singleton%null%1,                           Sujatha%Sistla%null%1,                           Katharine%Sturm-Ramirez%null%1,                           Nungruthai%Suntronwong%null%1,                           Agustinus%Sutanto%null%1,                           Milagritos D%Tapia%null%1,                           Somsak%Thamthitiwat%null%1,                           Ilada%Thongpan%null%1,                           Gayani%Tillekeratne%null%1,                           Yeny O%Tinoco%null%1,                           Florette K%Treurnicht%null%1,                           Claudia%Turner%null%1,                           Paul%Turner%null%1,                           Rogier%van Doorn%null%1,                           Marc%Van Ranst%null%1,                           Benoit%Visseaux%null%1,                           Sunthareeya%Waicharoen%null%1,                           Jianwei%Wang%null%1,                           Lay-Myint%Yoshida%null%1,                           Heather J%Zar%null%1,                       You%Li%null%1,                       Rachel M%Reeves%null%1,                       Xin%Wang%null%1,                       Quique%Bassat%null%1,                       W Abdullah%Brooks%null%1,                       Cheryl%Cohen%null%1,                       David P%Moore%null%1,                       Marta%Nunes%null%1,                       Barbara%Rath%null%1,                       Harry%Campbell%null%1,                       Harish%Nair%null%1,                       Sozinho%Acacio%null%1,                       Wladimir J%Alonso%null%1,                       Martin%Antonio%null%1,                       Guadalupe%Ayora Talavera%null%1,                       Darmaa%Badarch%null%1,                       Vicky L%Baillie%null%1,                       Gisela%Barrera-Badillo%null%1,                       Godfrey%Bigogo%null%1,                       Shobha%Broor%null%1,                       Dana%Bruden%null%1,                       Philippe%Buchy%null%1,                       Peter%Byass%null%1,                       James%Chipeta%null%1,                       Wilfrido%Clara%null%1,                       Duc-Anh%Dang%null%1,                       Carla Cecília%de Freitas Lázaro Emediato%null%1,                       Menno%de Jong%null%1,                       José Alberto%Díaz-Quiñonez%null%1,                       Lien Anh Ha%Do%null%1,                       Rodrigo A%Fasce%null%1,                       Luzhao%Feng%null%2,                       Mark J%Ferson%null%1,                       Angela%Gentile%null%1,                       Bradford D%Gessner%null%1,                       Doli%Goswami%null%1,                       Sophie%Goyet%null%1,                       Carlos G%Grijalva%null%1,                       Natasha%Halasa%null%1,                       Orienka%Hellferscee%null%1,                       Danielle%Hessong%null%1,                       Nusrat%Homaira%null%1,                       Jorge%Jara%null%1,                       Kathleen%Kahn%null%1,                       Najwa%Khuri-Bulos%null%1,                       Karen L%Kotloff%null%1,                       Claudio F%Lanata%null%1,                       Olga%Lopez%null%1,                       Maria Renee%Lopez Bolaños%null%1,                       Marilla G%Lucero%null%1,                       Florencia%Lucion%null%1,                       Socorro P%Lupisan%null%1,                       Shabir A%Madhi%null%1,                       Omphile%Mekgoe%null%1,                       Cinta%Moraleda%null%1,                       Jocelyn%Moyes%null%1,                       Kim%Mulholland%null%1,                       Patrick K%Munywoki%null%1,                       Fathima%Naby%null%1,                       Thanh Hung%Nguyen%null%1,                       Mark P%Nicol%null%1,                       D James%Nokes%null%1,                       Daniel E%Noyola%null%1,                       Daisuke%Onozuka%null%1,                       Nandhini%Palani%null%1,                       Yong%Poovorawan%null%1,                       Mustafizur%Rahman%null%1,                       Kaat%Ramaekers%null%1,                       Candice%Romero%null%1,                       Elizabeth P%Schlaudecker%null%1,                       Brunhilde%Schweiger%null%1,                       Phil%Seidenberg%null%1,                       Eric A F%Simoes%null%1,                       Rosalyn%Singleton%null%1,                       Sujatha%Sistla%null%1,                       Katharine%Sturm-Ramirez%null%1,                       Nungruthai%Suntronwong%null%1,                       Agustinus%Sutanto%null%1,                       Milagritos D%Tapia%null%1,                       Somsak%Thamthitiwat%null%1,                       Ilada%Thongpan%null%1,                       Gayani%Tillekeratne%null%1,                       Yeny O%Tinoco%null%1,                       Florette K%Treurnicht%null%1,                       Claudia%Turner%null%1,                       Paul%Turner%null%1,                       Rogier%van Doorn%null%1,                       Marc%Van Ranst%null%3,                       Benoit%Visseaux%null%1,                       Sunthareeya%Waicharoen%null%1,                       Jianwei%Wang%null%5,                       Lay-Myint%Yoshida%null%1,                       Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                         Jack%Bee Chook%coreGivesNoEmail%1,                         Kim%Tien Ng%coreGivesNoEmail%1,                         Kok%Keng Tee%coreGivesNoEmail%1,                         Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                         Nik%Sherina Hanafi%coreGivesNoEmail%1,                         van%der Hoek%coreGivesNoEmail%2,                         van%der Hoek%coreGivesNoEmail%0,                         van%Elden%coreGivesNoEmail%1,                         Xiang%Yong Oong%coreGivesNoEmail%1,                         Yong%Kek Pang%coreGivesNoEmail%1,                         Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                             Dangui%Zhang%danguizhang@stu.edu.cn%1,                             Hui%Pan%michaelpan@stu.edu.cn%1,                             Fan%Zhang%lemon_fan@163.com%1,                             Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                             Frieda%Law%lawf@stu.edu.cn%1,                             H Rogier%van Doorn%hrogier@gmail.com%1,                             Beiyan%Wu%1261305798@qq.com%1,                             William%Ba-Thein%wbathein@stu.edu.cn%1,                            Binglin%Cui%binglincui@stu.edu.cn%1,                            Dangui%Zhang%danguizhang@stu.edu.cn%1,                            Hui%Pan%michaelpan@stu.edu.cn%1,                            Fan%Zhang%lemon_fan@163.com%1,                            Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                            Frieda%Law%lawf@stu.edu.cn%1,                            H Rogier%van Doorn%hrogier@gmail.com%1,                            Beiyan%Wu%1261305798@qq.com%1,                            William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                         Andrew%Berglund%coreGivesNoEmail%1,                         Christine%C. Robinson%coreGivesNoEmail%1,                         Christopher%D. Town%coreGivesNoEmail%1,                         Edison%Luiz Durigon%coreGivesNoEmail%1,                         Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                         Kathryn%V. Holmes%coreGivesNoEmail%1,                         Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                         Nadia%Fedorova%coreGivesNoEmail%1,                         Philip%A. Weston%coreGivesNoEmail%1,                         Rebecca%A. Halpin%coreGivesNoEmail%1,                         Samuel%R. Dominguez%coreGivesNoEmail%1,                         Susmita%Shrivastava%coreGivesNoEmail%1,                         Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                             Lifeng%Pan%NULL%1,                             Qiao%Sun%NULL%1,                             Weiping%Zhu%NULL%1,                             Linying%Zhu%NULL%1,                             Chuchu%Ye%NULL%1,                             Caoyi%Xue%NULL%1,                             Yuanping%Wang%NULL%1,                             Qing%Liu%NULL%1,                             Ping%Ma%NULL%1,                             Huifang%Qiu%NULL%1,                             Srinand%Sreevatsan%NULL%1,                            Yifei%Fu%NULL%1,                            Lifeng%Pan%NULL%1,                            Qiao%Sun%NULL%1,                            Weiping%Zhu%NULL%1,                            Linying%Zhu%NULL%1,                            Chuchu%Ye%NULL%1,                            Caoyi%Xue%NULL%1,                            Yuanping%Wang%NULL%1,                            Qing%Liu%NULL%1,                            Ping%Ma%NULL%1,                            Huifang%Qiu%NULL%1,                            Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                             Mumtaz Cem%Sirin%NULL%1,                            Safak%Goktas%NULL%1,                            Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                             Nina%Moe%NULL%1,                             Sidsel%Krokstad%NULL%2,                             Andreas%Christensen%NULL%2,                             Lars Høsøien%Skanke%NULL%2,                             Svein Arne%Nordbø%NULL%2,                             Henrik%Døllner%henrik.dollner@ntnu.no%2,                            Inger%Heimdal%NULL%1,                            Nina%Moe%NULL%2,                            Sidsel%Krokstad%NULL%2,                            Andreas%Christensen%NULL%2,                            Lars Høsøien%Skanke%NULL%2,                            Svein Arne%Nordbø%NULL%2,                            Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                             Inger Heimdal%Stenseng%NULL%1,                             Sidsel%Krokstad%NULL%0,                             Andreas%Christensen%NULL%0,                             Lars Høsøien%Skanke%NULL%0,                             Kari Ravndal%Risnes%NULL%1,                             Svein Arne%Nordbø%NULL%0,                             Henrik%Døllner%henrik.dollner@ntnu.no%0,                            Nina%Moe%NULL%0,                            Inger Heimdal%Stenseng%NULL%1,                            Sidsel%Krokstad%NULL%0,                            Andreas%Christensen%NULL%0,                            Lars Høsøien%Skanke%NULL%0,                            Kari Ravndal%Risnes%NULL%1,                            Svein Arne%Nordbø%NULL%0,                            Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                             Andrej%Steyer%NULL%1,                             Marko%Pokorn%NULL%1,                             Tatjana%Mrvič%NULL%1,                             Štefan%Grosek%NULL%1,                             Franc%Strle%NULL%1,                             Lara%Lusa%NULL%1,                             Miroslav%Petrovec%NULL%1,                             Oliver%Schildgen%NULL%1,                            Monika%Jevšnik%NULL%1,                            Andrej%Steyer%NULL%1,                            Marko%Pokorn%NULL%1,                            Tatjana%Mrvič%NULL%1,                            Štefan%Grosek%NULL%1,                            Franc%Strle%NULL%1,                            Lara%Lusa%NULL%1,                            Miroslav%Petrovec%NULL%1,                            Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                             Matti%Waris%NULL%1,                             Kari%Johansen%NULL%1,                             René%Snacken%NULL%1,                             Pasi%Penttinen%NULL%1,                             NULL%NULL%NULL%3,                            Eeva K%Broberg%NULL%1,                            Matti%Waris%NULL%1,                            Kari%Johansen%NULL%1,                            René%Snacken%NULL%1,                            Pasi%Penttinen%NULL%1,                            NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                             Qiaoyun%Fang%NULL%1,                             Jian%Zhang%NULL%1,                             Angao%Xu%NULL%1,                             Lihuan%Liang%NULL%1,                             Changwen%Ke%hzmedicine@163.com%1,                            Xiongfei%Ju%NULL%1,                            Qiaoyun%Fang%NULL%1,                            Jian%Zhang%NULL%1,                            Angao%Xu%NULL%1,                            Lihuan%Liang%NULL%1,                            Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                             Holly M.%Biggs%NULL%1,                             Amber%Haynes%NULL%1,                             Rebecca M.%Dahl%NULL%1,                             Desiree%Mustaquim%NULL%1,                             Susan I.%Gerber%NULL%1,                             John T.%Watson%NULL%1,                            Marie E.%Killerby%lxo9@cdc.gov%1,                            Holly M.%Biggs%NULL%1,                            Amber%Haynes%NULL%1,                            Rebecca M.%Dahl%NULL%1,                            Desiree%Mustaquim%NULL%1,                            Susan I.%Gerber%NULL%1,                            John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                             Hee‐Dong%Jung%NULL%1,                             Hyang‐Min%Cheong%NULL%1,                             Anna%Lee%NULL%1,                             Nam‐Joo%Lee%NULL%1,                             Hyuk%Chu%NULL%1,                             Joo‐Yeon%Lee%NULL%1,                             Sung Soon%Kim%NULL%1,                             Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                            Jeong‐Min%Kim%NULL%1,                            Hee‐Dong%Jung%NULL%1,                            Hyang‐Min%Cheong%NULL%1,                            Anna%Lee%NULL%1,                            Nam‐Joo%Lee%NULL%1,                            Hyuk%Chu%NULL%1,                            Joo‐Yeon%Lee%NULL%1,                            Sung Soon%Kim%NULL%1,                            Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                             Juansheng%Li%lijsh16@163.com%1,                             Lei%Meng%mleicdc@163.com%1,                             Wanqi%Zhu%NULL%1,                             Xinfeng%Liu%NULL%1,                             Mei%Yang%NULL%1,                             Deshan%Yu%NULL%2,                             Lixia%Niu%NULL%1,                             Xiping%Shen%NULL%1,                            Xuechao%Li%NULL%1,                            Juansheng%Li%lijsh16@163.com%1,                            Lei%Meng%mleicdc@163.com%1,                            Wanqi%Zhu%NULL%1,                            Xinfeng%Liu%NULL%1,                            Mei%Yang%NULL%1,                            Deshan%Yu%NULL%2,                            Lixia%Niu%NULL%1,                            Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                             James G.%Bosley%NULL%1,                            Christine M.%Litwin%clitwin@gru.edu%1,                            James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                             Elsie Laban%Yekwa%NULL%1,                             Pierre%Cappy%NULL%1,                             Astrid%Vabret%NULL%2,                             Pascal%Boisier%NULL%1,                             Dominique%Rousset%NULL%1,                            Richard%Njouom%NULL%1,                            Elsie Laban%Yekwa%NULL%1,                            Pierre%Cappy%NULL%1,                            Astrid%Vabret%NULL%2,                            Pascal%Boisier%NULL%1,                            Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                             Suvi%Lappalainen%NULL%1,                             Timo%Vesikari%NULL%1,                            Minna%Paloniemi%NULL%1,                            Suvi%Lappalainen%NULL%1,                            Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                             Richard%Gonzalez%NULL%1,                             Jin%Xu%NULL%1,                             Yan%Xiao%NULL%1,                             Yongjun%Li%NULL%1,                             Hongli%Zhou%NULL%1,                             Jianguo%Li%NULL%1,                             Qingqing%Yang%NULL%1,                             Jing%Zhang%NULL%1,                             Lan%Chen%NULL%1,                             Wei%Wang%NULL%1,                             Guy%Vernet%NULL%1,                             Gláucia%Paranhos‐Baccalà%NULL%1,                             Zhong%Wang%wangzhong523@vip.163.com%1,                             Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                            Lili%Ren%NULL%1,                            Richard%Gonzalez%NULL%1,                            Jin%Xu%NULL%1,                            Yan%Xiao%NULL%1,                            Yongjun%Li%NULL%1,                            Hongli%Zhou%NULL%1,                            Jianguo%Li%NULL%1,                            Qingqing%Yang%NULL%1,                            Jing%Zhang%NULL%1,                            Lan%Chen%NULL%1,                            Wei%Wang%NULL%1,                            Guy%Vernet%NULL%1,                            Gláucia%Paranhos‐Baccalà%NULL%1,                            Zhong%Wang%wangzhong523@vip.163.com%1,                            Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                         Druelle%Valentin%coreGivesNoEmail%1,                         Dyrdak%Robert%coreGivesNoEmail%1,                         Hodcroft%Emma B.%coreGivesNoEmail%1,                         Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                             Ilada%Thongpan%ilada.cu09@gmail.com%1,                             Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                             Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                             Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                             Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                             Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                             Yong%Poovorawan%yong.p@chula.ac.th%1,                            Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                            Ilada%Thongpan%ilada.cu09@gmail.com%1,                            Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                            Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                            Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                            Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                            Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                            Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                             Janet A%Englund%NULL%1,                             Jane Y%Kuypers%NULL%1,                             Helen Y%Chu%NULL%1,                             Mark C%Steinhoff%NULL%1,                             Subarna K%Khatry%NULL%1,                             Steve C%LeClerq%NULL%1,                             James M%Tielsch%NULL%1,                             Luke C%Mullany%NULL%1,                             Laxman%Shrestha%NULL%2,                             Joanne%Katz%jkatz1@jhu.edu%2,                            S M Iftekhar%Uddin%NULL%1,                            Janet A%Englund%NULL%1,                            Jane Y%Kuypers%NULL%1,                            Helen Y%Chu%NULL%1,                            Mark C%Steinhoff%NULL%1,                            Subarna K%Khatry%NULL%1,                            Steve C%LeClerq%NULL%1,                            James M%Tielsch%NULL%1,                            Luke C%Mullany%NULL%1,                            Laxman%Shrestha%NULL%2,                            Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                             Joanne%Katz%NULL%0,                             James%Tielsch%NULL%1,                             Subarna K.%Khatry%NULL%1,                             Laxman%Shrestha%NULL%0,                             Steven C.%LeClerq%NULL%1,                             Amalia%Magaret%NULL%1,                             Jane%Kuypers%NULL%1,                             Mark%Steinhoff%NULL%1,                             Janet A.%Englund%NULL%1,                            Helen Y.%Chu%helenchu@uw.edu%1,                            Joanne%Katz%NULL%0,                            James%Tielsch%NULL%1,                            Subarna K.%Khatry%NULL%1,                            Laxman%Shrestha%NULL%0,                            Steven C.%LeClerq%NULL%1,                            Amalia%Magaret%NULL%1,                            Jane%Kuypers%NULL%1,                            Mark%Steinhoff%NULL%1,                            Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                             Gabriele%Ihorst%NULL%1,                             Klaus%Sure%NULL%1,                             Astrid%Vabret%NULL%0,                             Ronald%Dijkman%NULL%1,                             Michel%de Vries%NULL%1,                             Johannes%Forster%NULL%1,                             Ben%Berkhout%NULL%1,                             Klaus%Uberla%NULL%1,                            Lia%van der Hoek%NULL%1,                            Gabriele%Ihorst%NULL%1,                            Klaus%Sure%NULL%1,                            Astrid%Vabret%NULL%0,                            Ronald%Dijkman%NULL%1,                            Michel%de Vries%NULL%1,                            Johannes%Forster%NULL%1,                            Ben%Berkhout%NULL%1,                            Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                             Philip%Zachariah%pz2177@cumc.columbia.edu%1,                             Celibell%Vargas%NULL%1,                             Philip%LaRussa%NULL%1,                             Ryan T%Demmer%NULL%1,                             Yoko E%Furuya%NULL%1,                             Susan%Whittier%NULL%1,                             Carrie%Reed%NULL%1,                             Melissa S%Stockwell%NULL%1,                             Lisa%Saiman%NULL%1,                            Litty%Varghese%NULL%1,                            Philip%Zachariah%pz2177@cumc.columbia.edu%1,                            Celibell%Vargas%NULL%1,                            Philip%LaRussa%NULL%1,                            Ryan T%Demmer%NULL%1,                            Yoko E%Furuya%NULL%1,                            Susan%Whittier%NULL%1,                            Carrie%Reed%NULL%1,                            Melissa S%Stockwell%NULL%1,                            Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                             Ria%Lassaunière%NULL%1,                             Tina Louise%Kresfelder%NULL%1,                             Yvette%Westerberg%NULL%1,                             Adele%Visser%NULL%1,                            Marietjie%Venter%marietjiev@nicd.ac.za%1,                            Ria%Lassaunière%NULL%1,                            Tina Louise%Kresfelder%NULL%1,                            Yvette%Westerberg%NULL%1,                            Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                             Charles%Burdet%NULL%1,                             Guillaume%Voiriot%NULL%1,                             François-Xavier%Lescure%NULL%1,                             Taous%Chougar%NULL%1,                             Olivier%Brugière%NULL%1,                             Bruno%Crestani%NULL%1,                             Enrique%Casalino%NULL%1,                             Charlotte%Charpentier%NULL%1,                             Diane%Descamps%NULL%1,                             Jean-François%Timsit%NULL%1,                             Yazdan%Yazdanpanah%NULL%1,                             Nadhira%Houhou-Fidouh%NULL%1,                             Dena L.%Schanzer%NULL%1,                            Benoit%Visseaux%NULL%1,                            Charles%Burdet%NULL%1,                            Guillaume%Voiriot%NULL%1,                            François-Xavier%Lescure%NULL%1,                            Taous%Chougar%NULL%1,                            Olivier%Brugière%NULL%1,                            Bruno%Crestani%NULL%1,                            Enrique%Casalino%NULL%1,                            Charlotte%Charpentier%NULL%1,                            Diane%Descamps%NULL%1,                            Jean-François%Timsit%NULL%1,                            Yazdan%Yazdanpanah%NULL%1,                            Nadhira%Houhou-Fidouh%NULL%1,                            Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                             Deshan%Yu%NULL%0,                             Naiying%Mao%NULL%1,                             Zhen%Zhu%NULL%1,                             Hui%Zhang%NULL%1,                             Zhongyi%Jiang%NULL%1,                             Hongyu%Li%NULL%1,                             Yan%Zhang%NULL%1,                             Jing%Shi%NULL%1,                             Shuang%Zhang%NULL%1,                             Xinhua%Wang%NULL%1,                             Wenbo%Xu%NULL%1,                             Dong-Yan%Jin%NULL%1,                            Guohong%Huang%NULL%1,                            Deshan%Yu%NULL%0,                            Naiying%Mao%NULL%1,                            Zhen%Zhu%NULL%1,                            Hui%Zhang%NULL%1,                            Zhongyi%Jiang%NULL%1,                            Hongyu%Li%NULL%1,                            Yan%Zhang%NULL%1,                            Jing%Shi%NULL%1,                            Shuang%Zhang%NULL%1,                            Xinhua%Wang%NULL%1,                            Wenbo%Xu%NULL%1,                            Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                             Jiu-ling%Tuo%NULL%1,                             Xu-bin%Huang%NULL%1,                             Xun%Zhu%NULL%1,                             Ding-mei%Zhang%NULL%1,                             Kai%Zhou%NULL%1,                             Lei%Yuan%NULL%1,                             Hong-jiao%Luo%NULL%1,                             Bo-jian%Zheng%NULL%1,                             Kwok-yung%Yuen%NULL%1,                             Meng-feng%Li%NULL%1,                             Kai-yuan%Cao%NULL%1,                             Lin%Xu%NULL%1,                             Stefan%Pöhlmann%NULL%1,                            Su-fen%Zhang%NULL%1,                            Jiu-ling%Tuo%NULL%1,                            Xu-bin%Huang%NULL%1,                            Xun%Zhu%NULL%1,                            Ding-mei%Zhang%NULL%1,                            Kai%Zhou%NULL%1,                            Lei%Yuan%NULL%1,                            Hong-jiao%Luo%NULL%1,                            Bo-jian%Zheng%NULL%1,                            Kwok-yung%Yuen%NULL%1,                            Meng-feng%Li%NULL%1,                            Kai-yuan%Cao%NULL%1,                            Lin%Xu%NULL%1,                            Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                            Rachel M%Reeves%null%1,                            Xin%Wang%null%1,                            Quique%Bassat%null%1,                            W Abdullah%Brooks%null%1,                            Cheryl%Cohen%null%1,                            David P%Moore%null%1,                            Marta%Nunes%null%1,                            Barbara%Rath%null%1,                            Harry%Campbell%null%1,                            Harish%Nair%null%1,                            Sozinho%Acacio%null%1,                            Wladimir J%Alonso%null%1,                            Martin%Antonio%null%1,                            Guadalupe%Ayora Talavera%null%1,                            Darmaa%Badarch%null%1,                            Vicky L%Baillie%null%1,                            Gisela%Barrera-Badillo%null%1,                            Godfrey%Bigogo%null%1,                            Shobha%Broor%null%1,                            Dana%Bruden%null%1,                            Philippe%Buchy%null%1,                            Peter%Byass%null%1,                            James%Chipeta%null%1,                            Wilfrido%Clara%null%1,                            Duc-Anh%Dang%null%1,                            Carla Cecília%de Freitas Lázaro Emediato%null%1,                            Menno%de Jong%null%1,                            José Alberto%Díaz-Quiñonez%null%1,                            Lien Anh Ha%Do%null%1,                            Rodrigo A%Fasce%null%1,                            Luzhao%Feng%null%1,                            Mark J%Ferson%null%1,                            Angela%Gentile%null%1,                            Bradford D%Gessner%null%1,                            Doli%Goswami%null%1,                            Sophie%Goyet%null%1,                            Carlos G%Grijalva%null%1,                            Natasha%Halasa%null%1,                            Orienka%Hellferscee%null%1,                            Danielle%Hessong%null%1,                            Nusrat%Homaira%null%1,                            Jorge%Jara%null%1,                            Kathleen%Kahn%null%1,                            Najwa%Khuri-Bulos%null%1,                            Karen L%Kotloff%null%1,                            Claudio F%Lanata%null%1,                            Olga%Lopez%null%1,                            Maria Renee%Lopez Bolaños%null%1,                            Marilla G%Lucero%null%1,                            Florencia%Lucion%null%1,                            Socorro P%Lupisan%null%1,                            Shabir A%Madhi%null%1,                            Omphile%Mekgoe%null%1,                            Cinta%Moraleda%null%1,                            Jocelyn%Moyes%null%1,                            Kim%Mulholland%null%1,                            Patrick K%Munywoki%null%1,                            Fathima%Naby%null%1,                            Thanh Hung%Nguyen%null%1,                            Mark P%Nicol%null%1,                            D James%Nokes%null%1,                            Daniel E%Noyola%null%1,                            Daisuke%Onozuka%null%1,                            Nandhini%Palani%null%1,                            Yong%Poovorawan%null%1,                            Mustafizur%Rahman%null%1,                            Kaat%Ramaekers%null%1,                            Candice%Romero%null%1,                            Elizabeth P%Schlaudecker%null%1,                            Brunhilde%Schweiger%null%1,                            Phil%Seidenberg%null%1,                            Eric A F%Simoes%null%1,                            Rosalyn%Singleton%null%1,                            Sujatha%Sistla%null%1,                            Katharine%Sturm-Ramirez%null%1,                            Nungruthai%Suntronwong%null%1,                            Agustinus%Sutanto%null%1,                            Milagritos D%Tapia%null%1,                            Somsak%Thamthitiwat%null%1,                            Ilada%Thongpan%null%1,                            Gayani%Tillekeratne%null%1,                            Yeny O%Tinoco%null%1,                            Florette K%Treurnicht%null%1,                            Claudia%Turner%null%1,                            Paul%Turner%null%1,                            Rogier%van Doorn%null%1,                            Marc%Van Ranst%null%1,                            Benoit%Visseaux%null%1,                            Sunthareeya%Waicharoen%null%1,                            Jianwei%Wang%null%1,                            Lay-Myint%Yoshida%null%1,                            Heather J%Zar%null%1,                        You%Li%null%1,                        Rachel M%Reeves%null%1,                        Xin%Wang%null%1,                        Quique%Bassat%null%1,                        W Abdullah%Brooks%null%1,                        Cheryl%Cohen%null%1,                        David P%Moore%null%1,                        Marta%Nunes%null%1,                        Barbara%Rath%null%1,                        Harry%Campbell%null%1,                        Harish%Nair%null%1,                        Sozinho%Acacio%null%1,                        Wladimir J%Alonso%null%1,                        Martin%Antonio%null%1,                        Guadalupe%Ayora Talavera%null%1,                        Darmaa%Badarch%null%1,                        Vicky L%Baillie%null%1,                        Gisela%Barrera-Badillo%null%1,                        Godfrey%Bigogo%null%1,                        Shobha%Broor%null%1,                        Dana%Bruden%null%1,                        Philippe%Buchy%null%1,                        Peter%Byass%null%1,                        James%Chipeta%null%1,                        Wilfrido%Clara%null%1,                        Duc-Anh%Dang%null%1,                        Carla Cecília%de Freitas Lázaro Emediato%null%1,                        Menno%de Jong%null%1,                        José Alberto%Díaz-Quiñonez%null%1,                        Lien Anh Ha%Do%null%1,                        Rodrigo A%Fasce%null%1,                        Luzhao%Feng%null%2,                        Mark J%Ferson%null%1,                        Angela%Gentile%null%1,                        Bradford D%Gessner%null%1,                        Doli%Goswami%null%1,                        Sophie%Goyet%null%1,                        Carlos G%Grijalva%null%1,                        Natasha%Halasa%null%1,                        Orienka%Hellferscee%null%1,                        Danielle%Hessong%null%1,                        Nusrat%Homaira%null%1,                        Jorge%Jara%null%1,                        Kathleen%Kahn%null%1,                        Najwa%Khuri-Bulos%null%1,                        Karen L%Kotloff%null%1,                        Claudio F%Lanata%null%1,                        Olga%Lopez%null%1,                        Maria Renee%Lopez Bolaños%null%1,                        Marilla G%Lucero%null%1,                        Florencia%Lucion%null%1,                        Socorro P%Lupisan%null%1,                        Shabir A%Madhi%null%1,                        Omphile%Mekgoe%null%1,                        Cinta%Moraleda%null%1,                        Jocelyn%Moyes%null%1,                        Kim%Mulholland%null%1,                        Patrick K%Munywoki%null%1,                        Fathima%Naby%null%1,                        Thanh Hung%Nguyen%null%1,                        Mark P%Nicol%null%1,                        D James%Nokes%null%1,                        Daniel E%Noyola%null%1,                        Daisuke%Onozuka%null%1,                        Nandhini%Palani%null%1,                        Yong%Poovorawan%null%1,                        Mustafizur%Rahman%null%1,                        Kaat%Ramaekers%null%1,                        Candice%Romero%null%1,                        Elizabeth P%Schlaudecker%null%1,                        Brunhilde%Schweiger%null%1,                        Phil%Seidenberg%null%1,                        Eric A F%Simoes%null%1,                        Rosalyn%Singleton%null%1,                        Sujatha%Sistla%null%1,                        Katharine%Sturm-Ramirez%null%1,                        Nungruthai%Suntronwong%null%1,                        Agustinus%Sutanto%null%1,                        Milagritos D%Tapia%null%1,                        Somsak%Thamthitiwat%null%1,                        Ilada%Thongpan%null%1,                        Gayani%Tillekeratne%null%1,                        Yeny O%Tinoco%null%1,                        Florette K%Treurnicht%null%1,                        Claudia%Turner%null%1,                        Paul%Turner%null%1,                        Rogier%van Doorn%null%1,                        Marc%Van Ranst%null%3,                        Benoit%Visseaux%null%1,                        Sunthareeya%Waicharoen%null%1,                        Jianwei%Wang%null%5,                        Lay-Myint%Yoshida%null%1,                        Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                          Jack%Bee Chook%coreGivesNoEmail%1,                          Kim%Tien Ng%coreGivesNoEmail%1,                          Kok%Keng Tee%coreGivesNoEmail%1,                          Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                          Nik%Sherina Hanafi%coreGivesNoEmail%1,                          van%der Hoek%coreGivesNoEmail%2,                          van%der Hoek%coreGivesNoEmail%0,                          van%Elden%coreGivesNoEmail%1,                          Xiang%Yong Oong%coreGivesNoEmail%1,                          Yong%Kek Pang%coreGivesNoEmail%1,                          Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                              Dangui%Zhang%danguizhang@stu.edu.cn%1,                              Hui%Pan%michaelpan@stu.edu.cn%1,                              Fan%Zhang%lemon_fan@163.com%1,                              Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                              Frieda%Law%lawf@stu.edu.cn%1,                              H Rogier%van Doorn%hrogier@gmail.com%1,                              Beiyan%Wu%1261305798@qq.com%1,                              William%Ba-Thein%wbathein@stu.edu.cn%1,                             Binglin%Cui%binglincui@stu.edu.cn%1,                             Dangui%Zhang%danguizhang@stu.edu.cn%1,                             Hui%Pan%michaelpan@stu.edu.cn%1,                             Fan%Zhang%lemon_fan@163.com%1,                             Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                             Frieda%Law%lawf@stu.edu.cn%1,                             H Rogier%van Doorn%hrogier@gmail.com%1,                             Beiyan%Wu%1261305798@qq.com%1,                             William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                          Andrew%Berglund%coreGivesNoEmail%1,                          Christine%C. Robinson%coreGivesNoEmail%1,                          Christopher%D. Town%coreGivesNoEmail%1,                          Edison%Luiz Durigon%coreGivesNoEmail%1,                          Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                          Kathryn%V. Holmes%coreGivesNoEmail%1,                          Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                          Nadia%Fedorova%coreGivesNoEmail%1,                          Philip%A. Weston%coreGivesNoEmail%1,                          Rebecca%A. Halpin%coreGivesNoEmail%1,                          Samuel%R. Dominguez%coreGivesNoEmail%1,                          Susmita%Shrivastava%coreGivesNoEmail%1,                          Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                              Lifeng%Pan%NULL%1,                              Qiao%Sun%NULL%1,                              Weiping%Zhu%NULL%1,                              Linying%Zhu%NULL%1,                              Chuchu%Ye%NULL%1,                              Caoyi%Xue%NULL%1,                              Yuanping%Wang%NULL%1,                              Qing%Liu%NULL%1,                              Ping%Ma%NULL%1,                              Huifang%Qiu%NULL%1,                              Srinand%Sreevatsan%NULL%1,                             Yifei%Fu%NULL%1,                             Lifeng%Pan%NULL%1,                             Qiao%Sun%NULL%1,                             Weiping%Zhu%NULL%1,                             Linying%Zhu%NULL%1,                             Chuchu%Ye%NULL%1,                             Caoyi%Xue%NULL%1,                             Yuanping%Wang%NULL%1,                             Qing%Liu%NULL%1,                             Ping%Ma%NULL%1,                             Huifang%Qiu%NULL%1,                             Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                              Mumtaz Cem%Sirin%NULL%1,                             Safak%Goktas%NULL%1,                             Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                              Nina%Moe%NULL%1,                              Sidsel%Krokstad%NULL%2,                              Andreas%Christensen%NULL%2,                              Lars Høsøien%Skanke%NULL%2,                              Svein Arne%Nordbø%NULL%2,                              Henrik%Døllner%henrik.dollner@ntnu.no%2,                             Inger%Heimdal%NULL%1,                             Nina%Moe%NULL%2,                             Sidsel%Krokstad%NULL%2,                             Andreas%Christensen%NULL%2,                             Lars Høsøien%Skanke%NULL%2,                             Svein Arne%Nordbø%NULL%2,                             Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                              Inger Heimdal%Stenseng%NULL%1,                              Sidsel%Krokstad%NULL%0,                              Andreas%Christensen%NULL%0,                              Lars Høsøien%Skanke%NULL%0,                              Kari Ravndal%Risnes%NULL%1,                              Svein Arne%Nordbø%NULL%0,                              Henrik%Døllner%henrik.dollner@ntnu.no%0,                             Nina%Moe%NULL%0,                             Inger Heimdal%Stenseng%NULL%1,                             Sidsel%Krokstad%NULL%0,                             Andreas%Christensen%NULL%0,                             Lars Høsøien%Skanke%NULL%0,                             Kari Ravndal%Risnes%NULL%1,                             Svein Arne%Nordbø%NULL%0,                             Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                              Andrej%Steyer%NULL%1,                              Marko%Pokorn%NULL%1,                              Tatjana%Mrvič%NULL%1,                              Štefan%Grosek%NULL%1,                              Franc%Strle%NULL%1,                              Lara%Lusa%NULL%1,                              Miroslav%Petrovec%NULL%1,                              Oliver%Schildgen%NULL%1,                             Monika%Jevšnik%NULL%1,                             Andrej%Steyer%NULL%1,                             Marko%Pokorn%NULL%1,                             Tatjana%Mrvič%NULL%1,                             Štefan%Grosek%NULL%1,                             Franc%Strle%NULL%1,                             Lara%Lusa%NULL%1,                             Miroslav%Petrovec%NULL%1,                             Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                              Matti%Waris%NULL%1,                              Kari%Johansen%NULL%1,                              René%Snacken%NULL%1,                              Pasi%Penttinen%NULL%1,                              NULL%NULL%NULL%3,                             Eeva K%Broberg%NULL%1,                             Matti%Waris%NULL%1,                             Kari%Johansen%NULL%1,                             René%Snacken%NULL%1,                             Pasi%Penttinen%NULL%1,                             NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                              Qiaoyun%Fang%NULL%1,                              Jian%Zhang%NULL%1,                              Angao%Xu%NULL%1,                              Lihuan%Liang%NULL%1,                              Changwen%Ke%hzmedicine@163.com%1,                             Xiongfei%Ju%NULL%1,                             Qiaoyun%Fang%NULL%1,                             Jian%Zhang%NULL%1,                             Angao%Xu%NULL%1,                             Lihuan%Liang%NULL%1,                             Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                              Holly M.%Biggs%NULL%1,                              Amber%Haynes%NULL%1,                              Rebecca M.%Dahl%NULL%1,                              Desiree%Mustaquim%NULL%1,                              Susan I.%Gerber%NULL%1,                              John T.%Watson%NULL%1,                             Marie E.%Killerby%lxo9@cdc.gov%1,                             Holly M.%Biggs%NULL%1,                             Amber%Haynes%NULL%1,                             Rebecca M.%Dahl%NULL%1,                             Desiree%Mustaquim%NULL%1,                             Susan I.%Gerber%NULL%1,                             John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                              Hee‐Dong%Jung%NULL%1,                              Hyang‐Min%Cheong%NULL%1,                              Anna%Lee%NULL%1,                              Nam‐Joo%Lee%NULL%1,                              Hyuk%Chu%NULL%1,                              Joo‐Yeon%Lee%NULL%1,                              Sung Soon%Kim%NULL%1,                              Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                             Jeong‐Min%Kim%NULL%1,                             Hee‐Dong%Jung%NULL%1,                             Hyang‐Min%Cheong%NULL%1,                             Anna%Lee%NULL%1,                             Nam‐Joo%Lee%NULL%1,                             Hyuk%Chu%NULL%1,                             Joo‐Yeon%Lee%NULL%1,                             Sung Soon%Kim%NULL%1,                             Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                              Juansheng%Li%lijsh16@163.com%1,                              Lei%Meng%mleicdc@163.com%1,                              Wanqi%Zhu%NULL%1,                              Xinfeng%Liu%NULL%1,                              Mei%Yang%NULL%1,                              Deshan%Yu%NULL%2,                              Lixia%Niu%NULL%1,                              Xiping%Shen%NULL%1,                             Xuechao%Li%NULL%1,                             Juansheng%Li%lijsh16@163.com%1,                             Lei%Meng%mleicdc@163.com%1,                             Wanqi%Zhu%NULL%1,                             Xinfeng%Liu%NULL%1,                             Mei%Yang%NULL%1,                             Deshan%Yu%NULL%2,                             Lixia%Niu%NULL%1,                             Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                              James G.%Bosley%NULL%1,                             Christine M.%Litwin%clitwin@gru.edu%1,                             James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                              Elsie Laban%Yekwa%NULL%1,                              Pierre%Cappy%NULL%1,                              Astrid%Vabret%NULL%2,                              Pascal%Boisier%NULL%1,                              Dominique%Rousset%NULL%1,                             Richard%Njouom%NULL%1,                             Elsie Laban%Yekwa%NULL%1,                             Pierre%Cappy%NULL%1,                             Astrid%Vabret%NULL%2,                             Pascal%Boisier%NULL%1,                             Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                              Suvi%Lappalainen%NULL%1,                              Timo%Vesikari%NULL%1,                             Minna%Paloniemi%NULL%1,                             Suvi%Lappalainen%NULL%1,                             Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                              Richard%Gonzalez%NULL%1,                              Jin%Xu%NULL%1,                              Yan%Xiao%NULL%1,                              Yongjun%Li%NULL%1,                              Hongli%Zhou%NULL%1,                              Jianguo%Li%NULL%1,                              Qingqing%Yang%NULL%1,                              Jing%Zhang%NULL%1,                              Lan%Chen%NULL%1,                              Wei%Wang%NULL%1,                              Guy%Vernet%NULL%1,                              Gláucia%Paranhos‐Baccalà%NULL%1,                              Zhong%Wang%wangzhong523@vip.163.com%1,                              Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                             Lili%Ren%NULL%1,                             Richard%Gonzalez%NULL%1,                             Jin%Xu%NULL%1,                             Yan%Xiao%NULL%1,                             Yongjun%Li%NULL%1,                             Hongli%Zhou%NULL%1,                             Jianguo%Li%NULL%1,                             Qingqing%Yang%NULL%1,                             Jing%Zhang%NULL%1,                             Lan%Chen%NULL%1,                             Wei%Wang%NULL%1,                             Guy%Vernet%NULL%1,                             Gláucia%Paranhos‐Baccalà%NULL%1,                             Zhong%Wang%wangzhong523@vip.163.com%1,                             Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                          Druelle%Valentin%coreGivesNoEmail%1,                          Dyrdak%Robert%coreGivesNoEmail%1,                          Hodcroft%Emma B.%coreGivesNoEmail%1,                          Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                              Ilada%Thongpan%ilada.cu09@gmail.com%1,                              Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                              Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                              Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                              Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                              Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                              Yong%Poovorawan%yong.p@chula.ac.th%1,                             Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                             Ilada%Thongpan%ilada.cu09@gmail.com%1,                             Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                             Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                             Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                             Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                             Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                             Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                              Janet A%Englund%NULL%1,                              Jane Y%Kuypers%NULL%1,                              Helen Y%Chu%NULL%1,                              Mark C%Steinhoff%NULL%1,                              Subarna K%Khatry%NULL%1,                              Steve C%LeClerq%NULL%1,                              James M%Tielsch%NULL%1,                              Luke C%Mullany%NULL%1,                              Laxman%Shrestha%NULL%2,                              Joanne%Katz%jkatz1@jhu.edu%2,                             S M Iftekhar%Uddin%NULL%1,                             Janet A%Englund%NULL%1,                             Jane Y%Kuypers%NULL%1,                             Helen Y%Chu%NULL%1,                             Mark C%Steinhoff%NULL%1,                             Subarna K%Khatry%NULL%1,                             Steve C%LeClerq%NULL%1,                             James M%Tielsch%NULL%1,                             Luke C%Mullany%NULL%1,                             Laxman%Shrestha%NULL%2,                             Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                              Joanne%Katz%NULL%0,                              James%Tielsch%NULL%1,                              Subarna K.%Khatry%NULL%1,                              Laxman%Shrestha%NULL%0,                              Steven C.%LeClerq%NULL%1,                              Amalia%Magaret%NULL%1,                              Jane%Kuypers%NULL%1,                              Mark%Steinhoff%NULL%1,                              Janet A.%Englund%NULL%1,                             Helen Y.%Chu%helenchu@uw.edu%1,                             Joanne%Katz%NULL%0,                             James%Tielsch%NULL%1,                             Subarna K.%Khatry%NULL%1,                             Laxman%Shrestha%NULL%0,                             Steven C.%LeClerq%NULL%1,                             Amalia%Magaret%NULL%1,                             Jane%Kuypers%NULL%1,                             Mark%Steinhoff%NULL%1,                             Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                              Gabriele%Ihorst%NULL%1,                              Klaus%Sure%NULL%1,                              Astrid%Vabret%NULL%0,                              Ronald%Dijkman%NULL%1,                              Michel%de Vries%NULL%1,                              Johannes%Forster%NULL%1,                              Ben%Berkhout%NULL%1,                              Klaus%Uberla%NULL%1,                             Lia%van der Hoek%NULL%1,                             Gabriele%Ihorst%NULL%1,                             Klaus%Sure%NULL%1,                             Astrid%Vabret%NULL%0,                             Ronald%Dijkman%NULL%1,                             Michel%de Vries%NULL%1,                             Johannes%Forster%NULL%1,                             Ben%Berkhout%NULL%1,                             Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                              Philip%Zachariah%pz2177@cumc.columbia.edu%1,                              Celibell%Vargas%NULL%1,                              Philip%LaRussa%NULL%1,                              Ryan T%Demmer%NULL%1,                              Yoko E%Furuya%NULL%1,                              Susan%Whittier%NULL%1,                              Carrie%Reed%NULL%1,                              Melissa S%Stockwell%NULL%1,                              Lisa%Saiman%NULL%1,                             Litty%Varghese%NULL%1,                             Philip%Zachariah%pz2177@cumc.columbia.edu%1,                             Celibell%Vargas%NULL%1,                             Philip%LaRussa%NULL%1,                             Ryan T%Demmer%NULL%1,                             Yoko E%Furuya%NULL%1,                             Susan%Whittier%NULL%1,                             Carrie%Reed%NULL%1,                             Melissa S%Stockwell%NULL%1,                             Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                              Ria%Lassaunière%NULL%1,                              Tina Louise%Kresfelder%NULL%1,                              Yvette%Westerberg%NULL%1,                              Adele%Visser%NULL%1,                             Marietjie%Venter%marietjiev@nicd.ac.za%1,                             Ria%Lassaunière%NULL%1,                             Tina Louise%Kresfelder%NULL%1,                             Yvette%Westerberg%NULL%1,                             Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                              Charles%Burdet%NULL%1,                              Guillaume%Voiriot%NULL%1,                              François-Xavier%Lescure%NULL%1,                              Taous%Chougar%NULL%1,                              Olivier%Brugière%NULL%1,                              Bruno%Crestani%NULL%1,                              Enrique%Casalino%NULL%1,                              Charlotte%Charpentier%NULL%1,                              Diane%Descamps%NULL%1,                              Jean-François%Timsit%NULL%1,                              Yazdan%Yazdanpanah%NULL%1,                              Nadhira%Houhou-Fidouh%NULL%1,                              Dena L.%Schanzer%NULL%1,                             Benoit%Visseaux%NULL%1,                             Charles%Burdet%NULL%1,                             Guillaume%Voiriot%NULL%1,                             François-Xavier%Lescure%NULL%1,                             Taous%Chougar%NULL%1,                             Olivier%Brugière%NULL%1,                             Bruno%Crestani%NULL%1,                             Enrique%Casalino%NULL%1,                             Charlotte%Charpentier%NULL%1,                             Diane%Descamps%NULL%1,                             Jean-François%Timsit%NULL%1,                             Yazdan%Yazdanpanah%NULL%1,                             Nadhira%Houhou-Fidouh%NULL%1,                             Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                              Deshan%Yu%NULL%0,                              Naiying%Mao%NULL%1,                              Zhen%Zhu%NULL%1,                              Hui%Zhang%NULL%1,                              Zhongyi%Jiang%NULL%1,                              Hongyu%Li%NULL%1,                              Yan%Zhang%NULL%1,                              Jing%Shi%NULL%1,                              Shuang%Zhang%NULL%1,                              Xinhua%Wang%NULL%1,                              Wenbo%Xu%NULL%1,                              Dong-Yan%Jin%NULL%1,                             Guohong%Huang%NULL%1,                             Deshan%Yu%NULL%0,                             Naiying%Mao%NULL%1,                             Zhen%Zhu%NULL%1,                             Hui%Zhang%NULL%1,                             Zhongyi%Jiang%NULL%1,                             Hongyu%Li%NULL%1,                             Yan%Zhang%NULL%1,                             Jing%Shi%NULL%1,                             Shuang%Zhang%NULL%1,                             Xinhua%Wang%NULL%1,                             Wenbo%Xu%NULL%1,                             Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                              Jiu-ling%Tuo%NULL%1,                              Xu-bin%Huang%NULL%1,                              Xun%Zhu%NULL%1,                              Ding-mei%Zhang%NULL%1,                              Kai%Zhou%NULL%1,                              Lei%Yuan%NULL%1,                              Hong-jiao%Luo%NULL%1,                              Bo-jian%Zheng%NULL%1,                              Kwok-yung%Yuen%NULL%1,                              Meng-feng%Li%NULL%1,                              Kai-yuan%Cao%NULL%1,                              Lin%Xu%NULL%1,                              Stefan%Pöhlmann%NULL%1,                             Su-fen%Zhang%NULL%1,                             Jiu-ling%Tuo%NULL%1,                             Xu-bin%Huang%NULL%1,                             Xun%Zhu%NULL%1,                             Ding-mei%Zhang%NULL%1,                             Kai%Zhou%NULL%1,                             Lei%Yuan%NULL%1,                             Hong-jiao%Luo%NULL%1,                             Bo-jian%Zheng%NULL%1,                             Kwok-yung%Yuen%NULL%1,                             Meng-feng%Li%NULL%1,                             Kai-yuan%Cao%NULL%1,                             Lin%Xu%NULL%1,                             Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3392,6 +3854,9 @@
       <c r="I1" t="s">
         <v>312</v>
       </c>
+      <c r="J1" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3407,7 +3872,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>885</v>
+        <v>1045</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -3420,6 +3885,9 @@
       </c>
       <c r="I2" t="s">
         <v>848</v>
+      </c>
+      <c r="J2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3436,7 +3904,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>886</v>
+        <v>1046</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3449,6 +3917,9 @@
       </c>
       <c r="I3" t="s">
         <v>848</v>
+      </c>
+      <c r="J3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3465,7 +3936,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>887</v>
+        <v>611</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3477,7 +3948,10 @@
         <v>462</v>
       </c>
       <c r="I4" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J4" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,7 +3968,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>888</v>
+        <v>1047</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3507,6 +3981,9 @@
       </c>
       <c r="I5" t="s">
         <v>852</v>
+      </c>
+      <c r="J5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3523,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>889</v>
+        <v>1048</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3536,6 +4013,9 @@
       </c>
       <c r="I6" t="s">
         <v>848</v>
+      </c>
+      <c r="J6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3552,7 +4032,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>890</v>
+        <v>1049</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -3565,6 +4045,9 @@
       </c>
       <c r="I7" t="s">
         <v>855</v>
+      </c>
+      <c r="J7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3581,7 +4064,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>891</v>
+        <v>1050</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -3594,6 +4077,9 @@
       </c>
       <c r="I8" t="s">
         <v>855</v>
+      </c>
+      <c r="J8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3610,7 +4096,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>892</v>
+        <v>1051</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -3623,6 +4109,9 @@
       </c>
       <c r="I9" t="s">
         <v>855</v>
+      </c>
+      <c r="J9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3639,7 +4128,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>893</v>
+        <v>1052</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3652,6 +4141,9 @@
       </c>
       <c r="I10" t="s">
         <v>855</v>
+      </c>
+      <c r="J10" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,7 +4160,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>894</v>
+        <v>618</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3677,10 +4169,13 @@
         <v>461</v>
       </c>
       <c r="H11" t="s">
-        <v>471</v>
+        <v>931</v>
       </c>
       <c r="I11" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3697,7 +4192,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>895</v>
+        <v>1053</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -3710,6 +4205,9 @@
       </c>
       <c r="I12" t="s">
         <v>855</v>
+      </c>
+      <c r="J12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3726,7 +4224,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>896</v>
+        <v>1054</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -3739,6 +4237,9 @@
       </c>
       <c r="I13" t="s">
         <v>855</v>
+      </c>
+      <c r="J13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3755,7 +4256,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>897</v>
+        <v>1055</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3768,6 +4269,9 @@
       </c>
       <c r="I14" t="s">
         <v>852</v>
+      </c>
+      <c r="J14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3784,7 +4288,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>898</v>
+        <v>1056</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -3797,6 +4301,9 @@
       </c>
       <c r="I15" t="s">
         <v>864</v>
+      </c>
+      <c r="J15" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3813,7 +4320,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>899</v>
+        <v>1057</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -3826,6 +4333,9 @@
       </c>
       <c r="I16" t="s">
         <v>855</v>
+      </c>
+      <c r="J16" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3842,7 +4352,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>900</v>
+        <v>624</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -3854,7 +4364,10 @@
         <v>480</v>
       </c>
       <c r="I17" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J17" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3871,7 +4384,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>901</v>
+        <v>625</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3883,7 +4396,10 @@
         <v>483</v>
       </c>
       <c r="I18" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J18" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3900,7 +4416,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>902</v>
+        <v>626</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -3912,7 +4428,10 @@
         <v>486</v>
       </c>
       <c r="I19" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J19" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3929,7 +4448,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>903</v>
+        <v>1058</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -3942,6 +4461,9 @@
       </c>
       <c r="I20" t="s">
         <v>855</v>
+      </c>
+      <c r="J20" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3958,7 +4480,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>904</v>
+        <v>1059</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -3971,6 +4493,9 @@
       </c>
       <c r="I21" t="s">
         <v>852</v>
+      </c>
+      <c r="J21" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3987,7 +4512,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>905</v>
+        <v>629</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -3999,7 +4524,10 @@
         <v>491</v>
       </c>
       <c r="I22" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J22" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,7 +4544,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>906</v>
+        <v>1060</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -4029,6 +4557,9 @@
       </c>
       <c r="I23" t="s">
         <v>855</v>
+      </c>
+      <c r="J23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4045,7 +4576,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>907</v>
+        <v>1061</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -4058,6 +4589,9 @@
       </c>
       <c r="I24" t="s">
         <v>864</v>
+      </c>
+      <c r="J24" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4074,7 +4608,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>908</v>
+        <v>1062</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4087,6 +4621,9 @@
       </c>
       <c r="I25" t="s">
         <v>855</v>
+      </c>
+      <c r="J25" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4103,7 +4640,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>909</v>
+        <v>1063</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -4116,6 +4653,9 @@
       </c>
       <c r="I26" t="s">
         <v>848</v>
+      </c>
+      <c r="J26" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4132,7 +4672,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>910</v>
+        <v>1064</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -4145,6 +4685,9 @@
       </c>
       <c r="I27" t="s">
         <v>852</v>
+      </c>
+      <c r="J27" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4173,7 +4716,10 @@
         <v>498</v>
       </c>
       <c r="I28" t="s">
-        <v>848</v>
+        <v>314</v>
+      </c>
+      <c r="J28" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4190,7 +4736,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>911</v>
+        <v>1065</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -4203,6 +4749,9 @@
       </c>
       <c r="I29" t="s">
         <v>855</v>
+      </c>
+      <c r="J29" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4219,7 +4768,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>912</v>
+        <v>1066</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -4232,6 +4781,9 @@
       </c>
       <c r="I30" t="s">
         <v>864</v>
+      </c>
+      <c r="J30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4248,7 +4800,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>913</v>
+        <v>1067</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -4261,6 +4813,9 @@
       </c>
       <c r="I31" t="s">
         <v>864</v>
+      </c>
+      <c r="J31" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4277,7 +4832,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>914</v>
+        <v>1068</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -4290,6 +4845,9 @@
       </c>
       <c r="I32" t="s">
         <v>855</v>
+      </c>
+      <c r="J32" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4306,7 +4864,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>915</v>
+        <v>1069</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -4319,6 +4877,9 @@
       </c>
       <c r="I33" t="s">
         <v>855</v>
+      </c>
+      <c r="J33" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4335,7 +4896,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>916</v>
+        <v>1070</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -4348,6 +4909,9 @@
       </c>
       <c r="I34" t="s">
         <v>855</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4364,7 +4928,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>917</v>
+        <v>1071</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -4377,6 +4941,9 @@
       </c>
       <c r="I35" t="s">
         <v>855</v>
+      </c>
+      <c r="J35" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4393,7 +4960,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>918</v>
+        <v>1072</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -4406,6 +4973,9 @@
       </c>
       <c r="I36" t="s">
         <v>855</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/2.xlsx
+++ b/Covid_19_Dataset_and_References/References/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7309" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7885" uniqueCount="1129">
   <si>
     <t>Doi</t>
   </si>
@@ -3539,6 +3539,174 @@
   </si>
   <si>
     <t>[Su-fen%Zhang%NULL%1,                              Jiu-ling%Tuo%NULL%1,                              Xu-bin%Huang%NULL%1,                              Xun%Zhu%NULL%1,                              Ding-mei%Zhang%NULL%1,                              Kai%Zhou%NULL%1,                              Lei%Yuan%NULL%1,                              Hong-jiao%Luo%NULL%1,                              Bo-jian%Zheng%NULL%1,                              Kwok-yung%Yuen%NULL%1,                              Meng-feng%Li%NULL%1,                              Kai-yuan%Cao%NULL%1,                              Lin%Xu%NULL%1,                              Stefan%Pöhlmann%NULL%1,                             Su-fen%Zhang%NULL%1,                             Jiu-ling%Tuo%NULL%1,                             Xu-bin%Huang%NULL%1,                             Xun%Zhu%NULL%1,                             Ding-mei%Zhang%NULL%1,                             Kai%Zhou%NULL%1,                             Lei%Yuan%NULL%1,                             Hong-jiao%Luo%NULL%1,                             Bo-jian%Zheng%NULL%1,                             Kwok-yung%Yuen%NULL%1,                             Meng-feng%Li%NULL%1,                             Kai-yuan%Cao%NULL%1,                             Lin%Xu%NULL%1,                             Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                             Rachel M%Reeves%null%1,                             Xin%Wang%null%1,                             Quique%Bassat%null%1,                             W Abdullah%Brooks%null%1,                             Cheryl%Cohen%null%1,                             David P%Moore%null%1,                             Marta%Nunes%null%1,                             Barbara%Rath%null%1,                             Harry%Campbell%null%1,                             Harish%Nair%null%1,                             Sozinho%Acacio%null%1,                             Wladimir J%Alonso%null%1,                             Martin%Antonio%null%1,                             Guadalupe%Ayora Talavera%null%1,                             Darmaa%Badarch%null%1,                             Vicky L%Baillie%null%1,                             Gisela%Barrera-Badillo%null%1,                             Godfrey%Bigogo%null%1,                             Shobha%Broor%null%1,                             Dana%Bruden%null%1,                             Philippe%Buchy%null%1,                             Peter%Byass%null%1,                             James%Chipeta%null%1,                             Wilfrido%Clara%null%1,                             Duc-Anh%Dang%null%1,                             Carla Cecília%de Freitas Lázaro Emediato%null%1,                             Menno%de Jong%null%1,                             José Alberto%Díaz-Quiñonez%null%1,                             Lien Anh Ha%Do%null%1,                             Rodrigo A%Fasce%null%1,                             Luzhao%Feng%null%1,                             Mark J%Ferson%null%1,                             Angela%Gentile%null%1,                             Bradford D%Gessner%null%1,                             Doli%Goswami%null%1,                             Sophie%Goyet%null%1,                             Carlos G%Grijalva%null%1,                             Natasha%Halasa%null%1,                             Orienka%Hellferscee%null%1,                             Danielle%Hessong%null%1,                             Nusrat%Homaira%null%1,                             Jorge%Jara%null%1,                             Kathleen%Kahn%null%1,                             Najwa%Khuri-Bulos%null%1,                             Karen L%Kotloff%null%1,                             Claudio F%Lanata%null%1,                             Olga%Lopez%null%1,                             Maria Renee%Lopez Bolaños%null%1,                             Marilla G%Lucero%null%1,                             Florencia%Lucion%null%1,                             Socorro P%Lupisan%null%1,                             Shabir A%Madhi%null%1,                             Omphile%Mekgoe%null%1,                             Cinta%Moraleda%null%1,                             Jocelyn%Moyes%null%1,                             Kim%Mulholland%null%1,                             Patrick K%Munywoki%null%1,                             Fathima%Naby%null%1,                             Thanh Hung%Nguyen%null%1,                             Mark P%Nicol%null%1,                             D James%Nokes%null%1,                             Daniel E%Noyola%null%1,                             Daisuke%Onozuka%null%1,                             Nandhini%Palani%null%1,                             Yong%Poovorawan%null%1,                             Mustafizur%Rahman%null%1,                             Kaat%Ramaekers%null%1,                             Candice%Romero%null%1,                             Elizabeth P%Schlaudecker%null%1,                             Brunhilde%Schweiger%null%1,                             Phil%Seidenberg%null%1,                             Eric A F%Simoes%null%1,                             Rosalyn%Singleton%null%1,                             Sujatha%Sistla%null%1,                             Katharine%Sturm-Ramirez%null%1,                             Nungruthai%Suntronwong%null%1,                             Agustinus%Sutanto%null%1,                             Milagritos D%Tapia%null%1,                             Somsak%Thamthitiwat%null%1,                             Ilada%Thongpan%null%1,                             Gayani%Tillekeratne%null%1,                             Yeny O%Tinoco%null%1,                             Florette K%Treurnicht%null%1,                             Claudia%Turner%null%1,                             Paul%Turner%null%1,                             Rogier%van Doorn%null%1,                             Marc%Van Ranst%null%1,                             Benoit%Visseaux%null%1,                             Sunthareeya%Waicharoen%null%1,                             Jianwei%Wang%null%1,                             Lay-Myint%Yoshida%null%1,                             Heather J%Zar%null%1,                         You%Li%null%1,                         Rachel M%Reeves%null%1,                         Xin%Wang%null%1,                         Quique%Bassat%null%1,                         W Abdullah%Brooks%null%1,                         Cheryl%Cohen%null%1,                         David P%Moore%null%1,                         Marta%Nunes%null%1,                         Barbara%Rath%null%1,                         Harry%Campbell%null%1,                         Harish%Nair%null%1,                         Sozinho%Acacio%null%1,                         Wladimir J%Alonso%null%1,                         Martin%Antonio%null%1,                         Guadalupe%Ayora Talavera%null%1,                         Darmaa%Badarch%null%1,                         Vicky L%Baillie%null%1,                         Gisela%Barrera-Badillo%null%1,                         Godfrey%Bigogo%null%1,                         Shobha%Broor%null%1,                         Dana%Bruden%null%1,                         Philippe%Buchy%null%1,                         Peter%Byass%null%1,                         James%Chipeta%null%1,                         Wilfrido%Clara%null%1,                         Duc-Anh%Dang%null%1,                         Carla Cecília%de Freitas Lázaro Emediato%null%1,                         Menno%de Jong%null%1,                         José Alberto%Díaz-Quiñonez%null%1,                         Lien Anh Ha%Do%null%1,                         Rodrigo A%Fasce%null%1,                         Luzhao%Feng%null%2,                         Mark J%Ferson%null%1,                         Angela%Gentile%null%1,                         Bradford D%Gessner%null%1,                         Doli%Goswami%null%1,                         Sophie%Goyet%null%1,                         Carlos G%Grijalva%null%1,                         Natasha%Halasa%null%1,                         Orienka%Hellferscee%null%1,                         Danielle%Hessong%null%1,                         Nusrat%Homaira%null%1,                         Jorge%Jara%null%1,                         Kathleen%Kahn%null%1,                         Najwa%Khuri-Bulos%null%1,                         Karen L%Kotloff%null%1,                         Claudio F%Lanata%null%1,                         Olga%Lopez%null%1,                         Maria Renee%Lopez Bolaños%null%1,                         Marilla G%Lucero%null%1,                         Florencia%Lucion%null%1,                         Socorro P%Lupisan%null%1,                         Shabir A%Madhi%null%1,                         Omphile%Mekgoe%null%1,                         Cinta%Moraleda%null%1,                         Jocelyn%Moyes%null%1,                         Kim%Mulholland%null%1,                         Patrick K%Munywoki%null%1,                         Fathima%Naby%null%1,                         Thanh Hung%Nguyen%null%1,                         Mark P%Nicol%null%1,                         D James%Nokes%null%1,                         Daniel E%Noyola%null%1,                         Daisuke%Onozuka%null%1,                         Nandhini%Palani%null%1,                         Yong%Poovorawan%null%1,                         Mustafizur%Rahman%null%1,                         Kaat%Ramaekers%null%1,                         Candice%Romero%null%1,                         Elizabeth P%Schlaudecker%null%1,                         Brunhilde%Schweiger%null%1,                         Phil%Seidenberg%null%1,                         Eric A F%Simoes%null%1,                         Rosalyn%Singleton%null%1,                         Sujatha%Sistla%null%1,                         Katharine%Sturm-Ramirez%null%1,                         Nungruthai%Suntronwong%null%1,                         Agustinus%Sutanto%null%1,                         Milagritos D%Tapia%null%1,                         Somsak%Thamthitiwat%null%1,                         Ilada%Thongpan%null%1,                         Gayani%Tillekeratne%null%1,                         Yeny O%Tinoco%null%1,                         Florette K%Treurnicht%null%1,                         Claudia%Turner%null%1,                         Paul%Turner%null%1,                         Rogier%van Doorn%null%1,                         Marc%Van Ranst%null%3,                         Benoit%Visseaux%null%1,                         Sunthareeya%Waicharoen%null%1,                         Jianwei%Wang%null%5,                         Lay-Myint%Yoshida%null%1,                         Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                           Jack%Bee Chook%coreGivesNoEmail%1,                           Kim%Tien Ng%coreGivesNoEmail%1,                           Kok%Keng Tee%coreGivesNoEmail%1,                           Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                           Nik%Sherina Hanafi%coreGivesNoEmail%1,                           van%der Hoek%coreGivesNoEmail%2,                           van%der Hoek%coreGivesNoEmail%0,                           van%Elden%coreGivesNoEmail%1,                           Xiang%Yong Oong%coreGivesNoEmail%1,                           Yong%Kek Pang%coreGivesNoEmail%1,                           Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                               Dangui%Zhang%danguizhang@stu.edu.cn%1,                               Hui%Pan%michaelpan@stu.edu.cn%1,                               Fan%Zhang%lemon_fan@163.com%1,                               Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                               Frieda%Law%lawf@stu.edu.cn%1,                               H Rogier%van Doorn%hrogier@gmail.com%1,                               Beiyan%Wu%1261305798@qq.com%1,                               William%Ba-Thein%wbathein@stu.edu.cn%1,                              Binglin%Cui%binglincui@stu.edu.cn%1,                              Dangui%Zhang%danguizhang@stu.edu.cn%1,                              Hui%Pan%michaelpan@stu.edu.cn%1,                              Fan%Zhang%lemon_fan@163.com%1,                              Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                              Frieda%Law%lawf@stu.edu.cn%1,                              H Rogier%van Doorn%hrogier@gmail.com%1,                              Beiyan%Wu%1261305798@qq.com%1,                              William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                           Andrew%Berglund%coreGivesNoEmail%1,                           Christine%C. Robinson%coreGivesNoEmail%1,                           Christopher%D. Town%coreGivesNoEmail%1,                           Edison%Luiz Durigon%coreGivesNoEmail%1,                           Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                           Kathryn%V. Holmes%coreGivesNoEmail%1,                           Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                           Nadia%Fedorova%coreGivesNoEmail%1,                           Philip%A. Weston%coreGivesNoEmail%1,                           Rebecca%A. Halpin%coreGivesNoEmail%1,                           Samuel%R. Dominguez%coreGivesNoEmail%1,                           Susmita%Shrivastava%coreGivesNoEmail%1,                           Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                               Lifeng%Pan%NULL%1,                               Qiao%Sun%NULL%1,                               Weiping%Zhu%NULL%1,                               Linying%Zhu%NULL%1,                               Chuchu%Ye%NULL%1,                               Caoyi%Xue%NULL%1,                               Yuanping%Wang%NULL%1,                               Qing%Liu%NULL%1,                               Ping%Ma%NULL%1,                               Huifang%Qiu%NULL%1,                               Srinand%Sreevatsan%NULL%1,                              Yifei%Fu%NULL%1,                              Lifeng%Pan%NULL%1,                              Qiao%Sun%NULL%1,                              Weiping%Zhu%NULL%1,                              Linying%Zhu%NULL%1,                              Chuchu%Ye%NULL%1,                              Caoyi%Xue%NULL%1,                              Yuanping%Wang%NULL%1,                              Qing%Liu%NULL%1,                              Ping%Ma%NULL%1,                              Huifang%Qiu%NULL%1,                              Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                               Mumtaz Cem%Sirin%NULL%1,                              Safak%Goktas%NULL%1,                              Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                               Nina%Moe%NULL%1,                               Sidsel%Krokstad%NULL%2,                               Andreas%Christensen%NULL%2,                               Lars Høsøien%Skanke%NULL%2,                               Svein Arne%Nordbø%NULL%2,                               Henrik%Døllner%henrik.dollner@ntnu.no%2,                              Inger%Heimdal%NULL%1,                              Nina%Moe%NULL%2,                              Sidsel%Krokstad%NULL%2,                              Andreas%Christensen%NULL%2,                              Lars Høsøien%Skanke%NULL%2,                              Svein Arne%Nordbø%NULL%2,                              Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                               Inger Heimdal%Stenseng%NULL%1,                               Sidsel%Krokstad%NULL%0,                               Andreas%Christensen%NULL%0,                               Lars Høsøien%Skanke%NULL%0,                               Kari Ravndal%Risnes%NULL%1,                               Svein Arne%Nordbø%NULL%0,                               Henrik%Døllner%henrik.dollner@ntnu.no%0,                              Nina%Moe%NULL%0,                              Inger Heimdal%Stenseng%NULL%1,                              Sidsel%Krokstad%NULL%0,                              Andreas%Christensen%NULL%0,                              Lars Høsøien%Skanke%NULL%0,                              Kari Ravndal%Risnes%NULL%1,                              Svein Arne%Nordbø%NULL%0,                              Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                               Andrej%Steyer%NULL%1,                               Marko%Pokorn%NULL%1,                               Tatjana%Mrvič%NULL%1,                               Štefan%Grosek%NULL%1,                               Franc%Strle%NULL%1,                               Lara%Lusa%NULL%1,                               Miroslav%Petrovec%NULL%1,                               Oliver%Schildgen%NULL%1,                              Monika%Jevšnik%NULL%1,                              Andrej%Steyer%NULL%1,                              Marko%Pokorn%NULL%1,                              Tatjana%Mrvič%NULL%1,                              Štefan%Grosek%NULL%1,                              Franc%Strle%NULL%1,                              Lara%Lusa%NULL%1,                              Miroslav%Petrovec%NULL%1,                              Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                               Matti%Waris%NULL%1,                               Kari%Johansen%NULL%1,                               René%Snacken%NULL%1,                               Pasi%Penttinen%NULL%1,                               NULL%NULL%NULL%3,                              Eeva K%Broberg%NULL%1,                              Matti%Waris%NULL%1,                              Kari%Johansen%NULL%1,                              René%Snacken%NULL%1,                              Pasi%Penttinen%NULL%1,                              NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                               Qiaoyun%Fang%NULL%1,                               Jian%Zhang%NULL%1,                               Angao%Xu%NULL%1,                               Lihuan%Liang%NULL%1,                               Changwen%Ke%hzmedicine@163.com%1,                              Xiongfei%Ju%NULL%1,                              Qiaoyun%Fang%NULL%1,                              Jian%Zhang%NULL%1,                              Angao%Xu%NULL%1,                              Lihuan%Liang%NULL%1,                              Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                               Holly M.%Biggs%NULL%1,                               Amber%Haynes%NULL%1,                               Rebecca M.%Dahl%NULL%1,                               Desiree%Mustaquim%NULL%1,                               Susan I.%Gerber%NULL%1,                               John T.%Watson%NULL%1,                              Marie E.%Killerby%lxo9@cdc.gov%1,                              Holly M.%Biggs%NULL%1,                              Amber%Haynes%NULL%1,                              Rebecca M.%Dahl%NULL%1,                              Desiree%Mustaquim%NULL%1,                              Susan I.%Gerber%NULL%1,                              John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                               Hee‐Dong%Jung%NULL%1,                               Hyang‐Min%Cheong%NULL%1,                               Anna%Lee%NULL%1,                               Nam‐Joo%Lee%NULL%1,                               Hyuk%Chu%NULL%1,                               Joo‐Yeon%Lee%NULL%1,                               Sung Soon%Kim%NULL%1,                               Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                              Jeong‐Min%Kim%NULL%1,                              Hee‐Dong%Jung%NULL%1,                              Hyang‐Min%Cheong%NULL%1,                              Anna%Lee%NULL%1,                              Nam‐Joo%Lee%NULL%1,                              Hyuk%Chu%NULL%1,                              Joo‐Yeon%Lee%NULL%1,                              Sung Soon%Kim%NULL%1,                              Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                               Juansheng%Li%lijsh16@163.com%1,                               Lei%Meng%mleicdc@163.com%1,                               Wanqi%Zhu%NULL%1,                               Xinfeng%Liu%NULL%1,                               Mei%Yang%NULL%1,                               Deshan%Yu%NULL%2,                               Lixia%Niu%NULL%1,                               Xiping%Shen%NULL%1,                              Xuechao%Li%NULL%1,                              Juansheng%Li%lijsh16@163.com%1,                              Lei%Meng%mleicdc@163.com%1,                              Wanqi%Zhu%NULL%1,                              Xinfeng%Liu%NULL%1,                              Mei%Yang%NULL%1,                              Deshan%Yu%NULL%2,                              Lixia%Niu%NULL%1,                              Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                               James G.%Bosley%NULL%1,                              Christine M.%Litwin%clitwin@gru.edu%1,                              James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                               Elsie Laban%Yekwa%NULL%1,                               Pierre%Cappy%NULL%1,                               Astrid%Vabret%NULL%2,                               Pascal%Boisier%NULL%1,                               Dominique%Rousset%NULL%1,                              Richard%Njouom%NULL%1,                              Elsie Laban%Yekwa%NULL%1,                              Pierre%Cappy%NULL%1,                              Astrid%Vabret%NULL%2,                              Pascal%Boisier%NULL%1,                              Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                               Suvi%Lappalainen%NULL%1,                               Timo%Vesikari%NULL%1,                              Minna%Paloniemi%NULL%1,                              Suvi%Lappalainen%NULL%1,                              Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                               Richard%Gonzalez%NULL%1,                               Jin%Xu%NULL%1,                               Yan%Xiao%NULL%1,                               Yongjun%Li%NULL%1,                               Hongli%Zhou%NULL%1,                               Jianguo%Li%NULL%1,                               Qingqing%Yang%NULL%1,                               Jing%Zhang%NULL%1,                               Lan%Chen%NULL%1,                               Wei%Wang%NULL%1,                               Guy%Vernet%NULL%1,                               Gláucia%Paranhos‐Baccalà%NULL%1,                               Zhong%Wang%wangzhong523@vip.163.com%1,                               Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                              Lili%Ren%NULL%1,                              Richard%Gonzalez%NULL%1,                              Jin%Xu%NULL%1,                              Yan%Xiao%NULL%1,                              Yongjun%Li%NULL%1,                              Hongli%Zhou%NULL%1,                              Jianguo%Li%NULL%1,                              Qingqing%Yang%NULL%1,                              Jing%Zhang%NULL%1,                              Lan%Chen%NULL%1,                              Wei%Wang%NULL%1,                              Guy%Vernet%NULL%1,                              Gláucia%Paranhos‐Baccalà%NULL%1,                              Zhong%Wang%wangzhong523@vip.163.com%1,                              Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                           Druelle%Valentin%coreGivesNoEmail%1,                           Dyrdak%Robert%coreGivesNoEmail%1,                           Hodcroft%Emma B.%coreGivesNoEmail%1,                           Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                               Ilada%Thongpan%ilada.cu09@gmail.com%1,                               Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                               Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                               Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                               Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                               Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                               Yong%Poovorawan%yong.p@chula.ac.th%1,                              Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                              Ilada%Thongpan%ilada.cu09@gmail.com%1,                              Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                              Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                              Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                              Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                              Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                              Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                               Janet A%Englund%NULL%1,                               Jane Y%Kuypers%NULL%1,                               Helen Y%Chu%NULL%1,                               Mark C%Steinhoff%NULL%1,                               Subarna K%Khatry%NULL%1,                               Steve C%LeClerq%NULL%1,                               James M%Tielsch%NULL%1,                               Luke C%Mullany%NULL%1,                               Laxman%Shrestha%NULL%2,                               Joanne%Katz%jkatz1@jhu.edu%2,                              S M Iftekhar%Uddin%NULL%1,                              Janet A%Englund%NULL%1,                              Jane Y%Kuypers%NULL%1,                              Helen Y%Chu%NULL%1,                              Mark C%Steinhoff%NULL%1,                              Subarna K%Khatry%NULL%1,                              Steve C%LeClerq%NULL%1,                              James M%Tielsch%NULL%1,                              Luke C%Mullany%NULL%1,                              Laxman%Shrestha%NULL%2,                              Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                               Joanne%Katz%NULL%0,                               James%Tielsch%NULL%1,                               Subarna K.%Khatry%NULL%1,                               Laxman%Shrestha%NULL%0,                               Steven C.%LeClerq%NULL%1,                               Amalia%Magaret%NULL%1,                               Jane%Kuypers%NULL%1,                               Mark%Steinhoff%NULL%1,                               Janet A.%Englund%NULL%1,                              Helen Y.%Chu%helenchu@uw.edu%1,                              Joanne%Katz%NULL%0,                              James%Tielsch%NULL%1,                              Subarna K.%Khatry%NULL%1,                              Laxman%Shrestha%NULL%0,                              Steven C.%LeClerq%NULL%1,                              Amalia%Magaret%NULL%1,                              Jane%Kuypers%NULL%1,                              Mark%Steinhoff%NULL%1,                              Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                               Gabriele%Ihorst%NULL%1,                               Klaus%Sure%NULL%1,                               Astrid%Vabret%NULL%0,                               Ronald%Dijkman%NULL%1,                               Michel%de Vries%NULL%1,                               Johannes%Forster%NULL%1,                               Ben%Berkhout%NULL%1,                               Klaus%Uberla%NULL%1,                              Lia%van der Hoek%NULL%1,                              Gabriele%Ihorst%NULL%1,                              Klaus%Sure%NULL%1,                              Astrid%Vabret%NULL%0,                              Ronald%Dijkman%NULL%1,                              Michel%de Vries%NULL%1,                              Johannes%Forster%NULL%1,                              Ben%Berkhout%NULL%1,                              Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                               Philip%Zachariah%pz2177@cumc.columbia.edu%1,                               Celibell%Vargas%NULL%1,                               Philip%LaRussa%NULL%1,                               Ryan T%Demmer%NULL%1,                               Yoko E%Furuya%NULL%1,                               Susan%Whittier%NULL%1,                               Carrie%Reed%NULL%1,                               Melissa S%Stockwell%NULL%1,                               Lisa%Saiman%NULL%1,                              Litty%Varghese%NULL%1,                              Philip%Zachariah%pz2177@cumc.columbia.edu%1,                              Celibell%Vargas%NULL%1,                              Philip%LaRussa%NULL%1,                              Ryan T%Demmer%NULL%1,                              Yoko E%Furuya%NULL%1,                              Susan%Whittier%NULL%1,                              Carrie%Reed%NULL%1,                              Melissa S%Stockwell%NULL%1,                              Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                               Ria%Lassaunière%NULL%1,                               Tina Louise%Kresfelder%NULL%1,                               Yvette%Westerberg%NULL%1,                               Adele%Visser%NULL%1,                              Marietjie%Venter%marietjiev@nicd.ac.za%1,                              Ria%Lassaunière%NULL%1,                              Tina Louise%Kresfelder%NULL%1,                              Yvette%Westerberg%NULL%1,                              Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                               Charles%Burdet%NULL%1,                               Guillaume%Voiriot%NULL%1,                               François-Xavier%Lescure%NULL%1,                               Taous%Chougar%NULL%1,                               Olivier%Brugière%NULL%1,                               Bruno%Crestani%NULL%1,                               Enrique%Casalino%NULL%1,                               Charlotte%Charpentier%NULL%1,                               Diane%Descamps%NULL%1,                               Jean-François%Timsit%NULL%1,                               Yazdan%Yazdanpanah%NULL%1,                               Nadhira%Houhou-Fidouh%NULL%1,                               Dena L.%Schanzer%NULL%1,                              Benoit%Visseaux%NULL%1,                              Charles%Burdet%NULL%1,                              Guillaume%Voiriot%NULL%1,                              François-Xavier%Lescure%NULL%1,                              Taous%Chougar%NULL%1,                              Olivier%Brugière%NULL%1,                              Bruno%Crestani%NULL%1,                              Enrique%Casalino%NULL%1,                              Charlotte%Charpentier%NULL%1,                              Diane%Descamps%NULL%1,                              Jean-François%Timsit%NULL%1,                              Yazdan%Yazdanpanah%NULL%1,                              Nadhira%Houhou-Fidouh%NULL%1,                              Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                               Deshan%Yu%NULL%0,                               Naiying%Mao%NULL%1,                               Zhen%Zhu%NULL%1,                               Hui%Zhang%NULL%1,                               Zhongyi%Jiang%NULL%1,                               Hongyu%Li%NULL%1,                               Yan%Zhang%NULL%1,                               Jing%Shi%NULL%1,                               Shuang%Zhang%NULL%1,                               Xinhua%Wang%NULL%1,                               Wenbo%Xu%NULL%1,                               Dong-Yan%Jin%NULL%1,                              Guohong%Huang%NULL%1,                              Deshan%Yu%NULL%0,                              Naiying%Mao%NULL%1,                              Zhen%Zhu%NULL%1,                              Hui%Zhang%NULL%1,                              Zhongyi%Jiang%NULL%1,                              Hongyu%Li%NULL%1,                              Yan%Zhang%NULL%1,                              Jing%Shi%NULL%1,                              Shuang%Zhang%NULL%1,                              Xinhua%Wang%NULL%1,                              Wenbo%Xu%NULL%1,                              Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                               Jiu-ling%Tuo%NULL%1,                               Xu-bin%Huang%NULL%1,                               Xun%Zhu%NULL%1,                               Ding-mei%Zhang%NULL%1,                               Kai%Zhou%NULL%1,                               Lei%Yuan%NULL%1,                               Hong-jiao%Luo%NULL%1,                               Bo-jian%Zheng%NULL%1,                               Kwok-yung%Yuen%NULL%1,                               Meng-feng%Li%NULL%1,                               Kai-yuan%Cao%NULL%1,                               Lin%Xu%NULL%1,                               Stefan%Pöhlmann%NULL%1,                              Su-fen%Zhang%NULL%1,                              Jiu-ling%Tuo%NULL%1,                              Xu-bin%Huang%NULL%1,                              Xun%Zhu%NULL%1,                              Ding-mei%Zhang%NULL%1,                              Kai%Zhou%NULL%1,                              Lei%Yuan%NULL%1,                              Hong-jiao%Luo%NULL%1,                              Bo-jian%Zheng%NULL%1,                              Kwok-yung%Yuen%NULL%1,                              Meng-feng%Li%NULL%1,                              Kai-yuan%Cao%NULL%1,                              Lin%Xu%NULL%1,                              Stefan%Pöhlmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ You%Li%null%1,                              Rachel M%Reeves%null%1,                              Xin%Wang%null%1,                              Quique%Bassat%null%1,                              W Abdullah%Brooks%null%1,                              Cheryl%Cohen%null%1,                              David P%Moore%null%1,                              Marta%Nunes%null%1,                              Barbara%Rath%null%1,                              Harry%Campbell%null%1,                              Harish%Nair%null%1,                              Sozinho%Acacio%null%1,                              Wladimir J%Alonso%null%1,                              Martin%Antonio%null%1,                              Guadalupe%Ayora Talavera%null%1,                              Darmaa%Badarch%null%1,                              Vicky L%Baillie%null%1,                              Gisela%Barrera-Badillo%null%1,                              Godfrey%Bigogo%null%1,                              Shobha%Broor%null%1,                              Dana%Bruden%null%1,                              Philippe%Buchy%null%1,                              Peter%Byass%null%1,                              James%Chipeta%null%1,                              Wilfrido%Clara%null%1,                              Duc-Anh%Dang%null%1,                              Carla Cecília%de Freitas Lázaro Emediato%null%1,                              Menno%de Jong%null%1,                              José Alberto%Díaz-Quiñonez%null%1,                              Lien Anh Ha%Do%null%1,                              Rodrigo A%Fasce%null%1,                              Luzhao%Feng%null%1,                              Mark J%Ferson%null%1,                              Angela%Gentile%null%1,                              Bradford D%Gessner%null%1,                              Doli%Goswami%null%1,                              Sophie%Goyet%null%1,                              Carlos G%Grijalva%null%1,                              Natasha%Halasa%null%1,                              Orienka%Hellferscee%null%1,                              Danielle%Hessong%null%1,                              Nusrat%Homaira%null%1,                              Jorge%Jara%null%1,                              Kathleen%Kahn%null%1,                              Najwa%Khuri-Bulos%null%1,                              Karen L%Kotloff%null%1,                              Claudio F%Lanata%null%1,                              Olga%Lopez%null%1,                              Maria Renee%Lopez Bolaños%null%1,                              Marilla G%Lucero%null%1,                              Florencia%Lucion%null%1,                              Socorro P%Lupisan%null%1,                              Shabir A%Madhi%null%1,                              Omphile%Mekgoe%null%1,                              Cinta%Moraleda%null%1,                              Jocelyn%Moyes%null%1,                              Kim%Mulholland%null%1,                              Patrick K%Munywoki%null%1,                              Fathima%Naby%null%1,                              Thanh Hung%Nguyen%null%1,                              Mark P%Nicol%null%1,                              D James%Nokes%null%1,                              Daniel E%Noyola%null%1,                              Daisuke%Onozuka%null%1,                              Nandhini%Palani%null%1,                              Yong%Poovorawan%null%1,                              Mustafizur%Rahman%null%1,                              Kaat%Ramaekers%null%1,                              Candice%Romero%null%1,                              Elizabeth P%Schlaudecker%null%1,                              Brunhilde%Schweiger%null%1,                              Phil%Seidenberg%null%1,                              Eric A F%Simoes%null%1,                              Rosalyn%Singleton%null%1,                              Sujatha%Sistla%null%1,                              Katharine%Sturm-Ramirez%null%1,                              Nungruthai%Suntronwong%null%1,                              Agustinus%Sutanto%null%1,                              Milagritos D%Tapia%null%1,                              Somsak%Thamthitiwat%null%1,                              Ilada%Thongpan%null%1,                              Gayani%Tillekeratne%null%1,                              Yeny O%Tinoco%null%1,                              Florette K%Treurnicht%null%1,                              Claudia%Turner%null%1,                              Paul%Turner%null%1,                              Rogier%van Doorn%null%1,                              Marc%Van Ranst%null%1,                              Benoit%Visseaux%null%1,                              Sunthareeya%Waicharoen%null%1,                              Jianwei%Wang%null%1,                              Lay-Myint%Yoshida%null%1,                              Heather J%Zar%null%1,                          You%Li%null%1,                          Rachel M%Reeves%null%1,                          Xin%Wang%null%1,                          Quique%Bassat%null%1,                          W Abdullah%Brooks%null%1,                          Cheryl%Cohen%null%1,                          David P%Moore%null%1,                          Marta%Nunes%null%1,                          Barbara%Rath%null%1,                          Harry%Campbell%null%1,                          Harish%Nair%null%1,                          Sozinho%Acacio%null%1,                          Wladimir J%Alonso%null%1,                          Martin%Antonio%null%1,                          Guadalupe%Ayora Talavera%null%1,                          Darmaa%Badarch%null%1,                          Vicky L%Baillie%null%1,                          Gisela%Barrera-Badillo%null%1,                          Godfrey%Bigogo%null%1,                          Shobha%Broor%null%1,                          Dana%Bruden%null%1,                          Philippe%Buchy%null%1,                          Peter%Byass%null%1,                          James%Chipeta%null%1,                          Wilfrido%Clara%null%1,                          Duc-Anh%Dang%null%1,                          Carla Cecília%de Freitas Lázaro Emediato%null%1,                          Menno%de Jong%null%1,                          José Alberto%Díaz-Quiñonez%null%1,                          Lien Anh Ha%Do%null%1,                          Rodrigo A%Fasce%null%1,                          Luzhao%Feng%null%2,                          Mark J%Ferson%null%1,                          Angela%Gentile%null%1,                          Bradford D%Gessner%null%1,                          Doli%Goswami%null%1,                          Sophie%Goyet%null%1,                          Carlos G%Grijalva%null%1,                          Natasha%Halasa%null%1,                          Orienka%Hellferscee%null%1,                          Danielle%Hessong%null%1,                          Nusrat%Homaira%null%1,                          Jorge%Jara%null%1,                          Kathleen%Kahn%null%1,                          Najwa%Khuri-Bulos%null%1,                          Karen L%Kotloff%null%1,                          Claudio F%Lanata%null%1,                          Olga%Lopez%null%1,                          Maria Renee%Lopez Bolaños%null%1,                          Marilla G%Lucero%null%1,                          Florencia%Lucion%null%1,                          Socorro P%Lupisan%null%1,                          Shabir A%Madhi%null%1,                          Omphile%Mekgoe%null%1,                          Cinta%Moraleda%null%1,                          Jocelyn%Moyes%null%1,                          Kim%Mulholland%null%1,                          Patrick K%Munywoki%null%1,                          Fathima%Naby%null%1,                          Thanh Hung%Nguyen%null%1,                          Mark P%Nicol%null%1,                          D James%Nokes%null%1,                          Daniel E%Noyola%null%1,                          Daisuke%Onozuka%null%1,                          Nandhini%Palani%null%1,                          Yong%Poovorawan%null%1,                          Mustafizur%Rahman%null%1,                          Kaat%Ramaekers%null%1,                          Candice%Romero%null%1,                          Elizabeth P%Schlaudecker%null%1,                          Brunhilde%Schweiger%null%1,                          Phil%Seidenberg%null%1,                          Eric A F%Simoes%null%1,                          Rosalyn%Singleton%null%1,                          Sujatha%Sistla%null%1,                          Katharine%Sturm-Ramirez%null%1,                          Nungruthai%Suntronwong%null%1,                          Agustinus%Sutanto%null%1,                          Milagritos D%Tapia%null%1,                          Somsak%Thamthitiwat%null%1,                          Ilada%Thongpan%null%1,                          Gayani%Tillekeratne%null%1,                          Yeny O%Tinoco%null%1,                          Florette K%Treurnicht%null%1,                          Claudia%Turner%null%1,                          Paul%Turner%null%1,                          Rogier%van Doorn%null%1,                          Marc%Van Ranst%null%3,                          Benoit%Visseaux%null%1,                          Sunthareeya%Waicharoen%null%1,                          Jianwei%Wang%null%5,                          Lay-Myint%Yoshida%null%1,                          Heather J%Zar%null%1]</t>
+  </si>
+  <si>
+    <t>[Adeeba%Kamarulzaman%coreGivesNoEmail%1,                            Jack%Bee Chook%coreGivesNoEmail%1,                            Kim%Tien Ng%coreGivesNoEmail%1,                            Kok%Keng Tee%coreGivesNoEmail%1,                            Maryam%Nabiel Al-Khannaq%coreGivesNoEmail%1,                            Nik%Sherina Hanafi%coreGivesNoEmail%1,                            van%der Hoek%coreGivesNoEmail%2,                            van%der Hoek%coreGivesNoEmail%0,                            van%Elden%coreGivesNoEmail%1,                            Xiang%Yong Oong%coreGivesNoEmail%1,                            Yong%Kek Pang%coreGivesNoEmail%1,                            Yutaka%Takebe%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Binglin%Cui%binglincui@stu.edu.cn%1,                                Dangui%Zhang%danguizhang@stu.edu.cn%1,                                Hui%Pan%michaelpan@stu.edu.cn%1,                                Fan%Zhang%lemon_fan@163.com%1,                                Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                                Frieda%Law%lawf@stu.edu.cn%1,                                H Rogier%van Doorn%hrogier@gmail.com%1,                                Beiyan%Wu%1261305798@qq.com%1,                                William%Ba-Thein%wbathein@stu.edu.cn%1,                               Binglin%Cui%binglincui@stu.edu.cn%1,                               Dangui%Zhang%danguizhang@stu.edu.cn%1,                               Hui%Pan%michaelpan@stu.edu.cn%1,                               Fan%Zhang%lemon_fan@163.com%1,                               Jeremy%Farrar%jeremyjfarrar@gmail.com%1,                               Frieda%Law%lawf@stu.edu.cn%1,                               H Rogier%van Doorn%hrogier@gmail.com%1,                               Beiyan%Wu%1261305798@qq.com%1,                               William%Ba-Thein%wbathein@stu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Amy%Ransier%coreGivesNoEmail%1,                            Andrew%Berglund%coreGivesNoEmail%1,                            Christine%C. Robinson%coreGivesNoEmail%1,                            Christopher%D. Town%coreGivesNoEmail%1,                            Edison%Luiz Durigon%coreGivesNoEmail%1,                            Jos\u00e9%Antonio Jerez%coreGivesNoEmail%1,                            Kathryn%V. Holmes%coreGivesNoEmail%1,                            Luiz%Gustavo Bentim G\u00f3es%coreGivesNoEmail%1,                            Nadia%Fedorova%coreGivesNoEmail%1,                            Philip%A. Weston%coreGivesNoEmail%1,                            Rebecca%A. Halpin%coreGivesNoEmail%1,                            Samuel%R. Dominguez%coreGivesNoEmail%1,                            Susmita%Shrivastava%coreGivesNoEmail%1,                            Zhaohui%Qian%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yifei%Fu%NULL%1,                                Lifeng%Pan%NULL%1,                                Qiao%Sun%NULL%1,                                Weiping%Zhu%NULL%1,                                Linying%Zhu%NULL%1,                                Chuchu%Ye%NULL%1,                                Caoyi%Xue%NULL%1,                                Yuanping%Wang%NULL%1,                                Qing%Liu%NULL%1,                                Ping%Ma%NULL%1,                                Huifang%Qiu%NULL%1,                                Srinand%Sreevatsan%NULL%1,                               Yifei%Fu%NULL%1,                               Lifeng%Pan%NULL%1,                               Qiao%Sun%NULL%1,                               Weiping%Zhu%NULL%1,                               Linying%Zhu%NULL%1,                               Chuchu%Ye%NULL%1,                               Caoyi%Xue%NULL%1,                               Yuanping%Wang%NULL%1,                               Qing%Liu%NULL%1,                               Ping%Ma%NULL%1,                               Huifang%Qiu%NULL%1,                               Srinand%Sreevatsan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safak%Goktas%NULL%1,                                Mumtaz Cem%Sirin%NULL%1,                               Safak%Goktas%NULL%1,                               Mumtaz Cem%Sirin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Inger%Heimdal%NULL%1,                                Nina%Moe%NULL%1,                                Sidsel%Krokstad%NULL%2,                                Andreas%Christensen%NULL%2,                                Lars Høsøien%Skanke%NULL%2,                                Svein Arne%Nordbø%NULL%2,                                Henrik%Døllner%henrik.dollner@ntnu.no%2,                               Inger%Heimdal%NULL%1,                               Nina%Moe%NULL%2,                               Sidsel%Krokstad%NULL%2,                               Andreas%Christensen%NULL%2,                               Lars Høsøien%Skanke%NULL%2,                               Svein Arne%Nordbø%NULL%2,                               Henrik%Døllner%henrik.dollner@ntnu.no%2]</t>
+  </si>
+  <si>
+    <t>[Nina%Moe%NULL%1,                                Inger Heimdal%Stenseng%NULL%1,                                Sidsel%Krokstad%NULL%0,                                Andreas%Christensen%NULL%0,                                Lars Høsøien%Skanke%NULL%0,                                Kari Ravndal%Risnes%NULL%1,                                Svein Arne%Nordbø%NULL%0,                                Henrik%Døllner%henrik.dollner@ntnu.no%0,                               Nina%Moe%NULL%0,                               Inger Heimdal%Stenseng%NULL%1,                               Sidsel%Krokstad%NULL%0,                               Andreas%Christensen%NULL%0,                               Lars Høsøien%Skanke%NULL%0,                               Kari Ravndal%Risnes%NULL%1,                               Svein Arne%Nordbø%NULL%0,                               Henrik%Døllner%henrik.dollner@ntnu.no%0]</t>
+  </si>
+  <si>
+    <t>[Monika%Jevšnik%NULL%1,                                Andrej%Steyer%NULL%1,                                Marko%Pokorn%NULL%1,                                Tatjana%Mrvič%NULL%1,                                Štefan%Grosek%NULL%1,                                Franc%Strle%NULL%1,                                Lara%Lusa%NULL%1,                                Miroslav%Petrovec%NULL%1,                                Oliver%Schildgen%NULL%1,                               Monika%Jevšnik%NULL%1,                               Andrej%Steyer%NULL%1,                               Marko%Pokorn%NULL%1,                               Tatjana%Mrvič%NULL%1,                               Štefan%Grosek%NULL%1,                               Franc%Strle%NULL%1,                               Lara%Lusa%NULL%1,                               Miroslav%Petrovec%NULL%1,                               Oliver%Schildgen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Eeva K%Broberg%NULL%1,                                Matti%Waris%NULL%1,                                Kari%Johansen%NULL%1,                                René%Snacken%NULL%1,                                Pasi%Penttinen%NULL%1,                                NULL%NULL%NULL%3,                               Eeva K%Broberg%NULL%1,                               Matti%Waris%NULL%1,                               Kari%Johansen%NULL%1,                               René%Snacken%NULL%1,                               Pasi%Penttinen%NULL%1,                               NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiongfei%Ju%NULL%1,                                Qiaoyun%Fang%NULL%1,                                Jian%Zhang%NULL%1,                                Angao%Xu%NULL%1,                                Lihuan%Liang%NULL%1,                                Changwen%Ke%hzmedicine@163.com%1,                               Xiongfei%Ju%NULL%1,                               Qiaoyun%Fang%NULL%1,                               Jian%Zhang%NULL%1,                               Angao%Xu%NULL%1,                               Lihuan%Liang%NULL%1,                               Changwen%Ke%hzmedicine@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Marie E.%Killerby%lxo9@cdc.gov%1,                                Holly M.%Biggs%NULL%1,                                Amber%Haynes%NULL%1,                                Rebecca M.%Dahl%NULL%1,                                Desiree%Mustaquim%NULL%1,                                Susan I.%Gerber%NULL%1,                                John T.%Watson%NULL%1,                               Marie E.%Killerby%lxo9@cdc.gov%1,                               Holly M.%Biggs%NULL%1,                               Amber%Haynes%NULL%1,                               Rebecca M.%Dahl%NULL%1,                               Desiree%Mustaquim%NULL%1,                               Susan I.%Gerber%NULL%1,                               John T.%Watson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeong‐Min%Kim%NULL%1,                                Hee‐Dong%Jung%NULL%1,                                Hyang‐Min%Cheong%NULL%1,                                Anna%Lee%NULL%1,                                Nam‐Joo%Lee%NULL%1,                                Hyuk%Chu%NULL%1,                                Joo‐Yeon%Lee%NULL%1,                                Sung Soon%Kim%NULL%1,                                Jang‐Hoon%Choi%jhchoi@nih.go.kr%1,                               Jeong‐Min%Kim%NULL%1,                               Hee‐Dong%Jung%NULL%1,                               Hyang‐Min%Cheong%NULL%1,                               Anna%Lee%NULL%1,                               Nam‐Joo%Lee%NULL%1,                               Hyuk%Chu%NULL%1,                               Joo‐Yeon%Lee%NULL%1,                               Sung Soon%Kim%NULL%1,                               Jang‐Hoon%Choi%jhchoi@nih.go.kr%1]</t>
+  </si>
+  <si>
+    <t>[Xuechao%Li%NULL%1,                                Juansheng%Li%lijsh16@163.com%1,                                Lei%Meng%mleicdc@163.com%1,                                Wanqi%Zhu%NULL%1,                                Xinfeng%Liu%NULL%1,                                Mei%Yang%NULL%1,                                Deshan%Yu%NULL%2,                                Lixia%Niu%NULL%1,                                Xiping%Shen%NULL%1,                               Xuechao%Li%NULL%1,                               Juansheng%Li%lijsh16@163.com%1,                               Lei%Meng%mleicdc@163.com%1,                               Wanqi%Zhu%NULL%1,                               Xinfeng%Liu%NULL%1,                               Mei%Yang%NULL%1,                               Deshan%Yu%NULL%2,                               Lixia%Niu%NULL%1,                               Xiping%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christine M.%Litwin%clitwin@gru.edu%1,                                James G.%Bosley%NULL%1,                               Christine M.%Litwin%clitwin@gru.edu%1,                               James G.%Bosley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Richard%Njouom%NULL%1,                                Elsie Laban%Yekwa%NULL%1,                                Pierre%Cappy%NULL%1,                                Astrid%Vabret%NULL%2,                                Pascal%Boisier%NULL%1,                                Dominique%Rousset%NULL%1,                               Richard%Njouom%NULL%1,                               Elsie Laban%Yekwa%NULL%1,                               Pierre%Cappy%NULL%1,                               Astrid%Vabret%NULL%2,                               Pascal%Boisier%NULL%1,                               Dominique%Rousset%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Minna%Paloniemi%NULL%1,                                Suvi%Lappalainen%NULL%1,                                Timo%Vesikari%NULL%1,                               Minna%Paloniemi%NULL%1,                               Suvi%Lappalainen%NULL%1,                               Timo%Vesikari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lili%Ren%NULL%1,                                Richard%Gonzalez%NULL%1,                                Jin%Xu%NULL%1,                                Yan%Xiao%NULL%1,                                Yongjun%Li%NULL%1,                                Hongli%Zhou%NULL%1,                                Jianguo%Li%NULL%1,                                Qingqing%Yang%NULL%1,                                Jing%Zhang%NULL%1,                                Lan%Chen%NULL%1,                                Wei%Wang%NULL%1,                                Guy%Vernet%NULL%1,                                Gláucia%Paranhos‐Baccalà%NULL%1,                                Zhong%Wang%wangzhong523@vip.163.com%1,                                Jianwei%Wang%wangjw28@ipbcams.ac.cn%1,                               Lili%Ren%NULL%1,                               Richard%Gonzalez%NULL%1,                               Jin%Xu%NULL%1,                               Yan%Xiao%NULL%1,                               Yongjun%Li%NULL%1,                               Hongli%Zhou%NULL%1,                               Jianguo%Li%NULL%1,                               Qingqing%Yang%NULL%1,                               Jing%Zhang%NULL%1,                               Lan%Chen%NULL%1,                               Wei%Wang%NULL%1,                               Guy%Vernet%NULL%1,                               Gláucia%Paranhos‐Baccalà%NULL%1,                               Zhong%Wang%wangzhong523@vip.163.com%1,                               Jianwei%Wang%wangjw28@ipbcams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Albert%Jan%coreGivesNoEmail%1,                            Druelle%Valentin%coreGivesNoEmail%1,                            Dyrdak%Robert%coreGivesNoEmail%1,                            Hodcroft%Emma B.%coreGivesNoEmail%1,                            Neher%Richard A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                                Ilada%Thongpan%ilada.cu09@gmail.com%1,                                Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                                Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                                Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                                Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                                Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                                Yong%Poovorawan%yong.p@chula.ac.th%1,                               Rapeepun%Soonnarong%sakura.cu@hotmail.com%1,                               Ilada%Thongpan%ilada.cu09@gmail.com%1,                               Sunchai%Payungporn%sp.medbiochemcu@gmail.com%1,                               Chanpim%Vuthitanachot%viboovut@hotmail.com%1,                               Viboonsuk%Vuthitanachot%viboovut@hotmail.com%1,                               Preeyaporn%Vichiwattana%preeya_teiy@hotmail.com%1,                               Sompong%Vongpunsawad%sompong.vo@chula.ac.th%1,                               Yong%Poovorawan%yong.p@chula.ac.th%1]</t>
+  </si>
+  <si>
+    <t>[S M Iftekhar%Uddin%NULL%1,                                Janet A%Englund%NULL%1,                                Jane Y%Kuypers%NULL%1,                                Helen Y%Chu%NULL%1,                                Mark C%Steinhoff%NULL%1,                                Subarna K%Khatry%NULL%1,                                Steve C%LeClerq%NULL%1,                                James M%Tielsch%NULL%1,                                Luke C%Mullany%NULL%1,                                Laxman%Shrestha%NULL%2,                                Joanne%Katz%jkatz1@jhu.edu%2,                               S M Iftekhar%Uddin%NULL%1,                               Janet A%Englund%NULL%1,                               Jane Y%Kuypers%NULL%1,                               Helen Y%Chu%NULL%1,                               Mark C%Steinhoff%NULL%1,                               Subarna K%Khatry%NULL%1,                               Steve C%LeClerq%NULL%1,                               James M%Tielsch%NULL%1,                               Luke C%Mullany%NULL%1,                               Laxman%Shrestha%NULL%2,                               Joanne%Katz%jkatz1@jhu.edu%2]</t>
+  </si>
+  <si>
+    <t>[Helen Y.%Chu%helenchu@uw.edu%1,                                Joanne%Katz%NULL%0,                                James%Tielsch%NULL%1,                                Subarna K.%Khatry%NULL%1,                                Laxman%Shrestha%NULL%0,                                Steven C.%LeClerq%NULL%1,                                Amalia%Magaret%NULL%1,                                Jane%Kuypers%NULL%1,                                Mark%Steinhoff%NULL%1,                                Janet A.%Englund%NULL%1,                               Helen Y.%Chu%helenchu@uw.edu%1,                               Joanne%Katz%NULL%0,                               James%Tielsch%NULL%1,                               Subarna K.%Khatry%NULL%1,                               Laxman%Shrestha%NULL%0,                               Steven C.%LeClerq%NULL%1,                               Amalia%Magaret%NULL%1,                               Jane%Kuypers%NULL%1,                               Mark%Steinhoff%NULL%1,                               Janet A.%Englund%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lia%van der Hoek%NULL%1,                                Gabriele%Ihorst%NULL%1,                                Klaus%Sure%NULL%1,                                Astrid%Vabret%NULL%0,                                Ronald%Dijkman%NULL%1,                                Michel%de Vries%NULL%1,                                Johannes%Forster%NULL%1,                                Ben%Berkhout%NULL%1,                                Klaus%Uberla%NULL%1,                               Lia%van der Hoek%NULL%1,                               Gabriele%Ihorst%NULL%1,                               Klaus%Sure%NULL%1,                               Astrid%Vabret%NULL%0,                               Ronald%Dijkman%NULL%1,                               Michel%de Vries%NULL%1,                               Johannes%Forster%NULL%1,                               Ben%Berkhout%NULL%1,                               Klaus%Uberla%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Litty%Varghese%NULL%1,                                Philip%Zachariah%pz2177@cumc.columbia.edu%1,                                Celibell%Vargas%NULL%1,                                Philip%LaRussa%NULL%1,                                Ryan T%Demmer%NULL%1,                                Yoko E%Furuya%NULL%1,                                Susan%Whittier%NULL%1,                                Carrie%Reed%NULL%1,                                Melissa S%Stockwell%NULL%1,                                Lisa%Saiman%NULL%1,                               Litty%Varghese%NULL%1,                               Philip%Zachariah%pz2177@cumc.columbia.edu%1,                               Celibell%Vargas%NULL%1,                               Philip%LaRussa%NULL%1,                               Ryan T%Demmer%NULL%1,                               Yoko E%Furuya%NULL%1,                               Susan%Whittier%NULL%1,                               Carrie%Reed%NULL%1,                               Melissa S%Stockwell%NULL%1,                               Lisa%Saiman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marietjie%Venter%marietjiev@nicd.ac.za%1,                                Ria%Lassaunière%NULL%1,                                Tina Louise%Kresfelder%NULL%1,                                Yvette%Westerberg%NULL%1,                                Adele%Visser%NULL%1,                               Marietjie%Venter%marietjiev@nicd.ac.za%1,                               Ria%Lassaunière%NULL%1,                               Tina Louise%Kresfelder%NULL%1,                               Yvette%Westerberg%NULL%1,                               Adele%Visser%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benoit%Visseaux%NULL%1,                                Charles%Burdet%NULL%1,                                Guillaume%Voiriot%NULL%1,                                François-Xavier%Lescure%NULL%1,                                Taous%Chougar%NULL%1,                                Olivier%Brugière%NULL%1,                                Bruno%Crestani%NULL%1,                                Enrique%Casalino%NULL%1,                                Charlotte%Charpentier%NULL%1,                                Diane%Descamps%NULL%1,                                Jean-François%Timsit%NULL%1,                                Yazdan%Yazdanpanah%NULL%1,                                Nadhira%Houhou-Fidouh%NULL%1,                                Dena L.%Schanzer%NULL%1,                               Benoit%Visseaux%NULL%1,                               Charles%Burdet%NULL%1,                               Guillaume%Voiriot%NULL%1,                               François-Xavier%Lescure%NULL%1,                               Taous%Chougar%NULL%1,                               Olivier%Brugière%NULL%1,                               Bruno%Crestani%NULL%1,                               Enrique%Casalino%NULL%1,                               Charlotte%Charpentier%NULL%1,                               Diane%Descamps%NULL%1,                               Jean-François%Timsit%NULL%1,                               Yazdan%Yazdanpanah%NULL%1,                               Nadhira%Houhou-Fidouh%NULL%1,                               Dena L.%Schanzer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guohong%Huang%NULL%1,                                Deshan%Yu%NULL%0,                                Naiying%Mao%NULL%1,                                Zhen%Zhu%NULL%1,                                Hui%Zhang%NULL%1,                                Zhongyi%Jiang%NULL%1,                                Hongyu%Li%NULL%1,                                Yan%Zhang%NULL%1,                                Jing%Shi%NULL%1,                                Shuang%Zhang%NULL%1,                                Xinhua%Wang%NULL%1,                                Wenbo%Xu%NULL%1,                                Dong-Yan%Jin%NULL%1,                               Guohong%Huang%NULL%1,                               Deshan%Yu%NULL%0,                               Naiying%Mao%NULL%1,                               Zhen%Zhu%NULL%1,                               Hui%Zhang%NULL%1,                               Zhongyi%Jiang%NULL%1,                               Hongyu%Li%NULL%1,                               Yan%Zhang%NULL%1,                               Jing%Shi%NULL%1,                               Shuang%Zhang%NULL%1,                               Xinhua%Wang%NULL%1,                               Wenbo%Xu%NULL%1,                               Dong-Yan%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Su-fen%Zhang%NULL%1,                                Jiu-ling%Tuo%NULL%1,                                Xu-bin%Huang%NULL%1,                                Xun%Zhu%NULL%1,                                Ding-mei%Zhang%NULL%1,                                Kai%Zhou%NULL%1,                                Lei%Yuan%NULL%1,                                Hong-jiao%Luo%NULL%1,                                Bo-jian%Zheng%NULL%1,                                Kwok-yung%Yuen%NULL%1,                                Meng-feng%Li%NULL%1,                                Kai-yuan%Cao%NULL%1,                                Lin%Xu%NULL%1,                                Stefan%Pöhlmann%NULL%1,                               Su-fen%Zhang%NULL%1,                               Jiu-ling%Tuo%NULL%1,                               Xu-bin%Huang%NULL%1,                               Xun%Zhu%NULL%1,                               Ding-mei%Zhang%NULL%1,                               Kai%Zhou%NULL%1,                               Lei%Yuan%NULL%1,                               Hong-jiao%Luo%NULL%1,                               Bo-jian%Zheng%NULL%1,                               Kwok-yung%Yuen%NULL%1,                               Meng-feng%Li%NULL%1,                               Kai-yuan%Cao%NULL%1,                               Lin%Xu%NULL%1,                               Stefan%Pöhlmann%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3872,7 +4040,7 @@
         <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>1045</v>
+        <v>1101</v>
       </c>
       <c r="F2" t="s">
         <v>196</v>
@@ -3904,7 +4072,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>1046</v>
+        <v>1102</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3936,7 +4104,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3968,7 +4136,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>1047</v>
+        <v>1103</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -4000,7 +4168,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>1048</v>
+        <v>1104</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -4032,7 +4200,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>1049</v>
+        <v>1105</v>
       </c>
       <c r="F7" t="s">
         <v>73</v>
@@ -4064,7 +4232,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>1050</v>
+        <v>1106</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -4096,7 +4264,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>1051</v>
+        <v>1107</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
@@ -4128,7 +4296,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>1052</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -4160,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4192,7 +4360,7 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>1053</v>
+        <v>1109</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -4224,7 +4392,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>1054</v>
+        <v>1110</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -4256,7 +4424,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>1055</v>
+        <v>1111</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -4288,7 +4456,7 @@
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>1056</v>
+        <v>1112</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -4320,7 +4488,7 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>1057</v>
+        <v>1113</v>
       </c>
       <c r="F16" t="s">
         <v>81</v>
@@ -4352,7 +4520,7 @@
         <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>624</v>
+        <v>692</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -4384,7 +4552,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>625</v>
+        <v>693</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -4416,7 +4584,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>626</v>
+        <v>694</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -4448,7 +4616,7 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>1058</v>
+        <v>1114</v>
       </c>
       <c r="F20" t="s">
         <v>82</v>
@@ -4480,7 +4648,7 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>1059</v>
+        <v>1115</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -4512,7 +4680,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>629</v>
+        <v>697</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
@@ -4544,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>1060</v>
+        <v>1116</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -4576,7 +4744,7 @@
         <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="F24" t="s">
         <v>85</v>
@@ -4608,7 +4776,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>1062</v>
+        <v>1118</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
@@ -4640,7 +4808,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>1063</v>
+        <v>1119</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -4672,7 +4840,7 @@
         <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>1064</v>
+        <v>1120</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -4736,7 +4904,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>1065</v>
+        <v>1121</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -4768,7 +4936,7 @@
         <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>1066</v>
+        <v>1122</v>
       </c>
       <c r="F30" t="s">
         <v>89</v>
@@ -4800,7 +4968,7 @@
         <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>1067</v>
+        <v>1123</v>
       </c>
       <c r="F31" t="s">
         <v>90</v>
@@ -4832,7 +5000,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>1068</v>
+        <v>1124</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -4864,7 +5032,7 @@
         <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>1069</v>
+        <v>1125</v>
       </c>
       <c r="F33" t="s">
         <v>92</v>
@@ -4896,7 +5064,7 @@
         <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>1070</v>
+        <v>1126</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -4928,7 +5096,7 @@
         <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>1071</v>
+        <v>1127</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -4960,7 +5128,7 @@
         <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>1072</v>
+        <v>1128</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
